--- a/Strumenti.xlsx
+++ b/Strumenti.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Public\_Clienti\Maruga\Giochi\Vampiri\Vault\Vampiri\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EC04EFA-456D-4A78-9D4D-123D47459B5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91C6FE9C-1F83-4568-8B27-6A1666CA9DA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12444" yWindow="0" windowWidth="29148" windowHeight="16656" activeTab="1" xr2:uid="{3C69CAEB-EF54-41D7-B74D-5F784B8051C2}"/>
+    <workbookView xWindow="24084" yWindow="1116" windowWidth="29148" windowHeight="15228" xr2:uid="{3C69CAEB-EF54-41D7-B74D-5F784B8051C2}"/>
   </bookViews>
   <sheets>
-    <sheet name="Scheda V3" sheetId="1" r:id="rId1"/>
-    <sheet name="_Brujah" sheetId="14" r:id="rId2"/>
+    <sheet name="_Brujah" sheetId="14" r:id="rId1"/>
+    <sheet name="Scheda V3" sheetId="1" r:id="rId2"/>
     <sheet name="Brujah" sheetId="9" r:id="rId3"/>
     <sheet name="Tempo" sheetId="13" r:id="rId4"/>
     <sheet name="Dadi" sheetId="7" r:id="rId5"/>
@@ -71,7 +71,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2112" uniqueCount="1107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2113" uniqueCount="1107">
   <si>
     <t>Nome</t>
   </si>
@@ -5226,7 +5226,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="234">
+  <cellXfs count="230">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -5811,6 +5811,24 @@
     <xf numFmtId="0" fontId="45" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -5846,36 +5864,6 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -5983,6 +5971,873 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>22860</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>26670</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>530571</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>152888</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="2" name="Gruppo 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{274B1CB6-0B50-4A51-8F3C-DF3CF213AA14}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="5491331" y="6660552"/>
+          <a:ext cx="507711" cy="301030"/>
+          <a:chOff x="4411980" y="6503670"/>
+          <a:chExt cx="507711" cy="301478"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="3" name="Gruppo 2">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4A6707E9-22F0-57DC-36D4-CF160AABD2B7}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="4411980" y="6503670"/>
+            <a:ext cx="507711" cy="124677"/>
+            <a:chOff x="7275647" y="2818048"/>
+            <a:chExt cx="668636" cy="152754"/>
+          </a:xfrm>
+          <a:solidFill>
+            <a:schemeClr val="accent5"/>
+          </a:solidFill>
+        </xdr:grpSpPr>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="10" name="Elemento grafico 9" descr="Acqua contorno">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4144A5E0-AB51-EB1D-0E40-1A52DECFAF94}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr>
+              <a:picLocks noChangeAspect="1"/>
+            </xdr:cNvPicPr>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+              <a:extLst>
+                <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+                  <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+                </a:ext>
+              </a:extLst>
+            </a:blip>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="7275647" y="2818048"/>
+              <a:ext cx="151498" cy="152754"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="11" name="Elemento grafico 10" descr="Acqua contorno">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D8BABF9D-B867-6991-5125-9A008B71956E}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr>
+              <a:picLocks noChangeAspect="1"/>
+            </xdr:cNvPicPr>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+              <a:extLst>
+                <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+                  <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+                </a:ext>
+              </a:extLst>
+            </a:blip>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="7404256" y="2818049"/>
+              <a:ext cx="152399" cy="152399"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="12" name="Elemento grafico 11" descr="Acqua contorno">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FF0859E3-08DE-81E5-0655-8A36958A366E}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr>
+              <a:picLocks noChangeAspect="1"/>
+            </xdr:cNvPicPr>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+              <a:extLst>
+                <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+                  <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+                </a:ext>
+              </a:extLst>
+            </a:blip>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="7533766" y="2818048"/>
+              <a:ext cx="152399" cy="152399"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="13" name="Elemento grafico 12" descr="Acqua contorno">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{12BB8A2C-14A2-7E5C-E431-4A923D99B8D6}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr>
+              <a:picLocks noChangeAspect="1"/>
+            </xdr:cNvPicPr>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+              <a:extLst>
+                <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+                  <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+                </a:ext>
+              </a:extLst>
+            </a:blip>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="7663276" y="2818048"/>
+              <a:ext cx="151497" cy="152399"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="14" name="Elemento grafico 13" descr="Acqua contorno">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{80E03F79-3763-5732-14FC-13716327BCCC}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr>
+              <a:picLocks noChangeAspect="1"/>
+            </xdr:cNvPicPr>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+              <a:extLst>
+                <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+                  <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+                </a:ext>
+              </a:extLst>
+            </a:blip>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="7791884" y="2818048"/>
+              <a:ext cx="152399" cy="152399"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </xdr:grpSp>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="4" name="Gruppo 3">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{80D3E100-4EC3-F5A2-2B93-36AFA9E54453}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="4411980" y="6680471"/>
+            <a:ext cx="507711" cy="124677"/>
+            <a:chOff x="7275647" y="2818048"/>
+            <a:chExt cx="668636" cy="152754"/>
+          </a:xfrm>
+          <a:solidFill>
+            <a:schemeClr val="accent5"/>
+          </a:solidFill>
+        </xdr:grpSpPr>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="5" name="Elemento grafico 4" descr="Acqua contorno">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B1D3ADA3-1F02-BCB2-ED6D-C3E6AF0D5847}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr>
+              <a:picLocks noChangeAspect="1"/>
+            </xdr:cNvPicPr>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+              <a:extLst>
+                <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+                  <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+                </a:ext>
+              </a:extLst>
+            </a:blip>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="7275647" y="2818048"/>
+              <a:ext cx="151498" cy="152754"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="6" name="Elemento grafico 5" descr="Acqua contorno">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{73D034DB-647F-6E76-D69D-2569D97F128B}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr>
+              <a:picLocks noChangeAspect="1"/>
+            </xdr:cNvPicPr>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+              <a:extLst>
+                <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+                  <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+                </a:ext>
+              </a:extLst>
+            </a:blip>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="7404256" y="2818049"/>
+              <a:ext cx="152399" cy="152399"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="7" name="Elemento grafico 6" descr="Acqua contorno">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DA2F2EDA-010C-ECFD-7E12-ED919A873A6E}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr>
+              <a:picLocks noChangeAspect="1"/>
+            </xdr:cNvPicPr>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+              <a:extLst>
+                <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+                  <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+                </a:ext>
+              </a:extLst>
+            </a:blip>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="7533766" y="2818048"/>
+              <a:ext cx="152399" cy="152399"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="8" name="Elemento grafico 7" descr="Acqua contorno">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{972AAA31-AC92-5EFA-91AB-01742B427956}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr>
+              <a:picLocks noChangeAspect="1"/>
+            </xdr:cNvPicPr>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+              <a:extLst>
+                <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+                  <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+                </a:ext>
+              </a:extLst>
+            </a:blip>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="7663276" y="2818048"/>
+              <a:ext cx="151497" cy="152399"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="9" name="Elemento grafico 8" descr="Acqua contorno">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1DEB3756-83E6-C89D-0778-6FC6AC361FD8}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr>
+              <a:picLocks noChangeAspect="1"/>
+            </xdr:cNvPicPr>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+              <a:extLst>
+                <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+                  <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+                </a:ext>
+              </a:extLst>
+            </a:blip>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="7791884" y="2818048"/>
+              <a:ext cx="152399" cy="152399"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </xdr:grpSp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>26670</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>26670</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>534381</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>152888</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="15" name="Gruppo 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1BE391C9-44B1-41ED-86DD-9A848FE5BED2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="6041988" y="6660552"/>
+          <a:ext cx="507711" cy="301030"/>
+          <a:chOff x="4411980" y="6503670"/>
+          <a:chExt cx="507711" cy="301478"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="16" name="Gruppo 15">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1DC53ECF-1A31-0BD5-777B-6EEEA25ED18E}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="4411980" y="6503670"/>
+            <a:ext cx="507711" cy="124677"/>
+            <a:chOff x="7275647" y="2818048"/>
+            <a:chExt cx="668636" cy="152754"/>
+          </a:xfrm>
+          <a:solidFill>
+            <a:schemeClr val="accent5"/>
+          </a:solidFill>
+        </xdr:grpSpPr>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="23" name="Elemento grafico 22" descr="Acqua contorno">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D068CE76-CD21-49D4-25CB-B261052F7212}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr>
+              <a:picLocks noChangeAspect="1"/>
+            </xdr:cNvPicPr>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+              <a:extLst>
+                <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+                  <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+                </a:ext>
+              </a:extLst>
+            </a:blip>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="7275647" y="2818048"/>
+              <a:ext cx="151498" cy="152754"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="24" name="Elemento grafico 23" descr="Acqua contorno">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7F448629-9FB0-A3A3-E057-4AD22DE8B994}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr>
+              <a:picLocks noChangeAspect="1"/>
+            </xdr:cNvPicPr>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+              <a:extLst>
+                <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+                  <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+                </a:ext>
+              </a:extLst>
+            </a:blip>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="7404256" y="2818049"/>
+              <a:ext cx="152399" cy="152399"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="25" name="Elemento grafico 24" descr="Acqua contorno">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{296639A3-7C47-6321-3FC7-A88C8F03F26B}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr>
+              <a:picLocks noChangeAspect="1"/>
+            </xdr:cNvPicPr>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+              <a:extLst>
+                <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+                  <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+                </a:ext>
+              </a:extLst>
+            </a:blip>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="7533766" y="2818048"/>
+              <a:ext cx="152399" cy="152399"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="26" name="Elemento grafico 25" descr="Acqua contorno">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{63B1996C-13FD-4750-6D74-4011C04B64C9}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr>
+              <a:picLocks noChangeAspect="1"/>
+            </xdr:cNvPicPr>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+              <a:extLst>
+                <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+                  <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+                </a:ext>
+              </a:extLst>
+            </a:blip>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="7663276" y="2818048"/>
+              <a:ext cx="151497" cy="152399"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="27" name="Elemento grafico 26" descr="Acqua contorno">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{51BCA845-D321-57F8-41D5-0A812CCC433B}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr>
+              <a:picLocks noChangeAspect="1"/>
+            </xdr:cNvPicPr>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+              <a:extLst>
+                <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+                  <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+                </a:ext>
+              </a:extLst>
+            </a:blip>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="7791884" y="2818048"/>
+              <a:ext cx="152399" cy="152399"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </xdr:grpSp>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="17" name="Gruppo 16">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F74B6768-16F6-EC71-2FCA-A91204579413}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="4411980" y="6680471"/>
+            <a:ext cx="507711" cy="124677"/>
+            <a:chOff x="7275647" y="2818048"/>
+            <a:chExt cx="668636" cy="152754"/>
+          </a:xfrm>
+          <a:solidFill>
+            <a:schemeClr val="accent5"/>
+          </a:solidFill>
+        </xdr:grpSpPr>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="18" name="Elemento grafico 17" descr="Acqua contorno">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{30253DC9-C731-9920-1C9B-833D7316F15F}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr>
+              <a:picLocks noChangeAspect="1"/>
+            </xdr:cNvPicPr>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+              <a:extLst>
+                <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+                  <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+                </a:ext>
+              </a:extLst>
+            </a:blip>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="7275647" y="2818048"/>
+              <a:ext cx="151498" cy="152754"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="19" name="Elemento grafico 18" descr="Acqua contorno">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F195768D-EC6B-F58B-90C1-69A051394086}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr>
+              <a:picLocks noChangeAspect="1"/>
+            </xdr:cNvPicPr>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+              <a:extLst>
+                <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+                  <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+                </a:ext>
+              </a:extLst>
+            </a:blip>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="7404256" y="2818049"/>
+              <a:ext cx="152399" cy="152399"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="20" name="Elemento grafico 19" descr="Acqua contorno">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DE84205B-01CA-6E30-490D-C9441C0F3EC7}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr>
+              <a:picLocks noChangeAspect="1"/>
+            </xdr:cNvPicPr>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+              <a:extLst>
+                <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+                  <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+                </a:ext>
+              </a:extLst>
+            </a:blip>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="7533766" y="2818048"/>
+              <a:ext cx="152399" cy="152399"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="21" name="Elemento grafico 20" descr="Acqua contorno">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{98282BA8-3C4C-6413-E693-24A8FDD3B20D}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr>
+              <a:picLocks noChangeAspect="1"/>
+            </xdr:cNvPicPr>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+              <a:extLst>
+                <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+                  <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+                </a:ext>
+              </a:extLst>
+            </a:blip>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="7663276" y="2818048"/>
+              <a:ext cx="151497" cy="152399"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="22" name="Elemento grafico 21" descr="Acqua contorno">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CDC0A6B7-9305-198D-223A-0AAAA9F463CE}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr>
+              <a:picLocks noChangeAspect="1"/>
+            </xdr:cNvPicPr>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+              <a:extLst>
+                <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+                  <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+                </a:ext>
+              </a:extLst>
+            </a:blip>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="7791884" y="2818048"/>
+              <a:ext cx="152399" cy="152399"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </xdr:grpSp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>22860</xdr:colOff>
       <xdr:row>37</xdr:row>
       <xdr:rowOff>26670</xdr:rowOff>
     </xdr:from>
@@ -6808,873 +7663,6 @@
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
                   <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FDB76FE8-DC4E-60D5-716E-10803E13E3B4}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvPicPr>
-              <a:picLocks noChangeAspect="1"/>
-            </xdr:cNvPicPr>
-          </xdr:nvPicPr>
-          <xdr:blipFill>
-            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-              <a:extLst>
-                <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-                  <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
-                </a:ext>
-              </a:extLst>
-            </a:blip>
-            <a:stretch>
-              <a:fillRect/>
-            </a:stretch>
-          </xdr:blipFill>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="7791884" y="2818048"/>
-              <a:ext cx="152399" cy="152399"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-        </xdr:pic>
-      </xdr:grpSp>
-    </xdr:grpSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>22860</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>26670</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>530571</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>152888</xdr:rowOff>
-    </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="2" name="Gruppo 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{274B1CB6-0B50-4A51-8F3C-DF3CF213AA14}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
-        <a:xfrm>
-          <a:off x="5491331" y="6485741"/>
-          <a:ext cx="507711" cy="301029"/>
-          <a:chOff x="4411980" y="6503670"/>
-          <a:chExt cx="507711" cy="301478"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:grpSp>
-        <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="3" name="Gruppo 2">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4A6707E9-22F0-57DC-36D4-CF160AABD2B7}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvGrpSpPr/>
-        </xdr:nvGrpSpPr>
-        <xdr:grpSpPr>
-          <a:xfrm>
-            <a:off x="4411980" y="6503670"/>
-            <a:ext cx="507711" cy="124677"/>
-            <a:chOff x="7275647" y="2818048"/>
-            <a:chExt cx="668636" cy="152754"/>
-          </a:xfrm>
-          <a:solidFill>
-            <a:schemeClr val="accent5"/>
-          </a:solidFill>
-        </xdr:grpSpPr>
-        <xdr:pic>
-          <xdr:nvPicPr>
-            <xdr:cNvPr id="10" name="Elemento grafico 9" descr="Acqua contorno">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4144A5E0-AB51-EB1D-0E40-1A52DECFAF94}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvPicPr>
-              <a:picLocks noChangeAspect="1"/>
-            </xdr:cNvPicPr>
-          </xdr:nvPicPr>
-          <xdr:blipFill>
-            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-              <a:extLst>
-                <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-                  <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
-                </a:ext>
-              </a:extLst>
-            </a:blip>
-            <a:stretch>
-              <a:fillRect/>
-            </a:stretch>
-          </xdr:blipFill>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="7275647" y="2818048"/>
-              <a:ext cx="151498" cy="152754"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-        </xdr:pic>
-        <xdr:pic>
-          <xdr:nvPicPr>
-            <xdr:cNvPr id="11" name="Elemento grafico 10" descr="Acqua contorno">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D8BABF9D-B867-6991-5125-9A008B71956E}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvPicPr>
-              <a:picLocks noChangeAspect="1"/>
-            </xdr:cNvPicPr>
-          </xdr:nvPicPr>
-          <xdr:blipFill>
-            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-              <a:extLst>
-                <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-                  <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
-                </a:ext>
-              </a:extLst>
-            </a:blip>
-            <a:stretch>
-              <a:fillRect/>
-            </a:stretch>
-          </xdr:blipFill>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="7404256" y="2818049"/>
-              <a:ext cx="152399" cy="152399"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-        </xdr:pic>
-        <xdr:pic>
-          <xdr:nvPicPr>
-            <xdr:cNvPr id="12" name="Elemento grafico 11" descr="Acqua contorno">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FF0859E3-08DE-81E5-0655-8A36958A366E}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvPicPr>
-              <a:picLocks noChangeAspect="1"/>
-            </xdr:cNvPicPr>
-          </xdr:nvPicPr>
-          <xdr:blipFill>
-            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-              <a:extLst>
-                <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-                  <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
-                </a:ext>
-              </a:extLst>
-            </a:blip>
-            <a:stretch>
-              <a:fillRect/>
-            </a:stretch>
-          </xdr:blipFill>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="7533766" y="2818048"/>
-              <a:ext cx="152399" cy="152399"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-        </xdr:pic>
-        <xdr:pic>
-          <xdr:nvPicPr>
-            <xdr:cNvPr id="13" name="Elemento grafico 12" descr="Acqua contorno">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{12BB8A2C-14A2-7E5C-E431-4A923D99B8D6}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvPicPr>
-              <a:picLocks noChangeAspect="1"/>
-            </xdr:cNvPicPr>
-          </xdr:nvPicPr>
-          <xdr:blipFill>
-            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-              <a:extLst>
-                <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-                  <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
-                </a:ext>
-              </a:extLst>
-            </a:blip>
-            <a:stretch>
-              <a:fillRect/>
-            </a:stretch>
-          </xdr:blipFill>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="7663276" y="2818048"/>
-              <a:ext cx="151497" cy="152399"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-        </xdr:pic>
-        <xdr:pic>
-          <xdr:nvPicPr>
-            <xdr:cNvPr id="14" name="Elemento grafico 13" descr="Acqua contorno">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{80E03F79-3763-5732-14FC-13716327BCCC}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvPicPr>
-              <a:picLocks noChangeAspect="1"/>
-            </xdr:cNvPicPr>
-          </xdr:nvPicPr>
-          <xdr:blipFill>
-            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-              <a:extLst>
-                <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-                  <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
-                </a:ext>
-              </a:extLst>
-            </a:blip>
-            <a:stretch>
-              <a:fillRect/>
-            </a:stretch>
-          </xdr:blipFill>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="7791884" y="2818048"/>
-              <a:ext cx="152399" cy="152399"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-        </xdr:pic>
-      </xdr:grpSp>
-      <xdr:grpSp>
-        <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="4" name="Gruppo 3">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{80D3E100-4EC3-F5A2-2B93-36AFA9E54453}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvGrpSpPr/>
-        </xdr:nvGrpSpPr>
-        <xdr:grpSpPr>
-          <a:xfrm>
-            <a:off x="4411980" y="6680471"/>
-            <a:ext cx="507711" cy="124677"/>
-            <a:chOff x="7275647" y="2818048"/>
-            <a:chExt cx="668636" cy="152754"/>
-          </a:xfrm>
-          <a:solidFill>
-            <a:schemeClr val="accent5"/>
-          </a:solidFill>
-        </xdr:grpSpPr>
-        <xdr:pic>
-          <xdr:nvPicPr>
-            <xdr:cNvPr id="5" name="Elemento grafico 4" descr="Acqua contorno">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B1D3ADA3-1F02-BCB2-ED6D-C3E6AF0D5847}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvPicPr>
-              <a:picLocks noChangeAspect="1"/>
-            </xdr:cNvPicPr>
-          </xdr:nvPicPr>
-          <xdr:blipFill>
-            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-              <a:extLst>
-                <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-                  <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
-                </a:ext>
-              </a:extLst>
-            </a:blip>
-            <a:stretch>
-              <a:fillRect/>
-            </a:stretch>
-          </xdr:blipFill>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="7275647" y="2818048"/>
-              <a:ext cx="151498" cy="152754"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-        </xdr:pic>
-        <xdr:pic>
-          <xdr:nvPicPr>
-            <xdr:cNvPr id="6" name="Elemento grafico 5" descr="Acqua contorno">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{73D034DB-647F-6E76-D69D-2569D97F128B}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvPicPr>
-              <a:picLocks noChangeAspect="1"/>
-            </xdr:cNvPicPr>
-          </xdr:nvPicPr>
-          <xdr:blipFill>
-            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-              <a:extLst>
-                <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-                  <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
-                </a:ext>
-              </a:extLst>
-            </a:blip>
-            <a:stretch>
-              <a:fillRect/>
-            </a:stretch>
-          </xdr:blipFill>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="7404256" y="2818049"/>
-              <a:ext cx="152399" cy="152399"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-        </xdr:pic>
-        <xdr:pic>
-          <xdr:nvPicPr>
-            <xdr:cNvPr id="7" name="Elemento grafico 6" descr="Acqua contorno">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DA2F2EDA-010C-ECFD-7E12-ED919A873A6E}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvPicPr>
-              <a:picLocks noChangeAspect="1"/>
-            </xdr:cNvPicPr>
-          </xdr:nvPicPr>
-          <xdr:blipFill>
-            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-              <a:extLst>
-                <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-                  <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
-                </a:ext>
-              </a:extLst>
-            </a:blip>
-            <a:stretch>
-              <a:fillRect/>
-            </a:stretch>
-          </xdr:blipFill>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="7533766" y="2818048"/>
-              <a:ext cx="152399" cy="152399"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-        </xdr:pic>
-        <xdr:pic>
-          <xdr:nvPicPr>
-            <xdr:cNvPr id="8" name="Elemento grafico 7" descr="Acqua contorno">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{972AAA31-AC92-5EFA-91AB-01742B427956}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvPicPr>
-              <a:picLocks noChangeAspect="1"/>
-            </xdr:cNvPicPr>
-          </xdr:nvPicPr>
-          <xdr:blipFill>
-            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-              <a:extLst>
-                <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-                  <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
-                </a:ext>
-              </a:extLst>
-            </a:blip>
-            <a:stretch>
-              <a:fillRect/>
-            </a:stretch>
-          </xdr:blipFill>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="7663276" y="2818048"/>
-              <a:ext cx="151497" cy="152399"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-        </xdr:pic>
-        <xdr:pic>
-          <xdr:nvPicPr>
-            <xdr:cNvPr id="9" name="Elemento grafico 8" descr="Acqua contorno">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1DEB3756-83E6-C89D-0778-6FC6AC361FD8}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvPicPr>
-              <a:picLocks noChangeAspect="1"/>
-            </xdr:cNvPicPr>
-          </xdr:nvPicPr>
-          <xdr:blipFill>
-            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-              <a:extLst>
-                <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-                  <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
-                </a:ext>
-              </a:extLst>
-            </a:blip>
-            <a:stretch>
-              <a:fillRect/>
-            </a:stretch>
-          </xdr:blipFill>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="7791884" y="2818048"/>
-              <a:ext cx="152399" cy="152399"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-        </xdr:pic>
-      </xdr:grpSp>
-    </xdr:grpSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>26670</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>26670</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>534381</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>152888</xdr:rowOff>
-    </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="15" name="Gruppo 14">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1BE391C9-44B1-41ED-86DD-9A848FE5BED2}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
-        <a:xfrm>
-          <a:off x="6041988" y="6485741"/>
-          <a:ext cx="507711" cy="301029"/>
-          <a:chOff x="4411980" y="6503670"/>
-          <a:chExt cx="507711" cy="301478"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:grpSp>
-        <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="16" name="Gruppo 15">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1DC53ECF-1A31-0BD5-777B-6EEEA25ED18E}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvGrpSpPr/>
-        </xdr:nvGrpSpPr>
-        <xdr:grpSpPr>
-          <a:xfrm>
-            <a:off x="4411980" y="6503670"/>
-            <a:ext cx="507711" cy="124677"/>
-            <a:chOff x="7275647" y="2818048"/>
-            <a:chExt cx="668636" cy="152754"/>
-          </a:xfrm>
-          <a:solidFill>
-            <a:schemeClr val="accent5"/>
-          </a:solidFill>
-        </xdr:grpSpPr>
-        <xdr:pic>
-          <xdr:nvPicPr>
-            <xdr:cNvPr id="23" name="Elemento grafico 22" descr="Acqua contorno">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D068CE76-CD21-49D4-25CB-B261052F7212}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvPicPr>
-              <a:picLocks noChangeAspect="1"/>
-            </xdr:cNvPicPr>
-          </xdr:nvPicPr>
-          <xdr:blipFill>
-            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-              <a:extLst>
-                <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-                  <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
-                </a:ext>
-              </a:extLst>
-            </a:blip>
-            <a:stretch>
-              <a:fillRect/>
-            </a:stretch>
-          </xdr:blipFill>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="7275647" y="2818048"/>
-              <a:ext cx="151498" cy="152754"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-        </xdr:pic>
-        <xdr:pic>
-          <xdr:nvPicPr>
-            <xdr:cNvPr id="24" name="Elemento grafico 23" descr="Acqua contorno">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7F448629-9FB0-A3A3-E057-4AD22DE8B994}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvPicPr>
-              <a:picLocks noChangeAspect="1"/>
-            </xdr:cNvPicPr>
-          </xdr:nvPicPr>
-          <xdr:blipFill>
-            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-              <a:extLst>
-                <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-                  <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
-                </a:ext>
-              </a:extLst>
-            </a:blip>
-            <a:stretch>
-              <a:fillRect/>
-            </a:stretch>
-          </xdr:blipFill>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="7404256" y="2818049"/>
-              <a:ext cx="152399" cy="152399"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-        </xdr:pic>
-        <xdr:pic>
-          <xdr:nvPicPr>
-            <xdr:cNvPr id="25" name="Elemento grafico 24" descr="Acqua contorno">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{296639A3-7C47-6321-3FC7-A88C8F03F26B}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvPicPr>
-              <a:picLocks noChangeAspect="1"/>
-            </xdr:cNvPicPr>
-          </xdr:nvPicPr>
-          <xdr:blipFill>
-            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-              <a:extLst>
-                <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-                  <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
-                </a:ext>
-              </a:extLst>
-            </a:blip>
-            <a:stretch>
-              <a:fillRect/>
-            </a:stretch>
-          </xdr:blipFill>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="7533766" y="2818048"/>
-              <a:ext cx="152399" cy="152399"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-        </xdr:pic>
-        <xdr:pic>
-          <xdr:nvPicPr>
-            <xdr:cNvPr id="26" name="Elemento grafico 25" descr="Acqua contorno">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{63B1996C-13FD-4750-6D74-4011C04B64C9}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvPicPr>
-              <a:picLocks noChangeAspect="1"/>
-            </xdr:cNvPicPr>
-          </xdr:nvPicPr>
-          <xdr:blipFill>
-            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-              <a:extLst>
-                <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-                  <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
-                </a:ext>
-              </a:extLst>
-            </a:blip>
-            <a:stretch>
-              <a:fillRect/>
-            </a:stretch>
-          </xdr:blipFill>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="7663276" y="2818048"/>
-              <a:ext cx="151497" cy="152399"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-        </xdr:pic>
-        <xdr:pic>
-          <xdr:nvPicPr>
-            <xdr:cNvPr id="27" name="Elemento grafico 26" descr="Acqua contorno">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{51BCA845-D321-57F8-41D5-0A812CCC433B}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvPicPr>
-              <a:picLocks noChangeAspect="1"/>
-            </xdr:cNvPicPr>
-          </xdr:nvPicPr>
-          <xdr:blipFill>
-            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-              <a:extLst>
-                <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-                  <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
-                </a:ext>
-              </a:extLst>
-            </a:blip>
-            <a:stretch>
-              <a:fillRect/>
-            </a:stretch>
-          </xdr:blipFill>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="7791884" y="2818048"/>
-              <a:ext cx="152399" cy="152399"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-        </xdr:pic>
-      </xdr:grpSp>
-      <xdr:grpSp>
-        <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="17" name="Gruppo 16">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F74B6768-16F6-EC71-2FCA-A91204579413}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvGrpSpPr/>
-        </xdr:nvGrpSpPr>
-        <xdr:grpSpPr>
-          <a:xfrm>
-            <a:off x="4411980" y="6680471"/>
-            <a:ext cx="507711" cy="124677"/>
-            <a:chOff x="7275647" y="2818048"/>
-            <a:chExt cx="668636" cy="152754"/>
-          </a:xfrm>
-          <a:solidFill>
-            <a:schemeClr val="accent5"/>
-          </a:solidFill>
-        </xdr:grpSpPr>
-        <xdr:pic>
-          <xdr:nvPicPr>
-            <xdr:cNvPr id="18" name="Elemento grafico 17" descr="Acqua contorno">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{30253DC9-C731-9920-1C9B-833D7316F15F}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvPicPr>
-              <a:picLocks noChangeAspect="1"/>
-            </xdr:cNvPicPr>
-          </xdr:nvPicPr>
-          <xdr:blipFill>
-            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-              <a:extLst>
-                <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-                  <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
-                </a:ext>
-              </a:extLst>
-            </a:blip>
-            <a:stretch>
-              <a:fillRect/>
-            </a:stretch>
-          </xdr:blipFill>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="7275647" y="2818048"/>
-              <a:ext cx="151498" cy="152754"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-        </xdr:pic>
-        <xdr:pic>
-          <xdr:nvPicPr>
-            <xdr:cNvPr id="19" name="Elemento grafico 18" descr="Acqua contorno">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F195768D-EC6B-F58B-90C1-69A051394086}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvPicPr>
-              <a:picLocks noChangeAspect="1"/>
-            </xdr:cNvPicPr>
-          </xdr:nvPicPr>
-          <xdr:blipFill>
-            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-              <a:extLst>
-                <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-                  <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
-                </a:ext>
-              </a:extLst>
-            </a:blip>
-            <a:stretch>
-              <a:fillRect/>
-            </a:stretch>
-          </xdr:blipFill>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="7404256" y="2818049"/>
-              <a:ext cx="152399" cy="152399"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-        </xdr:pic>
-        <xdr:pic>
-          <xdr:nvPicPr>
-            <xdr:cNvPr id="20" name="Elemento grafico 19" descr="Acqua contorno">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DE84205B-01CA-6E30-490D-C9441C0F3EC7}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvPicPr>
-              <a:picLocks noChangeAspect="1"/>
-            </xdr:cNvPicPr>
-          </xdr:nvPicPr>
-          <xdr:blipFill>
-            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-              <a:extLst>
-                <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-                  <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
-                </a:ext>
-              </a:extLst>
-            </a:blip>
-            <a:stretch>
-              <a:fillRect/>
-            </a:stretch>
-          </xdr:blipFill>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="7533766" y="2818048"/>
-              <a:ext cx="152399" cy="152399"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-        </xdr:pic>
-        <xdr:pic>
-          <xdr:nvPicPr>
-            <xdr:cNvPr id="21" name="Elemento grafico 20" descr="Acqua contorno">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{98282BA8-3C4C-6413-E693-24A8FDD3B20D}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvPicPr>
-              <a:picLocks noChangeAspect="1"/>
-            </xdr:cNvPicPr>
-          </xdr:nvPicPr>
-          <xdr:blipFill>
-            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-              <a:extLst>
-                <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-                  <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
-                </a:ext>
-              </a:extLst>
-            </a:blip>
-            <a:stretch>
-              <a:fillRect/>
-            </a:stretch>
-          </xdr:blipFill>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="7663276" y="2818048"/>
-              <a:ext cx="151497" cy="152399"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-        </xdr:pic>
-        <xdr:pic>
-          <xdr:nvPicPr>
-            <xdr:cNvPr id="22" name="Elemento grafico 21" descr="Acqua contorno">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CDC0A6B7-9305-198D-223A-0AAAA9F463CE}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -19158,12 +19146,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9F6B7E5-20DC-4256-8C7B-E01845B2F220}">
-  <sheetPr codeName="Foglio2"/>
-  <dimension ref="A1:L175"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB020AF3-E2AF-4B08-9CF1-A8BB16CCBDFC}">
+  <dimension ref="A1:L225"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="I40" sqref="I40"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
@@ -19186,7 +19173,7 @@
         <v>5</v>
       </c>
       <c r="G1" s="54" t="s">
-        <v>62</v>
+        <v>1070</v>
       </c>
       <c r="H1" s="151" t="s">
         <v>173</v>
@@ -19196,8 +19183,8 @@
       </c>
       <c r="J1" s="100"/>
       <c r="K1" s="61"/>
-      <c r="L1" s="174" t="s">
-        <v>128</v>
+      <c r="L1" s="210" t="s">
+        <v>1051</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
@@ -19205,16 +19192,16 @@
         <v>0</v>
       </c>
       <c r="B3" s="57" t="s">
-        <v>428</v>
+        <v>1046</v>
       </c>
       <c r="E3" s="156" t="s">
         <v>2</v>
       </c>
       <c r="F3" s="152" t="s">
-        <v>431</v>
+        <v>537</v>
       </c>
       <c r="H3" s="55" t="s">
-        <v>432</v>
+        <v>1047</v>
       </c>
       <c r="K3" s="57"/>
     </row>
@@ -19223,16 +19210,10 @@
         <v>343</v>
       </c>
       <c r="B4" s="57" t="s">
-        <v>125</v>
-      </c>
-      <c r="E4" s="156" t="s">
-        <v>3</v>
-      </c>
-      <c r="F4" s="152" t="s">
-        <v>430</v>
+        <v>1074</v>
       </c>
       <c r="H4" s="55" t="s">
-        <v>433</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
@@ -19240,102 +19221,125 @@
         <v>4</v>
       </c>
       <c r="B5" s="152" t="s">
-        <v>429</v>
-      </c>
-      <c r="E5" s="156" t="s">
+        <v>502</v>
+      </c>
+      <c r="E5" s="211" t="s">
+        <v>3</v>
+      </c>
+      <c r="F5" s="139" t="s">
+        <v>538</v>
+      </c>
+      <c r="G5" s="85"/>
+      <c r="H5" s="140" t="s">
+        <v>1049</v>
+      </c>
+      <c r="I5" s="85"/>
+      <c r="J5" s="85"/>
+      <c r="K5" s="131"/>
+      <c r="L5" s="85"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A6" s="156" t="s">
         <v>69</v>
       </c>
-      <c r="F5" s="57" t="s">
+      <c r="B6" s="57" t="s">
         <v>126</v>
       </c>
-      <c r="H5" s="55"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="F7" s="72" t="s">
+      <c r="H6" s="55" t="s">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F8" s="72" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="72" t="s">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B9" s="72" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="73"/>
-      <c r="D8" s="73"/>
-      <c r="E8" s="73"/>
-      <c r="F8" s="72" t="s">
+      <c r="C9" s="73"/>
+      <c r="D9" s="73"/>
+      <c r="E9" s="73"/>
+      <c r="F9" s="72" t="s">
         <v>9</v>
       </c>
-      <c r="G8" s="73"/>
-      <c r="H8" s="73"/>
-      <c r="I8" s="73"/>
-      <c r="J8" s="72" t="s">
+      <c r="G9" s="73"/>
+      <c r="H9" s="73"/>
+      <c r="I9" s="73"/>
+      <c r="J9" s="72" t="s">
         <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A9" s="165" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" s="63" t="s">
-        <v>434</v>
-      </c>
-      <c r="D9" s="164">
-        <v>4</v>
-      </c>
-      <c r="E9" s="165" t="s">
-        <v>12</v>
-      </c>
-      <c r="H9" s="163">
-        <v>2</v>
-      </c>
-      <c r="I9" s="165" t="s">
-        <v>13</v>
-      </c>
-      <c r="L9" s="163">
-        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" s="165" t="s">
-        <v>14</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="B10" s="80"/>
       <c r="D10" s="163">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E10" s="165" t="s">
-        <v>16</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="F10" s="80"/>
       <c r="H10" s="163">
         <v>3</v>
       </c>
       <c r="I10" s="165" t="s">
-        <v>18</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="J10" s="80"/>
       <c r="L10" s="163">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" s="165" t="s">
-        <v>15</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="B11" s="80"/>
       <c r="D11" s="163">
         <v>2</v>
       </c>
       <c r="E11" s="165" t="s">
+        <v>16</v>
+      </c>
+      <c r="F11" s="80"/>
+      <c r="H11" s="163">
+        <v>2</v>
+      </c>
+      <c r="I11" s="165" t="s">
+        <v>18</v>
+      </c>
+      <c r="J11" s="80"/>
+      <c r="L11" s="163">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A12" s="165" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" s="80"/>
+      <c r="D12" s="163">
+        <v>3</v>
+      </c>
+      <c r="E12" s="165" t="s">
         <v>17</v>
       </c>
-      <c r="H11" s="163">
-        <v>1</v>
-      </c>
-      <c r="I11" s="165" t="s">
+      <c r="F12" s="80" t="s">
+        <v>543</v>
+      </c>
+      <c r="H12" s="163">
+        <v>5</v>
+      </c>
+      <c r="I12" s="165" t="s">
         <v>19</v>
       </c>
-      <c r="J11" s="63" t="s">
-        <v>435</v>
-      </c>
-      <c r="L11" s="164">
-        <v>4</v>
+      <c r="J12" s="80"/>
+      <c r="L12" s="163">
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
@@ -19369,12 +19373,14 @@
       <c r="A16" s="154" t="s">
         <v>23</v>
       </c>
+      <c r="B16" s="80"/>
       <c r="D16" s="163">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E16" s="154" t="s">
         <v>438</v>
       </c>
+      <c r="F16" s="80"/>
       <c r="G16" s="54"/>
       <c r="H16" s="163">
         <v>0</v>
@@ -19382,48 +19388,57 @@
       <c r="I16" s="154" t="s">
         <v>31</v>
       </c>
+      <c r="J16" s="111" t="s">
+        <v>1052</v>
+      </c>
       <c r="L16" s="163">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" s="154" t="s">
         <v>32</v>
       </c>
+      <c r="B17" s="80"/>
       <c r="D17" s="163">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E17" s="154" t="s">
         <v>33</v>
       </c>
+      <c r="F17" s="80"/>
       <c r="G17" s="54"/>
       <c r="H17" s="163">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I17" s="154" t="s">
         <v>34</v>
       </c>
+      <c r="J17" s="80"/>
       <c r="L17" s="163">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" s="154" t="s">
         <v>436</v>
       </c>
+      <c r="B18" s="80"/>
       <c r="D18" s="163">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E18" s="154" t="s">
         <v>437</v>
       </c>
+      <c r="F18" s="80"/>
       <c r="G18" s="54"/>
       <c r="H18" s="163">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I18" s="154" t="s">
         <v>36</v>
       </c>
+      <c r="J18" s="80"/>
       <c r="L18" s="163">
         <v>0</v>
       </c>
@@ -19432,61 +19447,70 @@
       <c r="A19" s="154" t="s">
         <v>26</v>
       </c>
+      <c r="B19" s="80"/>
       <c r="D19" s="163">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E19" s="154" t="s">
         <v>38</v>
       </c>
+      <c r="F19" s="80"/>
       <c r="G19" s="54"/>
       <c r="H19" s="163">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I19" s="154" t="s">
         <v>45</v>
       </c>
+      <c r="J19" s="80"/>
       <c r="L19" s="163">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20" s="154" t="s">
         <v>27</v>
       </c>
+      <c r="B20" s="80"/>
       <c r="D20" s="163">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E20" s="154" t="s">
         <v>39</v>
       </c>
+      <c r="F20" s="80"/>
       <c r="G20" s="54"/>
       <c r="H20" s="163">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I20" s="154" t="s">
         <v>46</v>
       </c>
+      <c r="J20" s="80"/>
       <c r="L20" s="163">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21" s="154" t="s">
         <v>28</v>
       </c>
+      <c r="B21" s="80"/>
       <c r="D21" s="163">
         <v>2</v>
       </c>
       <c r="E21" s="154" t="s">
         <v>40</v>
       </c>
+      <c r="F21" s="80"/>
       <c r="G21" s="54"/>
       <c r="H21" s="163">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I21" s="154" t="s">
         <v>47</v>
       </c>
+      <c r="J21" s="80"/>
       <c r="L21" s="163">
         <v>0</v>
       </c>
@@ -19495,15 +19519,14 @@
       <c r="A22" s="154" t="s">
         <v>24</v>
       </c>
-      <c r="B22" s="80" t="s">
-        <v>439</v>
-      </c>
-      <c r="D22" s="164">
-        <v>4</v>
+      <c r="B22" s="80"/>
+      <c r="D22" s="163">
+        <v>1</v>
       </c>
       <c r="E22" s="154" t="s">
         <v>41</v>
       </c>
+      <c r="F22" s="80"/>
       <c r="G22" s="54"/>
       <c r="H22" s="163">
         <v>0</v>
@@ -19511,41 +19534,47 @@
       <c r="I22" s="154" t="s">
         <v>48</v>
       </c>
+      <c r="J22" s="80"/>
       <c r="L22" s="163">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A23" s="154" t="s">
         <v>1045</v>
       </c>
+      <c r="B23" s="80"/>
       <c r="D23" s="163">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E23" s="154" t="s">
         <v>42</v>
       </c>
+      <c r="F23" s="80"/>
       <c r="G23" s="54"/>
       <c r="H23" s="163">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I23" s="154" t="s">
         <v>49</v>
       </c>
+      <c r="J23" s="80"/>
       <c r="L23" s="163">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A24" s="154" t="s">
         <v>358</v>
       </c>
+      <c r="B24" s="80"/>
       <c r="D24" s="163">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E24" s="154" t="s">
         <v>43</v>
       </c>
+      <c r="F24" s="80"/>
       <c r="G24" s="54"/>
       <c r="H24" s="163">
         <v>0</v>
@@ -19553,20 +19582,23 @@
       <c r="I24" s="154" t="s">
         <v>50</v>
       </c>
+      <c r="J24" s="80"/>
       <c r="L24" s="163">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A25" s="154" t="s">
         <v>29</v>
       </c>
+      <c r="B25" s="80"/>
       <c r="D25" s="163">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E25" s="154" t="s">
         <v>44</v>
       </c>
+      <c r="F25" s="80"/>
       <c r="G25" s="54"/>
       <c r="H25" s="163">
         <v>1</v>
@@ -19574,8 +19606,9 @@
       <c r="I25" s="154" t="s">
         <v>51</v>
       </c>
+      <c r="J25" s="80"/>
       <c r="L25" s="163">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.3">
@@ -19617,7 +19650,7 @@
         <v>58</v>
       </c>
       <c r="J29" s="167">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K29" s="162" t="s">
         <v>465</v>
@@ -19625,14 +19658,14 @@
       <c r="L29" s="54"/>
     </row>
     <row r="30" spans="1:12" s="73" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="80" t="s">
-        <v>319</v>
+      <c r="A30" s="57" t="s">
+        <v>546</v>
       </c>
       <c r="B30" s="54">
         <v>1</v>
       </c>
       <c r="C30" s="80" t="s">
-        <v>444</v>
+        <v>1075</v>
       </c>
       <c r="D30" s="57"/>
       <c r="E30" s="57"/>
@@ -19651,7 +19684,7 @@
       <c r="L30" s="54"/>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A31" s="80" t="s">
+      <c r="A31" s="57" t="s">
         <v>328</v>
       </c>
       <c r="B31" s="54">
@@ -19664,7 +19697,7 @@
         <v>59</v>
       </c>
       <c r="J31" s="167">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K31" s="55" t="s">
         <v>479</v>
@@ -19672,14 +19705,14 @@
       <c r="L31" s="54"/>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A32" s="80" t="s">
-        <v>322</v>
+      <c r="A32" s="57" t="s">
+        <v>320</v>
       </c>
       <c r="B32" s="54">
         <v>1</v>
       </c>
       <c r="C32" s="80" t="s">
-        <v>442</v>
+        <v>1076</v>
       </c>
       <c r="H32" s="63" t="s">
         <v>70</v>
@@ -19690,21 +19723,21 @@
       <c r="L32" s="54"/>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A33" s="80" t="s">
-        <v>322</v>
+      <c r="A33" s="57" t="s">
+        <v>320</v>
       </c>
       <c r="B33" s="54">
         <v>2</v>
       </c>
       <c r="C33" s="80" t="s">
-        <v>443</v>
+        <v>1078</v>
       </c>
       <c r="H33" s="63" t="s">
         <v>66</v>
       </c>
       <c r="J33" s="167">
         <f>J29+J30</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K33" s="162" t="s">
         <v>464</v>
@@ -19712,33 +19745,24 @@
       <c r="L33" s="54"/>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A34" s="61"/>
-      <c r="B34" s="61"/>
-      <c r="C34" s="61"/>
-      <c r="D34" s="61"/>
-      <c r="E34" s="61"/>
-      <c r="F34" s="61"/>
-      <c r="H34" s="63" t="s">
-        <v>20</v>
-      </c>
-      <c r="J34" s="167">
-        <v>5</v>
-      </c>
-      <c r="K34" s="162" t="s">
-        <v>478</v>
-      </c>
-      <c r="L34" s="54"/>
+      <c r="C34" s="80" t="s">
+        <v>1077</v>
+      </c>
+      <c r="L34" s="216" t="s">
+        <v>471</v>
+      </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.3">
       <c r="H35" s="63" t="s">
-        <v>67</v>
+        <v>20</v>
       </c>
       <c r="J35" s="167">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="K35" s="162" t="s">
-        <v>494</v>
-      </c>
+        <v>478</v>
+      </c>
+      <c r="L35" s="54"/>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A36" s="66"/>
@@ -19748,20 +19772,29 @@
       <c r="E36" s="66"/>
       <c r="F36" s="66"/>
       <c r="H36" s="63" t="s">
+        <v>1053</v>
+      </c>
+      <c r="J36" s="167">
+        <v>10</v>
+      </c>
+      <c r="K36" s="162" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="G37" s="73"/>
+      <c r="H37" s="63" t="s">
         <v>341</v>
       </c>
-      <c r="I36" s="73"/>
-      <c r="J36" s="167">
+      <c r="I37" s="73"/>
+      <c r="J37" s="167">
         <f>7-J30</f>
         <v>4</v>
       </c>
-      <c r="K36" s="162" t="s">
+      <c r="K37" s="162" t="s">
         <v>481</v>
       </c>
-      <c r="L36" s="73"/>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="G37" s="73"/>
+      <c r="L37" s="73"/>
     </row>
     <row r="38" spans="1:12" s="73" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A38" s="157"/>
@@ -19770,11 +19803,11 @@
       <c r="D38" s="157"/>
       <c r="E38" s="157"/>
       <c r="F38" s="157"/>
-      <c r="H38" s="63" t="s">
-        <v>495</v>
-      </c>
-      <c r="I38" s="171"/>
-      <c r="J38" s="171"/>
+      <c r="H38" s="57"/>
+      <c r="I38" s="57"/>
+      <c r="J38" s="57"/>
+      <c r="K38" s="54"/>
+      <c r="L38" s="57"/>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A39" s="66"/>
@@ -19784,12 +19817,20 @@
       <c r="E39" s="66"/>
       <c r="F39" s="66"/>
       <c r="H39" s="63" t="s">
+        <v>495</v>
+      </c>
+      <c r="I39" s="171"/>
+      <c r="J39" s="171"/>
+      <c r="K39" s="73"/>
+      <c r="L39" s="73"/>
+    </row>
+    <row r="40" spans="1:12" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H40" s="63" t="s">
         <v>496</v>
       </c>
-      <c r="I39" s="66"/>
-      <c r="J39" s="66"/>
-    </row>
-    <row r="40" spans="1:12" ht="13.8" customHeight="1" x14ac:dyDescent="0.3"/>
+      <c r="I40" s="66"/>
+      <c r="J40" s="66"/>
+    </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A41" s="157"/>
       <c r="B41" s="158"/>
@@ -19803,7 +19844,7 @@
       <c r="B42" s="54"/>
       <c r="D42" s="54"/>
       <c r="E42" s="153"/>
-      <c r="H42" s="72" t="s">
+      <c r="H42" s="90" t="s">
         <v>366</v>
       </c>
       <c r="I42" s="75" t="s">
@@ -19988,68 +20029,95 @@
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="F51" s="72" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="52" spans="1:12" ht="13.8" customHeight="1" x14ac:dyDescent="0.3"/>
+      <c r="A51" s="80" t="s">
+        <v>55</v>
+      </c>
+      <c r="C51" s="75" t="s">
+        <v>73</v>
+      </c>
+      <c r="D51" s="80" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A52" s="165" t="s">
+        <v>780</v>
+      </c>
+      <c r="C52" s="54">
+        <v>2</v>
+      </c>
+      <c r="D52" s="80" t="s">
+        <v>1066</v>
+      </c>
+    </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A53" s="57" t="s">
-        <v>78</v>
-      </c>
-      <c r="D53" s="57" t="s">
-        <v>73</v>
-      </c>
-      <c r="E53" s="57" t="s">
-        <v>79</v>
-      </c>
+      <c r="A53" s="165" t="s">
+        <v>97</v>
+      </c>
+      <c r="C53" s="54">
+        <v>2</v>
+      </c>
+      <c r="D53" s="80" t="s">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A54" s="165" t="s">
+        <v>99</v>
+      </c>
+      <c r="C54" s="54">
+        <v>3</v>
+      </c>
+      <c r="D54" s="80" t="s">
+        <v>1068</v>
+      </c>
+      <c r="E54" s="155"/>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A55" s="99" t="s">
-        <v>407</v>
-      </c>
-      <c r="B55" s="66"/>
-      <c r="C55" s="66"/>
-      <c r="D55" s="169">
+      <c r="A55" s="165" t="s">
+        <v>5</v>
+      </c>
+      <c r="C55" s="54">
         <v>1</v>
       </c>
-      <c r="E55" s="99" t="s">
-        <v>483</v>
-      </c>
-      <c r="F55" s="66"/>
-      <c r="G55" s="66"/>
-      <c r="H55" s="66"/>
-      <c r="I55" s="66"/>
-      <c r="J55" s="66"/>
-      <c r="K55" s="69"/>
-      <c r="L55" s="66"/>
+      <c r="D55" s="80" t="s">
+        <v>1069</v>
+      </c>
+      <c r="E55" s="155"/>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="D56" s="167"/>
+      <c r="A56" s="165" t="s">
+        <v>101</v>
+      </c>
+      <c r="C56" s="54">
+        <v>1</v>
+      </c>
+      <c r="D56" s="80" t="s">
+        <v>1072</v>
+      </c>
+      <c r="E56" s="155"/>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A57" s="66"/>
-      <c r="B57" s="66"/>
-      <c r="C57" s="66"/>
-      <c r="D57" s="169"/>
-      <c r="E57" s="66"/>
-      <c r="F57" s="66"/>
-      <c r="G57" s="66"/>
-      <c r="H57" s="66"/>
-      <c r="I57" s="66"/>
-      <c r="J57" s="66"/>
-      <c r="K57" s="69"/>
-      <c r="L57" s="66"/>
+      <c r="A57" s="165" t="s">
+        <v>98</v>
+      </c>
+      <c r="C57" s="54">
+        <v>2</v>
+      </c>
+      <c r="D57" s="80" t="s">
+        <v>1071</v>
+      </c>
+      <c r="E57" s="155"/>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="D58" s="167"/>
+      <c r="E58" s="155"/>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A59" s="66"/>
+      <c r="A59" s="215"/>
       <c r="B59" s="66"/>
-      <c r="C59" s="66"/>
-      <c r="D59" s="169"/>
-      <c r="E59" s="66"/>
+      <c r="C59" s="69"/>
+      <c r="D59" s="82"/>
+      <c r="E59" s="215"/>
       <c r="F59" s="66"/>
       <c r="G59" s="66"/>
       <c r="H59" s="66"/>
@@ -20058,82 +20126,97 @@
       <c r="K59" s="69"/>
       <c r="L59" s="66"/>
     </row>
-    <row r="61" spans="1:12" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F61" s="72" t="s">
-        <v>80</v>
-      </c>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A60" s="215"/>
+      <c r="B60" s="66"/>
+      <c r="C60" s="69"/>
+      <c r="D60" s="82"/>
+      <c r="E60" s="215"/>
+      <c r="F60" s="66"/>
+      <c r="G60" s="66"/>
+      <c r="H60" s="66"/>
+      <c r="I60" s="66"/>
+      <c r="J60" s="66"/>
+      <c r="K60" s="69"/>
+      <c r="L60" s="66"/>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A61" s="155"/>
+      <c r="C61" s="54"/>
+      <c r="D61" s="80"/>
+      <c r="E61" s="155"/>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A62" s="80" t="s">
-        <v>81</v>
-      </c>
-      <c r="B62" s="80" t="s">
-        <v>82</v>
-      </c>
-      <c r="C62" s="80" t="s">
+      <c r="A62" s="55" t="s">
+        <v>1062</v>
+      </c>
+      <c r="C62" s="75" t="s">
+        <v>203</v>
+      </c>
+      <c r="D62" s="80" t="s">
         <v>61</v>
       </c>
-      <c r="D62" s="80"/>
-      <c r="E62" s="80"/>
-      <c r="F62" s="80" t="s">
-        <v>83</v>
-      </c>
-      <c r="G62" s="80" t="s">
-        <v>86</v>
-      </c>
-      <c r="H62" s="80" t="s">
-        <v>85</v>
-      </c>
-      <c r="I62" s="80" t="s">
-        <v>84</v>
-      </c>
-      <c r="J62" s="80" t="s">
-        <v>87</v>
-      </c>
-      <c r="K62" s="75"/>
-      <c r="L62" s="80"/>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A63" s="165" t="s">
+        <v>1056</v>
+      </c>
+      <c r="C63" s="54">
+        <v>5</v>
+      </c>
+      <c r="D63" s="80" t="s">
+        <v>1060</v>
+      </c>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A64" s="66"/>
-      <c r="B64" s="66"/>
-      <c r="C64" s="66"/>
-      <c r="D64" s="66"/>
-      <c r="E64" s="66"/>
-      <c r="F64" s="66"/>
-      <c r="G64" s="66"/>
-      <c r="H64" s="66"/>
-      <c r="I64" s="66"/>
-      <c r="J64" s="66"/>
-      <c r="K64" s="69"/>
-      <c r="L64" s="66"/>
+      <c r="A64" s="63"/>
+      <c r="D64" s="80" t="s">
+        <v>1063</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A65" s="165" t="s">
+        <v>1054</v>
+      </c>
+      <c r="C65" s="54">
+        <v>1</v>
+      </c>
+      <c r="D65" s="80" t="s">
+        <v>1061</v>
+      </c>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A66" s="66"/>
-      <c r="B66" s="66"/>
-      <c r="C66" s="66"/>
-      <c r="D66" s="66"/>
-      <c r="E66" s="66"/>
-      <c r="F66" s="66"/>
-      <c r="G66" s="66"/>
-      <c r="H66" s="66"/>
-      <c r="I66" s="66"/>
-      <c r="J66" s="66"/>
-      <c r="K66" s="69"/>
-      <c r="L66" s="66"/>
+      <c r="A66" s="165" t="s">
+        <v>1057</v>
+      </c>
+      <c r="C66" s="54">
+        <v>-3</v>
+      </c>
+      <c r="D66" s="80" t="s">
+        <v>1064</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A67" s="165" t="s">
+        <v>1055</v>
+      </c>
+      <c r="C67" s="54">
+        <v>-2</v>
+      </c>
+      <c r="D67" s="80" t="s">
+        <v>1065</v>
+      </c>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A68" s="66"/>
-      <c r="B68" s="66"/>
-      <c r="C68" s="66"/>
-      <c r="D68" s="66"/>
-      <c r="E68" s="66"/>
-      <c r="F68" s="66"/>
-      <c r="G68" s="66"/>
-      <c r="H68" s="66"/>
-      <c r="I68" s="66"/>
-      <c r="J68" s="66"/>
-      <c r="K68" s="69"/>
-      <c r="L68" s="66"/>
+      <c r="A68" s="165" t="s">
+        <v>1058</v>
+      </c>
+      <c r="C68" s="54">
+        <v>-1</v>
+      </c>
+      <c r="D68" s="80" t="s">
+        <v>1059</v>
+      </c>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A70" s="66"/>
@@ -20149,74 +20232,100 @@
       <c r="K70" s="69"/>
       <c r="L70" s="66"/>
     </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A72" s="66"/>
-      <c r="B72" s="66"/>
-      <c r="C72" s="66"/>
-      <c r="D72" s="66"/>
-      <c r="E72" s="66"/>
-      <c r="F72" s="66"/>
-      <c r="G72" s="66"/>
-      <c r="H72" s="66"/>
-      <c r="I72" s="66"/>
-      <c r="J72" s="66"/>
-      <c r="K72" s="69"/>
-      <c r="L72" s="66"/>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A71" s="66"/>
+      <c r="B71" s="66"/>
+      <c r="C71" s="66"/>
+      <c r="D71" s="66"/>
+      <c r="E71" s="66"/>
+      <c r="F71" s="66"/>
+      <c r="G71" s="66"/>
+      <c r="H71" s="66"/>
+      <c r="I71" s="66"/>
+      <c r="J71" s="66"/>
+      <c r="K71" s="69"/>
+      <c r="L71" s="66"/>
+    </row>
+    <row r="73" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A73" s="57" t="s">
+        <v>105</v>
+      </c>
+      <c r="C73" s="63" t="s">
+        <v>1080</v>
+      </c>
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="F74" s="72" t="s">
-        <v>71</v>
+      <c r="A74" s="57" t="s">
+        <v>106</v>
+      </c>
+      <c r="C74" s="63" t="s">
+        <v>1087</v>
       </c>
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B75" s="72"/>
-    </row>
-    <row r="76" spans="1:12" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="66"/>
-      <c r="B76" s="66"/>
-      <c r="C76" s="66"/>
-      <c r="D76" s="66"/>
-      <c r="E76" s="66"/>
-      <c r="F76" s="66"/>
-      <c r="G76" s="66"/>
-      <c r="H76" s="66"/>
-      <c r="I76" s="66"/>
-      <c r="J76" s="66"/>
-      <c r="K76" s="69"/>
-      <c r="L76" s="66"/>
-    </row>
-    <row r="77" spans="1:12" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="66"/>
-      <c r="B77" s="66"/>
-      <c r="C77" s="66"/>
-      <c r="D77" s="66"/>
-      <c r="E77" s="66"/>
-      <c r="F77" s="66"/>
-      <c r="G77" s="66"/>
-      <c r="H77" s="66"/>
-      <c r="I77" s="66"/>
-      <c r="J77" s="66"/>
-      <c r="K77" s="69"/>
-      <c r="L77" s="66"/>
+      <c r="A75" s="57" t="s">
+        <v>98</v>
+      </c>
+      <c r="C75" s="63" t="s">
+        <v>1088</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A76" s="57" t="s">
+        <v>108</v>
+      </c>
+      <c r="C76" s="100"/>
+      <c r="D76" s="61"/>
+      <c r="E76" s="61"/>
+      <c r="F76" s="61"/>
+      <c r="G76" s="61"/>
+      <c r="H76" s="61"/>
+      <c r="I76" s="61"/>
+      <c r="J76" s="61"/>
+      <c r="K76" s="78"/>
+      <c r="L76" s="61"/>
+    </row>
+    <row r="78" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A78" s="57" t="s">
+        <v>110</v>
+      </c>
+      <c r="C78" s="57" t="s">
+        <v>109</v>
+      </c>
+      <c r="E78" s="57" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A79" s="66"/>
-      <c r="B79" s="66"/>
-      <c r="C79" s="66"/>
-      <c r="D79" s="66"/>
-      <c r="E79" s="66"/>
-      <c r="F79" s="66"/>
-      <c r="G79" s="66"/>
-      <c r="H79" s="66"/>
-      <c r="I79" s="66"/>
-      <c r="J79" s="66"/>
-      <c r="K79" s="69"/>
-      <c r="L79" s="66"/>
+      <c r="A79" s="80" t="s">
+        <v>1073</v>
+      </c>
+      <c r="B79" s="80"/>
+      <c r="C79" s="80" t="s">
+        <v>1086</v>
+      </c>
+      <c r="E79" s="57" t="s">
+        <v>1089</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A80" s="81"/>
+      <c r="B80" s="81"/>
+      <c r="C80" s="81"/>
+      <c r="D80" s="61"/>
+      <c r="E80" s="61"/>
+      <c r="F80" s="61"/>
+      <c r="G80" s="61"/>
+      <c r="H80" s="61"/>
+      <c r="I80" s="61"/>
+      <c r="J80" s="61"/>
+      <c r="K80" s="78"/>
+      <c r="L80" s="61"/>
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A81" s="66"/>
-      <c r="B81" s="66"/>
-      <c r="C81" s="66"/>
+      <c r="A81" s="82"/>
+      <c r="B81" s="82"/>
+      <c r="C81" s="82"/>
       <c r="D81" s="66"/>
       <c r="E81" s="66"/>
       <c r="F81" s="66"/>
@@ -20227,412 +20336,412 @@
       <c r="K81" s="69"/>
       <c r="L81" s="66"/>
     </row>
+    <row r="83" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B83" s="54" t="s">
+        <v>17</v>
+      </c>
+      <c r="J83" s="54" t="s">
+        <v>123</v>
+      </c>
+      <c r="K83" s="57"/>
+      <c r="L83" s="54"/>
+    </row>
     <row r="84" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B84" s="72" t="s">
-        <v>72</v>
-      </c>
-      <c r="F84" s="101" t="s">
-        <v>373</v>
-      </c>
-      <c r="J84" s="54" t="s">
-        <v>74</v>
+      <c r="A84" s="80" t="s">
+        <v>113</v>
+      </c>
+      <c r="C84" s="213">
+        <v>29</v>
+      </c>
+      <c r="E84" s="80" t="s">
+        <v>118</v>
+      </c>
+      <c r="G84" s="213" t="s">
+        <v>1106</v>
+      </c>
+      <c r="I84" s="57" t="s">
+        <v>0</v>
+      </c>
+      <c r="K84" s="57" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="85" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A85" s="57" t="s">
-        <v>0</v>
-      </c>
-      <c r="B85" s="57" t="s">
+      <c r="A85" s="80" t="s">
+        <v>112</v>
+      </c>
+      <c r="B85" s="66"/>
+      <c r="C85" s="212">
+        <v>29</v>
+      </c>
+      <c r="E85" s="80" t="s">
+        <v>119</v>
+      </c>
+      <c r="F85" s="66"/>
+      <c r="G85" s="212" t="s">
+        <v>392</v>
+      </c>
+      <c r="I85" s="66"/>
+      <c r="J85" s="66"/>
+      <c r="K85" s="66"/>
+      <c r="L85" s="69"/>
+    </row>
+    <row r="86" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A86" s="80" t="s">
+        <v>114</v>
+      </c>
+      <c r="C86" s="213">
+        <v>1998</v>
+      </c>
+      <c r="E86" s="80" t="s">
+        <v>120</v>
+      </c>
+      <c r="G86" s="213" t="s">
+        <v>1081</v>
+      </c>
+      <c r="I86" s="85"/>
+      <c r="J86" s="85"/>
+      <c r="K86" s="85"/>
+      <c r="L86" s="131"/>
+    </row>
+    <row r="87" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A87" s="80" t="s">
+        <v>115</v>
+      </c>
+      <c r="B87" s="66"/>
+      <c r="C87" s="214">
+        <v>45943</v>
+      </c>
+      <c r="E87" s="80" t="s">
+        <v>121</v>
+      </c>
+      <c r="F87" s="66"/>
+      <c r="G87" s="212" t="s">
+        <v>1082</v>
+      </c>
+      <c r="I87" s="66"/>
+      <c r="J87" s="66"/>
+      <c r="K87" s="66"/>
+      <c r="L87" s="69"/>
+    </row>
+    <row r="88" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A88" s="80" t="s">
+        <v>116</v>
+      </c>
+      <c r="C88" s="213" t="s">
+        <v>1083</v>
+      </c>
+      <c r="E88" s="80" t="s">
+        <v>122</v>
+      </c>
+      <c r="G88" s="213" t="s">
+        <v>394</v>
+      </c>
+      <c r="K88" s="57"/>
+      <c r="L88" s="54"/>
+    </row>
+    <row r="89" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A89" s="80" t="s">
+        <v>117</v>
+      </c>
+      <c r="B89" s="66"/>
+      <c r="C89" s="212" t="s">
+        <v>1084</v>
+      </c>
+      <c r="E89" s="80"/>
+      <c r="F89" s="66"/>
+      <c r="G89" s="212"/>
+      <c r="I89" s="66"/>
+      <c r="J89" s="66"/>
+      <c r="K89" s="66"/>
+      <c r="L89" s="69"/>
+    </row>
+    <row r="90" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="I90" s="61"/>
+      <c r="J90" s="61"/>
+      <c r="K90" s="61"/>
+      <c r="L90" s="78"/>
+    </row>
+    <row r="92" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A92" s="90" t="s">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A93" s="217" t="s">
+        <v>1079</v>
+      </c>
+      <c r="B93" s="217"/>
+      <c r="C93" s="217"/>
+      <c r="D93" s="217"/>
+      <c r="E93" s="217"/>
+      <c r="F93" s="217"/>
+      <c r="G93" s="217"/>
+      <c r="H93" s="217"/>
+      <c r="I93" s="217"/>
+      <c r="J93" s="217"/>
+      <c r="K93" s="217"/>
+      <c r="L93" s="217"/>
+    </row>
+    <row r="94" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A94" s="217"/>
+      <c r="B94" s="217"/>
+      <c r="C94" s="217"/>
+      <c r="D94" s="217"/>
+      <c r="E94" s="217"/>
+      <c r="F94" s="217"/>
+      <c r="G94" s="217"/>
+      <c r="H94" s="217"/>
+      <c r="I94" s="217"/>
+      <c r="J94" s="217"/>
+      <c r="K94" s="217"/>
+      <c r="L94" s="217"/>
+    </row>
+    <row r="95" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A95" s="217"/>
+      <c r="B95" s="217"/>
+      <c r="C95" s="217"/>
+      <c r="D95" s="217"/>
+      <c r="E95" s="217"/>
+      <c r="F95" s="217"/>
+      <c r="G95" s="217"/>
+      <c r="H95" s="217"/>
+      <c r="I95" s="217"/>
+      <c r="J95" s="217"/>
+      <c r="K95" s="217"/>
+      <c r="L95" s="217"/>
+    </row>
+    <row r="96" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A96" s="217"/>
+      <c r="B96" s="217"/>
+      <c r="C96" s="217"/>
+      <c r="D96" s="217"/>
+      <c r="E96" s="217"/>
+      <c r="F96" s="217"/>
+      <c r="G96" s="217"/>
+      <c r="H96" s="217"/>
+      <c r="I96" s="217"/>
+      <c r="J96" s="217"/>
+      <c r="K96" s="217"/>
+      <c r="L96" s="217"/>
+    </row>
+    <row r="97" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A97" s="90" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="98" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A98" s="217" t="s">
+        <v>1085</v>
+      </c>
+      <c r="B98" s="217"/>
+      <c r="C98" s="217"/>
+      <c r="D98" s="217"/>
+      <c r="E98" s="217"/>
+      <c r="F98" s="217"/>
+      <c r="G98" s="217"/>
+      <c r="H98" s="217"/>
+      <c r="I98" s="217"/>
+      <c r="J98" s="217"/>
+      <c r="K98" s="217"/>
+      <c r="L98" s="217"/>
+    </row>
+    <row r="99" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A99" s="217"/>
+      <c r="B99" s="217"/>
+      <c r="C99" s="217"/>
+      <c r="D99" s="217"/>
+      <c r="E99" s="217"/>
+      <c r="F99" s="217"/>
+      <c r="G99" s="217"/>
+      <c r="H99" s="217"/>
+      <c r="I99" s="217"/>
+      <c r="J99" s="217"/>
+      <c r="K99" s="217"/>
+      <c r="L99" s="217"/>
+    </row>
+    <row r="100" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A100" s="217"/>
+      <c r="B100" s="217"/>
+      <c r="C100" s="217"/>
+      <c r="D100" s="217"/>
+      <c r="E100" s="217"/>
+      <c r="F100" s="217"/>
+      <c r="G100" s="217"/>
+      <c r="H100" s="217"/>
+      <c r="I100" s="217"/>
+      <c r="J100" s="217"/>
+      <c r="K100" s="217"/>
+      <c r="L100" s="217"/>
+    </row>
+    <row r="101" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="F101" s="72" t="s">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="102" spans="1:12" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A102" s="57" t="s">
+        <v>78</v>
+      </c>
+      <c r="C102" s="57" t="s">
         <v>73</v>
       </c>
-      <c r="C85" s="57" t="s">
+      <c r="D102" s="57" t="s">
+        <v>81</v>
+      </c>
+      <c r="E102" s="57" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="103" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A103" s="82" t="s">
+        <v>407</v>
+      </c>
+      <c r="B103" s="66"/>
+      <c r="C103" s="169">
+        <v>1</v>
+      </c>
+      <c r="D103" s="134" t="s">
+        <v>1102</v>
+      </c>
+      <c r="E103" s="82" t="s">
+        <v>483</v>
+      </c>
+      <c r="F103" s="66"/>
+      <c r="G103" s="66"/>
+      <c r="H103" s="66"/>
+      <c r="I103" s="66"/>
+      <c r="J103" s="66"/>
+      <c r="K103" s="69"/>
+      <c r="L103" s="66"/>
+    </row>
+    <row r="104" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A104" s="80" t="s">
+        <v>1101</v>
+      </c>
+      <c r="C104" s="169" t="s">
+        <v>131</v>
+      </c>
+      <c r="D104" s="134" t="s">
+        <v>1105</v>
+      </c>
+      <c r="E104" s="82" t="s">
+        <v>1103</v>
+      </c>
+    </row>
+    <row r="105" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A105" s="66"/>
+      <c r="B105" s="66"/>
+      <c r="C105" s="66"/>
+      <c r="D105" s="134"/>
+      <c r="E105" s="99"/>
+      <c r="F105" s="66"/>
+      <c r="G105" s="66"/>
+      <c r="H105" s="66"/>
+      <c r="I105" s="66"/>
+      <c r="J105" s="66"/>
+      <c r="K105" s="69"/>
+      <c r="L105" s="66"/>
+    </row>
+    <row r="106" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="D106" s="134"/>
+      <c r="E106" s="99"/>
+    </row>
+    <row r="107" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A107" s="66"/>
+      <c r="B107" s="66"/>
+      <c r="C107" s="66"/>
+      <c r="D107" s="134"/>
+      <c r="E107" s="99"/>
+      <c r="F107" s="66"/>
+      <c r="G107" s="66"/>
+      <c r="H107" s="66"/>
+      <c r="I107" s="66"/>
+      <c r="J107" s="66"/>
+      <c r="K107" s="69"/>
+      <c r="L107" s="66"/>
+    </row>
+    <row r="108" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A108" s="66"/>
+      <c r="B108" s="66"/>
+      <c r="C108" s="66"/>
+      <c r="D108" s="66"/>
+      <c r="E108" s="66"/>
+      <c r="F108" s="66"/>
+      <c r="G108" s="66"/>
+      <c r="H108" s="66"/>
+      <c r="I108" s="66"/>
+      <c r="J108" s="66"/>
+      <c r="K108" s="69"/>
+      <c r="L108" s="66"/>
+    </row>
+    <row r="110" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="F110" s="72" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="111" spans="1:12" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A111" s="80" t="s">
+        <v>81</v>
+      </c>
+      <c r="B111" s="80" t="s">
+        <v>82</v>
+      </c>
+      <c r="C111" s="80" t="s">
         <v>61</v>
       </c>
-      <c r="E85" s="76" t="s">
-        <v>61</v>
-      </c>
-      <c r="I85" s="76" t="s">
-        <v>75</v>
-      </c>
-      <c r="K85" s="69"/>
-      <c r="L85" s="66"/>
-    </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A86" s="76"/>
-      <c r="E86" s="76"/>
-      <c r="I86" s="76" t="s">
-        <v>76</v>
-      </c>
-      <c r="K86" s="69"/>
-      <c r="L86" s="66"/>
-    </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A87" s="94"/>
-      <c r="B87" s="66"/>
-      <c r="C87" s="66"/>
-      <c r="D87" s="66"/>
-      <c r="E87" s="94"/>
-      <c r="F87" s="66"/>
-      <c r="G87" s="66"/>
-      <c r="H87" s="66"/>
-      <c r="I87" s="94"/>
-      <c r="J87" s="66"/>
-      <c r="K87" s="69"/>
-      <c r="L87" s="66"/>
-    </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A88" s="76"/>
-      <c r="E88" s="76"/>
-      <c r="I88" s="76"/>
-    </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A89" s="94"/>
-      <c r="B89" s="66"/>
-      <c r="C89" s="66"/>
-      <c r="D89" s="66"/>
-      <c r="E89" s="94"/>
-      <c r="F89" s="66"/>
-      <c r="G89" s="66"/>
-      <c r="H89" s="66"/>
-      <c r="I89" s="94"/>
-      <c r="J89" s="66"/>
-      <c r="K89" s="69"/>
-      <c r="L89" s="66"/>
-    </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A90" s="76"/>
-      <c r="E90" s="76"/>
-      <c r="I90" s="76"/>
-    </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A91" s="94"/>
-      <c r="B91" s="66"/>
-      <c r="C91" s="66"/>
-      <c r="D91" s="66"/>
-      <c r="E91" s="94"/>
-      <c r="F91" s="66"/>
-      <c r="G91" s="66"/>
-      <c r="H91" s="66"/>
-      <c r="I91" s="94"/>
-      <c r="J91" s="66"/>
-      <c r="K91" s="69"/>
-      <c r="L91" s="66"/>
-    </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A93" s="80" t="s">
-        <v>88</v>
-      </c>
-      <c r="B93" s="80" t="s">
-        <v>89</v>
-      </c>
-      <c r="C93" s="80" t="s">
-        <v>486</v>
-      </c>
-      <c r="D93" s="80" t="s">
-        <v>90</v>
-      </c>
-      <c r="E93" s="80" t="s">
-        <v>91</v>
-      </c>
-      <c r="F93" s="80" t="s">
-        <v>92</v>
-      </c>
-      <c r="G93" s="80" t="s">
-        <v>93</v>
-      </c>
-      <c r="H93" s="80" t="s">
+      <c r="D111" s="80"/>
+      <c r="E111" s="80"/>
+      <c r="F111" s="80" t="s">
+        <v>83</v>
+      </c>
+      <c r="G111" s="80" t="s">
+        <v>86</v>
+      </c>
+      <c r="H111" s="80" t="s">
+        <v>85</v>
+      </c>
+      <c r="I111" s="80" t="s">
+        <v>84</v>
+      </c>
+      <c r="J111" s="80" t="s">
         <v>87</v>
       </c>
-      <c r="J93" s="57" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A95" s="99" t="s">
-        <v>484</v>
-      </c>
-      <c r="B95" s="134" t="s">
-        <v>485</v>
-      </c>
-      <c r="C95" s="134">
-        <v>6</v>
-      </c>
-      <c r="D95" s="134" t="s">
-        <v>492</v>
-      </c>
-      <c r="E95" s="134">
-        <v>0</v>
-      </c>
-      <c r="F95" s="134">
-        <v>0</v>
-      </c>
-      <c r="G95" s="134"/>
-      <c r="H95" s="82" t="s">
-        <v>143</v>
-      </c>
-      <c r="J95" s="66"/>
-      <c r="K95" s="69"/>
-      <c r="L95" s="66"/>
-    </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A96" s="99" t="s">
-        <v>487</v>
-      </c>
-      <c r="B96" s="134" t="s">
-        <v>485</v>
-      </c>
-      <c r="C96" s="134">
-        <v>6</v>
-      </c>
-      <c r="D96" s="134">
-        <v>0</v>
-      </c>
-      <c r="E96" s="134">
-        <v>0</v>
-      </c>
-      <c r="F96" s="134">
-        <v>0</v>
-      </c>
-      <c r="G96" s="134"/>
-      <c r="H96" s="82" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A97" s="99" t="s">
-        <v>489</v>
-      </c>
-      <c r="B97" s="134" t="s">
-        <v>488</v>
-      </c>
-      <c r="C97" s="134">
-        <v>5</v>
-      </c>
-      <c r="D97" s="134">
-        <v>0</v>
-      </c>
-      <c r="E97" s="134">
-        <v>0</v>
-      </c>
-      <c r="F97" s="134">
-        <v>0</v>
-      </c>
-      <c r="G97" s="134"/>
-      <c r="H97" s="82" t="s">
-        <v>142</v>
-      </c>
-      <c r="J97" s="66"/>
-      <c r="K97" s="69"/>
-      <c r="L97" s="66"/>
-    </row>
-    <row r="98" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A98" s="99" t="s">
-        <v>491</v>
-      </c>
-      <c r="B98" s="134">
-        <v>4</v>
-      </c>
-      <c r="C98" s="134">
-        <v>6</v>
-      </c>
-      <c r="D98" s="134">
-        <v>12</v>
-      </c>
-      <c r="E98" s="134">
-        <v>3</v>
-      </c>
-      <c r="F98" s="134">
-        <v>6</v>
-      </c>
-      <c r="G98" s="134" t="s">
-        <v>493</v>
-      </c>
-      <c r="H98" s="82" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="99" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A99" s="99"/>
-      <c r="B99" s="99"/>
-      <c r="C99" s="134"/>
-      <c r="D99" s="134"/>
-      <c r="E99" s="134"/>
-      <c r="F99" s="134"/>
-      <c r="G99" s="99"/>
-      <c r="H99" s="82"/>
-      <c r="J99" s="66"/>
-      <c r="K99" s="69"/>
-      <c r="L99" s="66"/>
-    </row>
-    <row r="100" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="F100" s="83" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="101" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B101" s="75" t="s">
-        <v>73</v>
-      </c>
-      <c r="C101" s="80" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="102" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A102" s="155" t="s">
-        <v>453</v>
-      </c>
-      <c r="B102" s="54">
-        <v>1</v>
-      </c>
-      <c r="C102" s="80" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="103" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A103" s="155" t="s">
-        <v>101</v>
-      </c>
-      <c r="B103" s="54">
-        <v>2</v>
-      </c>
-      <c r="C103" s="80" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="104" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A104" s="155" t="s">
-        <v>103</v>
-      </c>
-      <c r="B104" s="54">
-        <v>1</v>
-      </c>
-      <c r="C104" s="80" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="105" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A105" s="155" t="s">
-        <v>98</v>
-      </c>
-      <c r="B105" s="54">
-        <v>2</v>
-      </c>
-      <c r="C105" s="80" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="106" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A106" s="155" t="s">
-        <v>100</v>
-      </c>
-      <c r="B106" s="54">
-        <v>1</v>
-      </c>
-      <c r="C106" s="80" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="107" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A107" s="155" t="s">
-        <v>97</v>
-      </c>
-      <c r="B107" s="54">
-        <v>2</v>
-      </c>
-      <c r="C107" s="80" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="109" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A109" s="66"/>
-      <c r="B109" s="66"/>
-      <c r="C109" s="66"/>
-      <c r="D109" s="66"/>
-      <c r="E109" s="66"/>
-      <c r="F109" s="66"/>
-      <c r="G109" s="66"/>
-      <c r="H109" s="66"/>
-      <c r="I109" s="66"/>
-      <c r="J109" s="66"/>
-      <c r="K109" s="69"/>
-      <c r="L109" s="66"/>
-    </row>
-    <row r="110" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A110" s="66"/>
-      <c r="B110" s="66"/>
-      <c r="C110" s="66"/>
-      <c r="D110" s="66"/>
-      <c r="E110" s="66"/>
-      <c r="F110" s="66"/>
-      <c r="G110" s="66"/>
-      <c r="H110" s="66"/>
-      <c r="I110" s="66"/>
-      <c r="J110" s="66"/>
-      <c r="K110" s="69"/>
-      <c r="L110" s="66"/>
-    </row>
-    <row r="111" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A111" s="66"/>
-      <c r="B111" s="66"/>
-      <c r="C111" s="66"/>
-      <c r="D111" s="66"/>
-      <c r="E111" s="66"/>
-      <c r="F111" s="66"/>
-      <c r="G111" s="66"/>
-      <c r="H111" s="66"/>
-      <c r="I111" s="66"/>
-      <c r="J111" s="66"/>
-      <c r="K111" s="69"/>
-      <c r="L111" s="66"/>
+      <c r="K111" s="75"/>
+      <c r="L111" s="80"/>
     </row>
     <row r="113" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B113" s="75" t="s">
-        <v>73</v>
-      </c>
-      <c r="C113" s="80" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="114" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A114" s="155" t="s">
-        <v>460</v>
-      </c>
-      <c r="B114" s="54">
-        <v>2</v>
-      </c>
-      <c r="C114" s="80" t="s">
-        <v>463</v>
-      </c>
+      <c r="A113" s="66"/>
+      <c r="B113" s="66"/>
+      <c r="C113" s="66"/>
+      <c r="D113" s="66"/>
+      <c r="E113" s="66"/>
+      <c r="F113" s="66"/>
+      <c r="G113" s="66"/>
+      <c r="H113" s="66"/>
+      <c r="I113" s="66"/>
+      <c r="J113" s="66"/>
+      <c r="K113" s="69"/>
+      <c r="L113" s="66"/>
     </row>
     <row r="115" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A115" s="155" t="s">
-        <v>461</v>
-      </c>
-      <c r="B115" s="54">
-        <v>2</v>
-      </c>
-      <c r="C115" s="80" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="116" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A116" s="66"/>
-      <c r="B116" s="69"/>
-      <c r="C116" s="82"/>
-      <c r="D116" s="66"/>
-      <c r="E116" s="66"/>
-      <c r="F116" s="66"/>
-      <c r="G116" s="66"/>
-      <c r="H116" s="66"/>
-      <c r="I116" s="66"/>
-      <c r="J116" s="66"/>
-      <c r="K116" s="69"/>
-      <c r="L116" s="66"/>
+      <c r="A115" s="66"/>
+      <c r="B115" s="66"/>
+      <c r="C115" s="66"/>
+      <c r="D115" s="66"/>
+      <c r="E115" s="66"/>
+      <c r="F115" s="66"/>
+      <c r="G115" s="66"/>
+      <c r="H115" s="66"/>
+      <c r="I115" s="66"/>
+      <c r="J115" s="66"/>
+      <c r="K115" s="69"/>
+      <c r="L115" s="66"/>
     </row>
     <row r="117" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A117" s="66"/>
-      <c r="B117" s="69"/>
-      <c r="C117" s="82"/>
+      <c r="B117" s="66"/>
+      <c r="C117" s="66"/>
       <c r="D117" s="66"/>
       <c r="E117" s="66"/>
       <c r="F117" s="66"/>
@@ -20643,631 +20752,701 @@
       <c r="K117" s="69"/>
       <c r="L117" s="66"/>
     </row>
-    <row r="118" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A118" s="66"/>
-      <c r="B118" s="69"/>
-      <c r="C118" s="82"/>
-      <c r="D118" s="66"/>
-      <c r="E118" s="66"/>
-      <c r="F118" s="66"/>
-      <c r="G118" s="66"/>
-      <c r="H118" s="66"/>
-      <c r="I118" s="66"/>
-      <c r="J118" s="66"/>
-      <c r="K118" s="69"/>
-      <c r="L118" s="66"/>
-    </row>
-    <row r="120" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A120" s="57" t="s">
-        <v>105</v>
-      </c>
-      <c r="C120" s="61"/>
-      <c r="D120" s="61"/>
-      <c r="E120" s="61"/>
-      <c r="F120" s="61"/>
-      <c r="G120" s="61"/>
-      <c r="H120" s="61"/>
-      <c r="I120" s="61"/>
-      <c r="J120" s="61"/>
-      <c r="K120" s="78"/>
-      <c r="L120" s="61"/>
+    <row r="119" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A119" s="66"/>
+      <c r="B119" s="66"/>
+      <c r="C119" s="66"/>
+      <c r="D119" s="66"/>
+      <c r="E119" s="66"/>
+      <c r="F119" s="66"/>
+      <c r="G119" s="66"/>
+      <c r="H119" s="66"/>
+      <c r="I119" s="66"/>
+      <c r="J119" s="66"/>
+      <c r="K119" s="69"/>
+      <c r="L119" s="66"/>
     </row>
     <row r="121" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A121" s="57" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="122" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A122" s="57" t="s">
-        <v>98</v>
-      </c>
-      <c r="C122" s="66"/>
-      <c r="D122" s="66"/>
-      <c r="E122" s="66"/>
-      <c r="F122" s="66"/>
-      <c r="G122" s="66"/>
-      <c r="H122" s="66"/>
-      <c r="I122" s="66"/>
-      <c r="J122" s="66"/>
-      <c r="K122" s="69"/>
-      <c r="L122" s="66"/>
+      <c r="A121" s="66"/>
+      <c r="B121" s="66"/>
+      <c r="C121" s="66"/>
+      <c r="D121" s="66"/>
+      <c r="E121" s="66"/>
+      <c r="F121" s="66"/>
+      <c r="G121" s="66"/>
+      <c r="H121" s="66"/>
+      <c r="I121" s="66"/>
+      <c r="J121" s="66"/>
+      <c r="K121" s="69"/>
+      <c r="L121" s="66"/>
     </row>
     <row r="123" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A123" s="57" t="s">
-        <v>108</v>
-      </c>
-      <c r="C123" s="66"/>
-      <c r="D123" s="66"/>
-      <c r="E123" s="66"/>
-      <c r="F123" s="66"/>
-      <c r="G123" s="66"/>
-      <c r="H123" s="66"/>
-      <c r="I123" s="66"/>
-      <c r="J123" s="66"/>
-      <c r="K123" s="69"/>
-      <c r="L123" s="66"/>
-    </row>
-    <row r="125" spans="1:12" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A125" s="57" t="s">
-        <v>110</v>
-      </c>
-      <c r="C125" s="57" t="s">
-        <v>109</v>
-      </c>
-      <c r="E125" s="57" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="126" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A126" s="66"/>
-      <c r="B126" s="66"/>
-      <c r="C126" s="66"/>
-      <c r="D126" s="66"/>
-      <c r="E126" s="66"/>
-      <c r="F126" s="66"/>
-      <c r="G126" s="66"/>
-      <c r="H126" s="66"/>
-      <c r="I126" s="66"/>
-      <c r="J126" s="66"/>
-      <c r="K126" s="69"/>
-      <c r="L126" s="66"/>
-    </row>
-    <row r="127" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A127" s="66"/>
-      <c r="B127" s="66"/>
-      <c r="C127" s="66"/>
-      <c r="D127" s="66"/>
-      <c r="E127" s="66"/>
-      <c r="F127" s="66"/>
-      <c r="G127" s="66"/>
-      <c r="H127" s="66"/>
-      <c r="I127" s="66"/>
-      <c r="J127" s="66"/>
-      <c r="K127" s="69"/>
-      <c r="L127" s="66"/>
+      <c r="F123" s="72" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="124" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A124" s="63" t="s">
+        <v>1091</v>
+      </c>
+      <c r="B124" s="63"/>
+      <c r="C124" s="155" t="s">
+        <v>1090</v>
+      </c>
+      <c r="D124" s="63" t="s">
+        <v>1092</v>
+      </c>
+    </row>
+    <row r="125" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A125" s="63" t="s">
+        <v>1093</v>
+      </c>
+      <c r="B125" s="63"/>
+      <c r="C125" s="155" t="s">
+        <v>1090</v>
+      </c>
+      <c r="D125" s="63" t="s">
+        <v>1094</v>
+      </c>
+    </row>
+    <row r="126" spans="1:12" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A126" s="63" t="s">
+        <v>1098</v>
+      </c>
+      <c r="B126" s="63"/>
+      <c r="C126" s="155" t="s">
+        <v>101</v>
+      </c>
+      <c r="D126" s="63" t="s">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="127" spans="1:12" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A127" s="63" t="s">
+        <v>1095</v>
+      </c>
+      <c r="B127" s="63"/>
+      <c r="C127" s="155" t="s">
+        <v>1096</v>
+      </c>
+      <c r="D127" s="63" t="s">
+        <v>1097</v>
+      </c>
     </row>
     <row r="128" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A128" s="66"/>
-      <c r="B128" s="66"/>
-      <c r="C128" s="66"/>
-      <c r="D128" s="66"/>
-      <c r="E128" s="66"/>
-      <c r="F128" s="66"/>
-      <c r="G128" s="66"/>
-      <c r="H128" s="66"/>
-      <c r="I128" s="66"/>
-      <c r="J128" s="66"/>
-      <c r="K128" s="69"/>
-      <c r="L128" s="66"/>
-    </row>
-    <row r="129" spans="1:12" ht="13.2" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="130" spans="1:12" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B130" s="54" t="s">
-        <v>17</v>
-      </c>
-      <c r="J130" s="54" t="s">
-        <v>123</v>
-      </c>
-      <c r="K130" s="57"/>
-      <c r="L130" s="54"/>
-    </row>
-    <row r="131" spans="1:12" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="I131" s="57" t="s">
-        <v>0</v>
-      </c>
-      <c r="K131" s="57" t="s">
-        <v>87</v>
-      </c>
+      <c r="A128" s="61"/>
+      <c r="B128" s="61"/>
+      <c r="C128" s="61"/>
+      <c r="D128" s="61"/>
+      <c r="E128" s="61"/>
+      <c r="F128" s="61"/>
+      <c r="G128" s="61"/>
+      <c r="H128" s="61"/>
+      <c r="I128" s="61"/>
+      <c r="J128" s="61"/>
+      <c r="K128" s="78"/>
+      <c r="L128" s="61"/>
+    </row>
+    <row r="129" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A129" s="63"/>
+      <c r="B129" s="63"/>
+      <c r="C129" s="63"/>
+      <c r="D129" s="63"/>
+    </row>
+    <row r="130" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A130" s="99"/>
+      <c r="B130" s="99"/>
+      <c r="C130" s="99"/>
+      <c r="D130" s="99"/>
+      <c r="E130" s="66"/>
+      <c r="F130" s="66"/>
+      <c r="G130" s="66"/>
+      <c r="H130" s="66"/>
+      <c r="I130" s="66"/>
+      <c r="J130" s="66"/>
+      <c r="K130" s="69"/>
+      <c r="L130" s="66"/>
     </row>
     <row r="132" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A132" s="80" t="s">
-        <v>113</v>
-      </c>
-      <c r="C132" s="57">
-        <v>41</v>
-      </c>
-      <c r="E132" s="80" t="s">
-        <v>118</v>
-      </c>
+      <c r="A132" s="66"/>
+      <c r="B132" s="66"/>
+      <c r="C132" s="66"/>
+      <c r="D132" s="66"/>
+      <c r="E132" s="66"/>
+      <c r="F132" s="66"/>
+      <c r="G132" s="66"/>
+      <c r="H132" s="66"/>
       <c r="I132" s="66"/>
       <c r="J132" s="66"/>
-      <c r="K132" s="66"/>
-      <c r="L132" s="69"/>
-    </row>
-    <row r="133" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A133" s="82" t="s">
-        <v>112</v>
-      </c>
-      <c r="B133" s="66"/>
-      <c r="C133" s="66">
-        <v>41</v>
-      </c>
-      <c r="E133" s="82" t="s">
-        <v>119</v>
-      </c>
-      <c r="F133" s="66"/>
-      <c r="G133" s="66"/>
-      <c r="I133" s="85"/>
-      <c r="J133" s="85"/>
-      <c r="K133" s="85"/>
-      <c r="L133" s="131"/>
+      <c r="K132" s="69"/>
+      <c r="L132" s="66"/>
     </row>
     <row r="134" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A134" s="80" t="s">
-        <v>114</v>
-      </c>
-      <c r="E134" s="80" t="s">
-        <v>120</v>
-      </c>
-      <c r="I134" s="66"/>
-      <c r="J134" s="66"/>
-      <c r="K134" s="66"/>
-      <c r="L134" s="69"/>
+      <c r="B134" s="72" t="s">
+        <v>72</v>
+      </c>
+      <c r="F134" s="101" t="s">
+        <v>373</v>
+      </c>
+      <c r="J134" s="54" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="135" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A135" s="82" t="s">
-        <v>115</v>
-      </c>
-      <c r="B135" s="66"/>
-      <c r="C135" s="66"/>
-      <c r="E135" s="82" t="s">
-        <v>121</v>
-      </c>
-      <c r="F135" s="66"/>
-      <c r="G135" s="66"/>
-      <c r="K135" s="57"/>
-      <c r="L135" s="54"/>
+      <c r="A135" s="57" t="s">
+        <v>0</v>
+      </c>
+      <c r="B135" s="57" t="s">
+        <v>73</v>
+      </c>
+      <c r="C135" s="57" t="s">
+        <v>61</v>
+      </c>
+      <c r="E135" s="76" t="s">
+        <v>61</v>
+      </c>
+      <c r="I135" s="76" t="s">
+        <v>75</v>
+      </c>
+      <c r="K135" s="69"/>
+      <c r="L135" s="66"/>
     </row>
     <row r="136" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A136" s="80" t="s">
-        <v>116</v>
-      </c>
-      <c r="E136" s="80" t="s">
-        <v>122</v>
-      </c>
-      <c r="I136" s="66"/>
-      <c r="J136" s="66"/>
-      <c r="K136" s="66"/>
-      <c r="L136" s="69"/>
+      <c r="A136" s="76"/>
+      <c r="E136" s="76"/>
+      <c r="I136" s="76" t="s">
+        <v>76</v>
+      </c>
+      <c r="K136" s="69"/>
+      <c r="L136" s="66"/>
     </row>
     <row r="137" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A137" s="82" t="s">
-        <v>117</v>
-      </c>
+      <c r="A137" s="94"/>
       <c r="B137" s="66"/>
       <c r="C137" s="66"/>
-      <c r="E137" s="82"/>
+      <c r="D137" s="66"/>
+      <c r="E137" s="94"/>
       <c r="F137" s="66"/>
       <c r="G137" s="66"/>
-      <c r="I137" s="61"/>
-      <c r="J137" s="61"/>
-      <c r="K137" s="61"/>
-      <c r="L137" s="78"/>
+      <c r="H137" s="66"/>
+      <c r="I137" s="94"/>
+      <c r="J137" s="66"/>
+      <c r="K137" s="69"/>
+      <c r="L137" s="66"/>
+    </row>
+    <row r="138" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A138" s="76"/>
+      <c r="E138" s="76"/>
+      <c r="I138" s="76"/>
+    </row>
+    <row r="139" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A139" s="94"/>
+      <c r="B139" s="66"/>
+      <c r="C139" s="66"/>
+      <c r="D139" s="66"/>
+      <c r="E139" s="94"/>
+      <c r="F139" s="66"/>
+      <c r="G139" s="66"/>
+      <c r="H139" s="66"/>
+      <c r="I139" s="94"/>
+      <c r="J139" s="66"/>
+      <c r="K139" s="69"/>
+      <c r="L139" s="66"/>
     </row>
     <row r="140" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A140" s="90" t="s">
-        <v>68</v>
-      </c>
+      <c r="A140" s="76"/>
+      <c r="E140" s="76"/>
+      <c r="I140" s="76"/>
     </row>
     <row r="141" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A141" s="212" t="s">
-        <v>127</v>
-      </c>
-      <c r="B141" s="212"/>
-      <c r="C141" s="212"/>
-      <c r="D141" s="212"/>
-      <c r="E141" s="212"/>
-      <c r="F141" s="212"/>
-      <c r="G141" s="212"/>
-      <c r="H141" s="212"/>
-      <c r="I141" s="212"/>
-      <c r="J141" s="212"/>
-      <c r="K141" s="212"/>
-    </row>
-    <row r="142" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A142" s="212"/>
-      <c r="B142" s="212"/>
-      <c r="C142" s="212"/>
-      <c r="D142" s="212"/>
-      <c r="E142" s="212"/>
-      <c r="F142" s="212"/>
-      <c r="G142" s="212"/>
-      <c r="H142" s="212"/>
-      <c r="I142" s="212"/>
-      <c r="J142" s="212"/>
-      <c r="K142" s="212"/>
+      <c r="A141" s="94"/>
+      <c r="B141" s="66"/>
+      <c r="C141" s="66"/>
+      <c r="D141" s="66"/>
+      <c r="E141" s="94"/>
+      <c r="F141" s="66"/>
+      <c r="G141" s="66"/>
+      <c r="H141" s="66"/>
+      <c r="I141" s="94"/>
+      <c r="J141" s="66"/>
+      <c r="K141" s="69"/>
+      <c r="L141" s="66"/>
     </row>
     <row r="143" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A143" s="212"/>
-      <c r="B143" s="212"/>
-      <c r="C143" s="212"/>
-      <c r="D143" s="212"/>
-      <c r="E143" s="212"/>
-      <c r="F143" s="212"/>
-      <c r="G143" s="212"/>
-      <c r="H143" s="212"/>
-      <c r="I143" s="212"/>
-      <c r="J143" s="212"/>
-      <c r="K143" s="212"/>
+      <c r="A143" s="80" t="s">
+        <v>88</v>
+      </c>
+      <c r="B143" s="80" t="s">
+        <v>89</v>
+      </c>
+      <c r="C143" s="80" t="s">
+        <v>486</v>
+      </c>
+      <c r="D143" s="80" t="s">
+        <v>90</v>
+      </c>
+      <c r="E143" s="80" t="s">
+        <v>91</v>
+      </c>
+      <c r="F143" s="80" t="s">
+        <v>92</v>
+      </c>
+      <c r="G143" s="80" t="s">
+        <v>93</v>
+      </c>
+      <c r="H143" s="80" t="s">
+        <v>87</v>
+      </c>
+      <c r="J143" s="57" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="145" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A145" s="90" t="s">
+      <c r="A145" s="99" t="s">
+        <v>484</v>
+      </c>
+      <c r="B145" s="134" t="s">
+        <v>485</v>
+      </c>
+      <c r="C145" s="134">
         <v>6</v>
       </c>
+      <c r="D145" s="134" t="s">
+        <v>492</v>
+      </c>
+      <c r="E145" s="134">
+        <v>0</v>
+      </c>
+      <c r="F145" s="134">
+        <v>0</v>
+      </c>
+      <c r="G145" s="134"/>
+      <c r="H145" s="82" t="s">
+        <v>143</v>
+      </c>
+      <c r="J145" s="66"/>
+      <c r="K145" s="69"/>
+      <c r="L145" s="66"/>
     </row>
     <row r="146" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A146" s="212" t="s">
-        <v>124</v>
-      </c>
-      <c r="B146" s="212"/>
-      <c r="C146" s="212"/>
-      <c r="D146" s="212"/>
-      <c r="E146" s="212"/>
-      <c r="F146" s="212"/>
-      <c r="G146" s="212"/>
-      <c r="H146" s="212"/>
-      <c r="I146" s="212"/>
-      <c r="J146" s="212"/>
-      <c r="K146" s="212"/>
+      <c r="A146" s="99" t="s">
+        <v>487</v>
+      </c>
+      <c r="B146" s="134" t="s">
+        <v>485</v>
+      </c>
+      <c r="C146" s="134">
+        <v>6</v>
+      </c>
+      <c r="D146" s="134">
+        <v>0</v>
+      </c>
+      <c r="E146" s="134">
+        <v>0</v>
+      </c>
+      <c r="F146" s="134">
+        <v>0</v>
+      </c>
+      <c r="G146" s="134"/>
+      <c r="H146" s="82" t="s">
+        <v>490</v>
+      </c>
     </row>
     <row r="147" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A147" s="212"/>
-      <c r="B147" s="212"/>
-      <c r="C147" s="212"/>
-      <c r="D147" s="212"/>
-      <c r="E147" s="212"/>
-      <c r="F147" s="212"/>
-      <c r="G147" s="212"/>
-      <c r="H147" s="212"/>
-      <c r="I147" s="212"/>
-      <c r="J147" s="212"/>
-      <c r="K147" s="212"/>
+      <c r="A147" s="99" t="s">
+        <v>489</v>
+      </c>
+      <c r="B147" s="134" t="s">
+        <v>488</v>
+      </c>
+      <c r="C147" s="134">
+        <v>5</v>
+      </c>
+      <c r="D147" s="134">
+        <v>0</v>
+      </c>
+      <c r="E147" s="134">
+        <v>0</v>
+      </c>
+      <c r="F147" s="134">
+        <v>0</v>
+      </c>
+      <c r="G147" s="134"/>
+      <c r="H147" s="82" t="s">
+        <v>142</v>
+      </c>
+      <c r="J147" s="66"/>
+      <c r="K147" s="69"/>
+      <c r="L147" s="66"/>
     </row>
     <row r="148" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A148" s="212"/>
-      <c r="B148" s="212"/>
-      <c r="C148" s="212"/>
-      <c r="D148" s="212"/>
-      <c r="E148" s="212"/>
-      <c r="F148" s="212"/>
-      <c r="G148" s="212"/>
-      <c r="H148" s="212"/>
-      <c r="I148" s="212"/>
-      <c r="J148" s="212"/>
-      <c r="K148" s="212"/>
+      <c r="A148" s="99" t="s">
+        <v>491</v>
+      </c>
+      <c r="B148" s="134">
+        <v>4</v>
+      </c>
+      <c r="C148" s="134">
+        <v>6</v>
+      </c>
+      <c r="D148" s="134">
+        <v>12</v>
+      </c>
+      <c r="E148" s="134">
+        <v>3</v>
+      </c>
+      <c r="F148" s="134">
+        <v>6</v>
+      </c>
+      <c r="G148" s="134" t="s">
+        <v>493</v>
+      </c>
+      <c r="H148" s="82" t="s">
+        <v>143</v>
+      </c>
     </row>
     <row r="149" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="F149" s="72" t="s">
+      <c r="A149" s="99"/>
+      <c r="B149" s="99"/>
+      <c r="C149" s="134"/>
+      <c r="D149" s="134"/>
+      <c r="E149" s="134"/>
+      <c r="F149" s="134"/>
+      <c r="G149" s="99"/>
+      <c r="H149" s="82"/>
+      <c r="J149" s="66"/>
+      <c r="K149" s="69"/>
+      <c r="L149" s="66"/>
+    </row>
+    <row r="150" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A150" s="66"/>
+      <c r="B150" s="66"/>
+      <c r="C150" s="66"/>
+      <c r="D150" s="66"/>
+      <c r="E150" s="66"/>
+      <c r="F150" s="66"/>
+      <c r="G150" s="66"/>
+      <c r="H150" s="66"/>
+      <c r="J150" s="66"/>
+      <c r="K150" s="69"/>
+      <c r="L150" s="66"/>
+    </row>
+    <row r="175" ht="13.8" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="179" ht="13.2" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="180" ht="13.8" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="181" ht="13.8" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="199" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="F199" s="72" t="s">
         <v>445</v>
       </c>
     </row>
-    <row r="151" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A151" s="63" t="s">
+    <row r="201" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A201" s="63" t="s">
         <v>447</v>
       </c>
     </row>
-    <row r="152" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A152" s="63" t="s">
+    <row r="202" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A202" s="63" t="s">
         <v>446</v>
       </c>
     </row>
-    <row r="154" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A154" s="63" t="s">
+    <row r="204" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A204" s="63" t="s">
         <v>448</v>
       </c>
-      <c r="C154" s="63"/>
-      <c r="D154" s="63"/>
-      <c r="E154" s="63"/>
-      <c r="F154" s="63"/>
-      <c r="G154" s="63"/>
-      <c r="H154" s="63"/>
-      <c r="I154" s="63"/>
-      <c r="J154" s="63"/>
-      <c r="K154" s="63"/>
-      <c r="L154" s="63"/>
-    </row>
-    <row r="155" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="D155" s="63"/>
-      <c r="E155" s="63"/>
-      <c r="F155" s="63"/>
-      <c r="G155" s="63"/>
-      <c r="H155" s="63"/>
-      <c r="I155" s="63"/>
-      <c r="J155" s="63"/>
-      <c r="K155" s="63"/>
-      <c r="L155" s="63"/>
-    </row>
-    <row r="156" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A156" s="63" t="s">
+      <c r="C204" s="63"/>
+      <c r="D204" s="63"/>
+      <c r="E204" s="63"/>
+      <c r="F204" s="63"/>
+      <c r="G204" s="63"/>
+      <c r="H204" s="63"/>
+      <c r="I204" s="63"/>
+      <c r="J204" s="63"/>
+      <c r="K204" s="63"/>
+      <c r="L204" s="63"/>
+    </row>
+    <row r="205" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="D205" s="63"/>
+      <c r="E205" s="63"/>
+      <c r="F205" s="63"/>
+      <c r="G205" s="63"/>
+      <c r="H205" s="63"/>
+      <c r="I205" s="63"/>
+      <c r="J205" s="63"/>
+      <c r="K205" s="63"/>
+      <c r="L205" s="63"/>
+    </row>
+    <row r="206" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A206" s="63" t="s">
         <v>449</v>
       </c>
-      <c r="B156" s="63"/>
-      <c r="C156" s="63"/>
-      <c r="D156" s="63"/>
-      <c r="E156" s="63"/>
-      <c r="F156" s="63"/>
-      <c r="G156" s="63"/>
-      <c r="H156" s="63"/>
-      <c r="I156" s="63"/>
-      <c r="J156" s="63"/>
-      <c r="K156" s="63"/>
-      <c r="L156" s="63"/>
-    </row>
-    <row r="157" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B157" s="63" t="s">
+      <c r="B206" s="63"/>
+      <c r="C206" s="63"/>
+      <c r="D206" s="63"/>
+      <c r="E206" s="63"/>
+      <c r="F206" s="63"/>
+      <c r="G206" s="63"/>
+      <c r="H206" s="63"/>
+      <c r="I206" s="63"/>
+      <c r="J206" s="63"/>
+      <c r="K206" s="63"/>
+      <c r="L206" s="63"/>
+    </row>
+    <row r="207" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B207" s="63" t="s">
         <v>450</v>
       </c>
-      <c r="C157" s="63"/>
-      <c r="D157" s="63"/>
-      <c r="E157" s="63"/>
-      <c r="F157" s="63"/>
-      <c r="G157" s="63"/>
-      <c r="H157" s="63"/>
-      <c r="I157" s="63"/>
-      <c r="J157" s="63"/>
-      <c r="K157" s="63"/>
-      <c r="L157" s="63"/>
-    </row>
-    <row r="158" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A158" s="63" t="s">
+      <c r="C207" s="63"/>
+      <c r="D207" s="63"/>
+      <c r="E207" s="63"/>
+      <c r="F207" s="63"/>
+      <c r="G207" s="63"/>
+      <c r="H207" s="63"/>
+      <c r="I207" s="63"/>
+      <c r="J207" s="63"/>
+      <c r="K207" s="63"/>
+      <c r="L207" s="63"/>
+    </row>
+    <row r="208" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A208" s="63" t="s">
         <v>451</v>
       </c>
-      <c r="B158" s="63"/>
-      <c r="C158" s="63"/>
-      <c r="D158" s="63"/>
-      <c r="E158" s="63"/>
-      <c r="F158" s="63"/>
-      <c r="G158" s="63"/>
-      <c r="H158" s="63"/>
-      <c r="I158" s="63"/>
-      <c r="J158" s="63"/>
-      <c r="K158" s="63"/>
-      <c r="L158" s="63"/>
-    </row>
-    <row r="159" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A159" s="63"/>
-      <c r="B159" s="63" t="s">
+      <c r="B208" s="63"/>
+      <c r="C208" s="63"/>
+      <c r="D208" s="63"/>
+      <c r="E208" s="63"/>
+      <c r="F208" s="63"/>
+      <c r="G208" s="63"/>
+      <c r="H208" s="63"/>
+      <c r="I208" s="63"/>
+      <c r="J208" s="63"/>
+      <c r="K208" s="63"/>
+      <c r="L208" s="63"/>
+    </row>
+    <row r="209" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A209" s="63"/>
+      <c r="B209" s="63" t="s">
         <v>452</v>
       </c>
-      <c r="C159" s="63"/>
-      <c r="D159" s="63"/>
-      <c r="E159" s="63"/>
-      <c r="F159" s="63"/>
-      <c r="G159" s="63"/>
-      <c r="H159" s="63"/>
-      <c r="I159" s="63"/>
-      <c r="J159" s="63"/>
-      <c r="K159" s="63"/>
-      <c r="L159" s="63"/>
-    </row>
-    <row r="160" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A160" s="63"/>
-      <c r="B160" s="63"/>
-      <c r="C160" s="63"/>
-      <c r="D160" s="63"/>
-      <c r="E160" s="63"/>
-      <c r="F160" s="63"/>
-      <c r="G160" s="63"/>
-      <c r="H160" s="63"/>
-      <c r="I160" s="63"/>
-      <c r="J160" s="63"/>
-      <c r="K160" s="63"/>
-      <c r="L160" s="63"/>
-    </row>
-    <row r="161" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A161" s="63"/>
-      <c r="B161" s="63"/>
-      <c r="C161" s="63"/>
-      <c r="D161" s="63"/>
-      <c r="E161" s="63"/>
-      <c r="F161" s="63"/>
-      <c r="G161" s="63"/>
-      <c r="H161" s="63"/>
-      <c r="I161" s="63"/>
-      <c r="J161" s="63"/>
-      <c r="K161" s="63"/>
-      <c r="L161" s="63"/>
-    </row>
-    <row r="162" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A162" s="63"/>
-      <c r="B162" s="63"/>
-      <c r="C162" s="63"/>
-      <c r="D162" s="63"/>
-      <c r="E162" s="63"/>
-      <c r="F162" s="63"/>
-      <c r="G162" s="63"/>
-      <c r="H162" s="63"/>
-      <c r="I162" s="63"/>
-      <c r="J162" s="63"/>
-      <c r="K162" s="63"/>
-      <c r="L162" s="63"/>
-    </row>
-    <row r="163" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A163" s="63"/>
-      <c r="B163" s="63"/>
-      <c r="C163" s="63"/>
-      <c r="D163" s="63"/>
-      <c r="E163" s="63"/>
-      <c r="F163" s="63"/>
-      <c r="G163" s="63"/>
-      <c r="H163" s="63"/>
-      <c r="I163" s="63"/>
-      <c r="J163" s="63"/>
-      <c r="K163" s="63"/>
-      <c r="L163" s="63"/>
-    </row>
-    <row r="164" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A164" s="72" t="s">
+      <c r="C209" s="63"/>
+      <c r="D209" s="63"/>
+      <c r="E209" s="63"/>
+      <c r="F209" s="63"/>
+      <c r="G209" s="63"/>
+      <c r="H209" s="63"/>
+      <c r="I209" s="63"/>
+      <c r="J209" s="63"/>
+      <c r="K209" s="63"/>
+      <c r="L209" s="63"/>
+    </row>
+    <row r="210" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A210" s="63"/>
+      <c r="B210" s="63"/>
+      <c r="C210" s="63"/>
+      <c r="D210" s="63"/>
+      <c r="E210" s="63"/>
+      <c r="F210" s="63"/>
+      <c r="G210" s="63"/>
+      <c r="H210" s="63"/>
+      <c r="I210" s="63"/>
+      <c r="J210" s="63"/>
+      <c r="K210" s="63"/>
+      <c r="L210" s="63"/>
+    </row>
+    <row r="211" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A211" s="63"/>
+      <c r="B211" s="63"/>
+      <c r="C211" s="63"/>
+      <c r="D211" s="63"/>
+      <c r="E211" s="63"/>
+      <c r="F211" s="63"/>
+      <c r="G211" s="63"/>
+      <c r="H211" s="63"/>
+      <c r="I211" s="63"/>
+      <c r="J211" s="63"/>
+      <c r="K211" s="63"/>
+      <c r="L211" s="63"/>
+    </row>
+    <row r="212" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A212" s="63"/>
+      <c r="B212" s="63"/>
+      <c r="C212" s="63"/>
+      <c r="D212" s="63"/>
+      <c r="E212" s="63"/>
+      <c r="F212" s="63"/>
+      <c r="G212" s="63"/>
+      <c r="H212" s="63"/>
+      <c r="I212" s="63"/>
+      <c r="J212" s="63"/>
+      <c r="K212" s="63"/>
+      <c r="L212" s="63"/>
+    </row>
+    <row r="213" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A213" s="63"/>
+      <c r="B213" s="63"/>
+      <c r="C213" s="63"/>
+      <c r="D213" s="63"/>
+      <c r="E213" s="63"/>
+      <c r="F213" s="63"/>
+      <c r="G213" s="63"/>
+      <c r="H213" s="63"/>
+      <c r="I213" s="63"/>
+      <c r="J213" s="63"/>
+      <c r="K213" s="63"/>
+      <c r="L213" s="63"/>
+    </row>
+    <row r="214" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A214" s="72" t="s">
         <v>208</v>
       </c>
-      <c r="B164" s="90" t="s">
+      <c r="B214" s="90" t="s">
         <v>466</v>
       </c>
-      <c r="J164" s="72" t="s">
+      <c r="J214" s="72" t="s">
         <v>201</v>
       </c>
-      <c r="K164" s="57"/>
-    </row>
-    <row r="165" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A165" s="72">
+      <c r="K214" s="57"/>
+    </row>
+    <row r="215" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A215" s="72">
         <v>10</v>
       </c>
-      <c r="B165" s="80" t="s">
+      <c r="B215" s="80" t="s">
         <v>467</v>
       </c>
-      <c r="I165" s="80" t="s">
+      <c r="I215" s="80" t="s">
         <v>202</v>
       </c>
-      <c r="K165" s="57" t="s">
+      <c r="K215" s="57" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="166" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A166" s="72">
+    <row r="216" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A216" s="72">
         <v>9</v>
       </c>
-      <c r="B166" s="80" t="s">
+      <c r="B216" s="80" t="s">
         <v>468</v>
       </c>
-      <c r="I166" s="80" t="s">
+      <c r="I216" s="80" t="s">
         <v>7</v>
       </c>
-      <c r="K166" s="57" t="s">
+      <c r="K216" s="57" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="167" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A167" s="72">
+    <row r="217" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A217" s="72">
         <v>8</v>
       </c>
-      <c r="B167" s="80" t="s">
+      <c r="B217" s="80" t="s">
         <v>469</v>
       </c>
-      <c r="I167" s="80" t="s">
+      <c r="I217" s="80" t="s">
         <v>21</v>
       </c>
-      <c r="K167" s="57" t="s">
+      <c r="K217" s="57" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="168" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A168" s="72">
+    <row r="218" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A218" s="72">
         <v>7</v>
       </c>
-      <c r="B168" s="80" t="s">
+      <c r="B218" s="80" t="s">
         <v>470</v>
       </c>
-      <c r="I168" s="80" t="s">
+      <c r="I218" s="80" t="s">
         <v>56</v>
       </c>
-      <c r="K168" s="57" t="s">
+      <c r="K218" s="57" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="169" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A169" s="72">
+    <row r="219" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A219" s="72">
         <v>6</v>
       </c>
-      <c r="B169" s="80" t="s">
+      <c r="B219" s="80" t="s">
         <v>471</v>
       </c>
-      <c r="I169" s="80" t="s">
+      <c r="I219" s="80" t="s">
         <v>55</v>
       </c>
-      <c r="K169" s="57" t="s">
+      <c r="K219" s="57" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="170" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A170" s="72">
+    <row r="220" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A220" s="72">
         <v>5</v>
       </c>
-      <c r="B170" s="80" t="s">
+      <c r="B220" s="80" t="s">
         <v>482</v>
       </c>
-      <c r="I170" s="80" t="s">
+      <c r="I220" s="80" t="s">
         <v>57</v>
       </c>
-      <c r="K170" s="57" t="s">
+      <c r="K220" s="57" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="171" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A171" s="72">
+    <row r="221" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A221" s="72">
         <v>4</v>
       </c>
-      <c r="B171" s="80" t="s">
+      <c r="B221" s="80" t="s">
         <v>472</v>
       </c>
-      <c r="I171" s="80" t="s">
+      <c r="I221" s="80" t="s">
         <v>208</v>
       </c>
-      <c r="K171" s="57" t="s">
+      <c r="K221" s="57" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="172" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A172" s="72">
+    <row r="222" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A222" s="72">
         <v>3</v>
       </c>
-      <c r="B172" s="80" t="s">
+      <c r="B222" s="80" t="s">
         <v>473</v>
       </c>
-      <c r="I172" s="80" t="s">
+      <c r="I222" s="80" t="s">
         <v>20</v>
       </c>
-      <c r="K172" s="57" t="s">
+      <c r="K222" s="57" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="173" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A173" s="72">
+    <row r="223" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A223" s="72">
         <v>2</v>
       </c>
-      <c r="B173" s="80" t="s">
+      <c r="B223" s="80" t="s">
         <v>474</v>
       </c>
     </row>
-    <row r="174" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A174" s="72">
+    <row r="224" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A224" s="72">
         <v>1</v>
       </c>
-      <c r="B174" s="80" t="s">
+      <c r="B224" s="80" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="175" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A175" s="72">
+    <row r="225" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A225" s="72">
         <v>0</v>
       </c>
-      <c r="B175" s="80" t="s">
+      <c r="B225" s="80" t="s">
         <v>476</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A141:K143"/>
-    <mergeCell ref="A146:K148"/>
+    <mergeCell ref="A93:L96"/>
+    <mergeCell ref="A98:L100"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
@@ -23236,45 +23415,45 @@
       </c>
     </row>
     <row r="142" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A142" s="212" t="s">
+      <c r="A142" s="218" t="s">
         <v>426</v>
       </c>
-      <c r="B142" s="212"/>
-      <c r="C142" s="212"/>
-      <c r="D142" s="212"/>
-      <c r="E142" s="212"/>
-      <c r="F142" s="212"/>
-      <c r="G142" s="212"/>
-      <c r="H142" s="212"/>
-      <c r="I142" s="212"/>
-      <c r="J142" s="212"/>
-      <c r="K142" s="212"/>
+      <c r="B142" s="218"/>
+      <c r="C142" s="218"/>
+      <c r="D142" s="218"/>
+      <c r="E142" s="218"/>
+      <c r="F142" s="218"/>
+      <c r="G142" s="218"/>
+      <c r="H142" s="218"/>
+      <c r="I142" s="218"/>
+      <c r="J142" s="218"/>
+      <c r="K142" s="218"/>
     </row>
     <row r="143" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A143" s="212"/>
-      <c r="B143" s="212"/>
-      <c r="C143" s="212"/>
-      <c r="D143" s="212"/>
-      <c r="E143" s="212"/>
-      <c r="F143" s="212"/>
-      <c r="G143" s="212"/>
-      <c r="H143" s="212"/>
-      <c r="I143" s="212"/>
-      <c r="J143" s="212"/>
-      <c r="K143" s="212"/>
+      <c r="A143" s="218"/>
+      <c r="B143" s="218"/>
+      <c r="C143" s="218"/>
+      <c r="D143" s="218"/>
+      <c r="E143" s="218"/>
+      <c r="F143" s="218"/>
+      <c r="G143" s="218"/>
+      <c r="H143" s="218"/>
+      <c r="I143" s="218"/>
+      <c r="J143" s="218"/>
+      <c r="K143" s="218"/>
     </row>
     <row r="144" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A144" s="212"/>
-      <c r="B144" s="212"/>
-      <c r="C144" s="212"/>
-      <c r="D144" s="212"/>
-      <c r="E144" s="212"/>
-      <c r="F144" s="212"/>
-      <c r="G144" s="212"/>
-      <c r="H144" s="212"/>
-      <c r="I144" s="212"/>
-      <c r="J144" s="212"/>
-      <c r="K144" s="212"/>
+      <c r="A144" s="218"/>
+      <c r="B144" s="218"/>
+      <c r="C144" s="218"/>
+      <c r="D144" s="218"/>
+      <c r="E144" s="218"/>
+      <c r="F144" s="218"/>
+      <c r="G144" s="218"/>
+      <c r="H144" s="218"/>
+      <c r="I144" s="218"/>
+      <c r="J144" s="218"/>
+      <c r="K144" s="218"/>
     </row>
     <row r="146" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A146" s="90" t="s">
@@ -23282,45 +23461,45 @@
       </c>
     </row>
     <row r="147" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A147" s="212" t="s">
+      <c r="A147" s="218" t="s">
         <v>427</v>
       </c>
-      <c r="B147" s="212"/>
-      <c r="C147" s="212"/>
-      <c r="D147" s="212"/>
-      <c r="E147" s="212"/>
-      <c r="F147" s="212"/>
-      <c r="G147" s="212"/>
-      <c r="H147" s="212"/>
-      <c r="I147" s="212"/>
-      <c r="J147" s="212"/>
-      <c r="K147" s="212"/>
+      <c r="B147" s="218"/>
+      <c r="C147" s="218"/>
+      <c r="D147" s="218"/>
+      <c r="E147" s="218"/>
+      <c r="F147" s="218"/>
+      <c r="G147" s="218"/>
+      <c r="H147" s="218"/>
+      <c r="I147" s="218"/>
+      <c r="J147" s="218"/>
+      <c r="K147" s="218"/>
     </row>
     <row r="148" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A148" s="212"/>
-      <c r="B148" s="212"/>
-      <c r="C148" s="212"/>
-      <c r="D148" s="212"/>
-      <c r="E148" s="212"/>
-      <c r="F148" s="212"/>
-      <c r="G148" s="212"/>
-      <c r="H148" s="212"/>
-      <c r="I148" s="212"/>
-      <c r="J148" s="212"/>
-      <c r="K148" s="212"/>
+      <c r="A148" s="218"/>
+      <c r="B148" s="218"/>
+      <c r="C148" s="218"/>
+      <c r="D148" s="218"/>
+      <c r="E148" s="218"/>
+      <c r="F148" s="218"/>
+      <c r="G148" s="218"/>
+      <c r="H148" s="218"/>
+      <c r="I148" s="218"/>
+      <c r="J148" s="218"/>
+      <c r="K148" s="218"/>
     </row>
     <row r="149" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A149" s="212"/>
-      <c r="B149" s="212"/>
-      <c r="C149" s="212"/>
-      <c r="D149" s="212"/>
-      <c r="E149" s="212"/>
-      <c r="F149" s="212"/>
-      <c r="G149" s="212"/>
-      <c r="H149" s="212"/>
-      <c r="I149" s="212"/>
-      <c r="J149" s="212"/>
-      <c r="K149" s="212"/>
+      <c r="A149" s="218"/>
+      <c r="B149" s="218"/>
+      <c r="C149" s="218"/>
+      <c r="D149" s="218"/>
+      <c r="E149" s="218"/>
+      <c r="F149" s="218"/>
+      <c r="G149" s="218"/>
+      <c r="H149" s="218"/>
+      <c r="I149" s="218"/>
+      <c r="J149" s="218"/>
+      <c r="K149" s="218"/>
     </row>
     <row r="150" spans="1:11" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="F150" s="71" t="s">
@@ -23751,18 +23930,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="223" t="s">
+      <c r="A1" s="229" t="s">
         <v>209</v>
       </c>
-      <c r="B1" s="223"/>
-      <c r="C1" s="223"/>
-      <c r="D1" s="223"/>
-      <c r="E1" s="223"/>
-      <c r="F1" s="223"/>
-      <c r="G1" s="223"/>
-      <c r="H1" s="223"/>
-      <c r="I1" s="223"/>
-      <c r="J1" s="223"/>
+      <c r="B1" s="229"/>
+      <c r="C1" s="229"/>
+      <c r="D1" s="229"/>
+      <c r="E1" s="229"/>
+      <c r="F1" s="229"/>
+      <c r="G1" s="229"/>
+      <c r="H1" s="229"/>
+      <c r="I1" s="229"/>
+      <c r="J1" s="229"/>
       <c r="K1" s="34"/>
       <c r="L1" s="34"/>
       <c r="M1" s="34"/>
@@ -24179,121 +24358,121 @@
       <c r="A23" s="13" t="s">
         <v>229</v>
       </c>
-      <c r="C23" s="222" t="s">
+      <c r="C23" s="228" t="s">
         <v>230</v>
       </c>
-      <c r="D23" s="222"/>
-      <c r="E23" s="222"/>
-      <c r="F23" s="222"/>
-      <c r="G23" s="222"/>
-      <c r="H23" s="222"/>
-      <c r="I23" s="222"/>
-      <c r="J23" s="222"/>
+      <c r="D23" s="228"/>
+      <c r="E23" s="228"/>
+      <c r="F23" s="228"/>
+      <c r="G23" s="228"/>
+      <c r="H23" s="228"/>
+      <c r="I23" s="228"/>
+      <c r="J23" s="228"/>
     </row>
     <row r="24" spans="1:10" ht="46.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="13" t="s">
         <v>210</v>
       </c>
-      <c r="C24" s="222" t="s">
+      <c r="C24" s="228" t="s">
         <v>223</v>
       </c>
-      <c r="D24" s="222"/>
-      <c r="E24" s="222"/>
-      <c r="F24" s="222"/>
-      <c r="G24" s="222"/>
-      <c r="H24" s="222"/>
-      <c r="I24" s="222"/>
-      <c r="J24" s="222"/>
+      <c r="D24" s="228"/>
+      <c r="E24" s="228"/>
+      <c r="F24" s="228"/>
+      <c r="G24" s="228"/>
+      <c r="H24" s="228"/>
+      <c r="I24" s="228"/>
+      <c r="J24" s="228"/>
     </row>
     <row r="25" spans="1:10" ht="46.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="13" t="s">
         <v>211</v>
       </c>
-      <c r="C25" s="222" t="s">
+      <c r="C25" s="228" t="s">
         <v>224</v>
       </c>
-      <c r="D25" s="222"/>
-      <c r="E25" s="222"/>
-      <c r="F25" s="222"/>
-      <c r="G25" s="222"/>
-      <c r="H25" s="222"/>
-      <c r="I25" s="222"/>
-      <c r="J25" s="222"/>
+      <c r="D25" s="228"/>
+      <c r="E25" s="228"/>
+      <c r="F25" s="228"/>
+      <c r="G25" s="228"/>
+      <c r="H25" s="228"/>
+      <c r="I25" s="228"/>
+      <c r="J25" s="228"/>
     </row>
     <row r="26" spans="1:10" ht="46.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="13" t="s">
         <v>212</v>
       </c>
-      <c r="C26" s="222" t="s">
+      <c r="C26" s="228" t="s">
         <v>225</v>
       </c>
-      <c r="D26" s="222"/>
-      <c r="E26" s="222"/>
-      <c r="F26" s="222"/>
-      <c r="G26" s="222"/>
-      <c r="H26" s="222"/>
-      <c r="I26" s="222"/>
-      <c r="J26" s="222"/>
+      <c r="D26" s="228"/>
+      <c r="E26" s="228"/>
+      <c r="F26" s="228"/>
+      <c r="G26" s="228"/>
+      <c r="H26" s="228"/>
+      <c r="I26" s="228"/>
+      <c r="J26" s="228"/>
     </row>
     <row r="27" spans="1:10" ht="46.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="13" t="s">
         <v>219</v>
       </c>
-      <c r="C27" s="222" t="s">
+      <c r="C27" s="228" t="s">
         <v>226</v>
       </c>
-      <c r="D27" s="222"/>
-      <c r="E27" s="222"/>
-      <c r="F27" s="222"/>
-      <c r="G27" s="222"/>
-      <c r="H27" s="222"/>
-      <c r="I27" s="222"/>
-      <c r="J27" s="222"/>
+      <c r="D27" s="228"/>
+      <c r="E27" s="228"/>
+      <c r="F27" s="228"/>
+      <c r="G27" s="228"/>
+      <c r="H27" s="228"/>
+      <c r="I27" s="228"/>
+      <c r="J27" s="228"/>
     </row>
     <row r="28" spans="1:10" ht="46.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="13" t="s">
         <v>220</v>
       </c>
-      <c r="C28" s="222" t="s">
+      <c r="C28" s="228" t="s">
         <v>227</v>
       </c>
-      <c r="D28" s="222"/>
-      <c r="E28" s="222"/>
-      <c r="F28" s="222"/>
-      <c r="G28" s="222"/>
-      <c r="H28" s="222"/>
-      <c r="I28" s="222"/>
-      <c r="J28" s="222"/>
+      <c r="D28" s="228"/>
+      <c r="E28" s="228"/>
+      <c r="F28" s="228"/>
+      <c r="G28" s="228"/>
+      <c r="H28" s="228"/>
+      <c r="I28" s="228"/>
+      <c r="J28" s="228"/>
     </row>
     <row r="29" spans="1:10" ht="46.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="13" t="s">
         <v>221</v>
       </c>
-      <c r="C29" s="222" t="s">
+      <c r="C29" s="228" t="s">
         <v>234</v>
       </c>
-      <c r="D29" s="222"/>
-      <c r="E29" s="222"/>
-      <c r="F29" s="222"/>
-      <c r="G29" s="222"/>
-      <c r="H29" s="222"/>
-      <c r="I29" s="222"/>
-      <c r="J29" s="222"/>
+      <c r="D29" s="228"/>
+      <c r="E29" s="228"/>
+      <c r="F29" s="228"/>
+      <c r="G29" s="228"/>
+      <c r="H29" s="228"/>
+      <c r="I29" s="228"/>
+      <c r="J29" s="228"/>
     </row>
     <row r="30" spans="1:10" ht="46.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="13" t="s">
         <v>232</v>
       </c>
-      <c r="C30" s="222" t="s">
+      <c r="C30" s="228" t="s">
         <v>233</v>
       </c>
-      <c r="D30" s="222"/>
-      <c r="E30" s="222"/>
-      <c r="F30" s="222"/>
-      <c r="G30" s="222"/>
-      <c r="H30" s="222"/>
-      <c r="I30" s="222"/>
-      <c r="J30" s="222"/>
+      <c r="D30" s="228"/>
+      <c r="E30" s="228"/>
+      <c r="F30" s="228"/>
+      <c r="G30" s="228"/>
+      <c r="H30" s="228"/>
+      <c r="I30" s="228"/>
+      <c r="J30" s="228"/>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B31"/>
@@ -26088,11 +26267,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB020AF3-E2AF-4B08-9CF1-A8BB16CCBDFC}">
-  <dimension ref="A1:L225"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9F6B7E5-20DC-4256-8C7B-E01845B2F220}">
+  <sheetPr codeName="Foglio2"/>
+  <dimension ref="A1:L175"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="N15" sqref="N15"/>
+    <sheetView topLeftCell="A22" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+      <selection activeCell="I40" sqref="I40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
@@ -26115,7 +26295,7 @@
         <v>5</v>
       </c>
       <c r="G1" s="54" t="s">
-        <v>1070</v>
+        <v>62</v>
       </c>
       <c r="H1" s="151" t="s">
         <v>173</v>
@@ -26125,8 +26305,8 @@
       </c>
       <c r="J1" s="100"/>
       <c r="K1" s="61"/>
-      <c r="L1" s="210" t="s">
-        <v>1051</v>
+      <c r="L1" s="174" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
@@ -26134,16 +26314,16 @@
         <v>0</v>
       </c>
       <c r="B3" s="57" t="s">
-        <v>1046</v>
+        <v>428</v>
       </c>
       <c r="E3" s="156" t="s">
         <v>2</v>
       </c>
       <c r="F3" s="152" t="s">
-        <v>537</v>
+        <v>431</v>
       </c>
       <c r="H3" s="55" t="s">
-        <v>1047</v>
+        <v>432</v>
       </c>
       <c r="K3" s="57"/>
     </row>
@@ -26152,10 +26332,16 @@
         <v>343</v>
       </c>
       <c r="B4" s="57" t="s">
-        <v>1074</v>
+        <v>125</v>
+      </c>
+      <c r="E4" s="156" t="s">
+        <v>3</v>
+      </c>
+      <c r="F4" s="152" t="s">
+        <v>430</v>
       </c>
       <c r="H4" s="55" t="s">
-        <v>1048</v>
+        <v>433</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
@@ -26163,125 +26349,102 @@
         <v>4</v>
       </c>
       <c r="B5" s="152" t="s">
-        <v>502</v>
-      </c>
-      <c r="E5" s="211" t="s">
+        <v>429</v>
+      </c>
+      <c r="E5" s="156" t="s">
+        <v>69</v>
+      </c>
+      <c r="F5" s="57" t="s">
+        <v>126</v>
+      </c>
+      <c r="H5" s="55"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="F7" s="72" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="72" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="73"/>
+      <c r="D8" s="73"/>
+      <c r="E8" s="73"/>
+      <c r="F8" s="72" t="s">
+        <v>9</v>
+      </c>
+      <c r="G8" s="73"/>
+      <c r="H8" s="73"/>
+      <c r="I8" s="73"/>
+      <c r="J8" s="72" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A9" s="165" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="63" t="s">
+        <v>434</v>
+      </c>
+      <c r="D9" s="164">
+        <v>4</v>
+      </c>
+      <c r="E9" s="165" t="s">
+        <v>12</v>
+      </c>
+      <c r="H9" s="163">
+        <v>2</v>
+      </c>
+      <c r="I9" s="165" t="s">
+        <v>13</v>
+      </c>
+      <c r="L9" s="163">
         <v>3</v>
-      </c>
-      <c r="F5" s="139" t="s">
-        <v>538</v>
-      </c>
-      <c r="G5" s="85"/>
-      <c r="H5" s="140" t="s">
-        <v>1049</v>
-      </c>
-      <c r="I5" s="85"/>
-      <c r="J5" s="85"/>
-      <c r="K5" s="131"/>
-      <c r="L5" s="85"/>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A6" s="156" t="s">
-        <v>69</v>
-      </c>
-      <c r="B6" s="57" t="s">
-        <v>126</v>
-      </c>
-      <c r="H6" s="55" t="s">
-        <v>1050</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F8" s="72" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B9" s="72" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" s="73"/>
-      <c r="D9" s="73"/>
-      <c r="E9" s="73"/>
-      <c r="F9" s="72" t="s">
-        <v>9</v>
-      </c>
-      <c r="G9" s="73"/>
-      <c r="H9" s="73"/>
-      <c r="I9" s="73"/>
-      <c r="J9" s="72" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" s="165" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10" s="80"/>
+        <v>14</v>
+      </c>
       <c r="D10" s="163">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E10" s="165" t="s">
-        <v>12</v>
-      </c>
-      <c r="F10" s="80"/>
+        <v>16</v>
+      </c>
       <c r="H10" s="163">
         <v>3</v>
       </c>
       <c r="I10" s="165" t="s">
-        <v>13</v>
-      </c>
-      <c r="J10" s="80"/>
+        <v>18</v>
+      </c>
       <c r="L10" s="163">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" s="165" t="s">
-        <v>14</v>
-      </c>
-      <c r="B11" s="80"/>
+        <v>15</v>
+      </c>
       <c r="D11" s="163">
         <v>2</v>
       </c>
       <c r="E11" s="165" t="s">
-        <v>16</v>
-      </c>
-      <c r="F11" s="80"/>
+        <v>17</v>
+      </c>
       <c r="H11" s="163">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I11" s="165" t="s">
-        <v>18</v>
-      </c>
-      <c r="J11" s="80"/>
-      <c r="L11" s="163">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A12" s="165" t="s">
-        <v>15</v>
-      </c>
-      <c r="B12" s="80"/>
-      <c r="D12" s="163">
-        <v>3</v>
-      </c>
-      <c r="E12" s="165" t="s">
-        <v>17</v>
-      </c>
-      <c r="F12" s="80" t="s">
-        <v>543</v>
-      </c>
-      <c r="H12" s="163">
-        <v>5</v>
-      </c>
-      <c r="I12" s="165" t="s">
         <v>19</v>
       </c>
-      <c r="J12" s="80"/>
-      <c r="L12" s="163">
-        <v>2</v>
+      <c r="J11" s="63" t="s">
+        <v>435</v>
+      </c>
+      <c r="L11" s="164">
+        <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
@@ -26315,14 +26478,12 @@
       <c r="A16" s="154" t="s">
         <v>23</v>
       </c>
-      <c r="B16" s="80"/>
       <c r="D16" s="163">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E16" s="154" t="s">
         <v>438</v>
       </c>
-      <c r="F16" s="80"/>
       <c r="G16" s="54"/>
       <c r="H16" s="163">
         <v>0</v>
@@ -26330,57 +26491,48 @@
       <c r="I16" s="154" t="s">
         <v>31</v>
       </c>
-      <c r="J16" s="111" t="s">
-        <v>1052</v>
-      </c>
       <c r="L16" s="163">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" s="154" t="s">
         <v>32</v>
       </c>
-      <c r="B17" s="80"/>
       <c r="D17" s="163">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E17" s="154" t="s">
         <v>33</v>
       </c>
-      <c r="F17" s="80"/>
       <c r="G17" s="54"/>
       <c r="H17" s="163">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I17" s="154" t="s">
         <v>34</v>
       </c>
-      <c r="J17" s="80"/>
       <c r="L17" s="163">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" s="154" t="s">
         <v>436</v>
       </c>
-      <c r="B18" s="80"/>
       <c r="D18" s="163">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E18" s="154" t="s">
         <v>437</v>
       </c>
-      <c r="F18" s="80"/>
       <c r="G18" s="54"/>
       <c r="H18" s="163">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I18" s="154" t="s">
         <v>36</v>
       </c>
-      <c r="J18" s="80"/>
       <c r="L18" s="163">
         <v>0</v>
       </c>
@@ -26389,70 +26541,61 @@
       <c r="A19" s="154" t="s">
         <v>26</v>
       </c>
-      <c r="B19" s="80"/>
       <c r="D19" s="163">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E19" s="154" t="s">
         <v>38</v>
       </c>
-      <c r="F19" s="80"/>
       <c r="G19" s="54"/>
       <c r="H19" s="163">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I19" s="154" t="s">
         <v>45</v>
       </c>
-      <c r="J19" s="80"/>
       <c r="L19" s="163">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20" s="154" t="s">
         <v>27</v>
       </c>
-      <c r="B20" s="80"/>
       <c r="D20" s="163">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E20" s="154" t="s">
         <v>39</v>
       </c>
-      <c r="F20" s="80"/>
       <c r="G20" s="54"/>
       <c r="H20" s="163">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I20" s="154" t="s">
         <v>46</v>
       </c>
-      <c r="J20" s="80"/>
       <c r="L20" s="163">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21" s="154" t="s">
         <v>28</v>
       </c>
-      <c r="B21" s="80"/>
       <c r="D21" s="163">
         <v>2</v>
       </c>
       <c r="E21" s="154" t="s">
         <v>40</v>
       </c>
-      <c r="F21" s="80"/>
       <c r="G21" s="54"/>
       <c r="H21" s="163">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I21" s="154" t="s">
         <v>47</v>
       </c>
-      <c r="J21" s="80"/>
       <c r="L21" s="163">
         <v>0</v>
       </c>
@@ -26461,14 +26604,15 @@
       <c r="A22" s="154" t="s">
         <v>24</v>
       </c>
-      <c r="B22" s="80"/>
-      <c r="D22" s="163">
-        <v>1</v>
+      <c r="B22" s="80" t="s">
+        <v>439</v>
+      </c>
+      <c r="D22" s="164">
+        <v>4</v>
       </c>
       <c r="E22" s="154" t="s">
         <v>41</v>
       </c>
-      <c r="F22" s="80"/>
       <c r="G22" s="54"/>
       <c r="H22" s="163">
         <v>0</v>
@@ -26476,47 +26620,41 @@
       <c r="I22" s="154" t="s">
         <v>48</v>
       </c>
-      <c r="J22" s="80"/>
       <c r="L22" s="163">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A23" s="154" t="s">
         <v>1045</v>
       </c>
-      <c r="B23" s="80"/>
       <c r="D23" s="163">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E23" s="154" t="s">
         <v>42</v>
       </c>
-      <c r="F23" s="80"/>
       <c r="G23" s="54"/>
       <c r="H23" s="163">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I23" s="154" t="s">
         <v>49</v>
       </c>
-      <c r="J23" s="80"/>
       <c r="L23" s="163">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A24" s="154" t="s">
         <v>358</v>
       </c>
-      <c r="B24" s="80"/>
       <c r="D24" s="163">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E24" s="154" t="s">
         <v>43</v>
       </c>
-      <c r="F24" s="80"/>
       <c r="G24" s="54"/>
       <c r="H24" s="163">
         <v>0</v>
@@ -26524,23 +26662,20 @@
       <c r="I24" s="154" t="s">
         <v>50</v>
       </c>
-      <c r="J24" s="80"/>
       <c r="L24" s="163">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A25" s="154" t="s">
         <v>29</v>
       </c>
-      <c r="B25" s="80"/>
       <c r="D25" s="163">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E25" s="154" t="s">
         <v>44</v>
       </c>
-      <c r="F25" s="80"/>
       <c r="G25" s="54"/>
       <c r="H25" s="163">
         <v>1</v>
@@ -26548,9 +26683,8 @@
       <c r="I25" s="154" t="s">
         <v>51</v>
       </c>
-      <c r="J25" s="80"/>
       <c r="L25" s="163">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.3">
@@ -26592,7 +26726,7 @@
         <v>58</v>
       </c>
       <c r="J29" s="167">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K29" s="162" t="s">
         <v>465</v>
@@ -26600,14 +26734,14 @@
       <c r="L29" s="54"/>
     </row>
     <row r="30" spans="1:12" s="73" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="57" t="s">
-        <v>546</v>
+      <c r="A30" s="80" t="s">
+        <v>319</v>
       </c>
       <c r="B30" s="54">
         <v>1</v>
       </c>
       <c r="C30" s="80" t="s">
-        <v>1075</v>
+        <v>444</v>
       </c>
       <c r="D30" s="57"/>
       <c r="E30" s="57"/>
@@ -26626,7 +26760,7 @@
       <c r="L30" s="54"/>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A31" s="57" t="s">
+      <c r="A31" s="80" t="s">
         <v>328</v>
       </c>
       <c r="B31" s="54">
@@ -26639,7 +26773,7 @@
         <v>59</v>
       </c>
       <c r="J31" s="167">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K31" s="55" t="s">
         <v>479</v>
@@ -26647,14 +26781,14 @@
       <c r="L31" s="54"/>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A32" s="57" t="s">
-        <v>320</v>
+      <c r="A32" s="80" t="s">
+        <v>322</v>
       </c>
       <c r="B32" s="54">
         <v>1</v>
       </c>
       <c r="C32" s="80" t="s">
-        <v>1076</v>
+        <v>442</v>
       </c>
       <c r="H32" s="63" t="s">
         <v>70</v>
@@ -26665,21 +26799,21 @@
       <c r="L32" s="54"/>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A33" s="57" t="s">
-        <v>320</v>
+      <c r="A33" s="80" t="s">
+        <v>322</v>
       </c>
       <c r="B33" s="54">
         <v>2</v>
       </c>
       <c r="C33" s="80" t="s">
-        <v>1078</v>
+        <v>443</v>
       </c>
       <c r="H33" s="63" t="s">
         <v>66</v>
       </c>
       <c r="J33" s="167">
         <f>J29+J30</f>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K33" s="162" t="s">
         <v>464</v>
@@ -26687,19 +26821,17 @@
       <c r="L33" s="54"/>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A34" s="224"/>
-      <c r="B34" s="224"/>
-      <c r="C34" s="225" t="s">
-        <v>1077</v>
-      </c>
-      <c r="D34" s="224"/>
-      <c r="E34" s="224"/>
-      <c r="F34" s="224"/>
+      <c r="A34" s="61"/>
+      <c r="B34" s="61"/>
+      <c r="C34" s="61"/>
+      <c r="D34" s="61"/>
+      <c r="E34" s="61"/>
+      <c r="F34" s="61"/>
       <c r="H34" s="63" t="s">
         <v>20</v>
       </c>
       <c r="J34" s="167">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K34" s="162" t="s">
         <v>478</v>
@@ -26708,7 +26840,7 @@
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.3">
       <c r="H35" s="63" t="s">
-        <v>1053</v>
+        <v>67</v>
       </c>
       <c r="J35" s="167">
         <v>10</v>
@@ -26965,95 +27097,68 @@
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A51" s="80" t="s">
-        <v>55</v>
-      </c>
-      <c r="C51" s="75" t="s">
+      <c r="F51" s="72" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" ht="13.8" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A53" s="57" t="s">
+        <v>78</v>
+      </c>
+      <c r="D53" s="57" t="s">
         <v>73</v>
       </c>
-      <c r="D51" s="80" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A52" s="165" t="s">
-        <v>780</v>
-      </c>
-      <c r="C52" s="54">
-        <v>2</v>
-      </c>
-      <c r="D52" s="80" t="s">
-        <v>1066</v>
-      </c>
-    </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A53" s="165" t="s">
-        <v>97</v>
-      </c>
-      <c r="C53" s="54">
-        <v>2</v>
-      </c>
-      <c r="D53" s="80" t="s">
-        <v>1067</v>
-      </c>
-    </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A54" s="165" t="s">
-        <v>99</v>
-      </c>
-      <c r="C54" s="54">
-        <v>3</v>
-      </c>
-      <c r="D54" s="80" t="s">
-        <v>1068</v>
-      </c>
-      <c r="E54" s="155"/>
+      <c r="E53" s="57" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A55" s="165" t="s">
-        <v>5</v>
-      </c>
-      <c r="C55" s="54">
+      <c r="A55" s="99" t="s">
+        <v>407</v>
+      </c>
+      <c r="B55" s="66"/>
+      <c r="C55" s="66"/>
+      <c r="D55" s="169">
         <v>1</v>
       </c>
-      <c r="D55" s="80" t="s">
-        <v>1069</v>
-      </c>
-      <c r="E55" s="155"/>
+      <c r="E55" s="99" t="s">
+        <v>483</v>
+      </c>
+      <c r="F55" s="66"/>
+      <c r="G55" s="66"/>
+      <c r="H55" s="66"/>
+      <c r="I55" s="66"/>
+      <c r="J55" s="66"/>
+      <c r="K55" s="69"/>
+      <c r="L55" s="66"/>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A56" s="165" t="s">
-        <v>101</v>
-      </c>
-      <c r="C56" s="54">
-        <v>1</v>
-      </c>
-      <c r="D56" s="80" t="s">
-        <v>1072</v>
-      </c>
-      <c r="E56" s="155"/>
+      <c r="D56" s="167"/>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A57" s="165" t="s">
-        <v>98</v>
-      </c>
-      <c r="C57" s="54">
-        <v>2</v>
-      </c>
-      <c r="D57" s="80" t="s">
-        <v>1071</v>
-      </c>
-      <c r="E57" s="155"/>
+      <c r="A57" s="66"/>
+      <c r="B57" s="66"/>
+      <c r="C57" s="66"/>
+      <c r="D57" s="169"/>
+      <c r="E57" s="66"/>
+      <c r="F57" s="66"/>
+      <c r="G57" s="66"/>
+      <c r="H57" s="66"/>
+      <c r="I57" s="66"/>
+      <c r="J57" s="66"/>
+      <c r="K57" s="69"/>
+      <c r="L57" s="66"/>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="E58" s="155"/>
+      <c r="D58" s="167"/>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A59" s="233"/>
+      <c r="A59" s="66"/>
       <c r="B59" s="66"/>
-      <c r="C59" s="69"/>
-      <c r="D59" s="82"/>
-      <c r="E59" s="233"/>
+      <c r="C59" s="66"/>
+      <c r="D59" s="169"/>
+      <c r="E59" s="66"/>
       <c r="F59" s="66"/>
       <c r="G59" s="66"/>
       <c r="H59" s="66"/>
@@ -27062,97 +27167,82 @@
       <c r="K59" s="69"/>
       <c r="L59" s="66"/>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A60" s="233"/>
-      <c r="B60" s="66"/>
-      <c r="C60" s="69"/>
-      <c r="D60" s="82"/>
-      <c r="E60" s="233"/>
-      <c r="F60" s="66"/>
-      <c r="G60" s="66"/>
-      <c r="H60" s="66"/>
-      <c r="I60" s="66"/>
-      <c r="J60" s="66"/>
-      <c r="K60" s="69"/>
-      <c r="L60" s="66"/>
-    </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A61" s="155"/>
-      <c r="C61" s="54"/>
-      <c r="D61" s="80"/>
-      <c r="E61" s="155"/>
+    <row r="61" spans="1:12" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F61" s="72" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A62" s="55" t="s">
-        <v>1062</v>
-      </c>
-      <c r="C62" s="75" t="s">
-        <v>203</v>
-      </c>
-      <c r="D62" s="80" t="s">
+      <c r="A62" s="80" t="s">
+        <v>81</v>
+      </c>
+      <c r="B62" s="80" t="s">
+        <v>82</v>
+      </c>
+      <c r="C62" s="80" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A63" s="165" t="s">
-        <v>1056</v>
-      </c>
-      <c r="C63" s="54">
-        <v>5</v>
-      </c>
-      <c r="D63" s="80" t="s">
-        <v>1060</v>
-      </c>
+      <c r="D62" s="80"/>
+      <c r="E62" s="80"/>
+      <c r="F62" s="80" t="s">
+        <v>83</v>
+      </c>
+      <c r="G62" s="80" t="s">
+        <v>86</v>
+      </c>
+      <c r="H62" s="80" t="s">
+        <v>85</v>
+      </c>
+      <c r="I62" s="80" t="s">
+        <v>84</v>
+      </c>
+      <c r="J62" s="80" t="s">
+        <v>87</v>
+      </c>
+      <c r="K62" s="75"/>
+      <c r="L62" s="80"/>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A64" s="63"/>
-      <c r="D64" s="80" t="s">
-        <v>1063</v>
-      </c>
-    </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A65" s="165" t="s">
-        <v>1054</v>
-      </c>
-      <c r="C65" s="54">
-        <v>1</v>
-      </c>
-      <c r="D65" s="80" t="s">
-        <v>1061</v>
-      </c>
+      <c r="A64" s="66"/>
+      <c r="B64" s="66"/>
+      <c r="C64" s="66"/>
+      <c r="D64" s="66"/>
+      <c r="E64" s="66"/>
+      <c r="F64" s="66"/>
+      <c r="G64" s="66"/>
+      <c r="H64" s="66"/>
+      <c r="I64" s="66"/>
+      <c r="J64" s="66"/>
+      <c r="K64" s="69"/>
+      <c r="L64" s="66"/>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A66" s="165" t="s">
-        <v>1057</v>
-      </c>
-      <c r="C66" s="54">
-        <v>-3</v>
-      </c>
-      <c r="D66" s="80" t="s">
-        <v>1064</v>
-      </c>
-    </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A67" s="165" t="s">
-        <v>1055</v>
-      </c>
-      <c r="C67" s="54">
-        <v>-2</v>
-      </c>
-      <c r="D67" s="80" t="s">
-        <v>1065</v>
-      </c>
+      <c r="A66" s="66"/>
+      <c r="B66" s="66"/>
+      <c r="C66" s="66"/>
+      <c r="D66" s="66"/>
+      <c r="E66" s="66"/>
+      <c r="F66" s="66"/>
+      <c r="G66" s="66"/>
+      <c r="H66" s="66"/>
+      <c r="I66" s="66"/>
+      <c r="J66" s="66"/>
+      <c r="K66" s="69"/>
+      <c r="L66" s="66"/>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A68" s="165" t="s">
-        <v>1058</v>
-      </c>
-      <c r="C68" s="54">
-        <v>-1</v>
-      </c>
-      <c r="D68" s="80" t="s">
-        <v>1059</v>
-      </c>
+      <c r="A68" s="66"/>
+      <c r="B68" s="66"/>
+      <c r="C68" s="66"/>
+      <c r="D68" s="66"/>
+      <c r="E68" s="66"/>
+      <c r="F68" s="66"/>
+      <c r="G68" s="66"/>
+      <c r="H68" s="66"/>
+      <c r="I68" s="66"/>
+      <c r="J68" s="66"/>
+      <c r="K68" s="69"/>
+      <c r="L68" s="66"/>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A70" s="66"/>
@@ -27168,144 +27258,74 @@
       <c r="K70" s="69"/>
       <c r="L70" s="66"/>
     </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A71" s="66"/>
-      <c r="B71" s="66"/>
-      <c r="C71" s="66"/>
-      <c r="D71" s="66"/>
-      <c r="E71" s="66"/>
-      <c r="F71" s="66"/>
-      <c r="G71" s="66"/>
-      <c r="H71" s="66"/>
-      <c r="I71" s="66"/>
-      <c r="J71" s="66"/>
-      <c r="K71" s="69"/>
-      <c r="L71" s="66"/>
-    </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A73" s="57" t="s">
-        <v>105</v>
-      </c>
-      <c r="C73" s="230" t="s">
-        <v>1080</v>
-      </c>
-      <c r="D73" s="224"/>
-      <c r="E73" s="224"/>
-      <c r="F73" s="224"/>
-      <c r="G73" s="224"/>
-      <c r="H73" s="224"/>
-      <c r="I73" s="224"/>
-      <c r="J73" s="224"/>
-      <c r="K73" s="232"/>
-      <c r="L73" s="224"/>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A72" s="66"/>
+      <c r="B72" s="66"/>
+      <c r="C72" s="66"/>
+      <c r="D72" s="66"/>
+      <c r="E72" s="66"/>
+      <c r="F72" s="66"/>
+      <c r="G72" s="66"/>
+      <c r="H72" s="66"/>
+      <c r="I72" s="66"/>
+      <c r="J72" s="66"/>
+      <c r="K72" s="69"/>
+      <c r="L72" s="66"/>
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A74" s="57" t="s">
-        <v>106</v>
-      </c>
-      <c r="C74" s="230" t="s">
-        <v>1087</v>
-      </c>
-      <c r="D74" s="224"/>
-      <c r="E74" s="224"/>
-      <c r="F74" s="224"/>
-      <c r="G74" s="224"/>
-      <c r="H74" s="224"/>
-      <c r="I74" s="224"/>
-      <c r="J74" s="224"/>
-      <c r="K74" s="232"/>
-      <c r="L74" s="224"/>
+      <c r="F74" s="72" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A75" s="57" t="s">
-        <v>98</v>
-      </c>
-      <c r="C75" s="230" t="s">
-        <v>1088</v>
-      </c>
-      <c r="D75" s="224"/>
-      <c r="E75" s="224"/>
-      <c r="F75" s="224"/>
-      <c r="G75" s="224"/>
-      <c r="H75" s="224"/>
-      <c r="I75" s="224"/>
-      <c r="J75" s="224"/>
-      <c r="K75" s="232"/>
-      <c r="L75" s="224"/>
-    </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A76" s="57" t="s">
-        <v>108</v>
-      </c>
-      <c r="C76" s="100"/>
-      <c r="D76" s="61"/>
-      <c r="E76" s="61"/>
-      <c r="F76" s="61"/>
-      <c r="G76" s="61"/>
-      <c r="H76" s="61"/>
-      <c r="I76" s="61"/>
-      <c r="J76" s="61"/>
-      <c r="K76" s="78"/>
-      <c r="L76" s="61"/>
-    </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A78" s="224" t="s">
-        <v>110</v>
-      </c>
-      <c r="B78" s="224"/>
-      <c r="C78" s="224" t="s">
-        <v>109</v>
-      </c>
-      <c r="D78" s="224"/>
-      <c r="E78" s="224" t="s">
-        <v>61</v>
-      </c>
-      <c r="F78" s="224"/>
-      <c r="G78" s="224"/>
-      <c r="H78" s="224"/>
-      <c r="I78" s="224"/>
-      <c r="J78" s="224"/>
-      <c r="K78" s="232"/>
-      <c r="L78" s="224"/>
+      <c r="B75" s="72"/>
+    </row>
+    <row r="76" spans="1:12" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A76" s="66"/>
+      <c r="B76" s="66"/>
+      <c r="C76" s="66"/>
+      <c r="D76" s="66"/>
+      <c r="E76" s="66"/>
+      <c r="F76" s="66"/>
+      <c r="G76" s="66"/>
+      <c r="H76" s="66"/>
+      <c r="I76" s="66"/>
+      <c r="J76" s="66"/>
+      <c r="K76" s="69"/>
+      <c r="L76" s="66"/>
+    </row>
+    <row r="77" spans="1:12" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A77" s="66"/>
+      <c r="B77" s="66"/>
+      <c r="C77" s="66"/>
+      <c r="D77" s="66"/>
+      <c r="E77" s="66"/>
+      <c r="F77" s="66"/>
+      <c r="G77" s="66"/>
+      <c r="H77" s="66"/>
+      <c r="I77" s="66"/>
+      <c r="J77" s="66"/>
+      <c r="K77" s="69"/>
+      <c r="L77" s="66"/>
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A79" s="225" t="s">
-        <v>1073</v>
-      </c>
-      <c r="B79" s="225"/>
-      <c r="C79" s="225" t="s">
-        <v>1086</v>
-      </c>
-      <c r="D79" s="224"/>
-      <c r="E79" s="224" t="s">
-        <v>1089</v>
-      </c>
-      <c r="F79" s="224"/>
-      <c r="G79" s="224"/>
-      <c r="H79" s="224"/>
-      <c r="I79" s="224"/>
-      <c r="J79" s="224"/>
-      <c r="K79" s="232"/>
-      <c r="L79" s="224"/>
-    </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A80" s="81"/>
-      <c r="B80" s="81"/>
-      <c r="C80" s="81"/>
-      <c r="D80" s="61"/>
-      <c r="E80" s="61"/>
-      <c r="F80" s="61"/>
-      <c r="G80" s="61"/>
-      <c r="H80" s="61"/>
-      <c r="I80" s="61"/>
-      <c r="J80" s="61"/>
-      <c r="K80" s="78"/>
-      <c r="L80" s="61"/>
+      <c r="A79" s="66"/>
+      <c r="B79" s="66"/>
+      <c r="C79" s="66"/>
+      <c r="D79" s="66"/>
+      <c r="E79" s="66"/>
+      <c r="F79" s="66"/>
+      <c r="G79" s="66"/>
+      <c r="H79" s="66"/>
+      <c r="I79" s="66"/>
+      <c r="J79" s="66"/>
+      <c r="K79" s="69"/>
+      <c r="L79" s="66"/>
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A81" s="82"/>
-      <c r="B81" s="82"/>
-      <c r="C81" s="82"/>
+      <c r="A81" s="66"/>
+      <c r="B81" s="66"/>
+      <c r="C81" s="66"/>
       <c r="D81" s="66"/>
       <c r="E81" s="66"/>
       <c r="F81" s="66"/>
@@ -27316,398 +27336,412 @@
       <c r="K81" s="69"/>
       <c r="L81" s="66"/>
     </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B83" s="54" t="s">
-        <v>17</v>
-      </c>
-      <c r="J83" s="54" t="s">
-        <v>123</v>
-      </c>
-      <c r="K83" s="57"/>
-      <c r="L83" s="54"/>
-    </row>
     <row r="84" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A84" s="225" t="s">
-        <v>113</v>
-      </c>
-      <c r="C84" s="228">
-        <v>29</v>
-      </c>
-      <c r="E84" s="225" t="s">
-        <v>118</v>
-      </c>
-      <c r="G84" s="228" t="s">
-        <v>1106</v>
-      </c>
-      <c r="I84" s="57" t="s">
+      <c r="B84" s="72" t="s">
+        <v>72</v>
+      </c>
+      <c r="F84" s="101" t="s">
+        <v>373</v>
+      </c>
+      <c r="J84" s="54" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A85" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="K84" s="57" t="s">
+      <c r="B85" s="57" t="s">
+        <v>73</v>
+      </c>
+      <c r="C85" s="57" t="s">
+        <v>61</v>
+      </c>
+      <c r="E85" s="76" t="s">
+        <v>61</v>
+      </c>
+      <c r="I85" s="76" t="s">
+        <v>75</v>
+      </c>
+      <c r="K85" s="69"/>
+      <c r="L85" s="66"/>
+    </row>
+    <row r="86" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A86" s="76"/>
+      <c r="E86" s="76"/>
+      <c r="I86" s="76" t="s">
+        <v>76</v>
+      </c>
+      <c r="K86" s="69"/>
+      <c r="L86" s="66"/>
+    </row>
+    <row r="87" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A87" s="94"/>
+      <c r="B87" s="66"/>
+      <c r="C87" s="66"/>
+      <c r="D87" s="66"/>
+      <c r="E87" s="94"/>
+      <c r="F87" s="66"/>
+      <c r="G87" s="66"/>
+      <c r="H87" s="66"/>
+      <c r="I87" s="94"/>
+      <c r="J87" s="66"/>
+      <c r="K87" s="69"/>
+      <c r="L87" s="66"/>
+    </row>
+    <row r="88" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A88" s="76"/>
+      <c r="E88" s="76"/>
+      <c r="I88" s="76"/>
+    </row>
+    <row r="89" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A89" s="94"/>
+      <c r="B89" s="66"/>
+      <c r="C89" s="66"/>
+      <c r="D89" s="66"/>
+      <c r="E89" s="94"/>
+      <c r="F89" s="66"/>
+      <c r="G89" s="66"/>
+      <c r="H89" s="66"/>
+      <c r="I89" s="94"/>
+      <c r="J89" s="66"/>
+      <c r="K89" s="69"/>
+      <c r="L89" s="66"/>
+    </row>
+    <row r="90" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A90" s="76"/>
+      <c r="E90" s="76"/>
+      <c r="I90" s="76"/>
+    </row>
+    <row r="91" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A91" s="94"/>
+      <c r="B91" s="66"/>
+      <c r="C91" s="66"/>
+      <c r="D91" s="66"/>
+      <c r="E91" s="94"/>
+      <c r="F91" s="66"/>
+      <c r="G91" s="66"/>
+      <c r="H91" s="66"/>
+      <c r="I91" s="94"/>
+      <c r="J91" s="66"/>
+      <c r="K91" s="69"/>
+      <c r="L91" s="66"/>
+    </row>
+    <row r="93" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A93" s="80" t="s">
+        <v>88</v>
+      </c>
+      <c r="B93" s="80" t="s">
+        <v>89</v>
+      </c>
+      <c r="C93" s="80" t="s">
+        <v>486</v>
+      </c>
+      <c r="D93" s="80" t="s">
+        <v>90</v>
+      </c>
+      <c r="E93" s="80" t="s">
+        <v>91</v>
+      </c>
+      <c r="F93" s="80" t="s">
+        <v>92</v>
+      </c>
+      <c r="G93" s="80" t="s">
+        <v>93</v>
+      </c>
+      <c r="H93" s="80" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A85" s="225" t="s">
-        <v>112</v>
-      </c>
-      <c r="B85" s="66"/>
-      <c r="C85" s="227">
-        <v>29</v>
-      </c>
-      <c r="E85" s="225" t="s">
-        <v>119</v>
-      </c>
-      <c r="F85" s="66"/>
-      <c r="G85" s="227" t="s">
-        <v>392</v>
-      </c>
-      <c r="I85" s="66"/>
-      <c r="J85" s="66"/>
-      <c r="K85" s="66"/>
-      <c r="L85" s="69"/>
-    </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A86" s="225" t="s">
-        <v>114</v>
-      </c>
-      <c r="C86" s="228">
-        <v>1998</v>
-      </c>
-      <c r="E86" s="225" t="s">
-        <v>120</v>
-      </c>
-      <c r="G86" s="228" t="s">
-        <v>1081</v>
-      </c>
-      <c r="I86" s="85"/>
-      <c r="J86" s="85"/>
-      <c r="K86" s="85"/>
-      <c r="L86" s="131"/>
-    </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A87" s="225" t="s">
-        <v>115</v>
-      </c>
-      <c r="B87" s="66"/>
-      <c r="C87" s="229">
-        <v>45943</v>
-      </c>
-      <c r="E87" s="225" t="s">
-        <v>121</v>
-      </c>
-      <c r="F87" s="66"/>
-      <c r="G87" s="227" t="s">
-        <v>1082</v>
-      </c>
-      <c r="I87" s="66"/>
-      <c r="J87" s="66"/>
-      <c r="K87" s="66"/>
-      <c r="L87" s="69"/>
-    </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A88" s="225" t="s">
-        <v>116</v>
-      </c>
-      <c r="C88" s="228" t="s">
-        <v>1083</v>
-      </c>
-      <c r="E88" s="225" t="s">
-        <v>122</v>
-      </c>
-      <c r="G88" s="228" t="s">
-        <v>394</v>
-      </c>
-      <c r="K88" s="57"/>
-      <c r="L88" s="54"/>
-    </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A89" s="225" t="s">
-        <v>117</v>
-      </c>
-      <c r="B89" s="66"/>
-      <c r="C89" s="227" t="s">
-        <v>1084</v>
-      </c>
-      <c r="E89" s="225"/>
-      <c r="F89" s="66"/>
-      <c r="G89" s="227"/>
-      <c r="I89" s="66"/>
-      <c r="J89" s="66"/>
-      <c r="K89" s="66"/>
-      <c r="L89" s="69"/>
-    </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="I90" s="61"/>
-      <c r="J90" s="61"/>
-      <c r="K90" s="61"/>
-      <c r="L90" s="78"/>
-    </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A92" s="90" t="s">
-        <v>1104</v>
-      </c>
-    </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A93" s="226" t="s">
-        <v>1079</v>
-      </c>
-      <c r="B93" s="226"/>
-      <c r="C93" s="226"/>
-      <c r="D93" s="226"/>
-      <c r="E93" s="226"/>
-      <c r="F93" s="226"/>
-      <c r="G93" s="226"/>
-      <c r="H93" s="226"/>
-      <c r="I93" s="226"/>
-      <c r="J93" s="226"/>
-      <c r="K93" s="226"/>
-      <c r="L93" s="226"/>
-    </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A94" s="226"/>
-      <c r="B94" s="226"/>
-      <c r="C94" s="226"/>
-      <c r="D94" s="226"/>
-      <c r="E94" s="226"/>
-      <c r="F94" s="226"/>
-      <c r="G94" s="226"/>
-      <c r="H94" s="226"/>
-      <c r="I94" s="226"/>
-      <c r="J94" s="226"/>
-      <c r="K94" s="226"/>
-      <c r="L94" s="226"/>
+      <c r="J93" s="57" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="95" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A95" s="226"/>
-      <c r="B95" s="226"/>
-      <c r="C95" s="226"/>
-      <c r="D95" s="226"/>
-      <c r="E95" s="226"/>
-      <c r="F95" s="226"/>
-      <c r="G95" s="226"/>
-      <c r="H95" s="226"/>
-      <c r="I95" s="226"/>
-      <c r="J95" s="226"/>
-      <c r="K95" s="226"/>
-      <c r="L95" s="226"/>
+      <c r="A95" s="99" t="s">
+        <v>484</v>
+      </c>
+      <c r="B95" s="134" t="s">
+        <v>485</v>
+      </c>
+      <c r="C95" s="134">
+        <v>6</v>
+      </c>
+      <c r="D95" s="134" t="s">
+        <v>492</v>
+      </c>
+      <c r="E95" s="134">
+        <v>0</v>
+      </c>
+      <c r="F95" s="134">
+        <v>0</v>
+      </c>
+      <c r="G95" s="134"/>
+      <c r="H95" s="82" t="s">
+        <v>143</v>
+      </c>
+      <c r="J95" s="66"/>
+      <c r="K95" s="69"/>
+      <c r="L95" s="66"/>
     </row>
     <row r="96" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A96" s="226"/>
-      <c r="B96" s="226"/>
-      <c r="C96" s="226"/>
-      <c r="D96" s="226"/>
-      <c r="E96" s="226"/>
-      <c r="F96" s="226"/>
-      <c r="G96" s="226"/>
-      <c r="H96" s="226"/>
-      <c r="I96" s="226"/>
-      <c r="J96" s="226"/>
-      <c r="K96" s="226"/>
-      <c r="L96" s="226"/>
+      <c r="A96" s="99" t="s">
+        <v>487</v>
+      </c>
+      <c r="B96" s="134" t="s">
+        <v>485</v>
+      </c>
+      <c r="C96" s="134">
+        <v>6</v>
+      </c>
+      <c r="D96" s="134">
+        <v>0</v>
+      </c>
+      <c r="E96" s="134">
+        <v>0</v>
+      </c>
+      <c r="F96" s="134">
+        <v>0</v>
+      </c>
+      <c r="G96" s="134"/>
+      <c r="H96" s="82" t="s">
+        <v>490</v>
+      </c>
     </row>
     <row r="97" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A97" s="90" t="s">
+      <c r="A97" s="99" t="s">
+        <v>489</v>
+      </c>
+      <c r="B97" s="134" t="s">
+        <v>488</v>
+      </c>
+      <c r="C97" s="134">
+        <v>5</v>
+      </c>
+      <c r="D97" s="134">
+        <v>0</v>
+      </c>
+      <c r="E97" s="134">
+        <v>0</v>
+      </c>
+      <c r="F97" s="134">
+        <v>0</v>
+      </c>
+      <c r="G97" s="134"/>
+      <c r="H97" s="82" t="s">
+        <v>142</v>
+      </c>
+      <c r="J97" s="66"/>
+      <c r="K97" s="69"/>
+      <c r="L97" s="66"/>
+    </row>
+    <row r="98" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A98" s="99" t="s">
+        <v>491</v>
+      </c>
+      <c r="B98" s="134">
+        <v>4</v>
+      </c>
+      <c r="C98" s="134">
         <v>6</v>
       </c>
-    </row>
-    <row r="98" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A98" s="226" t="s">
-        <v>1085</v>
-      </c>
-      <c r="B98" s="226"/>
-      <c r="C98" s="226"/>
-      <c r="D98" s="226"/>
-      <c r="E98" s="226"/>
-      <c r="F98" s="226"/>
-      <c r="G98" s="226"/>
-      <c r="H98" s="226"/>
-      <c r="I98" s="226"/>
-      <c r="J98" s="226"/>
-      <c r="K98" s="226"/>
-      <c r="L98" s="226"/>
+      <c r="D98" s="134">
+        <v>12</v>
+      </c>
+      <c r="E98" s="134">
+        <v>3</v>
+      </c>
+      <c r="F98" s="134">
+        <v>6</v>
+      </c>
+      <c r="G98" s="134" t="s">
+        <v>493</v>
+      </c>
+      <c r="H98" s="82" t="s">
+        <v>143</v>
+      </c>
     </row>
     <row r="99" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A99" s="226"/>
-      <c r="B99" s="226"/>
-      <c r="C99" s="226"/>
-      <c r="D99" s="226"/>
-      <c r="E99" s="226"/>
-      <c r="F99" s="226"/>
-      <c r="G99" s="226"/>
-      <c r="H99" s="226"/>
-      <c r="I99" s="226"/>
-      <c r="J99" s="226"/>
-      <c r="K99" s="226"/>
-      <c r="L99" s="226"/>
-    </row>
-    <row r="100" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A100" s="226"/>
-      <c r="B100" s="226"/>
-      <c r="C100" s="226"/>
-      <c r="D100" s="226"/>
-      <c r="E100" s="226"/>
-      <c r="F100" s="226"/>
-      <c r="G100" s="226"/>
-      <c r="H100" s="226"/>
-      <c r="I100" s="226"/>
-      <c r="J100" s="226"/>
-      <c r="K100" s="226"/>
-      <c r="L100" s="226"/>
+      <c r="A99" s="99"/>
+      <c r="B99" s="99"/>
+      <c r="C99" s="134"/>
+      <c r="D99" s="134"/>
+      <c r="E99" s="134"/>
+      <c r="F99" s="134"/>
+      <c r="G99" s="99"/>
+      <c r="H99" s="82"/>
+      <c r="J99" s="66"/>
+      <c r="K99" s="69"/>
+      <c r="L99" s="66"/>
+    </row>
+    <row r="100" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="F100" s="83" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="101" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="F101" s="72" t="s">
-        <v>1100</v>
-      </c>
-    </row>
-    <row r="102" spans="1:12" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A102" s="57" t="s">
-        <v>78</v>
-      </c>
-      <c r="C102" s="57" t="s">
+      <c r="B101" s="75" t="s">
         <v>73</v>
       </c>
-      <c r="D102" s="57" t="s">
-        <v>81</v>
-      </c>
-      <c r="E102" s="57" t="s">
-        <v>79</v>
+      <c r="C101" s="80" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="102" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A102" s="155" t="s">
+        <v>453</v>
+      </c>
+      <c r="B102" s="54">
+        <v>1</v>
+      </c>
+      <c r="C102" s="80" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="103" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A103" s="155" t="s">
+        <v>101</v>
+      </c>
+      <c r="B103" s="54">
+        <v>2</v>
+      </c>
+      <c r="C103" s="80" t="s">
+        <v>455</v>
       </c>
     </row>
     <row r="104" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A104" s="82" t="s">
-        <v>407</v>
-      </c>
-      <c r="B104" s="66"/>
-      <c r="C104" s="169">
+      <c r="A104" s="155" t="s">
+        <v>103</v>
+      </c>
+      <c r="B104" s="54">
         <v>1</v>
       </c>
-      <c r="D104" s="134" t="s">
-        <v>1102</v>
-      </c>
-      <c r="E104" s="82" t="s">
-        <v>483</v>
-      </c>
-      <c r="F104" s="66"/>
-      <c r="G104" s="66"/>
-      <c r="H104" s="66"/>
-      <c r="I104" s="66"/>
-      <c r="J104" s="66"/>
-      <c r="K104" s="69"/>
-      <c r="L104" s="66"/>
+      <c r="C104" s="80" t="s">
+        <v>456</v>
+      </c>
     </row>
     <row r="105" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A105" s="80" t="s">
-        <v>1101</v>
-      </c>
-      <c r="C105" s="169" t="s">
-        <v>131</v>
-      </c>
-      <c r="D105" s="134" t="s">
-        <v>1105</v>
-      </c>
-      <c r="E105" s="82" t="s">
-        <v>1103</v>
+      <c r="A105" s="155" t="s">
+        <v>98</v>
+      </c>
+      <c r="B105" s="54">
+        <v>2</v>
+      </c>
+      <c r="C105" s="80" t="s">
+        <v>459</v>
       </c>
     </row>
     <row r="106" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A106" s="66"/>
-      <c r="B106" s="66"/>
-      <c r="C106" s="66"/>
-      <c r="D106" s="134"/>
-      <c r="E106" s="99"/>
-      <c r="F106" s="66"/>
-      <c r="G106" s="66"/>
-      <c r="H106" s="66"/>
-      <c r="I106" s="66"/>
-      <c r="J106" s="66"/>
-      <c r="K106" s="69"/>
-      <c r="L106" s="66"/>
+      <c r="A106" s="155" t="s">
+        <v>100</v>
+      </c>
+      <c r="B106" s="54">
+        <v>1</v>
+      </c>
+      <c r="C106" s="80" t="s">
+        <v>457</v>
+      </c>
     </row>
     <row r="107" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="D107" s="134"/>
-      <c r="E107" s="99"/>
-    </row>
-    <row r="108" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A108" s="66"/>
-      <c r="B108" s="66"/>
-      <c r="C108" s="66"/>
-      <c r="D108" s="134"/>
-      <c r="E108" s="99"/>
-      <c r="F108" s="66"/>
-      <c r="G108" s="66"/>
-      <c r="H108" s="66"/>
-      <c r="I108" s="66"/>
-      <c r="J108" s="66"/>
-      <c r="K108" s="69"/>
-      <c r="L108" s="66"/>
+      <c r="A107" s="155" t="s">
+        <v>97</v>
+      </c>
+      <c r="B107" s="54">
+        <v>2</v>
+      </c>
+      <c r="C107" s="80" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="109" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A109" s="66"/>
+      <c r="B109" s="66"/>
+      <c r="C109" s="66"/>
+      <c r="D109" s="66"/>
+      <c r="E109" s="66"/>
+      <c r="F109" s="66"/>
+      <c r="G109" s="66"/>
+      <c r="H109" s="66"/>
+      <c r="I109" s="66"/>
+      <c r="J109" s="66"/>
+      <c r="K109" s="69"/>
+      <c r="L109" s="66"/>
     </row>
     <row r="110" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="F110" s="72" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="111" spans="1:12" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A111" s="80" t="s">
-        <v>81</v>
-      </c>
-      <c r="B111" s="80" t="s">
-        <v>82</v>
-      </c>
-      <c r="C111" s="80" t="s">
+      <c r="A110" s="66"/>
+      <c r="B110" s="66"/>
+      <c r="C110" s="66"/>
+      <c r="D110" s="66"/>
+      <c r="E110" s="66"/>
+      <c r="F110" s="66"/>
+      <c r="G110" s="66"/>
+      <c r="H110" s="66"/>
+      <c r="I110" s="66"/>
+      <c r="J110" s="66"/>
+      <c r="K110" s="69"/>
+      <c r="L110" s="66"/>
+    </row>
+    <row r="111" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A111" s="66"/>
+      <c r="B111" s="66"/>
+      <c r="C111" s="66"/>
+      <c r="D111" s="66"/>
+      <c r="E111" s="66"/>
+      <c r="F111" s="66"/>
+      <c r="G111" s="66"/>
+      <c r="H111" s="66"/>
+      <c r="I111" s="66"/>
+      <c r="J111" s="66"/>
+      <c r="K111" s="69"/>
+      <c r="L111" s="66"/>
+    </row>
+    <row r="113" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B113" s="75" t="s">
+        <v>73</v>
+      </c>
+      <c r="C113" s="80" t="s">
         <v>61</v>
       </c>
-      <c r="D111" s="80"/>
-      <c r="E111" s="80"/>
-      <c r="F111" s="80" t="s">
-        <v>83</v>
-      </c>
-      <c r="G111" s="80" t="s">
-        <v>86</v>
-      </c>
-      <c r="H111" s="80" t="s">
-        <v>85</v>
-      </c>
-      <c r="I111" s="80" t="s">
-        <v>84</v>
-      </c>
-      <c r="J111" s="80" t="s">
-        <v>87</v>
-      </c>
-      <c r="K111" s="75"/>
-      <c r="L111" s="80"/>
-    </row>
-    <row r="113" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A113" s="66"/>
-      <c r="B113" s="66"/>
-      <c r="C113" s="66"/>
-      <c r="D113" s="66"/>
-      <c r="E113" s="66"/>
-      <c r="F113" s="66"/>
-      <c r="G113" s="66"/>
-      <c r="H113" s="66"/>
-      <c r="I113" s="66"/>
-      <c r="J113" s="66"/>
-      <c r="K113" s="69"/>
-      <c r="L113" s="66"/>
+    </row>
+    <row r="114" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A114" s="155" t="s">
+        <v>460</v>
+      </c>
+      <c r="B114" s="54">
+        <v>2</v>
+      </c>
+      <c r="C114" s="80" t="s">
+        <v>463</v>
+      </c>
     </row>
     <row r="115" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A115" s="66"/>
-      <c r="B115" s="66"/>
-      <c r="C115" s="66"/>
-      <c r="D115" s="66"/>
-      <c r="E115" s="66"/>
-      <c r="F115" s="66"/>
-      <c r="G115" s="66"/>
-      <c r="H115" s="66"/>
-      <c r="I115" s="66"/>
-      <c r="J115" s="66"/>
-      <c r="K115" s="69"/>
-      <c r="L115" s="66"/>
+      <c r="A115" s="155" t="s">
+        <v>461</v>
+      </c>
+      <c r="B115" s="54">
+        <v>2</v>
+      </c>
+      <c r="C115" s="80" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="116" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A116" s="66"/>
+      <c r="B116" s="69"/>
+      <c r="C116" s="82"/>
+      <c r="D116" s="66"/>
+      <c r="E116" s="66"/>
+      <c r="F116" s="66"/>
+      <c r="G116" s="66"/>
+      <c r="H116" s="66"/>
+      <c r="I116" s="66"/>
+      <c r="J116" s="66"/>
+      <c r="K116" s="69"/>
+      <c r="L116" s="66"/>
     </row>
     <row r="117" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A117" s="66"/>
-      <c r="B117" s="66"/>
-      <c r="C117" s="66"/>
+      <c r="B117" s="69"/>
+      <c r="C117" s="82"/>
       <c r="D117" s="66"/>
       <c r="E117" s="66"/>
       <c r="F117" s="66"/>
@@ -27718,731 +27752,631 @@
       <c r="K117" s="69"/>
       <c r="L117" s="66"/>
     </row>
-    <row r="119" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A119" s="66"/>
-      <c r="B119" s="66"/>
-      <c r="C119" s="66"/>
-      <c r="D119" s="66"/>
-      <c r="E119" s="66"/>
-      <c r="F119" s="66"/>
-      <c r="G119" s="66"/>
-      <c r="H119" s="66"/>
-      <c r="I119" s="66"/>
-      <c r="J119" s="66"/>
-      <c r="K119" s="69"/>
-      <c r="L119" s="66"/>
+    <row r="118" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A118" s="66"/>
+      <c r="B118" s="69"/>
+      <c r="C118" s="82"/>
+      <c r="D118" s="66"/>
+      <c r="E118" s="66"/>
+      <c r="F118" s="66"/>
+      <c r="G118" s="66"/>
+      <c r="H118" s="66"/>
+      <c r="I118" s="66"/>
+      <c r="J118" s="66"/>
+      <c r="K118" s="69"/>
+      <c r="L118" s="66"/>
+    </row>
+    <row r="120" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A120" s="57" t="s">
+        <v>105</v>
+      </c>
+      <c r="C120" s="61"/>
+      <c r="D120" s="61"/>
+      <c r="E120" s="61"/>
+      <c r="F120" s="61"/>
+      <c r="G120" s="61"/>
+      <c r="H120" s="61"/>
+      <c r="I120" s="61"/>
+      <c r="J120" s="61"/>
+      <c r="K120" s="78"/>
+      <c r="L120" s="61"/>
     </row>
     <row r="121" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A121" s="66"/>
-      <c r="B121" s="66"/>
-      <c r="C121" s="66"/>
-      <c r="D121" s="66"/>
-      <c r="E121" s="66"/>
-      <c r="F121" s="66"/>
-      <c r="G121" s="66"/>
-      <c r="H121" s="66"/>
-      <c r="I121" s="66"/>
-      <c r="J121" s="66"/>
-      <c r="K121" s="69"/>
-      <c r="L121" s="66"/>
+      <c r="A121" s="57" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="122" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A122" s="57" t="s">
+        <v>98</v>
+      </c>
+      <c r="C122" s="66"/>
+      <c r="D122" s="66"/>
+      <c r="E122" s="66"/>
+      <c r="F122" s="66"/>
+      <c r="G122" s="66"/>
+      <c r="H122" s="66"/>
+      <c r="I122" s="66"/>
+      <c r="J122" s="66"/>
+      <c r="K122" s="69"/>
+      <c r="L122" s="66"/>
     </row>
     <row r="123" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="F123" s="72" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="124" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A124" s="230" t="s">
-        <v>1091</v>
-      </c>
-      <c r="B124" s="230"/>
-      <c r="C124" s="231" t="s">
-        <v>1090</v>
-      </c>
-      <c r="D124" s="230" t="s">
-        <v>1092</v>
-      </c>
-      <c r="E124" s="224"/>
-      <c r="F124" s="224"/>
-      <c r="G124" s="224"/>
-      <c r="H124" s="224"/>
-      <c r="I124" s="224"/>
-      <c r="J124" s="224"/>
-    </row>
-    <row r="125" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A125" s="230" t="s">
-        <v>1093</v>
-      </c>
-      <c r="B125" s="230"/>
-      <c r="C125" s="231" t="s">
-        <v>1090</v>
-      </c>
-      <c r="D125" s="230" t="s">
-        <v>1094</v>
-      </c>
-      <c r="E125" s="224"/>
-      <c r="F125" s="224"/>
-      <c r="G125" s="224"/>
-      <c r="H125" s="224"/>
-      <c r="I125" s="224"/>
-      <c r="J125" s="224"/>
-      <c r="K125" s="232"/>
-      <c r="L125" s="224"/>
-    </row>
-    <row r="126" spans="1:12" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A126" s="230" t="s">
-        <v>1098</v>
-      </c>
-      <c r="B126" s="230"/>
-      <c r="C126" s="231" t="s">
-        <v>101</v>
-      </c>
-      <c r="D126" s="230" t="s">
-        <v>1099</v>
-      </c>
-      <c r="E126" s="224"/>
-      <c r="F126" s="224"/>
-      <c r="G126" s="224"/>
-      <c r="H126" s="224"/>
-      <c r="I126" s="224"/>
-      <c r="J126" s="224"/>
-      <c r="K126" s="232"/>
-      <c r="L126" s="224"/>
-    </row>
-    <row r="127" spans="1:12" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A127" s="230" t="s">
-        <v>1095</v>
-      </c>
-      <c r="B127" s="230"/>
-      <c r="C127" s="231" t="s">
-        <v>1096</v>
-      </c>
-      <c r="D127" s="230" t="s">
-        <v>1097</v>
-      </c>
-      <c r="E127" s="224"/>
-      <c r="F127" s="224"/>
-      <c r="G127" s="224"/>
-      <c r="H127" s="224"/>
-      <c r="I127" s="224"/>
-      <c r="J127" s="224"/>
-      <c r="K127" s="232"/>
-      <c r="L127" s="224"/>
+      <c r="A123" s="57" t="s">
+        <v>108</v>
+      </c>
+      <c r="C123" s="66"/>
+      <c r="D123" s="66"/>
+      <c r="E123" s="66"/>
+      <c r="F123" s="66"/>
+      <c r="G123" s="66"/>
+      <c r="H123" s="66"/>
+      <c r="I123" s="66"/>
+      <c r="J123" s="66"/>
+      <c r="K123" s="69"/>
+      <c r="L123" s="66"/>
+    </row>
+    <row r="125" spans="1:12" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A125" s="57" t="s">
+        <v>110</v>
+      </c>
+      <c r="C125" s="57" t="s">
+        <v>109</v>
+      </c>
+      <c r="E125" s="57" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="126" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A126" s="66"/>
+      <c r="B126" s="66"/>
+      <c r="C126" s="66"/>
+      <c r="D126" s="66"/>
+      <c r="E126" s="66"/>
+      <c r="F126" s="66"/>
+      <c r="G126" s="66"/>
+      <c r="H126" s="66"/>
+      <c r="I126" s="66"/>
+      <c r="J126" s="66"/>
+      <c r="K126" s="69"/>
+      <c r="L126" s="66"/>
+    </row>
+    <row r="127" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A127" s="66"/>
+      <c r="B127" s="66"/>
+      <c r="C127" s="66"/>
+      <c r="D127" s="66"/>
+      <c r="E127" s="66"/>
+      <c r="F127" s="66"/>
+      <c r="G127" s="66"/>
+      <c r="H127" s="66"/>
+      <c r="I127" s="66"/>
+      <c r="J127" s="66"/>
+      <c r="K127" s="69"/>
+      <c r="L127" s="66"/>
     </row>
     <row r="128" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A128" s="61"/>
-      <c r="B128" s="61"/>
-      <c r="C128" s="61"/>
-      <c r="D128" s="61"/>
-      <c r="E128" s="61"/>
-      <c r="F128" s="61"/>
-      <c r="G128" s="61"/>
-      <c r="H128" s="61"/>
-      <c r="I128" s="61"/>
-      <c r="J128" s="61"/>
-      <c r="K128" s="78"/>
-      <c r="L128" s="61"/>
-    </row>
-    <row r="129" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A129" s="63"/>
-      <c r="B129" s="63"/>
-      <c r="C129" s="63"/>
-      <c r="D129" s="63"/>
-    </row>
-    <row r="130" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A130" s="99"/>
-      <c r="B130" s="99"/>
-      <c r="C130" s="99"/>
-      <c r="D130" s="99"/>
-      <c r="E130" s="66"/>
-      <c r="F130" s="66"/>
-      <c r="G130" s="66"/>
-      <c r="H130" s="66"/>
-      <c r="I130" s="66"/>
-      <c r="J130" s="66"/>
-      <c r="K130" s="69"/>
-      <c r="L130" s="66"/>
+      <c r="A128" s="66"/>
+      <c r="B128" s="66"/>
+      <c r="C128" s="66"/>
+      <c r="D128" s="66"/>
+      <c r="E128" s="66"/>
+      <c r="F128" s="66"/>
+      <c r="G128" s="66"/>
+      <c r="H128" s="66"/>
+      <c r="I128" s="66"/>
+      <c r="J128" s="66"/>
+      <c r="K128" s="69"/>
+      <c r="L128" s="66"/>
+    </row>
+    <row r="129" spans="1:12" ht="13.2" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="130" spans="1:12" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B130" s="54" t="s">
+        <v>17</v>
+      </c>
+      <c r="J130" s="54" t="s">
+        <v>123</v>
+      </c>
+      <c r="K130" s="57"/>
+      <c r="L130" s="54"/>
+    </row>
+    <row r="131" spans="1:12" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I131" s="57" t="s">
+        <v>0</v>
+      </c>
+      <c r="K131" s="57" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="132" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A132" s="66"/>
-      <c r="B132" s="66"/>
-      <c r="C132" s="66"/>
-      <c r="D132" s="66"/>
-      <c r="E132" s="66"/>
-      <c r="F132" s="66"/>
-      <c r="G132" s="66"/>
-      <c r="H132" s="66"/>
+      <c r="A132" s="80" t="s">
+        <v>113</v>
+      </c>
+      <c r="C132" s="57">
+        <v>41</v>
+      </c>
+      <c r="E132" s="80" t="s">
+        <v>118</v>
+      </c>
       <c r="I132" s="66"/>
       <c r="J132" s="66"/>
-      <c r="K132" s="69"/>
-      <c r="L132" s="66"/>
+      <c r="K132" s="66"/>
+      <c r="L132" s="69"/>
+    </row>
+    <row r="133" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A133" s="82" t="s">
+        <v>112</v>
+      </c>
+      <c r="B133" s="66"/>
+      <c r="C133" s="66">
+        <v>41</v>
+      </c>
+      <c r="E133" s="82" t="s">
+        <v>119</v>
+      </c>
+      <c r="F133" s="66"/>
+      <c r="G133" s="66"/>
+      <c r="I133" s="85"/>
+      <c r="J133" s="85"/>
+      <c r="K133" s="85"/>
+      <c r="L133" s="131"/>
     </row>
     <row r="134" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B134" s="72" t="s">
-        <v>72</v>
-      </c>
-      <c r="F134" s="101" t="s">
-        <v>373</v>
-      </c>
-      <c r="J134" s="54" t="s">
-        <v>74</v>
-      </c>
+      <c r="A134" s="80" t="s">
+        <v>114</v>
+      </c>
+      <c r="E134" s="80" t="s">
+        <v>120</v>
+      </c>
+      <c r="I134" s="66"/>
+      <c r="J134" s="66"/>
+      <c r="K134" s="66"/>
+      <c r="L134" s="69"/>
     </row>
     <row r="135" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A135" s="57" t="s">
-        <v>0</v>
-      </c>
-      <c r="B135" s="57" t="s">
-        <v>73</v>
-      </c>
-      <c r="C135" s="57" t="s">
-        <v>61</v>
-      </c>
-      <c r="E135" s="76" t="s">
-        <v>61</v>
-      </c>
-      <c r="I135" s="76" t="s">
-        <v>75</v>
-      </c>
-      <c r="K135" s="69"/>
-      <c r="L135" s="66"/>
+      <c r="A135" s="82" t="s">
+        <v>115</v>
+      </c>
+      <c r="B135" s="66"/>
+      <c r="C135" s="66"/>
+      <c r="E135" s="82" t="s">
+        <v>121</v>
+      </c>
+      <c r="F135" s="66"/>
+      <c r="G135" s="66"/>
+      <c r="K135" s="57"/>
+      <c r="L135" s="54"/>
     </row>
     <row r="136" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A136" s="76"/>
-      <c r="E136" s="76"/>
-      <c r="I136" s="76" t="s">
-        <v>76</v>
-      </c>
-      <c r="K136" s="69"/>
-      <c r="L136" s="66"/>
+      <c r="A136" s="80" t="s">
+        <v>116</v>
+      </c>
+      <c r="E136" s="80" t="s">
+        <v>122</v>
+      </c>
+      <c r="I136" s="66"/>
+      <c r="J136" s="66"/>
+      <c r="K136" s="66"/>
+      <c r="L136" s="69"/>
     </row>
     <row r="137" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A137" s="94"/>
+      <c r="A137" s="82" t="s">
+        <v>117</v>
+      </c>
       <c r="B137" s="66"/>
       <c r="C137" s="66"/>
-      <c r="D137" s="66"/>
-      <c r="E137" s="94"/>
+      <c r="E137" s="82"/>
       <c r="F137" s="66"/>
       <c r="G137" s="66"/>
-      <c r="H137" s="66"/>
-      <c r="I137" s="94"/>
-      <c r="J137" s="66"/>
-      <c r="K137" s="69"/>
-      <c r="L137" s="66"/>
-    </row>
-    <row r="138" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A138" s="76"/>
-      <c r="E138" s="76"/>
-      <c r="I138" s="76"/>
-    </row>
-    <row r="139" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A139" s="94"/>
-      <c r="B139" s="66"/>
-      <c r="C139" s="66"/>
-      <c r="D139" s="66"/>
-      <c r="E139" s="94"/>
-      <c r="F139" s="66"/>
-      <c r="G139" s="66"/>
-      <c r="H139" s="66"/>
-      <c r="I139" s="94"/>
-      <c r="J139" s="66"/>
-      <c r="K139" s="69"/>
-      <c r="L139" s="66"/>
+      <c r="I137" s="61"/>
+      <c r="J137" s="61"/>
+      <c r="K137" s="61"/>
+      <c r="L137" s="78"/>
     </row>
     <row r="140" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A140" s="76"/>
-      <c r="E140" s="76"/>
-      <c r="I140" s="76"/>
+      <c r="A140" s="90" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="141" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A141" s="94"/>
-      <c r="B141" s="66"/>
-      <c r="C141" s="66"/>
-      <c r="D141" s="66"/>
-      <c r="E141" s="94"/>
-      <c r="F141" s="66"/>
-      <c r="G141" s="66"/>
-      <c r="H141" s="66"/>
-      <c r="I141" s="94"/>
-      <c r="J141" s="66"/>
-      <c r="K141" s="69"/>
-      <c r="L141" s="66"/>
+      <c r="A141" s="218" t="s">
+        <v>127</v>
+      </c>
+      <c r="B141" s="218"/>
+      <c r="C141" s="218"/>
+      <c r="D141" s="218"/>
+      <c r="E141" s="218"/>
+      <c r="F141" s="218"/>
+      <c r="G141" s="218"/>
+      <c r="H141" s="218"/>
+      <c r="I141" s="218"/>
+      <c r="J141" s="218"/>
+      <c r="K141" s="218"/>
+    </row>
+    <row r="142" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A142" s="218"/>
+      <c r="B142" s="218"/>
+      <c r="C142" s="218"/>
+      <c r="D142" s="218"/>
+      <c r="E142" s="218"/>
+      <c r="F142" s="218"/>
+      <c r="G142" s="218"/>
+      <c r="H142" s="218"/>
+      <c r="I142" s="218"/>
+      <c r="J142" s="218"/>
+      <c r="K142" s="218"/>
     </row>
     <row r="143" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A143" s="80" t="s">
-        <v>88</v>
-      </c>
-      <c r="B143" s="80" t="s">
-        <v>89</v>
-      </c>
-      <c r="C143" s="80" t="s">
-        <v>486</v>
-      </c>
-      <c r="D143" s="80" t="s">
-        <v>90</v>
-      </c>
-      <c r="E143" s="80" t="s">
-        <v>91</v>
-      </c>
-      <c r="F143" s="80" t="s">
-        <v>92</v>
-      </c>
-      <c r="G143" s="80" t="s">
-        <v>93</v>
-      </c>
-      <c r="H143" s="80" t="s">
-        <v>87</v>
-      </c>
-      <c r="J143" s="57" t="s">
-        <v>94</v>
-      </c>
+      <c r="A143" s="218"/>
+      <c r="B143" s="218"/>
+      <c r="C143" s="218"/>
+      <c r="D143" s="218"/>
+      <c r="E143" s="218"/>
+      <c r="F143" s="218"/>
+      <c r="G143" s="218"/>
+      <c r="H143" s="218"/>
+      <c r="I143" s="218"/>
+      <c r="J143" s="218"/>
+      <c r="K143" s="218"/>
     </row>
     <row r="145" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A145" s="99" t="s">
-        <v>484</v>
-      </c>
-      <c r="B145" s="134" t="s">
-        <v>485</v>
-      </c>
-      <c r="C145" s="134">
+      <c r="A145" s="90" t="s">
         <v>6</v>
       </c>
-      <c r="D145" s="134" t="s">
-        <v>492</v>
-      </c>
-      <c r="E145" s="134">
+    </row>
+    <row r="146" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A146" s="218" t="s">
+        <v>124</v>
+      </c>
+      <c r="B146" s="218"/>
+      <c r="C146" s="218"/>
+      <c r="D146" s="218"/>
+      <c r="E146" s="218"/>
+      <c r="F146" s="218"/>
+      <c r="G146" s="218"/>
+      <c r="H146" s="218"/>
+      <c r="I146" s="218"/>
+      <c r="J146" s="218"/>
+      <c r="K146" s="218"/>
+    </row>
+    <row r="147" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A147" s="218"/>
+      <c r="B147" s="218"/>
+      <c r="C147" s="218"/>
+      <c r="D147" s="218"/>
+      <c r="E147" s="218"/>
+      <c r="F147" s="218"/>
+      <c r="G147" s="218"/>
+      <c r="H147" s="218"/>
+      <c r="I147" s="218"/>
+      <c r="J147" s="218"/>
+      <c r="K147" s="218"/>
+    </row>
+    <row r="148" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A148" s="218"/>
+      <c r="B148" s="218"/>
+      <c r="C148" s="218"/>
+      <c r="D148" s="218"/>
+      <c r="E148" s="218"/>
+      <c r="F148" s="218"/>
+      <c r="G148" s="218"/>
+      <c r="H148" s="218"/>
+      <c r="I148" s="218"/>
+      <c r="J148" s="218"/>
+      <c r="K148" s="218"/>
+    </row>
+    <row r="149" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="F149" s="72" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="151" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A151" s="63" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="152" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A152" s="63" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="154" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A154" s="63" t="s">
+        <v>448</v>
+      </c>
+      <c r="C154" s="63"/>
+      <c r="D154" s="63"/>
+      <c r="E154" s="63"/>
+      <c r="F154" s="63"/>
+      <c r="G154" s="63"/>
+      <c r="H154" s="63"/>
+      <c r="I154" s="63"/>
+      <c r="J154" s="63"/>
+      <c r="K154" s="63"/>
+      <c r="L154" s="63"/>
+    </row>
+    <row r="155" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="D155" s="63"/>
+      <c r="E155" s="63"/>
+      <c r="F155" s="63"/>
+      <c r="G155" s="63"/>
+      <c r="H155" s="63"/>
+      <c r="I155" s="63"/>
+      <c r="J155" s="63"/>
+      <c r="K155" s="63"/>
+      <c r="L155" s="63"/>
+    </row>
+    <row r="156" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A156" s="63" t="s">
+        <v>449</v>
+      </c>
+      <c r="B156" s="63"/>
+      <c r="C156" s="63"/>
+      <c r="D156" s="63"/>
+      <c r="E156" s="63"/>
+      <c r="F156" s="63"/>
+      <c r="G156" s="63"/>
+      <c r="H156" s="63"/>
+      <c r="I156" s="63"/>
+      <c r="J156" s="63"/>
+      <c r="K156" s="63"/>
+      <c r="L156" s="63"/>
+    </row>
+    <row r="157" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B157" s="63" t="s">
+        <v>450</v>
+      </c>
+      <c r="C157" s="63"/>
+      <c r="D157" s="63"/>
+      <c r="E157" s="63"/>
+      <c r="F157" s="63"/>
+      <c r="G157" s="63"/>
+      <c r="H157" s="63"/>
+      <c r="I157" s="63"/>
+      <c r="J157" s="63"/>
+      <c r="K157" s="63"/>
+      <c r="L157" s="63"/>
+    </row>
+    <row r="158" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A158" s="63" t="s">
+        <v>451</v>
+      </c>
+      <c r="B158" s="63"/>
+      <c r="C158" s="63"/>
+      <c r="D158" s="63"/>
+      <c r="E158" s="63"/>
+      <c r="F158" s="63"/>
+      <c r="G158" s="63"/>
+      <c r="H158" s="63"/>
+      <c r="I158" s="63"/>
+      <c r="J158" s="63"/>
+      <c r="K158" s="63"/>
+      <c r="L158" s="63"/>
+    </row>
+    <row r="159" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A159" s="63"/>
+      <c r="B159" s="63" t="s">
+        <v>452</v>
+      </c>
+      <c r="C159" s="63"/>
+      <c r="D159" s="63"/>
+      <c r="E159" s="63"/>
+      <c r="F159" s="63"/>
+      <c r="G159" s="63"/>
+      <c r="H159" s="63"/>
+      <c r="I159" s="63"/>
+      <c r="J159" s="63"/>
+      <c r="K159" s="63"/>
+      <c r="L159" s="63"/>
+    </row>
+    <row r="160" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A160" s="63"/>
+      <c r="B160" s="63"/>
+      <c r="C160" s="63"/>
+      <c r="D160" s="63"/>
+      <c r="E160" s="63"/>
+      <c r="F160" s="63"/>
+      <c r="G160" s="63"/>
+      <c r="H160" s="63"/>
+      <c r="I160" s="63"/>
+      <c r="J160" s="63"/>
+      <c r="K160" s="63"/>
+      <c r="L160" s="63"/>
+    </row>
+    <row r="161" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A161" s="63"/>
+      <c r="B161" s="63"/>
+      <c r="C161" s="63"/>
+      <c r="D161" s="63"/>
+      <c r="E161" s="63"/>
+      <c r="F161" s="63"/>
+      <c r="G161" s="63"/>
+      <c r="H161" s="63"/>
+      <c r="I161" s="63"/>
+      <c r="J161" s="63"/>
+      <c r="K161" s="63"/>
+      <c r="L161" s="63"/>
+    </row>
+    <row r="162" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A162" s="63"/>
+      <c r="B162" s="63"/>
+      <c r="C162" s="63"/>
+      <c r="D162" s="63"/>
+      <c r="E162" s="63"/>
+      <c r="F162" s="63"/>
+      <c r="G162" s="63"/>
+      <c r="H162" s="63"/>
+      <c r="I162" s="63"/>
+      <c r="J162" s="63"/>
+      <c r="K162" s="63"/>
+      <c r="L162" s="63"/>
+    </row>
+    <row r="163" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A163" s="63"/>
+      <c r="B163" s="63"/>
+      <c r="C163" s="63"/>
+      <c r="D163" s="63"/>
+      <c r="E163" s="63"/>
+      <c r="F163" s="63"/>
+      <c r="G163" s="63"/>
+      <c r="H163" s="63"/>
+      <c r="I163" s="63"/>
+      <c r="J163" s="63"/>
+      <c r="K163" s="63"/>
+      <c r="L163" s="63"/>
+    </row>
+    <row r="164" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A164" s="72" t="s">
+        <v>208</v>
+      </c>
+      <c r="B164" s="90" t="s">
+        <v>466</v>
+      </c>
+      <c r="J164" s="72" t="s">
+        <v>201</v>
+      </c>
+      <c r="K164" s="57"/>
+    </row>
+    <row r="165" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A165" s="72">
+        <v>10</v>
+      </c>
+      <c r="B165" s="80" t="s">
+        <v>467</v>
+      </c>
+      <c r="I165" s="80" t="s">
+        <v>202</v>
+      </c>
+      <c r="K165" s="57" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="166" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A166" s="72">
+        <v>9</v>
+      </c>
+      <c r="B166" s="80" t="s">
+        <v>468</v>
+      </c>
+      <c r="I166" s="80" t="s">
+        <v>7</v>
+      </c>
+      <c r="K166" s="57" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="167" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A167" s="72">
+        <v>8</v>
+      </c>
+      <c r="B167" s="80" t="s">
+        <v>469</v>
+      </c>
+      <c r="I167" s="80" t="s">
+        <v>21</v>
+      </c>
+      <c r="K167" s="57" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="168" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A168" s="72">
+        <v>7</v>
+      </c>
+      <c r="B168" s="80" t="s">
+        <v>470</v>
+      </c>
+      <c r="I168" s="80" t="s">
+        <v>56</v>
+      </c>
+      <c r="K168" s="57" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="169" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A169" s="72">
+        <v>6</v>
+      </c>
+      <c r="B169" s="80" t="s">
+        <v>471</v>
+      </c>
+      <c r="I169" s="80" t="s">
+        <v>55</v>
+      </c>
+      <c r="K169" s="57" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="170" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A170" s="72">
+        <v>5</v>
+      </c>
+      <c r="B170" s="80" t="s">
+        <v>482</v>
+      </c>
+      <c r="I170" s="80" t="s">
+        <v>57</v>
+      </c>
+      <c r="K170" s="57" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="171" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A171" s="72">
+        <v>4</v>
+      </c>
+      <c r="B171" s="80" t="s">
+        <v>472</v>
+      </c>
+      <c r="I171" s="80" t="s">
+        <v>208</v>
+      </c>
+      <c r="K171" s="57" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="172" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A172" s="72">
+        <v>3</v>
+      </c>
+      <c r="B172" s="80" t="s">
+        <v>473</v>
+      </c>
+      <c r="I172" s="80" t="s">
+        <v>20</v>
+      </c>
+      <c r="K172" s="57" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="173" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A173" s="72">
+        <v>2</v>
+      </c>
+      <c r="B173" s="80" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="174" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A174" s="72">
+        <v>1</v>
+      </c>
+      <c r="B174" s="80" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="175" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A175" s="72">
         <v>0</v>
       </c>
-      <c r="F145" s="134">
-        <v>0</v>
-      </c>
-      <c r="G145" s="134"/>
-      <c r="H145" s="82" t="s">
-        <v>143</v>
-      </c>
-      <c r="J145" s="66"/>
-      <c r="K145" s="69"/>
-      <c r="L145" s="66"/>
-    </row>
-    <row r="146" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A146" s="99" t="s">
-        <v>487</v>
-      </c>
-      <c r="B146" s="134" t="s">
-        <v>485</v>
-      </c>
-      <c r="C146" s="134">
-        <v>6</v>
-      </c>
-      <c r="D146" s="134">
-        <v>0</v>
-      </c>
-      <c r="E146" s="134">
-        <v>0</v>
-      </c>
-      <c r="F146" s="134">
-        <v>0</v>
-      </c>
-      <c r="G146" s="134"/>
-      <c r="H146" s="82" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="147" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A147" s="99" t="s">
-        <v>489</v>
-      </c>
-      <c r="B147" s="134" t="s">
-        <v>488</v>
-      </c>
-      <c r="C147" s="134">
-        <v>5</v>
-      </c>
-      <c r="D147" s="134">
-        <v>0</v>
-      </c>
-      <c r="E147" s="134">
-        <v>0</v>
-      </c>
-      <c r="F147" s="134">
-        <v>0</v>
-      </c>
-      <c r="G147" s="134"/>
-      <c r="H147" s="82" t="s">
-        <v>142</v>
-      </c>
-      <c r="J147" s="66"/>
-      <c r="K147" s="69"/>
-      <c r="L147" s="66"/>
-    </row>
-    <row r="148" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A148" s="99" t="s">
-        <v>491</v>
-      </c>
-      <c r="B148" s="134">
-        <v>4</v>
-      </c>
-      <c r="C148" s="134">
-        <v>6</v>
-      </c>
-      <c r="D148" s="134">
-        <v>12</v>
-      </c>
-      <c r="E148" s="134">
-        <v>3</v>
-      </c>
-      <c r="F148" s="134">
-        <v>6</v>
-      </c>
-      <c r="G148" s="134" t="s">
-        <v>493</v>
-      </c>
-      <c r="H148" s="82" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="149" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A149" s="99"/>
-      <c r="B149" s="99"/>
-      <c r="C149" s="134"/>
-      <c r="D149" s="134"/>
-      <c r="E149" s="134"/>
-      <c r="F149" s="134"/>
-      <c r="G149" s="99"/>
-      <c r="H149" s="82"/>
-      <c r="J149" s="66"/>
-      <c r="K149" s="69"/>
-      <c r="L149" s="66"/>
-    </row>
-    <row r="150" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A150" s="66"/>
-      <c r="B150" s="66"/>
-      <c r="C150" s="66"/>
-      <c r="D150" s="66"/>
-      <c r="E150" s="66"/>
-      <c r="F150" s="66"/>
-      <c r="G150" s="66"/>
-      <c r="H150" s="66"/>
-      <c r="J150" s="66"/>
-      <c r="K150" s="69"/>
-      <c r="L150" s="66"/>
-    </row>
-    <row r="175" ht="13.8" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="179" ht="13.2" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="180" ht="13.8" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="181" ht="13.8" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="199" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="F199" s="72" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="201" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A201" s="63" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="202" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A202" s="63" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="204" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A204" s="63" t="s">
-        <v>448</v>
-      </c>
-      <c r="C204" s="63"/>
-      <c r="D204" s="63"/>
-      <c r="E204" s="63"/>
-      <c r="F204" s="63"/>
-      <c r="G204" s="63"/>
-      <c r="H204" s="63"/>
-      <c r="I204" s="63"/>
-      <c r="J204" s="63"/>
-      <c r="K204" s="63"/>
-      <c r="L204" s="63"/>
-    </row>
-    <row r="205" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="D205" s="63"/>
-      <c r="E205" s="63"/>
-      <c r="F205" s="63"/>
-      <c r="G205" s="63"/>
-      <c r="H205" s="63"/>
-      <c r="I205" s="63"/>
-      <c r="J205" s="63"/>
-      <c r="K205" s="63"/>
-      <c r="L205" s="63"/>
-    </row>
-    <row r="206" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A206" s="63" t="s">
-        <v>449</v>
-      </c>
-      <c r="B206" s="63"/>
-      <c r="C206" s="63"/>
-      <c r="D206" s="63"/>
-      <c r="E206" s="63"/>
-      <c r="F206" s="63"/>
-      <c r="G206" s="63"/>
-      <c r="H206" s="63"/>
-      <c r="I206" s="63"/>
-      <c r="J206" s="63"/>
-      <c r="K206" s="63"/>
-      <c r="L206" s="63"/>
-    </row>
-    <row r="207" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B207" s="63" t="s">
-        <v>450</v>
-      </c>
-      <c r="C207" s="63"/>
-      <c r="D207" s="63"/>
-      <c r="E207" s="63"/>
-      <c r="F207" s="63"/>
-      <c r="G207" s="63"/>
-      <c r="H207" s="63"/>
-      <c r="I207" s="63"/>
-      <c r="J207" s="63"/>
-      <c r="K207" s="63"/>
-      <c r="L207" s="63"/>
-    </row>
-    <row r="208" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A208" s="63" t="s">
-        <v>451</v>
-      </c>
-      <c r="B208" s="63"/>
-      <c r="C208" s="63"/>
-      <c r="D208" s="63"/>
-      <c r="E208" s="63"/>
-      <c r="F208" s="63"/>
-      <c r="G208" s="63"/>
-      <c r="H208" s="63"/>
-      <c r="I208" s="63"/>
-      <c r="J208" s="63"/>
-      <c r="K208" s="63"/>
-      <c r="L208" s="63"/>
-    </row>
-    <row r="209" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A209" s="63"/>
-      <c r="B209" s="63" t="s">
-        <v>452</v>
-      </c>
-      <c r="C209" s="63"/>
-      <c r="D209" s="63"/>
-      <c r="E209" s="63"/>
-      <c r="F209" s="63"/>
-      <c r="G209" s="63"/>
-      <c r="H209" s="63"/>
-      <c r="I209" s="63"/>
-      <c r="J209" s="63"/>
-      <c r="K209" s="63"/>
-      <c r="L209" s="63"/>
-    </row>
-    <row r="210" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A210" s="63"/>
-      <c r="B210" s="63"/>
-      <c r="C210" s="63"/>
-      <c r="D210" s="63"/>
-      <c r="E210" s="63"/>
-      <c r="F210" s="63"/>
-      <c r="G210" s="63"/>
-      <c r="H210" s="63"/>
-      <c r="I210" s="63"/>
-      <c r="J210" s="63"/>
-      <c r="K210" s="63"/>
-      <c r="L210" s="63"/>
-    </row>
-    <row r="211" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A211" s="63"/>
-      <c r="B211" s="63"/>
-      <c r="C211" s="63"/>
-      <c r="D211" s="63"/>
-      <c r="E211" s="63"/>
-      <c r="F211" s="63"/>
-      <c r="G211" s="63"/>
-      <c r="H211" s="63"/>
-      <c r="I211" s="63"/>
-      <c r="J211" s="63"/>
-      <c r="K211" s="63"/>
-      <c r="L211" s="63"/>
-    </row>
-    <row r="212" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A212" s="63"/>
-      <c r="B212" s="63"/>
-      <c r="C212" s="63"/>
-      <c r="D212" s="63"/>
-      <c r="E212" s="63"/>
-      <c r="F212" s="63"/>
-      <c r="G212" s="63"/>
-      <c r="H212" s="63"/>
-      <c r="I212" s="63"/>
-      <c r="J212" s="63"/>
-      <c r="K212" s="63"/>
-      <c r="L212" s="63"/>
-    </row>
-    <row r="213" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A213" s="63"/>
-      <c r="B213" s="63"/>
-      <c r="C213" s="63"/>
-      <c r="D213" s="63"/>
-      <c r="E213" s="63"/>
-      <c r="F213" s="63"/>
-      <c r="G213" s="63"/>
-      <c r="H213" s="63"/>
-      <c r="I213" s="63"/>
-      <c r="J213" s="63"/>
-      <c r="K213" s="63"/>
-      <c r="L213" s="63"/>
-    </row>
-    <row r="214" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A214" s="72" t="s">
-        <v>208</v>
-      </c>
-      <c r="B214" s="90" t="s">
-        <v>466</v>
-      </c>
-      <c r="J214" s="72" t="s">
-        <v>201</v>
-      </c>
-      <c r="K214" s="57"/>
-    </row>
-    <row r="215" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A215" s="72">
-        <v>10</v>
-      </c>
-      <c r="B215" s="80" t="s">
-        <v>467</v>
-      </c>
-      <c r="I215" s="80" t="s">
-        <v>202</v>
-      </c>
-      <c r="K215" s="57" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="216" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A216" s="72">
-        <v>9</v>
-      </c>
-      <c r="B216" s="80" t="s">
-        <v>468</v>
-      </c>
-      <c r="I216" s="80" t="s">
-        <v>7</v>
-      </c>
-      <c r="K216" s="57" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="217" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A217" s="72">
-        <v>8</v>
-      </c>
-      <c r="B217" s="80" t="s">
-        <v>469</v>
-      </c>
-      <c r="I217" s="80" t="s">
-        <v>21</v>
-      </c>
-      <c r="K217" s="57" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="218" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A218" s="72">
-        <v>7</v>
-      </c>
-      <c r="B218" s="80" t="s">
-        <v>470</v>
-      </c>
-      <c r="I218" s="80" t="s">
-        <v>56</v>
-      </c>
-      <c r="K218" s="57" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="219" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A219" s="72">
-        <v>6</v>
-      </c>
-      <c r="B219" s="80" t="s">
-        <v>471</v>
-      </c>
-      <c r="I219" s="80" t="s">
-        <v>55</v>
-      </c>
-      <c r="K219" s="57" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="220" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A220" s="72">
-        <v>5</v>
-      </c>
-      <c r="B220" s="80" t="s">
-        <v>482</v>
-      </c>
-      <c r="I220" s="80" t="s">
-        <v>57</v>
-      </c>
-      <c r="K220" s="57" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="221" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A221" s="72">
-        <v>4</v>
-      </c>
-      <c r="B221" s="80" t="s">
-        <v>472</v>
-      </c>
-      <c r="I221" s="80" t="s">
-        <v>208</v>
-      </c>
-      <c r="K221" s="57" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="222" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A222" s="72">
-        <v>3</v>
-      </c>
-      <c r="B222" s="80" t="s">
-        <v>473</v>
-      </c>
-      <c r="I222" s="80" t="s">
-        <v>20</v>
-      </c>
-      <c r="K222" s="57" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="223" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A223" s="72">
-        <v>2</v>
-      </c>
-      <c r="B223" s="80" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="224" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A224" s="72">
-        <v>1</v>
-      </c>
-      <c r="B224" s="80" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="225" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A225" s="72">
-        <v>0</v>
-      </c>
-      <c r="B225" s="80" t="s">
+      <c r="B175" s="80" t="s">
         <v>476</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A93:L96"/>
-    <mergeCell ref="A98:L100"/>
+    <mergeCell ref="A141:K143"/>
+    <mergeCell ref="A146:K148"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
@@ -30242,45 +30176,45 @@
       </c>
     </row>
     <row r="141" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A141" s="212" t="s">
+      <c r="A141" s="218" t="s">
         <v>127</v>
       </c>
-      <c r="B141" s="212"/>
-      <c r="C141" s="212"/>
-      <c r="D141" s="212"/>
-      <c r="E141" s="212"/>
-      <c r="F141" s="212"/>
-      <c r="G141" s="212"/>
-      <c r="H141" s="212"/>
-      <c r="I141" s="212"/>
-      <c r="J141" s="212"/>
-      <c r="K141" s="212"/>
+      <c r="B141" s="218"/>
+      <c r="C141" s="218"/>
+      <c r="D141" s="218"/>
+      <c r="E141" s="218"/>
+      <c r="F141" s="218"/>
+      <c r="G141" s="218"/>
+      <c r="H141" s="218"/>
+      <c r="I141" s="218"/>
+      <c r="J141" s="218"/>
+      <c r="K141" s="218"/>
     </row>
     <row r="142" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A142" s="212"/>
-      <c r="B142" s="212"/>
-      <c r="C142" s="212"/>
-      <c r="D142" s="212"/>
-      <c r="E142" s="212"/>
-      <c r="F142" s="212"/>
-      <c r="G142" s="212"/>
-      <c r="H142" s="212"/>
-      <c r="I142" s="212"/>
-      <c r="J142" s="212"/>
-      <c r="K142" s="212"/>
+      <c r="A142" s="218"/>
+      <c r="B142" s="218"/>
+      <c r="C142" s="218"/>
+      <c r="D142" s="218"/>
+      <c r="E142" s="218"/>
+      <c r="F142" s="218"/>
+      <c r="G142" s="218"/>
+      <c r="H142" s="218"/>
+      <c r="I142" s="218"/>
+      <c r="J142" s="218"/>
+      <c r="K142" s="218"/>
     </row>
     <row r="143" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A143" s="212"/>
-      <c r="B143" s="212"/>
-      <c r="C143" s="212"/>
-      <c r="D143" s="212"/>
-      <c r="E143" s="212"/>
-      <c r="F143" s="212"/>
-      <c r="G143" s="212"/>
-      <c r="H143" s="212"/>
-      <c r="I143" s="212"/>
-      <c r="J143" s="212"/>
-      <c r="K143" s="212"/>
+      <c r="A143" s="218"/>
+      <c r="B143" s="218"/>
+      <c r="C143" s="218"/>
+      <c r="D143" s="218"/>
+      <c r="E143" s="218"/>
+      <c r="F143" s="218"/>
+      <c r="G143" s="218"/>
+      <c r="H143" s="218"/>
+      <c r="I143" s="218"/>
+      <c r="J143" s="218"/>
+      <c r="K143" s="218"/>
     </row>
     <row r="145" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A145" s="90" t="s">
@@ -30288,45 +30222,45 @@
       </c>
     </row>
     <row r="146" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A146" s="212" t="s">
+      <c r="A146" s="218" t="s">
         <v>124</v>
       </c>
-      <c r="B146" s="212"/>
-      <c r="C146" s="212"/>
-      <c r="D146" s="212"/>
-      <c r="E146" s="212"/>
-      <c r="F146" s="212"/>
-      <c r="G146" s="212"/>
-      <c r="H146" s="212"/>
-      <c r="I146" s="212"/>
-      <c r="J146" s="212"/>
-      <c r="K146" s="212"/>
+      <c r="B146" s="218"/>
+      <c r="C146" s="218"/>
+      <c r="D146" s="218"/>
+      <c r="E146" s="218"/>
+      <c r="F146" s="218"/>
+      <c r="G146" s="218"/>
+      <c r="H146" s="218"/>
+      <c r="I146" s="218"/>
+      <c r="J146" s="218"/>
+      <c r="K146" s="218"/>
     </row>
     <row r="147" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A147" s="212"/>
-      <c r="B147" s="212"/>
-      <c r="C147" s="212"/>
-      <c r="D147" s="212"/>
-      <c r="E147" s="212"/>
-      <c r="F147" s="212"/>
-      <c r="G147" s="212"/>
-      <c r="H147" s="212"/>
-      <c r="I147" s="212"/>
-      <c r="J147" s="212"/>
-      <c r="K147" s="212"/>
+      <c r="A147" s="218"/>
+      <c r="B147" s="218"/>
+      <c r="C147" s="218"/>
+      <c r="D147" s="218"/>
+      <c r="E147" s="218"/>
+      <c r="F147" s="218"/>
+      <c r="G147" s="218"/>
+      <c r="H147" s="218"/>
+      <c r="I147" s="218"/>
+      <c r="J147" s="218"/>
+      <c r="K147" s="218"/>
     </row>
     <row r="148" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A148" s="212"/>
-      <c r="B148" s="212"/>
-      <c r="C148" s="212"/>
-      <c r="D148" s="212"/>
-      <c r="E148" s="212"/>
-      <c r="F148" s="212"/>
-      <c r="G148" s="212"/>
-      <c r="H148" s="212"/>
-      <c r="I148" s="212"/>
-      <c r="J148" s="212"/>
-      <c r="K148" s="212"/>
+      <c r="A148" s="218"/>
+      <c r="B148" s="218"/>
+      <c r="C148" s="218"/>
+      <c r="D148" s="218"/>
+      <c r="E148" s="218"/>
+      <c r="F148" s="218"/>
+      <c r="G148" s="218"/>
+      <c r="H148" s="218"/>
+      <c r="I148" s="218"/>
+      <c r="J148" s="218"/>
+      <c r="K148" s="218"/>
     </row>
     <row r="149" spans="1:12" x14ac:dyDescent="0.3">
       <c r="F149" s="72" t="s">
@@ -30649,42 +30583,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="18.600000000000001" x14ac:dyDescent="0.4">
-      <c r="A1" s="219" t="s">
+      <c r="A1" s="225" t="s">
         <v>1028</v>
       </c>
-      <c r="B1" s="219"/>
-      <c r="C1" s="219"/>
-      <c r="D1" s="219"/>
-      <c r="E1" s="219"/>
-      <c r="F1" s="219"/>
-      <c r="G1" s="219"/>
-      <c r="H1" s="219"/>
-      <c r="I1" s="219"/>
-      <c r="J1" s="220">
+      <c r="B1" s="225"/>
+      <c r="C1" s="225"/>
+      <c r="D1" s="225"/>
+      <c r="E1" s="225"/>
+      <c r="F1" s="225"/>
+      <c r="G1" s="225"/>
+      <c r="H1" s="225"/>
+      <c r="I1" s="225"/>
+      <c r="J1" s="226">
         <f>C7</f>
         <v>0.8125</v>
       </c>
-      <c r="K1" s="221"/>
-      <c r="L1" s="213">
+      <c r="K1" s="227"/>
+      <c r="L1" s="219">
         <f>C8</f>
         <v>0.83333333333333337</v>
       </c>
-      <c r="M1" s="221"/>
-      <c r="N1" s="213">
+      <c r="M1" s="227"/>
+      <c r="N1" s="219">
         <f>C9</f>
         <v>0.85416666666666674</v>
       </c>
-      <c r="O1" s="221"/>
-      <c r="P1" s="213">
+      <c r="O1" s="227"/>
+      <c r="P1" s="219">
         <f>C10</f>
         <v>0.87500000000000011</v>
       </c>
-      <c r="Q1" s="221"/>
-      <c r="R1" s="213">
+      <c r="Q1" s="227"/>
+      <c r="R1" s="219">
         <f>C11</f>
         <v>0.89583333333333348</v>
       </c>
-      <c r="S1" s="214"/>
+      <c r="S1" s="220"/>
     </row>
     <row r="2" spans="1:19" ht="18.600000000000001" x14ac:dyDescent="0.4">
       <c r="J2" s="197"/>
@@ -30764,31 +30698,31 @@
       <c r="F6" s="7" t="s">
         <v>1027</v>
       </c>
-      <c r="J6" s="215">
+      <c r="J6" s="221">
         <f>C12</f>
         <v>0.91666666666666685</v>
       </c>
-      <c r="K6" s="216"/>
-      <c r="L6" s="217">
+      <c r="K6" s="222"/>
+      <c r="L6" s="223">
         <f>C13</f>
         <v>0.93750000000000022</v>
       </c>
-      <c r="M6" s="216"/>
-      <c r="N6" s="217">
+      <c r="M6" s="222"/>
+      <c r="N6" s="223">
         <f>C14</f>
         <v>0.95833333333333359</v>
       </c>
-      <c r="O6" s="216"/>
-      <c r="P6" s="217">
+      <c r="O6" s="222"/>
+      <c r="P6" s="223">
         <f>C15</f>
         <v>0.97916666666666696</v>
       </c>
-      <c r="Q6" s="216"/>
-      <c r="R6" s="217">
+      <c r="Q6" s="222"/>
+      <c r="R6" s="223">
         <f>C16</f>
         <v>1.0000000000000002</v>
       </c>
-      <c r="S6" s="218"/>
+      <c r="S6" s="224"/>
     </row>
     <row r="7" spans="1:19" ht="18.600000000000001" x14ac:dyDescent="0.4">
       <c r="A7" s="7" t="s">
@@ -30926,31 +30860,31 @@
       <c r="F11" s="7" t="s">
         <v>1022</v>
       </c>
-      <c r="J11" s="215">
+      <c r="J11" s="221">
         <f>C17</f>
         <v>1.0208333333333335</v>
       </c>
-      <c r="K11" s="216"/>
-      <c r="L11" s="217">
+      <c r="K11" s="222"/>
+      <c r="L11" s="223">
         <f>C18</f>
         <v>1.0416666666666667</v>
       </c>
-      <c r="M11" s="216"/>
-      <c r="N11" s="217">
+      <c r="M11" s="222"/>
+      <c r="N11" s="223">
         <f>C19</f>
         <v>1.0625</v>
       </c>
-      <c r="O11" s="216"/>
-      <c r="P11" s="217">
+      <c r="O11" s="222"/>
+      <c r="P11" s="223">
         <f>C20</f>
         <v>1.0833333333333333</v>
       </c>
-      <c r="Q11" s="216"/>
-      <c r="R11" s="217">
+      <c r="Q11" s="222"/>
+      <c r="R11" s="223">
         <f>C21</f>
         <v>1.1041666666666665</v>
       </c>
-      <c r="S11" s="218"/>
+      <c r="S11" s="224"/>
     </row>
     <row r="12" spans="1:19" ht="18.600000000000001" x14ac:dyDescent="0.4">
       <c r="B12" s="194">
@@ -31080,31 +31014,31 @@
       <c r="E16" s="6" t="s">
         <v>1012</v>
       </c>
-      <c r="J16" s="215">
+      <c r="J16" s="221">
         <f>C22</f>
         <v>1.1249999999999998</v>
       </c>
-      <c r="K16" s="216"/>
-      <c r="L16" s="217">
+      <c r="K16" s="222"/>
+      <c r="L16" s="223">
         <f>C23</f>
         <v>1.145833333333333</v>
       </c>
-      <c r="M16" s="216"/>
-      <c r="N16" s="217">
+      <c r="M16" s="222"/>
+      <c r="N16" s="223">
         <f>C24</f>
         <v>1.1666666666666663</v>
       </c>
-      <c r="O16" s="216"/>
-      <c r="P16" s="217">
+      <c r="O16" s="222"/>
+      <c r="P16" s="223">
         <f>C25</f>
         <v>1.1874999999999996</v>
       </c>
-      <c r="Q16" s="216"/>
-      <c r="R16" s="217">
+      <c r="Q16" s="222"/>
+      <c r="R16" s="223">
         <f>C26</f>
         <v>1.2083333333333328</v>
       </c>
-      <c r="S16" s="218"/>
+      <c r="S16" s="224"/>
     </row>
     <row r="17" spans="1:19" ht="18.600000000000001" x14ac:dyDescent="0.4">
       <c r="B17" s="194">
@@ -31240,31 +31174,31 @@
       <c r="F21" s="7" t="s">
         <v>1024</v>
       </c>
-      <c r="J21" s="215">
+      <c r="J21" s="221">
         <f>C27</f>
         <v>1.2291666666666661</v>
       </c>
-      <c r="K21" s="216"/>
-      <c r="L21" s="217">
+      <c r="K21" s="222"/>
+      <c r="L21" s="223">
         <f>C28</f>
         <v>1.2499999999999993</v>
       </c>
-      <c r="M21" s="216"/>
-      <c r="N21" s="217">
+      <c r="M21" s="222"/>
+      <c r="N21" s="223">
         <f>C29</f>
         <v>1.2708333333333326</v>
       </c>
-      <c r="O21" s="216"/>
-      <c r="P21" s="217">
+      <c r="O21" s="222"/>
+      <c r="P21" s="223">
         <f>C30</f>
         <v>1.2916666666666659</v>
       </c>
-      <c r="Q21" s="216"/>
-      <c r="R21" s="217">
+      <c r="Q21" s="222"/>
+      <c r="R21" s="223">
         <f>C31</f>
         <v>1.3124999999999991</v>
       </c>
-      <c r="S21" s="218"/>
+      <c r="S21" s="224"/>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B22" s="194">
@@ -31596,7 +31530,7 @@
       <c r="C3" s="47"/>
       <c r="D3" s="44">
         <f ca="1">RANDBETWEEN(1,10)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E3" s="44">
         <f t="shared" ref="E3:M3" ca="1" si="0">RANDBETWEEN(1,10)</f>
@@ -31604,35 +31538,35 @@
       </c>
       <c r="F3" s="44">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="G3" s="44">
         <f t="shared" ca="1" si="0"/>
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="H3" s="44">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="I3" s="44">
         <f t="shared" ca="1" si="0"/>
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="J3" s="44">
         <f t="shared" ca="1" si="0"/>
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="K3" s="44">
         <f t="shared" ca="1" si="0"/>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="L3" s="44">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="M3" s="44">
         <f t="shared" ca="1" si="0"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="N3" s="44"/>
     </row>
@@ -31659,43 +31593,43 @@
       <c r="C5" s="47"/>
       <c r="D5" s="46">
         <f ca="1">IF(D$3&gt;=$B5,1,0)+IF(D$3=1,-1,0)</f>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="E5" s="46">
         <f ca="1">IF(E$3&gt;=$B5,1,0)+D5+IF(E$3=1,-1,0)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F5" s="46">
         <f t="shared" ref="F5:M5" ca="1" si="1">IF(F$3&gt;=$B5,1,0)+E5+IF(F$3=1,-1,0)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G5" s="46">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H5" s="46">
         <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I5" s="46">
         <f t="shared" ca="1" si="1"/>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="J5" s="46">
         <f t="shared" ca="1" si="1"/>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K5" s="46">
         <f t="shared" ca="1" si="1"/>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="L5" s="46">
         <f t="shared" ca="1" si="1"/>
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="M5" s="46">
         <f t="shared" ca="1" si="1"/>
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="2:14" x14ac:dyDescent="0.3">
@@ -31705,11 +31639,11 @@
       <c r="C6" s="47"/>
       <c r="D6" s="46">
         <f t="shared" ref="D6:D13" ca="1" si="2">IF(D$3&gt;=$B6,1,0)+IF(D$3=1,-1,0)</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E6" s="46">
         <f t="shared" ref="E6:M13" ca="1" si="3">IF(E$3&gt;=$B6,1,0)+D6+IF(E$3=1,-1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F6" s="46">
         <f t="shared" ca="1" si="3"/>
@@ -31737,11 +31671,11 @@
       </c>
       <c r="L6" s="46">
         <f t="shared" ca="1" si="3"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="M6" s="46">
         <f t="shared" ca="1" si="3"/>
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="2:14" x14ac:dyDescent="0.3">
@@ -31751,11 +31685,11 @@
       <c r="C7" s="47"/>
       <c r="D7" s="46">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E7" s="46">
         <f t="shared" ca="1" si="3"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="F7" s="46">
         <f t="shared" ca="1" si="3"/>
@@ -31783,11 +31717,11 @@
       </c>
       <c r="L7" s="46">
         <f t="shared" ca="1" si="3"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M7" s="46">
         <f t="shared" ca="1" si="3"/>
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="2:14" x14ac:dyDescent="0.3">
@@ -31797,11 +31731,11 @@
       <c r="C8" s="47"/>
       <c r="D8" s="46">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E8" s="46">
         <f t="shared" ca="1" si="3"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="F8" s="46">
         <f t="shared" ca="1" si="3"/>
@@ -31813,15 +31747,15 @@
       </c>
       <c r="H8" s="46">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I8" s="46">
         <f t="shared" ca="1" si="3"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J8" s="46">
         <f t="shared" ca="1" si="3"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K8" s="46">
         <f t="shared" ca="1" si="3"/>
@@ -31829,11 +31763,11 @@
       </c>
       <c r="L8" s="46">
         <f t="shared" ca="1" si="3"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M8" s="46">
         <f t="shared" ca="1" si="3"/>
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="2:14" x14ac:dyDescent="0.3">
@@ -31843,11 +31777,11 @@
       <c r="C9" s="47"/>
       <c r="D9" s="46">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E9" s="46">
         <f t="shared" ca="1" si="3"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="F9" s="46">
         <f t="shared" ca="1" si="3"/>
@@ -31855,7 +31789,7 @@
       </c>
       <c r="G9" s="46">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H9" s="46">
         <f t="shared" ca="1" si="3"/>
@@ -31867,19 +31801,19 @@
       </c>
       <c r="J9" s="46">
         <f t="shared" ca="1" si="3"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K9" s="46">
         <f t="shared" ca="1" si="3"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L9" s="46">
         <f t="shared" ca="1" si="3"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M9" s="46">
         <f t="shared" ca="1" si="3"/>
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="2:14" x14ac:dyDescent="0.3">
@@ -31889,11 +31823,11 @@
       <c r="C10" s="47"/>
       <c r="D10" s="46">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E10" s="46">
         <f t="shared" ca="1" si="3"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="F10" s="46">
         <f t="shared" ca="1" si="3"/>
@@ -31901,7 +31835,7 @@
       </c>
       <c r="G10" s="46">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H10" s="46">
         <f t="shared" ca="1" si="3"/>
@@ -31913,11 +31847,11 @@
       </c>
       <c r="J10" s="46">
         <f t="shared" ca="1" si="3"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K10" s="46">
         <f t="shared" ca="1" si="3"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L10" s="46">
         <f t="shared" ca="1" si="3"/>
@@ -31935,11 +31869,11 @@
       <c r="C11" s="47"/>
       <c r="D11" s="46">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E11" s="46">
         <f t="shared" ca="1" si="3"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="F11" s="46">
         <f t="shared" ca="1" si="3"/>
@@ -31947,7 +31881,7 @@
       </c>
       <c r="G11" s="46">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H11" s="46">
         <f t="shared" ca="1" si="3"/>
@@ -31959,11 +31893,11 @@
       </c>
       <c r="J11" s="46">
         <f t="shared" ca="1" si="3"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K11" s="46">
         <f t="shared" ca="1" si="3"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L11" s="46">
         <f t="shared" ca="1" si="3"/>
@@ -31981,11 +31915,11 @@
       <c r="C12" s="47"/>
       <c r="D12" s="46">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E12" s="46">
         <f t="shared" ca="1" si="3"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="F12" s="46">
         <f t="shared" ca="1" si="3"/>
@@ -31993,7 +31927,7 @@
       </c>
       <c r="G12" s="46">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H12" s="46">
         <f t="shared" ca="1" si="3"/>
@@ -32001,19 +31935,19 @@
       </c>
       <c r="I12" s="46">
         <f t="shared" ca="1" si="3"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J12" s="46">
         <f t="shared" ca="1" si="3"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K12" s="46">
         <f t="shared" ca="1" si="3"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L12" s="46">
         <f t="shared" ca="1" si="3"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M12" s="46">
         <f t="shared" ca="1" si="3"/>
@@ -32027,11 +31961,11 @@
       <c r="C13" s="47"/>
       <c r="D13" s="46">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E13" s="46">
         <f t="shared" ca="1" si="3"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="F13" s="46">
         <f t="shared" ca="1" si="3"/>
@@ -32047,19 +31981,19 @@
       </c>
       <c r="I13" s="46">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J13" s="46">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K13" s="46">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L13" s="46">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M13" s="46">
         <f t="shared" ca="1" si="3"/>
@@ -32086,7 +32020,7 @@
       </c>
       <c r="G16" s="49" cm="1">
         <f t="array" aca="1" ref="G16" ca="1">INDIRECT(ADDRESS(E16+3,D16+3,1))</f>
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="4:7" ht="8.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -32102,7 +32036,7 @@
       <c r="F18" s="46"/>
       <c r="G18" s="50" cm="1">
         <f t="array" aca="1" ref="G18" ca="1">INDIRECT(ADDRESS(E18+3,D18+3,1))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="4:7" ht="15.6" x14ac:dyDescent="0.3">
@@ -32141,7 +32075,7 @@
       <c r="F21" s="46"/>
       <c r="G21" s="50" cm="1">
         <f t="array" aca="1" ref="G21" ca="1">INDIRECT(ADDRESS(E21+3,D21+3,1))</f>
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="4:7" ht="15.6" x14ac:dyDescent="0.3">
@@ -32154,7 +32088,7 @@
       <c r="F22" s="46"/>
       <c r="G22" s="50" cm="1">
         <f t="array" aca="1" ref="G22" ca="1">INDIRECT(ADDRESS(E22+3,D22+3,1))</f>
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="4:7" ht="15.6" x14ac:dyDescent="0.3">
@@ -32167,7 +32101,7 @@
       <c r="F23" s="46"/>
       <c r="G23" s="50" cm="1">
         <f t="array" aca="1" ref="G23" ca="1">INDIRECT(ADDRESS(E23+3,D23+3,1))</f>
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/Strumenti.xlsx
+++ b/Strumenti.xlsx
@@ -8,28 +8,29 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Public\_Clienti\Maruga\Giochi\Vampiri\Vault\Vampiri\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C93BE43-A0A6-43B8-BC42-3868EC167D5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67213EF4-675F-4501-B548-99738C61F3AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25452" yWindow="0" windowWidth="29148" windowHeight="16656" xr2:uid="{3C69CAEB-EF54-41D7-B74D-5F784B8051C2}"/>
+    <workbookView xWindow="25452" yWindow="0" windowWidth="29148" windowHeight="16656" activeTab="1" xr2:uid="{3C69CAEB-EF54-41D7-B74D-5F784B8051C2}"/>
   </bookViews>
   <sheets>
-    <sheet name="_Toreador" sheetId="17" r:id="rId1"/>
-    <sheet name="_Nosferatu" sheetId="16" r:id="rId2"/>
-    <sheet name="_Brujah" sheetId="14" r:id="rId3"/>
-    <sheet name="_Gangrel" sheetId="15" r:id="rId4"/>
-    <sheet name="Scheda V3" sheetId="1" r:id="rId5"/>
-    <sheet name="Brujah" sheetId="9" r:id="rId6"/>
-    <sheet name="Tempo" sheetId="13" r:id="rId7"/>
-    <sheet name="Dadi" sheetId="7" r:id="rId8"/>
-    <sheet name="Discipline" sheetId="10" r:id="rId9"/>
-    <sheet name="BackGround" sheetId="12" r:id="rId10"/>
-    <sheet name="Natura" sheetId="3" r:id="rId11"/>
-    <sheet name="Specialità" sheetId="11" r:id="rId12"/>
-    <sheet name="Scheda V5" sheetId="8" r:id="rId13"/>
-    <sheet name="Azioni" sheetId="5" r:id="rId14"/>
-    <sheet name="Esperienza" sheetId="4" r:id="rId15"/>
-    <sheet name="Utilizo PE" sheetId="6" r:id="rId16"/>
-    <sheet name="Attacco" sheetId="2" r:id="rId17"/>
+    <sheet name="_Ventrue" sheetId="18" r:id="rId1"/>
+    <sheet name="_Toreador" sheetId="17" r:id="rId2"/>
+    <sheet name="_Nosferatu" sheetId="16" r:id="rId3"/>
+    <sheet name="_Brujah" sheetId="14" r:id="rId4"/>
+    <sheet name="_Gangrel" sheetId="15" r:id="rId5"/>
+    <sheet name="Scheda V3" sheetId="1" r:id="rId6"/>
+    <sheet name="Brujah" sheetId="9" r:id="rId7"/>
+    <sheet name="Tempo" sheetId="13" r:id="rId8"/>
+    <sheet name="Dadi" sheetId="7" r:id="rId9"/>
+    <sheet name="Discipline" sheetId="10" r:id="rId10"/>
+    <sheet name="BackGround" sheetId="12" r:id="rId11"/>
+    <sheet name="Natura" sheetId="3" r:id="rId12"/>
+    <sheet name="Specialità" sheetId="11" r:id="rId13"/>
+    <sheet name="Scheda V5" sheetId="8" r:id="rId14"/>
+    <sheet name="Azioni" sheetId="5" r:id="rId15"/>
+    <sheet name="Esperienza" sheetId="4" r:id="rId16"/>
+    <sheet name="Utilizo PE" sheetId="6" r:id="rId17"/>
+    <sheet name="Attacco" sheetId="2" r:id="rId18"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -74,7 +75,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2820" uniqueCount="1217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3073" uniqueCount="1260">
   <si>
     <t>Nome</t>
   </si>
@@ -3655,9 +3656,6 @@
     <t>Infezione Parassita</t>
   </si>
   <si>
-    <t>Hai due assistenti fedeli (ghoul o umani) che ti aiutano.</t>
-  </si>
-  <si>
     <t>Conosciuto e rispettato in una parte della Camarilla. Può aiutarti con l’accesso a luoghi, ottenere udienze, ricevere favori.</t>
   </si>
   <si>
@@ -3774,6 +3772,141 @@
   </si>
   <si>
     <t>Percezione + Allerta 4 o +1/+2 dadi ai tiri basati sui sensi.</t>
+  </si>
+  <si>
+    <t>Non vuole “dirigere”, ma di fatto è riconosciuta e rispettata: Biblioteca Gambalunga e lo Spazio al Borgo San Giuliano</t>
+  </si>
+  <si>
+    <t>Sei di Undicesima generazione, 12 punti sangue e puoi spendere 2 per turno</t>
+  </si>
+  <si>
+    <t>Non sei ricca, ma vivi con dignità sobria. L’appartamento vicino al Teatro Galli, vita economica stabile.</t>
+  </si>
+  <si>
+    <t>Hai una reputazione impeccabile nella scena culturale cittadina. Viene cercata, ascoltata, citata.</t>
+  </si>
+  <si>
+    <t>Claudia Bens</t>
+  </si>
+  <si>
+    <t>Redattrice del settimanale locale “Rimini Inchiostro”. Le segnala in anticipo eventi, delibere comunali, movimenti sospetti.</t>
+  </si>
+  <si>
+    <t>Prete di periferia. Le riferisce storie “che girano” tra clochard, tossici, anziani dimenticati, migranti.</t>
+  </si>
+  <si>
+    <t>“Don” Alfredo Malaguti</t>
+  </si>
+  <si>
+    <t>Beatrice  Malvezzi</t>
+  </si>
+  <si>
+    <t>Alleata</t>
+  </si>
+  <si>
+    <t>++ Ex amica d'infanzia. Direttrice dell’Ufficio Cultura e Promozione Cittadina del Comune di Rimini.</t>
+  </si>
+  <si>
+    <t>Hai due assistenti fedeli (ghoul o umani) che ti aiutano una volta a sessione.</t>
+  </si>
+  <si>
+    <t>Hai una alleata potente che ti può aiutare una volta a sessione. Se la richiesta è rischiosa o compromettente, può rifiutarsi.</t>
+  </si>
+  <si>
+    <t>Samira El Haloui</t>
+  </si>
+  <si>
+    <t>Educatrice e mediatrice culturale al Borgo San Giuliano Educatrice e mediatrice culturale al Borgo San Giuliano</t>
+  </si>
+  <si>
+    <t>Enrico “Rico” Sante</t>
+  </si>
+  <si>
+    <t>Tecnico audio/luci al Teatro Galli. Marta gli regala poesie su biglietti. Non chiede mai nulla, ma c'è sempre.</t>
+  </si>
+  <si>
+    <t>Latino</t>
+  </si>
+  <si>
+    <t>Artista tormentato</t>
+  </si>
+  <si>
+    <t>Subisci un +2 alla difficoltà di qualsiasi tiro creativo o artistico (es. Espressione, Performance, Composizione)</t>
+  </si>
+  <si>
+    <t>Quando non sei in uno stato emotivamente disturbato (come Tristezza, Frenesia, Rimorso, o Forte Umanità conflittuale).</t>
+  </si>
+  <si>
+    <t>Castani Scuri</t>
+  </si>
+  <si>
+    <t>Neri Profondi</t>
+  </si>
+  <si>
+    <t>57 Kg</t>
+  </si>
+  <si>
+    <t>1,69 Mt</t>
+  </si>
+  <si>
+    <t>Zona urbana Borgo San Giuliano e Biblioteca Gambalunga.</t>
+  </si>
+  <si>
+    <t>tram, taxi, amici</t>
+  </si>
+  <si>
+    <t>Vita sobria ma dignitosa. Appartamento modesto ma ordinato, libri ovunque</t>
+  </si>
+  <si>
+    <t>Odora di carta, legno caldo e pioggia secca. Discreto, silenzioso.</t>
+  </si>
+  <si>
+    <t>Vicino Teatro Galli</t>
+  </si>
+  <si>
+    <t>Quando un Toreador si trova di fronte a qualcosa di straordinariamente bello o artisticamente coinvolgente, il Narratore può richiedere un tiro di Forza di Volontà (difficoltà 6).
+Se fallisce, il Toreador rimane rapito dall’oggetto per una scena intera.</t>
+  </si>
+  <si>
+    <t>Abiti comodi, sobri, senza tempo: gonne lunghe in tessuti naturali, scialli, scarpe basse.
+Colori tenui: grigi polverosi, blu notte, ocra spenti.
+Porta con sé sempre un taccuino amaranto, una penna stilografica nera e una bustina di gommini per le dita.</t>
+  </si>
+  <si>
+    <t>Camaleonte</t>
+  </si>
+  <si>
+    <t>Capitalista</t>
+  </si>
+  <si>
+    <t>Mercante d’Arte Corrotto</t>
+  </si>
+  <si>
+    <t>Vede il mondo in termini di costi e benefici.</t>
+  </si>
+  <si>
+    <t>Mosso dal guadagno, dalla proprietà o dal potere economico.</t>
+  </si>
+  <si>
+    <t>+PV Quando mantiene o assume con successo un’identità utile ai suoi scopi.</t>
+  </si>
+  <si>
+    <t>Cambia atteggiamento o opinione per adattarsi agli altri.</t>
+  </si>
+  <si>
+    <t>Irenre Gori</t>
+  </si>
+  <si>
+    <t>Imbonitore</t>
+  </si>
+  <si>
+    <t>Convincente</t>
+  </si>
+  <si>
+    <t>Vive per essere ammirato. Ammirazione o conquista l’attenzione.</t>
+  </si>
+  <si>
+    <t>Un gesto, una parola, uno sguardo bastano per aprire le porte.</t>
   </si>
 </sst>
 </file>
@@ -4566,7 +4699,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="245">
+  <cellXfs count="248">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -5229,9 +5362,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -5249,6 +5379,18 @@
     </xf>
     <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -5351,6 +5493,873 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>22860</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>26670</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>530571</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>152888</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="2" name="Gruppo 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FB1BE908-6016-4FF5-B773-3F569D5C0F4F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="5491331" y="6660552"/>
+          <a:ext cx="507711" cy="301030"/>
+          <a:chOff x="4411980" y="6503670"/>
+          <a:chExt cx="507711" cy="301478"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="3" name="Gruppo 2">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4D2D7994-5314-A344-AF57-BE4F8C158448}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="4411980" y="6503670"/>
+            <a:ext cx="507711" cy="124677"/>
+            <a:chOff x="7275647" y="2818048"/>
+            <a:chExt cx="668636" cy="152754"/>
+          </a:xfrm>
+          <a:solidFill>
+            <a:schemeClr val="accent5"/>
+          </a:solidFill>
+        </xdr:grpSpPr>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="10" name="Elemento grafico 9" descr="Acqua contorno">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C7E35933-369A-7FBB-8DA2-8D1124FAAA2C}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr>
+              <a:picLocks noChangeAspect="1"/>
+            </xdr:cNvPicPr>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+              <a:extLst>
+                <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+                  <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+                </a:ext>
+              </a:extLst>
+            </a:blip>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="7275647" y="2818048"/>
+              <a:ext cx="151498" cy="152754"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="11" name="Elemento grafico 10" descr="Acqua contorno">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E8C35089-8F16-4F49-97C3-5432B2350480}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr>
+              <a:picLocks noChangeAspect="1"/>
+            </xdr:cNvPicPr>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+              <a:extLst>
+                <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+                  <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+                </a:ext>
+              </a:extLst>
+            </a:blip>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="7404256" y="2818049"/>
+              <a:ext cx="152399" cy="152399"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="12" name="Elemento grafico 11" descr="Acqua contorno">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6F6A986A-B7E9-E9EA-E137-4BD872E81214}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr>
+              <a:picLocks noChangeAspect="1"/>
+            </xdr:cNvPicPr>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+              <a:extLst>
+                <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+                  <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+                </a:ext>
+              </a:extLst>
+            </a:blip>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="7533766" y="2818048"/>
+              <a:ext cx="152399" cy="152399"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="13" name="Elemento grafico 12" descr="Acqua contorno">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EF72F090-DD3F-B698-1F37-29B3A9259318}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr>
+              <a:picLocks noChangeAspect="1"/>
+            </xdr:cNvPicPr>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+              <a:extLst>
+                <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+                  <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+                </a:ext>
+              </a:extLst>
+            </a:blip>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="7663276" y="2818048"/>
+              <a:ext cx="151497" cy="152399"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="14" name="Elemento grafico 13" descr="Acqua contorno">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C0385862-8168-1023-6167-89EE3E3609C1}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr>
+              <a:picLocks noChangeAspect="1"/>
+            </xdr:cNvPicPr>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+              <a:extLst>
+                <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+                  <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+                </a:ext>
+              </a:extLst>
+            </a:blip>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="7791884" y="2818048"/>
+              <a:ext cx="152399" cy="152399"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </xdr:grpSp>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="4" name="Gruppo 3">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CE6B059A-94E8-2C7E-8890-808C112EDDE5}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="4411980" y="6680471"/>
+            <a:ext cx="507711" cy="124677"/>
+            <a:chOff x="7275647" y="2818048"/>
+            <a:chExt cx="668636" cy="152754"/>
+          </a:xfrm>
+          <a:solidFill>
+            <a:schemeClr val="accent5"/>
+          </a:solidFill>
+        </xdr:grpSpPr>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="5" name="Elemento grafico 4" descr="Acqua contorno">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0D70A8E5-F736-9DF3-9516-7BE3BEE861B6}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr>
+              <a:picLocks noChangeAspect="1"/>
+            </xdr:cNvPicPr>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+              <a:extLst>
+                <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+                  <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+                </a:ext>
+              </a:extLst>
+            </a:blip>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="7275647" y="2818048"/>
+              <a:ext cx="151498" cy="152754"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="6" name="Elemento grafico 5" descr="Acqua contorno">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E960021D-D136-1390-18D1-605B0A63F0F7}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr>
+              <a:picLocks noChangeAspect="1"/>
+            </xdr:cNvPicPr>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+              <a:extLst>
+                <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+                  <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+                </a:ext>
+              </a:extLst>
+            </a:blip>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="7404256" y="2818049"/>
+              <a:ext cx="152399" cy="152399"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="7" name="Elemento grafico 6" descr="Acqua contorno">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7528D14A-195E-371C-6F57-A5854ACBF551}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr>
+              <a:picLocks noChangeAspect="1"/>
+            </xdr:cNvPicPr>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+              <a:extLst>
+                <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+                  <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+                </a:ext>
+              </a:extLst>
+            </a:blip>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="7533766" y="2818048"/>
+              <a:ext cx="152399" cy="152399"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="8" name="Elemento grafico 7" descr="Acqua contorno">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{55CE95E5-A606-2986-B2DA-84E87B712D10}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr>
+              <a:picLocks noChangeAspect="1"/>
+            </xdr:cNvPicPr>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+              <a:extLst>
+                <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+                  <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+                </a:ext>
+              </a:extLst>
+            </a:blip>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="7663276" y="2818048"/>
+              <a:ext cx="151497" cy="152399"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="9" name="Elemento grafico 8" descr="Acqua contorno">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6F80420C-7591-6826-1A68-9628936649E7}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr>
+              <a:picLocks noChangeAspect="1"/>
+            </xdr:cNvPicPr>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+              <a:extLst>
+                <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+                  <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+                </a:ext>
+              </a:extLst>
+            </a:blip>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="7791884" y="2818048"/>
+              <a:ext cx="152399" cy="152399"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </xdr:grpSp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>26670</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>26670</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>534381</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>152888</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="15" name="Gruppo 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7338158-438B-4B3A-A475-E72631551A9D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="6041988" y="6660552"/>
+          <a:ext cx="507711" cy="301030"/>
+          <a:chOff x="4411980" y="6503670"/>
+          <a:chExt cx="507711" cy="301478"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="16" name="Gruppo 15">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E15DB085-3E14-C145-0BB3-E5491B3E80D7}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="4411980" y="6503670"/>
+            <a:ext cx="507711" cy="124677"/>
+            <a:chOff x="7275647" y="2818048"/>
+            <a:chExt cx="668636" cy="152754"/>
+          </a:xfrm>
+          <a:solidFill>
+            <a:schemeClr val="accent5"/>
+          </a:solidFill>
+        </xdr:grpSpPr>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="23" name="Elemento grafico 22" descr="Acqua contorno">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{36FEB31E-4CBA-6AE5-54DE-C9F6481ECFBD}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr>
+              <a:picLocks noChangeAspect="1"/>
+            </xdr:cNvPicPr>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+              <a:extLst>
+                <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+                  <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+                </a:ext>
+              </a:extLst>
+            </a:blip>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="7275647" y="2818048"/>
+              <a:ext cx="151498" cy="152754"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="24" name="Elemento grafico 23" descr="Acqua contorno">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9C5FB66A-7DAA-65EF-DF0F-96A7FD7DA3FA}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr>
+              <a:picLocks noChangeAspect="1"/>
+            </xdr:cNvPicPr>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+              <a:extLst>
+                <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+                  <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+                </a:ext>
+              </a:extLst>
+            </a:blip>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="7404256" y="2818049"/>
+              <a:ext cx="152399" cy="152399"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="25" name="Elemento grafico 24" descr="Acqua contorno">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4793C35D-9EFD-52CC-D7B3-8804FDA877E5}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr>
+              <a:picLocks noChangeAspect="1"/>
+            </xdr:cNvPicPr>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+              <a:extLst>
+                <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+                  <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+                </a:ext>
+              </a:extLst>
+            </a:blip>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="7533766" y="2818048"/>
+              <a:ext cx="152399" cy="152399"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="26" name="Elemento grafico 25" descr="Acqua contorno">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{96260420-A3A5-9C56-330A-F2D763B52B0A}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr>
+              <a:picLocks noChangeAspect="1"/>
+            </xdr:cNvPicPr>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+              <a:extLst>
+                <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+                  <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+                </a:ext>
+              </a:extLst>
+            </a:blip>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="7663276" y="2818048"/>
+              <a:ext cx="151497" cy="152399"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="27" name="Elemento grafico 26" descr="Acqua contorno">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{891391CC-32A2-E994-1F63-2D237E7BE3C0}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr>
+              <a:picLocks noChangeAspect="1"/>
+            </xdr:cNvPicPr>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+              <a:extLst>
+                <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+                  <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+                </a:ext>
+              </a:extLst>
+            </a:blip>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="7791884" y="2818048"/>
+              <a:ext cx="152399" cy="152399"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </xdr:grpSp>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="17" name="Gruppo 16">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B8341D38-4A3B-F0DE-ABCD-B576B07A2F5F}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="4411980" y="6680471"/>
+            <a:ext cx="507711" cy="124677"/>
+            <a:chOff x="7275647" y="2818048"/>
+            <a:chExt cx="668636" cy="152754"/>
+          </a:xfrm>
+          <a:solidFill>
+            <a:schemeClr val="accent5"/>
+          </a:solidFill>
+        </xdr:grpSpPr>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="18" name="Elemento grafico 17" descr="Acqua contorno">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3D879B73-9F54-E6A1-615B-3800D122B38D}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr>
+              <a:picLocks noChangeAspect="1"/>
+            </xdr:cNvPicPr>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+              <a:extLst>
+                <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+                  <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+                </a:ext>
+              </a:extLst>
+            </a:blip>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="7275647" y="2818048"/>
+              <a:ext cx="151498" cy="152754"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="19" name="Elemento grafico 18" descr="Acqua contorno">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E0E4FF54-5599-2949-349F-797941F7A3FF}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr>
+              <a:picLocks noChangeAspect="1"/>
+            </xdr:cNvPicPr>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+              <a:extLst>
+                <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+                  <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+                </a:ext>
+              </a:extLst>
+            </a:blip>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="7404256" y="2818049"/>
+              <a:ext cx="152399" cy="152399"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="20" name="Elemento grafico 19" descr="Acqua contorno">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{64DCC7D5-241B-014A-0F18-81D54E778A05}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr>
+              <a:picLocks noChangeAspect="1"/>
+            </xdr:cNvPicPr>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+              <a:extLst>
+                <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+                  <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+                </a:ext>
+              </a:extLst>
+            </a:blip>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="7533766" y="2818048"/>
+              <a:ext cx="152399" cy="152399"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="21" name="Elemento grafico 20" descr="Acqua contorno">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3C22333D-3BC2-3664-E20A-AB9600E9509B}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr>
+              <a:picLocks noChangeAspect="1"/>
+            </xdr:cNvPicPr>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+              <a:extLst>
+                <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+                  <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+                </a:ext>
+              </a:extLst>
+            </a:blip>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="7663276" y="2818048"/>
+              <a:ext cx="151497" cy="152399"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="22" name="Elemento grafico 21" descr="Acqua contorno">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5AB81AC4-5D3F-1670-B8AE-BF2270394808}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr>
+              <a:picLocks noChangeAspect="1"/>
+            </xdr:cNvPicPr>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+              <a:extLst>
+                <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+                  <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+                </a:ext>
+              </a:extLst>
+            </a:blip>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="7791884" y="2818048"/>
+              <a:ext cx="152399" cy="152399"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </xdr:grpSp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -6322,7 +7331,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -7284,7 +8293,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -8151,7 +9160,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -9018,7 +10027,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -9885,7 +10894,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -10752,7 +11761,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -11236,7 +12245,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -21332,11 +22341,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5334263-4143-413C-81B1-B37F8CC6DF82}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80F8F40E-FA57-4F3C-B9C3-6981E5263578}">
   <dimension ref="A1:L225"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="K38" sqref="K38"/>
+    <sheetView zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
@@ -21359,7 +22368,7 @@
         <v>5</v>
       </c>
       <c r="G1" s="54" t="s">
-        <v>1036</v>
+        <v>62</v>
       </c>
       <c r="H1" s="151" t="s">
         <v>173</v>
@@ -21369,8 +22378,8 @@
       </c>
       <c r="J1" s="100"/>
       <c r="K1" s="61"/>
-      <c r="L1" s="243" t="s">
-        <v>1206</v>
+      <c r="L1" s="209" t="s">
+        <v>1250</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
@@ -21378,16 +22387,16 @@
         <v>0</v>
       </c>
       <c r="B3" s="57" t="s">
-        <v>1207</v>
+        <v>1255</v>
       </c>
       <c r="E3" s="156" t="s">
         <v>2</v>
       </c>
       <c r="F3" s="152" t="s">
-        <v>1208</v>
+        <v>1248</v>
       </c>
       <c r="H3" s="55" t="s">
-        <v>1209</v>
+        <v>1254</v>
       </c>
       <c r="K3" s="57"/>
     </row>
@@ -21398,8 +22407,8 @@
       <c r="B4" s="57" t="s">
         <v>1040</v>
       </c>
-      <c r="H4" s="244" t="s">
-        <v>1211</v>
+      <c r="H4" s="243" t="s">
+        <v>1253</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
@@ -21407,16 +22416,18 @@
         <v>4</v>
       </c>
       <c r="B5" s="152" t="s">
-        <v>387</v>
+        <v>347</v>
       </c>
       <c r="E5" s="210" t="s">
         <v>3</v>
       </c>
       <c r="F5" s="139" t="s">
-        <v>504</v>
+        <v>1249</v>
       </c>
       <c r="G5" s="85"/>
-      <c r="H5" s="140"/>
+      <c r="H5" s="140" t="s">
+        <v>1252</v>
+      </c>
       <c r="I5" s="85"/>
       <c r="J5" s="85"/>
       <c r="K5" s="131"/>
@@ -21429,7 +22440,9 @@
       <c r="B6" s="57" t="s">
         <v>126</v>
       </c>
-      <c r="H6" s="55"/>
+      <c r="H6" s="55" t="s">
+        <v>1251</v>
+      </c>
     </row>
     <row r="8" spans="1:12" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F8" s="72" t="s">
@@ -21465,7 +22478,7 @@
         <v>12</v>
       </c>
       <c r="F10" s="80" t="s">
-        <v>1210</v>
+        <v>1256</v>
       </c>
       <c r="H10" s="163">
         <v>4</v>
@@ -21473,11 +22486,9 @@
       <c r="I10" s="165" t="s">
         <v>13</v>
       </c>
-      <c r="J10" s="80" t="s">
-        <v>1163</v>
-      </c>
+      <c r="J10" s="80"/>
       <c r="L10" s="163">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
@@ -21486,21 +22497,23 @@
       </c>
       <c r="B11" s="80"/>
       <c r="D11" s="163">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E11" s="165" t="s">
         <v>16</v>
       </c>
-      <c r="F11" s="80"/>
+      <c r="F11" s="80" t="s">
+        <v>1257</v>
+      </c>
       <c r="H11" s="163">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I11" s="165" t="s">
         <v>18</v>
       </c>
       <c r="J11" s="80"/>
       <c r="L11" s="163">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
@@ -21509,14 +22522,14 @@
       </c>
       <c r="B12" s="80"/>
       <c r="D12" s="163">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E12" s="165" t="s">
         <v>17</v>
       </c>
       <c r="F12" s="80"/>
       <c r="H12" s="163">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I12" s="165" t="s">
         <v>19</v>
@@ -21573,10 +22586,10 @@
         <v>31</v>
       </c>
       <c r="J16" s="111" t="s">
-        <v>1212</v>
+        <v>1018</v>
       </c>
       <c r="L16" s="163">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.3">
@@ -21585,7 +22598,7 @@
       </c>
       <c r="B17" s="80"/>
       <c r="D17" s="163">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E17" s="154" t="s">
         <v>33</v>
@@ -21593,14 +22606,14 @@
       <c r="F17" s="80"/>
       <c r="G17" s="54"/>
       <c r="H17" s="163">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I17" s="154" t="s">
         <v>34</v>
       </c>
       <c r="J17" s="80"/>
       <c r="L17" s="163">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.3">
@@ -21609,7 +22622,7 @@
       </c>
       <c r="B18" s="80"/>
       <c r="D18" s="163">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E18" s="154" t="s">
         <v>437</v>
@@ -21617,7 +22630,7 @@
       <c r="F18" s="80"/>
       <c r="G18" s="54"/>
       <c r="H18" s="163">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I18" s="154" t="s">
         <v>36</v>
@@ -21633,7 +22646,7 @@
       </c>
       <c r="B19" s="80"/>
       <c r="D19" s="163">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E19" s="154" t="s">
         <v>38</v>
@@ -21641,7 +22654,7 @@
       <c r="F19" s="80"/>
       <c r="G19" s="54"/>
       <c r="H19" s="163">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I19" s="154" t="s">
         <v>45</v>
@@ -21655,11 +22668,9 @@
       <c r="A20" s="154" t="s">
         <v>27</v>
       </c>
-      <c r="B20" s="80" t="s">
-        <v>1214</v>
-      </c>
+      <c r="B20" s="80"/>
       <c r="D20" s="163">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E20" s="154" t="s">
         <v>39</v>
@@ -21672,9 +22683,7 @@
       <c r="I20" s="154" t="s">
         <v>46</v>
       </c>
-      <c r="J20" s="111" t="s">
-        <v>1213</v>
-      </c>
+      <c r="J20" s="80"/>
       <c r="L20" s="163">
         <v>1</v>
       </c>
@@ -21685,7 +22694,7 @@
       </c>
       <c r="B21" s="80"/>
       <c r="D21" s="163">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E21" s="154" t="s">
         <v>40</v>
@@ -21709,7 +22718,7 @@
       </c>
       <c r="B22" s="80"/>
       <c r="D22" s="163">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E22" s="154" t="s">
         <v>41</v>
@@ -21733,7 +22742,7 @@
       </c>
       <c r="B23" s="80"/>
       <c r="D23" s="163">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E23" s="154" t="s">
         <v>42</v>
@@ -21741,7 +22750,7 @@
       <c r="F23" s="80"/>
       <c r="G23" s="54"/>
       <c r="H23" s="163">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I23" s="154" t="s">
         <v>49</v>
@@ -21757,7 +22766,7 @@
       </c>
       <c r="B24" s="80"/>
       <c r="D24" s="163">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E24" s="154" t="s">
         <v>43</v>
@@ -21772,7 +22781,7 @@
       </c>
       <c r="J24" s="80"/>
       <c r="L24" s="163">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.3">
@@ -21781,7 +22790,7 @@
       </c>
       <c r="B25" s="80"/>
       <c r="D25" s="163">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E25" s="154" t="s">
         <v>44</v>
@@ -21789,7 +22798,7 @@
       <c r="F25" s="80"/>
       <c r="G25" s="54"/>
       <c r="H25" s="163">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I25" s="154" t="s">
         <v>51</v>
@@ -21847,13 +22856,13 @@
     </row>
     <row r="30" spans="1:12" s="73" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A30" s="57" t="s">
-        <v>317</v>
+        <v>512</v>
       </c>
       <c r="B30" s="54">
         <v>1</v>
       </c>
       <c r="C30" s="80" t="s">
-        <v>1215</v>
+        <v>1041</v>
       </c>
       <c r="D30" s="57"/>
       <c r="E30" s="57"/>
@@ -21872,8 +22881,14 @@
       <c r="L30" s="54"/>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A31" s="57" t="s">
+        <v>328</v>
+      </c>
+      <c r="B31" s="54">
+        <v>1</v>
+      </c>
       <c r="C31" s="80" t="s">
-        <v>1216</v>
+        <v>440</v>
       </c>
       <c r="H31" s="166" t="s">
         <v>59</v>
@@ -21888,13 +22903,13 @@
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A32" s="57" t="s">
-        <v>328</v>
+        <v>320</v>
       </c>
       <c r="B32" s="54">
         <v>1</v>
       </c>
       <c r="C32" s="80" t="s">
-        <v>440</v>
+        <v>1042</v>
       </c>
       <c r="H32" s="63" t="s">
         <v>70</v>
@@ -21905,18 +22920,15 @@
       <c r="L32" s="54"/>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A33" s="233" t="s">
+      <c r="A33" s="57" t="s">
         <v>320</v>
       </c>
-      <c r="B33" s="234">
-        <v>1</v>
-      </c>
-      <c r="C33" s="241" t="s">
-        <v>1042</v>
-      </c>
-      <c r="D33" s="233"/>
-      <c r="E33" s="233"/>
-      <c r="F33" s="233"/>
+      <c r="B33" s="54">
+        <v>2</v>
+      </c>
+      <c r="C33" s="80" t="s">
+        <v>1044</v>
+      </c>
       <c r="H33" s="63" t="s">
         <v>66</v>
       </c>
@@ -21930,12 +22942,9 @@
       <c r="L33" s="54"/>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A34" s="61"/>
-      <c r="B34" s="61"/>
-      <c r="C34" s="81"/>
-      <c r="D34" s="61"/>
-      <c r="E34" s="61"/>
-      <c r="F34" s="61"/>
+      <c r="C34" s="80" t="s">
+        <v>1043</v>
+      </c>
       <c r="L34" s="215" t="s">
         <v>471</v>
       </c>
@@ -21945,7 +22954,7 @@
         <v>20</v>
       </c>
       <c r="J35" s="167">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K35" s="162" t="s">
         <v>478</v>
@@ -21963,7 +22972,7 @@
         <v>1019</v>
       </c>
       <c r="J36" s="167">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="K36" s="162" t="s">
         <v>494</v>
@@ -22782,54 +23791,62 @@
       </c>
     </row>
     <row r="103" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A103" s="82" t="s">
+      <c r="A103" s="240" t="s">
         <v>407</v>
       </c>
-      <c r="B103" s="66"/>
-      <c r="C103" s="169">
+      <c r="B103" s="233"/>
+      <c r="C103" s="245">
         <v>1</v>
       </c>
-      <c r="D103" s="134" t="s">
+      <c r="D103" s="247" t="s">
         <v>1068</v>
       </c>
-      <c r="E103" s="82" t="s">
+      <c r="E103" s="240" t="s">
         <v>483</v>
       </c>
-      <c r="F103" s="66"/>
-      <c r="G103" s="66"/>
-      <c r="H103" s="66"/>
-      <c r="I103" s="66"/>
-      <c r="J103" s="66"/>
-      <c r="K103" s="69"/>
-      <c r="L103" s="66"/>
+      <c r="F103" s="233"/>
+      <c r="G103" s="233"/>
+      <c r="H103" s="233"/>
+      <c r="I103" s="233"/>
+      <c r="J103" s="233"/>
+      <c r="K103" s="234"/>
+      <c r="L103" s="233"/>
     </row>
     <row r="104" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A104" s="80" t="s">
+      <c r="A104" s="240" t="s">
         <v>1067</v>
       </c>
-      <c r="C104" s="169" t="s">
+      <c r="B104" s="233"/>
+      <c r="C104" s="245" t="s">
         <v>131</v>
       </c>
-      <c r="D104" s="134" t="s">
+      <c r="D104" s="247" t="s">
         <v>1071</v>
       </c>
-      <c r="E104" s="82" t="s">
+      <c r="E104" s="240" t="s">
         <v>1069</v>
       </c>
+      <c r="F104" s="233"/>
+      <c r="G104" s="233"/>
+      <c r="H104" s="233"/>
+      <c r="I104" s="233"/>
+      <c r="J104" s="233"/>
+      <c r="K104" s="234"/>
+      <c r="L104" s="233"/>
     </row>
     <row r="105" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A105" s="66"/>
-      <c r="B105" s="66"/>
-      <c r="C105" s="66"/>
-      <c r="D105" s="134"/>
-      <c r="E105" s="99"/>
-      <c r="F105" s="66"/>
-      <c r="G105" s="66"/>
-      <c r="H105" s="66"/>
-      <c r="I105" s="66"/>
-      <c r="J105" s="66"/>
-      <c r="K105" s="69"/>
-      <c r="L105" s="66"/>
+      <c r="A105" s="61"/>
+      <c r="B105" s="61"/>
+      <c r="C105" s="61"/>
+      <c r="D105" s="133"/>
+      <c r="E105" s="100"/>
+      <c r="F105" s="61"/>
+      <c r="G105" s="61"/>
+      <c r="H105" s="61"/>
+      <c r="I105" s="61"/>
+      <c r="J105" s="61"/>
+      <c r="K105" s="78"/>
+      <c r="L105" s="61"/>
     </row>
     <row r="106" spans="1:12" x14ac:dyDescent="0.3">
       <c r="D106" s="134"/>
@@ -23545,6 +24562,982 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{106E20E3-13A3-48B6-A2CF-7D28B3262DEC}">
+  <dimension ref="A1:L62"/>
+  <sheetViews>
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="13.77734375" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.6640625" style="6" customWidth="1"/>
+    <col min="3" max="3" width="67" style="176" customWidth="1"/>
+    <col min="4" max="4" width="55.21875" style="176" customWidth="1"/>
+    <col min="5" max="16384" width="8.88671875" style="8"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1" s="8" t="s">
+        <v>517</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="C1" s="176" t="s">
+        <v>518</v>
+      </c>
+      <c r="D1" s="176" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A2" s="182" t="s">
+        <v>319</v>
+      </c>
+      <c r="B2" s="183">
+        <v>1</v>
+      </c>
+      <c r="C2" s="181" t="s">
+        <v>520</v>
+      </c>
+      <c r="D2" s="181" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A3" s="182" t="s">
+        <v>319</v>
+      </c>
+      <c r="B3" s="183">
+        <v>2</v>
+      </c>
+      <c r="C3" s="181" t="s">
+        <v>522</v>
+      </c>
+      <c r="D3" s="181" t="s">
+        <v>523</v>
+      </c>
+      <c r="E3" s="152"/>
+      <c r="F3" s="152"/>
+      <c r="G3" s="152"/>
+      <c r="H3" s="152"/>
+      <c r="I3" s="152"/>
+      <c r="J3" s="152"/>
+      <c r="K3" s="152"/>
+      <c r="L3" s="152"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A4" s="182" t="s">
+        <v>319</v>
+      </c>
+      <c r="B4" s="183">
+        <v>3</v>
+      </c>
+      <c r="C4" s="181" t="s">
+        <v>524</v>
+      </c>
+      <c r="D4" s="181" t="s">
+        <v>525</v>
+      </c>
+      <c r="E4" s="152"/>
+      <c r="F4" s="152"/>
+      <c r="G4" s="152"/>
+      <c r="H4" s="152"/>
+      <c r="I4" s="152"/>
+      <c r="J4" s="152"/>
+      <c r="K4" s="152"/>
+      <c r="L4" s="152"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A5" s="182" t="s">
+        <v>514</v>
+      </c>
+      <c r="B5" s="183">
+        <v>1</v>
+      </c>
+      <c r="C5" s="181" t="s">
+        <v>526</v>
+      </c>
+      <c r="D5" s="181" t="s">
+        <v>527</v>
+      </c>
+      <c r="E5" s="152"/>
+      <c r="F5" s="152"/>
+      <c r="G5" s="152"/>
+      <c r="H5" s="152"/>
+      <c r="I5" s="152"/>
+      <c r="J5" s="152"/>
+      <c r="K5" s="152"/>
+      <c r="L5" s="152"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A6" s="182" t="s">
+        <v>514</v>
+      </c>
+      <c r="B6" s="183">
+        <v>2</v>
+      </c>
+      <c r="C6" s="181" t="s">
+        <v>528</v>
+      </c>
+      <c r="D6" s="181" t="s">
+        <v>529</v>
+      </c>
+      <c r="E6" s="79"/>
+      <c r="F6" s="79"/>
+      <c r="G6" s="79"/>
+      <c r="H6" s="79"/>
+      <c r="I6" s="79"/>
+      <c r="J6" s="79"/>
+      <c r="K6" s="79"/>
+      <c r="L6" s="79"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A7" s="182" t="s">
+        <v>514</v>
+      </c>
+      <c r="B7" s="183">
+        <v>3</v>
+      </c>
+      <c r="C7" s="181" t="s">
+        <v>530</v>
+      </c>
+      <c r="D7" s="181" t="s">
+        <v>531</v>
+      </c>
+      <c r="E7" s="79"/>
+      <c r="F7" s="79"/>
+      <c r="G7" s="79"/>
+      <c r="H7" s="79"/>
+      <c r="I7" s="79"/>
+      <c r="J7" s="79"/>
+      <c r="K7" s="79"/>
+      <c r="L7" s="79"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A8" s="182" t="s">
+        <v>328</v>
+      </c>
+      <c r="B8" s="183">
+        <v>1</v>
+      </c>
+      <c r="C8" s="181" t="s">
+        <v>532</v>
+      </c>
+      <c r="D8" s="181" t="s">
+        <v>533</v>
+      </c>
+      <c r="E8" s="79"/>
+      <c r="F8" s="79"/>
+      <c r="G8" s="79"/>
+      <c r="H8" s="79"/>
+      <c r="I8" s="79"/>
+      <c r="J8" s="79"/>
+      <c r="K8" s="79"/>
+      <c r="L8" s="79"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A9" s="182" t="s">
+        <v>328</v>
+      </c>
+      <c r="B9" s="183">
+        <v>2</v>
+      </c>
+      <c r="C9" s="181" t="s">
+        <v>534</v>
+      </c>
+      <c r="D9" s="181" t="s">
+        <v>535</v>
+      </c>
+      <c r="E9" s="79"/>
+      <c r="F9" s="79"/>
+      <c r="G9" s="79"/>
+      <c r="H9" s="79"/>
+      <c r="I9" s="79"/>
+      <c r="J9" s="79"/>
+      <c r="K9" s="79"/>
+      <c r="L9" s="79"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A10" s="182" t="s">
+        <v>328</v>
+      </c>
+      <c r="B10" s="183">
+        <v>3</v>
+      </c>
+      <c r="C10" s="181" t="s">
+        <v>536</v>
+      </c>
+      <c r="D10" s="181" t="s">
+        <v>537</v>
+      </c>
+      <c r="E10" s="79"/>
+      <c r="F10" s="79"/>
+      <c r="G10" s="79"/>
+      <c r="H10" s="79"/>
+      <c r="I10" s="79"/>
+      <c r="J10" s="79"/>
+      <c r="K10" s="79"/>
+      <c r="L10" s="79"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A11" s="182" t="s">
+        <v>538</v>
+      </c>
+      <c r="B11" s="183">
+        <v>1</v>
+      </c>
+      <c r="C11" s="181" t="s">
+        <v>539</v>
+      </c>
+      <c r="D11" s="181" t="s">
+        <v>540</v>
+      </c>
+      <c r="E11" s="79"/>
+      <c r="F11" s="79"/>
+      <c r="G11" s="79"/>
+      <c r="H11" s="79"/>
+      <c r="I11" s="79"/>
+      <c r="J11" s="79"/>
+      <c r="K11" s="79"/>
+      <c r="L11" s="79"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A12" s="182" t="s">
+        <v>538</v>
+      </c>
+      <c r="B12" s="183">
+        <v>2</v>
+      </c>
+      <c r="C12" s="181" t="s">
+        <v>541</v>
+      </c>
+      <c r="D12" s="181" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A13" s="182" t="s">
+        <v>538</v>
+      </c>
+      <c r="B13" s="183">
+        <v>3</v>
+      </c>
+      <c r="C13" s="181" t="s">
+        <v>543</v>
+      </c>
+      <c r="D13" s="181" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A14" s="182" t="s">
+        <v>317</v>
+      </c>
+      <c r="B14" s="183">
+        <v>1</v>
+      </c>
+      <c r="C14" s="181" t="s">
+        <v>545</v>
+      </c>
+      <c r="D14" s="181" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A15" s="182" t="s">
+        <v>317</v>
+      </c>
+      <c r="B15" s="183">
+        <v>2</v>
+      </c>
+      <c r="C15" s="181" t="s">
+        <v>547</v>
+      </c>
+      <c r="D15" s="181" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A16" s="182" t="s">
+        <v>317</v>
+      </c>
+      <c r="B16" s="183">
+        <v>3</v>
+      </c>
+      <c r="C16" s="181" t="s">
+        <v>549</v>
+      </c>
+      <c r="D16" s="181" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" s="182" t="s">
+        <v>327</v>
+      </c>
+      <c r="B17" s="183">
+        <v>1</v>
+      </c>
+      <c r="C17" s="181" t="s">
+        <v>551</v>
+      </c>
+      <c r="D17" s="181" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" s="182" t="s">
+        <v>327</v>
+      </c>
+      <c r="B18" s="183">
+        <v>2</v>
+      </c>
+      <c r="C18" s="181" t="s">
+        <v>553</v>
+      </c>
+      <c r="D18" s="181" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" s="182" t="s">
+        <v>327</v>
+      </c>
+      <c r="B19" s="183">
+        <v>3</v>
+      </c>
+      <c r="C19" s="181" t="s">
+        <v>555</v>
+      </c>
+      <c r="D19" s="181" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" s="182" t="s">
+        <v>130</v>
+      </c>
+      <c r="B20" s="183">
+        <v>1</v>
+      </c>
+      <c r="C20" s="181" t="s">
+        <v>557</v>
+      </c>
+      <c r="D20" s="181" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" s="182" t="s">
+        <v>130</v>
+      </c>
+      <c r="B21" s="183">
+        <v>2</v>
+      </c>
+      <c r="C21" s="181" t="s">
+        <v>559</v>
+      </c>
+      <c r="D21" s="181" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" s="182" t="s">
+        <v>130</v>
+      </c>
+      <c r="B22" s="183">
+        <v>3</v>
+      </c>
+      <c r="C22" s="181" t="s">
+        <v>561</v>
+      </c>
+      <c r="D22" s="181" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" s="182" t="s">
+        <v>316</v>
+      </c>
+      <c r="B23" s="183">
+        <v>1</v>
+      </c>
+      <c r="C23" s="181" t="s">
+        <v>563</v>
+      </c>
+      <c r="D23" s="181" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" s="182" t="s">
+        <v>316</v>
+      </c>
+      <c r="B24" s="183">
+        <v>2</v>
+      </c>
+      <c r="C24" s="181" t="s">
+        <v>565</v>
+      </c>
+      <c r="D24" s="181" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" s="182" t="s">
+        <v>316</v>
+      </c>
+      <c r="B25" s="183">
+        <v>3</v>
+      </c>
+      <c r="C25" s="181" t="s">
+        <v>567</v>
+      </c>
+      <c r="D25" s="181" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26" s="182" t="s">
+        <v>129</v>
+      </c>
+      <c r="B26" s="183">
+        <v>1</v>
+      </c>
+      <c r="C26" s="181" t="s">
+        <v>569</v>
+      </c>
+      <c r="D26" s="181" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27" s="182" t="s">
+        <v>129</v>
+      </c>
+      <c r="B27" s="183">
+        <v>2</v>
+      </c>
+      <c r="C27" s="181" t="s">
+        <v>571</v>
+      </c>
+      <c r="D27" s="181" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28" s="182" t="s">
+        <v>129</v>
+      </c>
+      <c r="B28" s="183">
+        <v>3</v>
+      </c>
+      <c r="C28" s="181" t="s">
+        <v>573</v>
+      </c>
+      <c r="D28" s="181" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29" s="182" t="s">
+        <v>322</v>
+      </c>
+      <c r="B29" s="183">
+        <v>1</v>
+      </c>
+      <c r="C29" s="181" t="s">
+        <v>575</v>
+      </c>
+      <c r="D29" s="181" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30" s="182" t="s">
+        <v>322</v>
+      </c>
+      <c r="B30" s="183">
+        <v>2</v>
+      </c>
+      <c r="C30" s="181" t="s">
+        <v>577</v>
+      </c>
+      <c r="D30" s="181" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31" s="182" t="s">
+        <v>322</v>
+      </c>
+      <c r="B31" s="183">
+        <v>3</v>
+      </c>
+      <c r="C31" s="181" t="s">
+        <v>579</v>
+      </c>
+      <c r="D31" s="181" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A32" s="182" t="s">
+        <v>321</v>
+      </c>
+      <c r="B32" s="183">
+        <v>1</v>
+      </c>
+      <c r="C32" s="181" t="s">
+        <v>581</v>
+      </c>
+      <c r="D32" s="181" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33" s="182" t="s">
+        <v>321</v>
+      </c>
+      <c r="B33" s="183">
+        <v>2</v>
+      </c>
+      <c r="C33" s="181" t="s">
+        <v>583</v>
+      </c>
+      <c r="D33" s="181" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34" s="182" t="s">
+        <v>321</v>
+      </c>
+      <c r="B34" s="183">
+        <v>3</v>
+      </c>
+      <c r="C34" s="181" t="s">
+        <v>585</v>
+      </c>
+      <c r="D34" s="181" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A35" s="182" t="s">
+        <v>325</v>
+      </c>
+      <c r="B35" s="183">
+        <v>1</v>
+      </c>
+      <c r="C35" s="181" t="s">
+        <v>587</v>
+      </c>
+      <c r="D35" s="181" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A36" s="182" t="s">
+        <v>325</v>
+      </c>
+      <c r="B36" s="183">
+        <v>2</v>
+      </c>
+      <c r="C36" s="181" t="s">
+        <v>589</v>
+      </c>
+      <c r="D36" s="181" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A37" s="182" t="s">
+        <v>325</v>
+      </c>
+      <c r="B37" s="183">
+        <v>3</v>
+      </c>
+      <c r="C37" s="181" t="s">
+        <v>591</v>
+      </c>
+      <c r="D37" s="181" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A38" s="182" t="s">
+        <v>593</v>
+      </c>
+      <c r="B38" s="183">
+        <v>1</v>
+      </c>
+      <c r="C38" s="181" t="s">
+        <v>594</v>
+      </c>
+      <c r="D38" s="181" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A39" s="182" t="s">
+        <v>593</v>
+      </c>
+      <c r="B39" s="183">
+        <v>2</v>
+      </c>
+      <c r="C39" s="181" t="s">
+        <v>596</v>
+      </c>
+      <c r="D39" s="181" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A40" s="182" t="s">
+        <v>593</v>
+      </c>
+      <c r="B40" s="183">
+        <v>3</v>
+      </c>
+      <c r="C40" s="181" t="s">
+        <v>598</v>
+      </c>
+      <c r="D40" s="181" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A41" s="182" t="s">
+        <v>330</v>
+      </c>
+      <c r="B41" s="183">
+        <v>1</v>
+      </c>
+      <c r="C41" s="181" t="s">
+        <v>600</v>
+      </c>
+      <c r="D41" s="181" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A42" s="182" t="s">
+        <v>330</v>
+      </c>
+      <c r="B42" s="183">
+        <v>2</v>
+      </c>
+      <c r="C42" s="181" t="s">
+        <v>602</v>
+      </c>
+      <c r="D42" s="181" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A43" s="182" t="s">
+        <v>330</v>
+      </c>
+      <c r="B43" s="183">
+        <v>3</v>
+      </c>
+      <c r="C43" s="181" t="s">
+        <v>604</v>
+      </c>
+      <c r="D43" s="181" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A44" s="182" t="s">
+        <v>324</v>
+      </c>
+      <c r="B44" s="183">
+        <v>1</v>
+      </c>
+      <c r="C44" s="181" t="s">
+        <v>606</v>
+      </c>
+      <c r="D44" s="181" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A45" s="182" t="s">
+        <v>324</v>
+      </c>
+      <c r="B45" s="183">
+        <v>2</v>
+      </c>
+      <c r="C45" s="181" t="s">
+        <v>608</v>
+      </c>
+      <c r="D45" s="181" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A46" s="182" t="s">
+        <v>324</v>
+      </c>
+      <c r="B46" s="183">
+        <v>3</v>
+      </c>
+      <c r="C46" s="181" t="s">
+        <v>610</v>
+      </c>
+      <c r="D46" s="181" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A47" s="182" t="s">
+        <v>326</v>
+      </c>
+      <c r="B47" s="183">
+        <v>1</v>
+      </c>
+      <c r="C47" s="181" t="s">
+        <v>612</v>
+      </c>
+      <c r="D47" s="181" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A48" s="182" t="s">
+        <v>326</v>
+      </c>
+      <c r="B48" s="183">
+        <v>2</v>
+      </c>
+      <c r="C48" s="181" t="s">
+        <v>614</v>
+      </c>
+      <c r="D48" s="181" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A49" s="182" t="s">
+        <v>326</v>
+      </c>
+      <c r="B49" s="183">
+        <v>3</v>
+      </c>
+      <c r="C49" s="181" t="s">
+        <v>616</v>
+      </c>
+      <c r="D49" s="181" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A50" s="177" t="s">
+        <v>517</v>
+      </c>
+      <c r="B50" s="178" t="s">
+        <v>73</v>
+      </c>
+      <c r="C50" s="177" t="s">
+        <v>618</v>
+      </c>
+      <c r="D50" s="177" t="s">
+        <v>518</v>
+      </c>
+      <c r="E50"/>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A51" s="179" t="s">
+        <v>321</v>
+      </c>
+      <c r="B51" s="180">
+        <v>1</v>
+      </c>
+      <c r="C51" s="181" t="s">
+        <v>631</v>
+      </c>
+      <c r="D51" s="179" t="s">
+        <v>619</v>
+      </c>
+      <c r="E51"/>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A52" s="179" t="s">
+        <v>321</v>
+      </c>
+      <c r="B52" s="180">
+        <v>1</v>
+      </c>
+      <c r="C52" s="181" t="s">
+        <v>632</v>
+      </c>
+      <c r="D52" s="179" t="s">
+        <v>620</v>
+      </c>
+      <c r="E52"/>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A53" s="179" t="s">
+        <v>321</v>
+      </c>
+      <c r="B53" s="180">
+        <v>2</v>
+      </c>
+      <c r="C53" s="181" t="s">
+        <v>633</v>
+      </c>
+      <c r="D53" s="179" t="s">
+        <v>621</v>
+      </c>
+      <c r="E53"/>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A54" s="179" t="s">
+        <v>321</v>
+      </c>
+      <c r="B54" s="180">
+        <v>2</v>
+      </c>
+      <c r="C54" s="181" t="s">
+        <v>634</v>
+      </c>
+      <c r="D54" s="179" t="s">
+        <v>622</v>
+      </c>
+      <c r="E54"/>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A55" s="179" t="s">
+        <v>321</v>
+      </c>
+      <c r="B55" s="180">
+        <v>3</v>
+      </c>
+      <c r="C55" s="181" t="s">
+        <v>635</v>
+      </c>
+      <c r="D55" s="179" t="s">
+        <v>623</v>
+      </c>
+      <c r="E55"/>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A56" s="179" t="s">
+        <v>321</v>
+      </c>
+      <c r="B56" s="180">
+        <v>3</v>
+      </c>
+      <c r="C56" s="181" t="s">
+        <v>636</v>
+      </c>
+      <c r="D56" s="179" t="s">
+        <v>624</v>
+      </c>
+      <c r="E56"/>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A57" s="179" t="s">
+        <v>322</v>
+      </c>
+      <c r="B57" s="180">
+        <v>1</v>
+      </c>
+      <c r="C57" s="181" t="s">
+        <v>637</v>
+      </c>
+      <c r="D57" s="179" t="s">
+        <v>625</v>
+      </c>
+      <c r="E57"/>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A58" s="179" t="s">
+        <v>322</v>
+      </c>
+      <c r="B58" s="180">
+        <v>1</v>
+      </c>
+      <c r="C58" s="181" t="s">
+        <v>638</v>
+      </c>
+      <c r="D58" s="179" t="s">
+        <v>626</v>
+      </c>
+      <c r="E58"/>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A59" s="179" t="s">
+        <v>322</v>
+      </c>
+      <c r="B59" s="180">
+        <v>2</v>
+      </c>
+      <c r="C59" s="181" t="s">
+        <v>639</v>
+      </c>
+      <c r="D59" s="179" t="s">
+        <v>627</v>
+      </c>
+      <c r="E59"/>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A60" s="179" t="s">
+        <v>322</v>
+      </c>
+      <c r="B60" s="180">
+        <v>2</v>
+      </c>
+      <c r="C60" s="181" t="s">
+        <v>640</v>
+      </c>
+      <c r="D60" s="179" t="s">
+        <v>628</v>
+      </c>
+      <c r="E60"/>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A61" s="179" t="s">
+        <v>322</v>
+      </c>
+      <c r="B61" s="180">
+        <v>3</v>
+      </c>
+      <c r="C61" s="181" t="s">
+        <v>641</v>
+      </c>
+      <c r="D61" s="179" t="s">
+        <v>629</v>
+      </c>
+      <c r="E61"/>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A62" s="179" t="s">
+        <v>322</v>
+      </c>
+      <c r="B62" s="180">
+        <v>3</v>
+      </c>
+      <c r="C62" s="181" t="s">
+        <v>642</v>
+      </c>
+      <c r="D62" s="179" t="s">
+        <v>630</v>
+      </c>
+      <c r="E62"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5185EBC1-B188-43F6-8E3E-0A9F51E2D165}">
   <dimension ref="A1:E141"/>
   <sheetViews>
@@ -25948,13 +27941,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{115009AB-B27C-4CA0-B2E4-90AA5876E3A8}">
   <sheetPr codeName="Foglio7"/>
   <dimension ref="A2:B42"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.35"/>
@@ -26157,7 +28150,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5ACB100-37FF-49B7-BA62-9B514C951ADB}">
   <dimension ref="A1:D1"/>
   <sheetViews>
@@ -26184,7 +28177,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{581F3D2C-31A2-4FB2-8C65-46AAAF8E5DD1}">
   <dimension ref="A1:L150"/>
   <sheetViews>
@@ -28247,7 +30240,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E48765C4-F014-4204-8327-F3BDF9D524F0}">
   <sheetPr codeName="Foglio3"/>
   <dimension ref="A1:B110"/>
@@ -28644,7 +30637,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DFB1265-A304-4A70-84A2-1BEE78880113}">
   <sheetPr codeName="Foglio4"/>
   <dimension ref="A1:U31"/>
@@ -29225,7 +31218,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7451DFD-0677-48BC-BE67-FCB74B646958}">
   <sheetPr codeName="Foglio5"/>
   <dimension ref="A1:X127"/>
@@ -30591,7 +32584,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47292B62-4737-4AF5-AB78-ACD525E8E598}">
   <sheetPr codeName="Foglio6"/>
   <dimension ref="A1:K58"/>
@@ -30997,11 +32990,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22AF1615-1EA2-4AD7-A86C-59952E5A099E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5334263-4143-413C-81B1-B37F8CC6DF82}">
   <dimension ref="A1:L225"/>
   <sheetViews>
-    <sheetView topLeftCell="A29" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="J35" sqref="J35"/>
+    <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
@@ -31024,17 +33017,17 @@
         <v>5</v>
       </c>
       <c r="G1" s="54" t="s">
+        <v>1200</v>
+      </c>
+      <c r="H1" s="151" t="s">
         <v>1201</v>
-      </c>
-      <c r="H1" s="151" t="s">
-        <v>1202</v>
       </c>
       <c r="I1" s="81" t="s">
         <v>348</v>
       </c>
       <c r="J1" s="100"/>
       <c r="K1" s="61"/>
-      <c r="L1" s="209" t="s">
+      <c r="L1" s="242" t="s">
         <v>1205</v>
       </c>
     </row>
@@ -31043,16 +33036,16 @@
         <v>0</v>
       </c>
       <c r="B3" s="57" t="s">
-        <v>1158</v>
+        <v>1206</v>
       </c>
       <c r="E3" s="156" t="s">
         <v>2</v>
       </c>
       <c r="F3" s="152" t="s">
-        <v>1153</v>
+        <v>1207</v>
       </c>
       <c r="H3" s="55" t="s">
-        <v>1154</v>
+        <v>1208</v>
       </c>
       <c r="K3" s="57"/>
     </row>
@@ -31063,8 +33056,8 @@
       <c r="B4" s="57" t="s">
         <v>1040</v>
       </c>
-      <c r="H4" s="230" t="s">
-        <v>1155</v>
+      <c r="H4" s="243" t="s">
+        <v>1210</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
@@ -31072,17 +33065,17 @@
         <v>4</v>
       </c>
       <c r="B5" s="152" t="s">
-        <v>1159</v>
+        <v>387</v>
       </c>
       <c r="E5" s="210" t="s">
         <v>3</v>
       </c>
       <c r="F5" s="139" t="s">
-        <v>1156</v>
+        <v>504</v>
       </c>
       <c r="G5" s="85"/>
       <c r="H5" s="140" t="s">
-        <v>1157</v>
+        <v>1258</v>
       </c>
       <c r="I5" s="85"/>
       <c r="J5" s="85"/>
@@ -31097,7 +33090,7 @@
         <v>126</v>
       </c>
       <c r="H6" s="55" t="s">
-        <v>1160</v>
+        <v>1259</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -31133,9 +33126,11 @@
       <c r="E10" s="165" t="s">
         <v>12</v>
       </c>
-      <c r="F10" s="80"/>
+      <c r="F10" s="80" t="s">
+        <v>1209</v>
+      </c>
       <c r="H10" s="163">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I10" s="165" t="s">
         <v>13</v>
@@ -31144,18 +33139,16 @@
         <v>1163</v>
       </c>
       <c r="L10" s="163">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" s="165" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="80" t="s">
-        <v>1162</v>
-      </c>
+      <c r="B11" s="80"/>
       <c r="D11" s="163">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E11" s="165" t="s">
         <v>16</v>
@@ -31169,7 +33162,7 @@
       </c>
       <c r="J11" s="80"/>
       <c r="L11" s="163">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
@@ -31178,14 +33171,14 @@
       </c>
       <c r="B12" s="80"/>
       <c r="D12" s="163">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E12" s="165" t="s">
         <v>17</v>
       </c>
       <c r="F12" s="80"/>
       <c r="H12" s="163">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I12" s="165" t="s">
         <v>19</v>
@@ -31228,7 +33221,7 @@
       </c>
       <c r="B16" s="80"/>
       <c r="D16" s="163">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E16" s="154" t="s">
         <v>438</v>
@@ -31236,13 +33229,13 @@
       <c r="F16" s="80"/>
       <c r="G16" s="54"/>
       <c r="H16" s="163">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I16" s="154" t="s">
         <v>31</v>
       </c>
       <c r="J16" s="111" t="s">
-        <v>1161</v>
+        <v>1211</v>
       </c>
       <c r="L16" s="163">
         <v>1</v>
@@ -31252,11 +33245,9 @@
       <c r="A17" s="154" t="s">
         <v>32</v>
       </c>
-      <c r="B17" s="80" t="s">
-        <v>1170</v>
-      </c>
+      <c r="B17" s="80"/>
       <c r="D17" s="163">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E17" s="154" t="s">
         <v>33</v>
@@ -31271,7 +33262,7 @@
       </c>
       <c r="J17" s="80"/>
       <c r="L17" s="163">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.3">
@@ -31280,12 +33271,12 @@
       </c>
       <c r="B18" s="80"/>
       <c r="D18" s="163">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E18" s="154" t="s">
         <v>437</v>
       </c>
-      <c r="F18" s="111"/>
+      <c r="F18" s="80"/>
       <c r="G18" s="54"/>
       <c r="H18" s="163">
         <v>2</v>
@@ -31304,33 +33295,33 @@
       </c>
       <c r="B19" s="80"/>
       <c r="D19" s="163">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E19" s="154" t="s">
         <v>38</v>
       </c>
-      <c r="F19" s="80" t="s">
-        <v>1171</v>
-      </c>
+      <c r="F19" s="80"/>
       <c r="G19" s="54"/>
       <c r="H19" s="163">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I19" s="154" t="s">
         <v>45</v>
       </c>
       <c r="J19" s="80"/>
       <c r="L19" s="163">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20" s="154" t="s">
         <v>27</v>
       </c>
-      <c r="B20" s="80"/>
+      <c r="B20" s="80" t="s">
+        <v>1213</v>
+      </c>
       <c r="D20" s="163">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E20" s="154" t="s">
         <v>39</v>
@@ -31343,7 +33334,9 @@
       <c r="I20" s="154" t="s">
         <v>46</v>
       </c>
-      <c r="J20" s="80"/>
+      <c r="J20" s="111" t="s">
+        <v>1212</v>
+      </c>
       <c r="L20" s="163">
         <v>1</v>
       </c>
@@ -31402,7 +33395,7 @@
       </c>
       <c r="B23" s="80"/>
       <c r="D23" s="163">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E23" s="154" t="s">
         <v>42</v>
@@ -31410,7 +33403,7 @@
       <c r="F23" s="80"/>
       <c r="G23" s="54"/>
       <c r="H23" s="163">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I23" s="154" t="s">
         <v>49</v>
@@ -31426,11 +33419,12 @@
       </c>
       <c r="B24" s="80"/>
       <c r="D24" s="163">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E24" s="154" t="s">
         <v>43</v>
       </c>
+      <c r="F24" s="80"/>
       <c r="G24" s="54"/>
       <c r="H24" s="163">
         <v>0</v>
@@ -31440,7 +33434,7 @@
       </c>
       <c r="J24" s="80"/>
       <c r="L24" s="163">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.3">
@@ -31449,7 +33443,7 @@
       </c>
       <c r="B25" s="80"/>
       <c r="D25" s="163">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E25" s="154" t="s">
         <v>44</v>
@@ -31457,7 +33451,7 @@
       <c r="F25" s="80"/>
       <c r="G25" s="54"/>
       <c r="H25" s="163">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I25" s="154" t="s">
         <v>51</v>
@@ -31515,13 +33509,13 @@
     </row>
     <row r="30" spans="1:12" s="73" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A30" s="57" t="s">
-        <v>1164</v>
+        <v>317</v>
       </c>
       <c r="B30" s="54">
         <v>1</v>
       </c>
-      <c r="C30" s="175" t="s">
-        <v>1165</v>
+      <c r="C30" s="80" t="s">
+        <v>1214</v>
       </c>
       <c r="D30" s="57"/>
       <c r="E30" s="57"/>
@@ -31532,7 +33526,7 @@
       </c>
       <c r="I30" s="57"/>
       <c r="J30" s="167">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K30" s="55" t="s">
         <v>477</v>
@@ -31540,20 +33534,14 @@
       <c r="L30" s="54"/>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A31" s="239" t="s">
-        <v>1166</v>
-      </c>
-      <c r="B31" s="54">
-        <v>1</v>
-      </c>
       <c r="C31" s="80" t="s">
-        <v>1167</v>
+        <v>1215</v>
       </c>
       <c r="H31" s="166" t="s">
         <v>59</v>
       </c>
       <c r="J31" s="167">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K31" s="55" t="s">
         <v>479</v>
@@ -31561,14 +33549,14 @@
       <c r="L31" s="54"/>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A32" s="239" t="s">
-        <v>1166</v>
+      <c r="A32" s="57" t="s">
+        <v>328</v>
       </c>
       <c r="B32" s="54">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C32" s="80" t="s">
-        <v>1168</v>
+        <v>440</v>
       </c>
       <c r="H32" s="63" t="s">
         <v>70</v>
@@ -31579,10 +33567,14 @@
       <c r="L32" s="54"/>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A33" s="233"/>
-      <c r="B33" s="234"/>
-      <c r="C33" s="241" t="s">
-        <v>1169</v>
+      <c r="A33" s="233" t="s">
+        <v>320</v>
+      </c>
+      <c r="B33" s="234">
+        <v>1</v>
+      </c>
+      <c r="C33" s="240" t="s">
+        <v>1042</v>
       </c>
       <c r="D33" s="233"/>
       <c r="E33" s="233"/>
@@ -31591,7 +33583,8 @@
         <v>66</v>
       </c>
       <c r="J33" s="167">
-        <v>7</v>
+        <f>J29+J30</f>
+        <v>6</v>
       </c>
       <c r="K33" s="162" t="s">
         <v>464</v>
@@ -31601,12 +33594,12 @@
     <row r="34" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A34" s="61"/>
       <c r="B34" s="61"/>
-      <c r="C34" s="61"/>
+      <c r="C34" s="81"/>
       <c r="D34" s="61"/>
       <c r="E34" s="61"/>
       <c r="F34" s="61"/>
       <c r="L34" s="215" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.3">
@@ -31646,7 +33639,7 @@
       <c r="I37" s="73"/>
       <c r="J37" s="167">
         <f>7-J30</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K37" s="162" t="s">
         <v>481</v>
@@ -31904,29 +33897,29 @@
         <v>2</v>
       </c>
       <c r="D52" s="80" t="s">
-        <v>1200</v>
+        <v>1216</v>
       </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A53" s="165" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C53" s="54">
         <v>2</v>
       </c>
       <c r="D53" s="80" t="s">
-        <v>1177</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A54" s="165" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="C54" s="54">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D54" s="80" t="s">
-        <v>1178</v>
+        <v>1228</v>
       </c>
       <c r="E54" s="155"/>
     </row>
@@ -31938,19 +33931,19 @@
         <v>2</v>
       </c>
       <c r="D55" s="80" t="s">
-        <v>1035</v>
+        <v>1217</v>
       </c>
       <c r="E55" s="155"/>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A56" s="165" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="C56" s="54">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D56" s="80" t="s">
-        <v>1174</v>
+        <v>1219</v>
       </c>
       <c r="E56" s="155"/>
     </row>
@@ -31962,7 +33955,7 @@
         <v>2</v>
       </c>
       <c r="D57" s="80" t="s">
-        <v>1037</v>
+        <v>1218</v>
       </c>
       <c r="E57" s="155"/>
     </row>
@@ -32016,53 +34009,53 @@
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A63" s="165" t="s">
-        <v>1175</v>
+        <v>1234</v>
       </c>
       <c r="C63" s="54">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="D63" s="80" t="s">
-        <v>1188</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A64" s="63"/>
-      <c r="D64" s="239" t="s">
-        <v>1187</v>
+      <c r="D64" s="80" t="s">
+        <v>1235</v>
       </c>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A65" s="165" t="s">
-        <v>1176</v>
+        <v>1020</v>
       </c>
       <c r="C65" s="54">
-        <v>-3</v>
-      </c>
-      <c r="D65" s="239" t="s">
-        <v>1186</v>
+        <v>1</v>
+      </c>
+      <c r="D65" s="80" t="s">
+        <v>1233</v>
       </c>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A66" s="165"/>
-      <c r="C66" s="54"/>
-      <c r="D66" s="80"/>
+      <c r="A66" s="241"/>
+      <c r="B66" s="66"/>
+      <c r="C66" s="69"/>
+      <c r="D66" s="82"/>
+      <c r="E66" s="66"/>
+      <c r="F66" s="66"/>
+      <c r="G66" s="66"/>
+      <c r="H66" s="66"/>
+      <c r="I66" s="66"/>
+      <c r="J66" s="66"/>
+      <c r="K66" s="69"/>
+      <c r="L66" s="66"/>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A67" s="242"/>
-      <c r="B67" s="66"/>
-      <c r="C67" s="69"/>
-      <c r="D67" s="82"/>
-      <c r="E67" s="66"/>
-      <c r="F67" s="66"/>
-      <c r="G67" s="66"/>
-      <c r="H67" s="66"/>
-      <c r="I67" s="66"/>
-      <c r="J67" s="66"/>
-      <c r="K67" s="69"/>
-      <c r="L67" s="66"/>
+      <c r="A67" s="165"/>
+      <c r="C67" s="54"/>
+      <c r="D67" s="80"/>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A68" s="242"/>
+      <c r="A68" s="241"/>
       <c r="B68" s="66"/>
       <c r="C68" s="69"/>
       <c r="D68" s="82"/>
@@ -32108,7 +34101,7 @@
         <v>105</v>
       </c>
       <c r="C73" s="63" t="s">
-        <v>1204</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.3">
@@ -32116,7 +34109,7 @@
         <v>106</v>
       </c>
       <c r="C74" s="63" t="s">
-        <v>1189</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.3">
@@ -32124,7 +34117,7 @@
         <v>98</v>
       </c>
       <c r="C75" s="63" t="s">
-        <v>1190</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.3">
@@ -32159,10 +34152,10 @@
       </c>
       <c r="B79" s="80"/>
       <c r="C79" s="80" t="s">
-        <v>1191</v>
+        <v>1245</v>
       </c>
       <c r="E79" s="57" t="s">
-        <v>1192</v>
+        <v>1244</v>
       </c>
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.3">
@@ -32208,13 +34201,13 @@
         <v>113</v>
       </c>
       <c r="C84" s="212">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="E84" s="80" t="s">
         <v>118</v>
       </c>
       <c r="G84" s="212" t="s">
-        <v>1195</v>
+        <v>391</v>
       </c>
       <c r="I84" s="57" t="s">
         <v>0</v>
@@ -32235,7 +34228,7 @@
         <v>119</v>
       </c>
       <c r="F85" s="66"/>
-      <c r="G85" s="236" t="s">
+      <c r="G85" s="211" t="s">
         <v>392</v>
       </c>
       <c r="I85" s="66"/>
@@ -32247,14 +34240,14 @@
       <c r="A86" s="80" t="s">
         <v>114</v>
       </c>
-      <c r="C86" s="213">
-        <v>32939</v>
+      <c r="C86" s="235">
+        <v>26373</v>
       </c>
       <c r="E86" s="80" t="s">
         <v>120</v>
       </c>
       <c r="G86" s="212" t="s">
-        <v>1196</v>
+        <v>1240</v>
       </c>
       <c r="I86" s="85"/>
       <c r="J86" s="85"/>
@@ -32274,7 +34267,7 @@
       </c>
       <c r="F87" s="66"/>
       <c r="G87" s="211" t="s">
-        <v>1197</v>
+        <v>1239</v>
       </c>
       <c r="I87" s="66"/>
       <c r="J87" s="66"/>
@@ -32286,13 +34279,13 @@
         <v>116</v>
       </c>
       <c r="C88" s="212" t="s">
-        <v>1193</v>
+        <v>1237</v>
       </c>
       <c r="E88" s="80" t="s">
         <v>122</v>
       </c>
       <c r="G88" s="212" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
       <c r="K88" s="57"/>
       <c r="L88" s="54"/>
@@ -32303,7 +34296,7 @@
       </c>
       <c r="B89" s="66"/>
       <c r="C89" s="211" t="s">
-        <v>1194</v>
+        <v>1238</v>
       </c>
       <c r="E89" s="80"/>
       <c r="F89" s="66"/>
@@ -32325,62 +34318,62 @@
       </c>
     </row>
     <row r="93" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A93" s="237" t="s">
-        <v>1199</v>
-      </c>
-      <c r="B93" s="237"/>
-      <c r="C93" s="237"/>
-      <c r="D93" s="237"/>
-      <c r="E93" s="237"/>
-      <c r="F93" s="237"/>
-      <c r="G93" s="237"/>
-      <c r="H93" s="237"/>
-      <c r="I93" s="237"/>
-      <c r="J93" s="237"/>
-      <c r="K93" s="237"/>
-      <c r="L93" s="237"/>
+      <c r="A93" s="216" t="s">
+        <v>1246</v>
+      </c>
+      <c r="B93" s="216"/>
+      <c r="C93" s="216"/>
+      <c r="D93" s="216"/>
+      <c r="E93" s="216"/>
+      <c r="F93" s="216"/>
+      <c r="G93" s="216"/>
+      <c r="H93" s="216"/>
+      <c r="I93" s="216"/>
+      <c r="J93" s="216"/>
+      <c r="K93" s="216"/>
+      <c r="L93" s="216"/>
     </row>
     <row r="94" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A94" s="237"/>
-      <c r="B94" s="237"/>
-      <c r="C94" s="237"/>
-      <c r="D94" s="237"/>
-      <c r="E94" s="237"/>
-      <c r="F94" s="237"/>
-      <c r="G94" s="237"/>
-      <c r="H94" s="237"/>
-      <c r="I94" s="237"/>
-      <c r="J94" s="237"/>
-      <c r="K94" s="237"/>
-      <c r="L94" s="237"/>
+      <c r="A94" s="216"/>
+      <c r="B94" s="216"/>
+      <c r="C94" s="216"/>
+      <c r="D94" s="216"/>
+      <c r="E94" s="216"/>
+      <c r="F94" s="216"/>
+      <c r="G94" s="216"/>
+      <c r="H94" s="216"/>
+      <c r="I94" s="216"/>
+      <c r="J94" s="216"/>
+      <c r="K94" s="216"/>
+      <c r="L94" s="216"/>
     </row>
     <row r="95" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A95" s="237"/>
-      <c r="B95" s="237"/>
-      <c r="C95" s="237"/>
-      <c r="D95" s="237"/>
-      <c r="E95" s="237"/>
-      <c r="F95" s="237"/>
-      <c r="G95" s="237"/>
-      <c r="H95" s="237"/>
-      <c r="I95" s="237"/>
-      <c r="J95" s="237"/>
-      <c r="K95" s="237"/>
-      <c r="L95" s="237"/>
+      <c r="A95" s="216"/>
+      <c r="B95" s="216"/>
+      <c r="C95" s="216"/>
+      <c r="D95" s="216"/>
+      <c r="E95" s="216"/>
+      <c r="F95" s="216"/>
+      <c r="G95" s="216"/>
+      <c r="H95" s="216"/>
+      <c r="I95" s="216"/>
+      <c r="J95" s="216"/>
+      <c r="K95" s="216"/>
+      <c r="L95" s="216"/>
     </row>
     <row r="96" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A96" s="237"/>
-      <c r="B96" s="237"/>
-      <c r="C96" s="237"/>
-      <c r="D96" s="237"/>
-      <c r="E96" s="237"/>
-      <c r="F96" s="237"/>
-      <c r="G96" s="237"/>
-      <c r="H96" s="237"/>
-      <c r="I96" s="237"/>
-      <c r="J96" s="237"/>
-      <c r="K96" s="237"/>
-      <c r="L96" s="237"/>
+      <c r="A96" s="216"/>
+      <c r="B96" s="216"/>
+      <c r="C96" s="216"/>
+      <c r="D96" s="216"/>
+      <c r="E96" s="216"/>
+      <c r="F96" s="216"/>
+      <c r="G96" s="216"/>
+      <c r="H96" s="216"/>
+      <c r="I96" s="216"/>
+      <c r="J96" s="216"/>
+      <c r="K96" s="216"/>
+      <c r="L96" s="216"/>
     </row>
     <row r="97" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A97" s="90" t="s">
@@ -32388,48 +34381,48 @@
       </c>
     </row>
     <row r="98" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A98" s="216" t="s">
-        <v>1203</v>
-      </c>
-      <c r="B98" s="216"/>
-      <c r="C98" s="216"/>
-      <c r="D98" s="216"/>
-      <c r="E98" s="216"/>
-      <c r="F98" s="216"/>
-      <c r="G98" s="216"/>
-      <c r="H98" s="216"/>
-      <c r="I98" s="216"/>
-      <c r="J98" s="216"/>
-      <c r="K98" s="216"/>
-      <c r="L98" s="216"/>
+      <c r="A98" s="237" t="s">
+        <v>1247</v>
+      </c>
+      <c r="B98" s="237"/>
+      <c r="C98" s="237"/>
+      <c r="D98" s="237"/>
+      <c r="E98" s="237"/>
+      <c r="F98" s="237"/>
+      <c r="G98" s="237"/>
+      <c r="H98" s="237"/>
+      <c r="I98" s="237"/>
+      <c r="J98" s="237"/>
+      <c r="K98" s="237"/>
+      <c r="L98" s="237"/>
     </row>
     <row r="99" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A99" s="216"/>
-      <c r="B99" s="216"/>
-      <c r="C99" s="216"/>
-      <c r="D99" s="216"/>
-      <c r="E99" s="216"/>
-      <c r="F99" s="216"/>
-      <c r="G99" s="216"/>
-      <c r="H99" s="216"/>
-      <c r="I99" s="216"/>
-      <c r="J99" s="216"/>
-      <c r="K99" s="216"/>
-      <c r="L99" s="216"/>
+      <c r="A99" s="237"/>
+      <c r="B99" s="237"/>
+      <c r="C99" s="237"/>
+      <c r="D99" s="237"/>
+      <c r="E99" s="237"/>
+      <c r="F99" s="237"/>
+      <c r="G99" s="237"/>
+      <c r="H99" s="237"/>
+      <c r="I99" s="237"/>
+      <c r="J99" s="237"/>
+      <c r="K99" s="237"/>
+      <c r="L99" s="237"/>
     </row>
     <row r="100" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A100" s="216"/>
-      <c r="B100" s="216"/>
-      <c r="C100" s="216"/>
-      <c r="D100" s="216"/>
-      <c r="E100" s="216"/>
-      <c r="F100" s="216"/>
-      <c r="G100" s="216"/>
-      <c r="H100" s="216"/>
-      <c r="I100" s="216"/>
-      <c r="J100" s="216"/>
-      <c r="K100" s="216"/>
-      <c r="L100" s="216"/>
+      <c r="A100" s="237"/>
+      <c r="B100" s="237"/>
+      <c r="C100" s="237"/>
+      <c r="D100" s="237"/>
+      <c r="E100" s="237"/>
+      <c r="F100" s="237"/>
+      <c r="G100" s="237"/>
+      <c r="H100" s="237"/>
+      <c r="I100" s="237"/>
+      <c r="J100" s="237"/>
+      <c r="K100" s="237"/>
+      <c r="L100" s="237"/>
     </row>
     <row r="101" spans="1:12" x14ac:dyDescent="0.3">
       <c r="F101" s="72" t="s">
@@ -32451,58 +34444,74 @@
       </c>
     </row>
     <row r="103" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A103" s="82" t="s">
+      <c r="A103" s="240" t="s">
         <v>407</v>
       </c>
-      <c r="B103" s="66"/>
-      <c r="C103" s="169">
+      <c r="B103" s="233"/>
+      <c r="C103" s="245">
         <v>1</v>
       </c>
-      <c r="D103" s="134" t="s">
+      <c r="D103" s="247" t="s">
         <v>1068</v>
       </c>
-      <c r="E103" s="82" t="s">
+      <c r="E103" s="240" t="s">
         <v>483</v>
       </c>
-      <c r="F103" s="66"/>
-      <c r="G103" s="66"/>
-      <c r="H103" s="66"/>
-      <c r="I103" s="66"/>
-      <c r="J103" s="66"/>
-      <c r="K103" s="69"/>
-      <c r="L103" s="66"/>
+      <c r="F103" s="233"/>
+      <c r="G103" s="233"/>
+      <c r="H103" s="233"/>
+      <c r="I103" s="233"/>
+      <c r="J103" s="233"/>
+      <c r="K103" s="234"/>
+      <c r="L103" s="233"/>
     </row>
     <row r="104" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A104" s="80" t="s">
-        <v>1184</v>
-      </c>
-      <c r="C104" s="169" t="s">
+      <c r="A104" s="240" t="s">
+        <v>1229</v>
+      </c>
+      <c r="B104" s="233"/>
+      <c r="C104" s="245" t="s">
         <v>131</v>
       </c>
-      <c r="D104" s="134" t="s">
+      <c r="D104" s="247" t="s">
         <v>1071</v>
       </c>
-      <c r="E104" s="238" t="s">
-        <v>1185</v>
-      </c>
+      <c r="E104" s="240" t="s">
+        <v>1230</v>
+      </c>
+      <c r="F104" s="233"/>
+      <c r="G104" s="233"/>
+      <c r="H104" s="233"/>
+      <c r="I104" s="233"/>
+      <c r="J104" s="233"/>
+      <c r="K104" s="234"/>
+      <c r="L104" s="233"/>
     </row>
     <row r="105" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A105" s="66"/>
-      <c r="B105" s="66"/>
-      <c r="C105" s="66"/>
-      <c r="D105" s="134"/>
-      <c r="E105" s="99"/>
-      <c r="F105" s="66"/>
-      <c r="G105" s="66"/>
-      <c r="H105" s="66"/>
-      <c r="I105" s="66"/>
-      <c r="J105" s="66"/>
-      <c r="K105" s="69"/>
-      <c r="L105" s="66"/>
+      <c r="A105" s="240" t="s">
+        <v>1231</v>
+      </c>
+      <c r="B105" s="233"/>
+      <c r="C105" s="245" t="s">
+        <v>131</v>
+      </c>
+      <c r="D105" s="247" t="s">
+        <v>1128</v>
+      </c>
+      <c r="E105" s="240" t="s">
+        <v>1232</v>
+      </c>
+      <c r="F105" s="233"/>
+      <c r="G105" s="233"/>
+      <c r="H105" s="233"/>
+      <c r="I105" s="233"/>
+      <c r="J105" s="233"/>
+      <c r="K105" s="234"/>
+      <c r="L105" s="233"/>
     </row>
     <row r="106" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="D106" s="134"/>
-      <c r="E106" s="99"/>
+      <c r="D106" s="133"/>
+      <c r="E106" s="100"/>
     </row>
     <row r="107" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A107" s="66"/>
@@ -32644,60 +34653,44 @@
     </row>
     <row r="124" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A124" s="63" t="s">
-        <v>1172</v>
+        <v>1220</v>
       </c>
       <c r="B124" s="63"/>
       <c r="C124" s="155" t="s">
-        <v>96</v>
-      </c>
-      <c r="D124" s="63" t="s">
-        <v>1173</v>
+        <v>1056</v>
+      </c>
+      <c r="D124" s="80" t="s">
+        <v>1221</v>
       </c>
     </row>
     <row r="125" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A125" s="232" t="s">
-        <v>1179</v>
-      </c>
-      <c r="B125" s="232"/>
-      <c r="C125" s="240" t="s">
-        <v>1180</v>
-      </c>
-      <c r="D125" s="241" t="s">
-        <v>1181</v>
-      </c>
-      <c r="E125" s="233"/>
-      <c r="F125" s="233"/>
-      <c r="G125" s="233"/>
-      <c r="H125" s="233"/>
-      <c r="I125" s="233"/>
-      <c r="J125" s="233"/>
-      <c r="K125" s="234"/>
-      <c r="L125" s="233"/>
+      <c r="A125" s="63" t="s">
+        <v>1223</v>
+      </c>
+      <c r="B125" s="63"/>
+      <c r="C125" s="155" t="s">
+        <v>1056</v>
+      </c>
+      <c r="D125" s="63" t="s">
+        <v>1222</v>
+      </c>
     </row>
     <row r="126" spans="1:12" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A126" s="232" t="s">
-        <v>1182</v>
-      </c>
-      <c r="B126" s="232"/>
-      <c r="C126" s="240" t="s">
-        <v>1180</v>
-      </c>
-      <c r="D126" s="232" t="s">
-        <v>1183</v>
-      </c>
-      <c r="E126" s="233"/>
-      <c r="F126" s="233"/>
-      <c r="G126" s="233"/>
-      <c r="H126" s="233"/>
-      <c r="I126" s="233"/>
-      <c r="J126" s="233"/>
-      <c r="K126" s="234"/>
-      <c r="L126" s="233"/>
+      <c r="A126" s="63" t="s">
+        <v>1224</v>
+      </c>
+      <c r="B126" s="63"/>
+      <c r="C126" s="155" t="s">
+        <v>1225</v>
+      </c>
+      <c r="D126" s="244" t="s">
+        <v>1226</v>
+      </c>
     </row>
     <row r="127" spans="1:12" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A127" s="100"/>
       <c r="B127" s="100"/>
-      <c r="C127" s="100"/>
+      <c r="C127" s="231"/>
       <c r="D127" s="100"/>
       <c r="E127" s="61"/>
       <c r="F127" s="61"/>
@@ -33232,11 +35225,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB020AF3-E2AF-4B08-9CF1-A8BB16CCBDFC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22AF1615-1EA2-4AD7-A86C-59952E5A099E}">
   <dimension ref="A1:L225"/>
   <sheetViews>
-    <sheetView zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView topLeftCell="A71" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+      <selection activeCell="D103" sqref="D103:D104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
@@ -33259,10 +35252,10 @@
         <v>5</v>
       </c>
       <c r="G1" s="54" t="s">
-        <v>1036</v>
+        <v>1200</v>
       </c>
       <c r="H1" s="151" t="s">
-        <v>173</v>
+        <v>1201</v>
       </c>
       <c r="I1" s="81" t="s">
         <v>348</v>
@@ -33270,7 +35263,7 @@
       <c r="J1" s="100"/>
       <c r="K1" s="61"/>
       <c r="L1" s="209" t="s">
-        <v>1017</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
@@ -33278,16 +35271,16 @@
         <v>0</v>
       </c>
       <c r="B3" s="57" t="s">
-        <v>1012</v>
+        <v>1158</v>
       </c>
       <c r="E3" s="156" t="s">
         <v>2</v>
       </c>
       <c r="F3" s="152" t="s">
-        <v>503</v>
+        <v>1153</v>
       </c>
       <c r="H3" s="55" t="s">
-        <v>1013</v>
+        <v>1154</v>
       </c>
       <c r="K3" s="57"/>
     </row>
@@ -33298,8 +35291,8 @@
       <c r="B4" s="57" t="s">
         <v>1040</v>
       </c>
-      <c r="H4" s="55" t="s">
-        <v>1014</v>
+      <c r="H4" s="230" t="s">
+        <v>1155</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
@@ -33307,17 +35300,17 @@
         <v>4</v>
       </c>
       <c r="B5" s="152" t="s">
-        <v>502</v>
+        <v>1159</v>
       </c>
       <c r="E5" s="210" t="s">
         <v>3</v>
       </c>
       <c r="F5" s="139" t="s">
-        <v>504</v>
+        <v>1156</v>
       </c>
       <c r="G5" s="85"/>
       <c r="H5" s="140" t="s">
-        <v>1015</v>
+        <v>1157</v>
       </c>
       <c r="I5" s="85"/>
       <c r="J5" s="85"/>
@@ -33332,7 +35325,7 @@
         <v>126</v>
       </c>
       <c r="H6" s="55" t="s">
-        <v>1016</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -33363,44 +35356,48 @@
       </c>
       <c r="B10" s="80"/>
       <c r="D10" s="163">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E10" s="165" t="s">
         <v>12</v>
       </c>
       <c r="F10" s="80"/>
       <c r="H10" s="163">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I10" s="165" t="s">
         <v>13</v>
       </c>
-      <c r="J10" s="80"/>
+      <c r="J10" s="80" t="s">
+        <v>1163</v>
+      </c>
       <c r="L10" s="163">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" s="165" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="80"/>
+      <c r="B11" s="80" t="s">
+        <v>1162</v>
+      </c>
       <c r="D11" s="163">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E11" s="165" t="s">
         <v>16</v>
       </c>
       <c r="F11" s="80"/>
       <c r="H11" s="163">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I11" s="165" t="s">
         <v>18</v>
       </c>
       <c r="J11" s="80"/>
       <c r="L11" s="163">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
@@ -33409,23 +35406,21 @@
       </c>
       <c r="B12" s="80"/>
       <c r="D12" s="163">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E12" s="165" t="s">
         <v>17</v>
       </c>
-      <c r="F12" s="80" t="s">
-        <v>509</v>
-      </c>
+      <c r="F12" s="80"/>
       <c r="H12" s="163">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I12" s="165" t="s">
         <v>19</v>
       </c>
       <c r="J12" s="80"/>
       <c r="L12" s="163">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
@@ -33461,7 +35456,7 @@
       </c>
       <c r="B16" s="80"/>
       <c r="D16" s="163">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E16" s="154" t="s">
         <v>438</v>
@@ -33469,25 +35464,27 @@
       <c r="F16" s="80"/>
       <c r="G16" s="54"/>
       <c r="H16" s="163">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I16" s="154" t="s">
         <v>31</v>
       </c>
       <c r="J16" s="111" t="s">
-        <v>1018</v>
+        <v>1161</v>
       </c>
       <c r="L16" s="163">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" s="154" t="s">
         <v>32</v>
       </c>
-      <c r="B17" s="80"/>
+      <c r="B17" s="80" t="s">
+        <v>1170</v>
+      </c>
       <c r="D17" s="163">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E17" s="154" t="s">
         <v>33</v>
@@ -33495,7 +35492,7 @@
       <c r="F17" s="80"/>
       <c r="G17" s="54"/>
       <c r="H17" s="163">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I17" s="154" t="s">
         <v>34</v>
@@ -33516,10 +35513,10 @@
       <c r="E18" s="154" t="s">
         <v>437</v>
       </c>
-      <c r="F18" s="80"/>
+      <c r="F18" s="111"/>
       <c r="G18" s="54"/>
       <c r="H18" s="163">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I18" s="154" t="s">
         <v>36</v>
@@ -33535,22 +35532,24 @@
       </c>
       <c r="B19" s="80"/>
       <c r="D19" s="163">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E19" s="154" t="s">
         <v>38</v>
       </c>
-      <c r="F19" s="80"/>
+      <c r="F19" s="80" t="s">
+        <v>1171</v>
+      </c>
       <c r="G19" s="54"/>
       <c r="H19" s="163">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I19" s="154" t="s">
         <v>45</v>
       </c>
       <c r="J19" s="80"/>
       <c r="L19" s="163">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.3">
@@ -33559,7 +35558,7 @@
       </c>
       <c r="B20" s="80"/>
       <c r="D20" s="163">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E20" s="154" t="s">
         <v>39</v>
@@ -33583,7 +35582,7 @@
       </c>
       <c r="B21" s="80"/>
       <c r="D21" s="163">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E21" s="154" t="s">
         <v>40</v>
@@ -33607,7 +35606,7 @@
       </c>
       <c r="B22" s="80"/>
       <c r="D22" s="163">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E22" s="154" t="s">
         <v>41</v>
@@ -33655,12 +35654,11 @@
       </c>
       <c r="B24" s="80"/>
       <c r="D24" s="163">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E24" s="154" t="s">
         <v>43</v>
       </c>
-      <c r="F24" s="80"/>
       <c r="G24" s="54"/>
       <c r="H24" s="163">
         <v>0</v>
@@ -33670,7 +35668,7 @@
       </c>
       <c r="J24" s="80"/>
       <c r="L24" s="163">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.3">
@@ -33679,7 +35677,7 @@
       </c>
       <c r="B25" s="80"/>
       <c r="D25" s="163">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E25" s="154" t="s">
         <v>44</v>
@@ -33687,7 +35685,7 @@
       <c r="F25" s="80"/>
       <c r="G25" s="54"/>
       <c r="H25" s="163">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I25" s="154" t="s">
         <v>51</v>
@@ -33745,13 +35743,13 @@
     </row>
     <row r="30" spans="1:12" s="73" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A30" s="57" t="s">
-        <v>512</v>
+        <v>1164</v>
       </c>
       <c r="B30" s="54">
         <v>1</v>
       </c>
-      <c r="C30" s="80" t="s">
-        <v>1041</v>
+      <c r="C30" s="175" t="s">
+        <v>1165</v>
       </c>
       <c r="D30" s="57"/>
       <c r="E30" s="57"/>
@@ -33762,7 +35760,7 @@
       </c>
       <c r="I30" s="57"/>
       <c r="J30" s="167">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K30" s="55" t="s">
         <v>477</v>
@@ -33770,20 +35768,20 @@
       <c r="L30" s="54"/>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A31" s="57" t="s">
-        <v>328</v>
+      <c r="A31" s="238" t="s">
+        <v>1166</v>
       </c>
       <c r="B31" s="54">
         <v>1</v>
       </c>
       <c r="C31" s="80" t="s">
-        <v>440</v>
+        <v>1167</v>
       </c>
       <c r="H31" s="166" t="s">
         <v>59</v>
       </c>
       <c r="J31" s="167">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K31" s="55" t="s">
         <v>479</v>
@@ -33791,14 +35789,14 @@
       <c r="L31" s="54"/>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A32" s="57" t="s">
-        <v>320</v>
+      <c r="A32" s="238" t="s">
+        <v>1166</v>
       </c>
       <c r="B32" s="54">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C32" s="80" t="s">
-        <v>1042</v>
+        <v>1168</v>
       </c>
       <c r="H32" s="63" t="s">
         <v>70</v>
@@ -33809,21 +35807,19 @@
       <c r="L32" s="54"/>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A33" s="57" t="s">
-        <v>320</v>
-      </c>
-      <c r="B33" s="54">
-        <v>2</v>
-      </c>
-      <c r="C33" s="80" t="s">
-        <v>1044</v>
-      </c>
+      <c r="A33" s="233"/>
+      <c r="B33" s="234"/>
+      <c r="C33" s="240" t="s">
+        <v>1169</v>
+      </c>
+      <c r="D33" s="233"/>
+      <c r="E33" s="233"/>
+      <c r="F33" s="233"/>
       <c r="H33" s="63" t="s">
         <v>66</v>
       </c>
       <c r="J33" s="167">
-        <f>J29+J30</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="K33" s="162" t="s">
         <v>464</v>
@@ -33831,11 +35827,14 @@
       <c r="L33" s="54"/>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="C34" s="80" t="s">
-        <v>1043</v>
-      </c>
+      <c r="A34" s="61"/>
+      <c r="B34" s="61"/>
+      <c r="C34" s="61"/>
+      <c r="D34" s="61"/>
+      <c r="E34" s="61"/>
+      <c r="F34" s="61"/>
       <c r="L34" s="215" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.3">
@@ -33843,7 +35842,7 @@
         <v>20</v>
       </c>
       <c r="J35" s="167">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K35" s="162" t="s">
         <v>478</v>
@@ -33861,7 +35860,7 @@
         <v>1019</v>
       </c>
       <c r="J36" s="167">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="K36" s="162" t="s">
         <v>494</v>
@@ -33875,7 +35874,7 @@
       <c r="I37" s="73"/>
       <c r="J37" s="167">
         <f>7-J30</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K37" s="162" t="s">
         <v>481</v>
@@ -34127,35 +36126,35 @@
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A52" s="165" t="s">
-        <v>746</v>
+        <v>453</v>
       </c>
       <c r="C52" s="54">
         <v>2</v>
       </c>
       <c r="D52" s="80" t="s">
-        <v>1032</v>
+        <v>1199</v>
       </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A53" s="165" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="C53" s="54">
         <v>2</v>
       </c>
       <c r="D53" s="80" t="s">
-        <v>1033</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A54" s="165" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="C54" s="54">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D54" s="80" t="s">
-        <v>1034</v>
+        <v>1177</v>
       </c>
       <c r="E54" s="155"/>
     </row>
@@ -34164,22 +36163,22 @@
         <v>5</v>
       </c>
       <c r="C55" s="54">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D55" s="80" t="s">
-        <v>1035</v>
+        <v>1217</v>
       </c>
       <c r="E55" s="155"/>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A56" s="165" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="C56" s="54">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D56" s="80" t="s">
-        <v>1038</v>
+        <v>1174</v>
       </c>
       <c r="E56" s="155"/>
     </row>
@@ -34245,64 +36244,64 @@
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A63" s="165" t="s">
-        <v>1022</v>
+        <v>1175</v>
       </c>
       <c r="C63" s="54">
-        <v>5</v>
+        <v>-3</v>
       </c>
       <c r="D63" s="80" t="s">
-        <v>1026</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A64" s="63"/>
-      <c r="D64" s="80" t="s">
-        <v>1029</v>
+      <c r="D64" s="238" t="s">
+        <v>1186</v>
       </c>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A65" s="165" t="s">
-        <v>1020</v>
+        <v>1176</v>
       </c>
       <c r="C65" s="54">
-        <v>1</v>
-      </c>
-      <c r="D65" s="80" t="s">
-        <v>1027</v>
+        <v>-3</v>
+      </c>
+      <c r="D65" s="238" t="s">
+        <v>1185</v>
       </c>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A66" s="165" t="s">
-        <v>1023</v>
-      </c>
-      <c r="C66" s="54">
-        <v>-3</v>
-      </c>
-      <c r="D66" s="80" t="s">
-        <v>1030</v>
-      </c>
+      <c r="A66" s="165"/>
+      <c r="C66" s="54"/>
+      <c r="D66" s="80"/>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A67" s="165" t="s">
-        <v>1021</v>
-      </c>
-      <c r="C67" s="54">
-        <v>-2</v>
-      </c>
-      <c r="D67" s="80" t="s">
-        <v>1031</v>
-      </c>
+      <c r="A67" s="241"/>
+      <c r="B67" s="66"/>
+      <c r="C67" s="69"/>
+      <c r="D67" s="82"/>
+      <c r="E67" s="66"/>
+      <c r="F67" s="66"/>
+      <c r="G67" s="66"/>
+      <c r="H67" s="66"/>
+      <c r="I67" s="66"/>
+      <c r="J67" s="66"/>
+      <c r="K67" s="69"/>
+      <c r="L67" s="66"/>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A68" s="165" t="s">
-        <v>1024</v>
-      </c>
-      <c r="C68" s="54">
-        <v>-1</v>
-      </c>
-      <c r="D68" s="80" t="s">
-        <v>1025</v>
-      </c>
+      <c r="A68" s="241"/>
+      <c r="B68" s="66"/>
+      <c r="C68" s="69"/>
+      <c r="D68" s="82"/>
+      <c r="E68" s="66"/>
+      <c r="F68" s="66"/>
+      <c r="G68" s="66"/>
+      <c r="H68" s="66"/>
+      <c r="I68" s="66"/>
+      <c r="J68" s="66"/>
+      <c r="K68" s="69"/>
+      <c r="L68" s="66"/>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A70" s="66"/>
@@ -34337,7 +36336,7 @@
         <v>105</v>
       </c>
       <c r="C73" s="63" t="s">
-        <v>1046</v>
+        <v>1203</v>
       </c>
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.3">
@@ -34345,7 +36344,7 @@
         <v>106</v>
       </c>
       <c r="C74" s="63" t="s">
-        <v>1053</v>
+        <v>1188</v>
       </c>
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.3">
@@ -34353,7 +36352,7 @@
         <v>98</v>
       </c>
       <c r="C75" s="63" t="s">
-        <v>1054</v>
+        <v>1189</v>
       </c>
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.3">
@@ -34388,10 +36387,10 @@
       </c>
       <c r="B79" s="80"/>
       <c r="C79" s="80" t="s">
-        <v>1052</v>
+        <v>1190</v>
       </c>
       <c r="E79" s="57" t="s">
-        <v>1055</v>
+        <v>1191</v>
       </c>
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.3">
@@ -34437,13 +36436,13 @@
         <v>113</v>
       </c>
       <c r="C84" s="212">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="E84" s="80" t="s">
         <v>118</v>
       </c>
       <c r="G84" s="212" t="s">
-        <v>1072</v>
+        <v>1194</v>
       </c>
       <c r="I84" s="57" t="s">
         <v>0</v>
@@ -34464,7 +36463,7 @@
         <v>119</v>
       </c>
       <c r="F85" s="66"/>
-      <c r="G85" s="211" t="s">
+      <c r="G85" s="236" t="s">
         <v>392</v>
       </c>
       <c r="I85" s="66"/>
@@ -34476,14 +36475,14 @@
       <c r="A86" s="80" t="s">
         <v>114</v>
       </c>
-      <c r="C86" s="235">
-        <v>36047</v>
+      <c r="C86" s="213">
+        <v>32939</v>
       </c>
       <c r="E86" s="80" t="s">
         <v>120</v>
       </c>
       <c r="G86" s="212" t="s">
-        <v>1047</v>
+        <v>1195</v>
       </c>
       <c r="I86" s="85"/>
       <c r="J86" s="85"/>
@@ -34503,7 +36502,7 @@
       </c>
       <c r="F87" s="66"/>
       <c r="G87" s="211" t="s">
-        <v>1048</v>
+        <v>1196</v>
       </c>
       <c r="I87" s="66"/>
       <c r="J87" s="66"/>
@@ -34515,13 +36514,13 @@
         <v>116</v>
       </c>
       <c r="C88" s="212" t="s">
-        <v>1049</v>
+        <v>1192</v>
       </c>
       <c r="E88" s="80" t="s">
         <v>122</v>
       </c>
       <c r="G88" s="212" t="s">
-        <v>394</v>
+        <v>1197</v>
       </c>
       <c r="K88" s="57"/>
       <c r="L88" s="54"/>
@@ -34532,7 +36531,7 @@
       </c>
       <c r="B89" s="66"/>
       <c r="C89" s="211" t="s">
-        <v>1050</v>
+        <v>1193</v>
       </c>
       <c r="E89" s="80"/>
       <c r="F89" s="66"/>
@@ -34554,62 +36553,62 @@
       </c>
     </row>
     <row r="93" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A93" s="216" t="s">
-        <v>1045</v>
-      </c>
-      <c r="B93" s="216"/>
-      <c r="C93" s="216"/>
-      <c r="D93" s="216"/>
-      <c r="E93" s="216"/>
-      <c r="F93" s="216"/>
-      <c r="G93" s="216"/>
-      <c r="H93" s="216"/>
-      <c r="I93" s="216"/>
-      <c r="J93" s="216"/>
-      <c r="K93" s="216"/>
-      <c r="L93" s="216"/>
+      <c r="A93" s="237" t="s">
+        <v>1198</v>
+      </c>
+      <c r="B93" s="237"/>
+      <c r="C93" s="237"/>
+      <c r="D93" s="237"/>
+      <c r="E93" s="237"/>
+      <c r="F93" s="237"/>
+      <c r="G93" s="237"/>
+      <c r="H93" s="237"/>
+      <c r="I93" s="237"/>
+      <c r="J93" s="237"/>
+      <c r="K93" s="237"/>
+      <c r="L93" s="237"/>
     </row>
     <row r="94" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A94" s="216"/>
-      <c r="B94" s="216"/>
-      <c r="C94" s="216"/>
-      <c r="D94" s="216"/>
-      <c r="E94" s="216"/>
-      <c r="F94" s="216"/>
-      <c r="G94" s="216"/>
-      <c r="H94" s="216"/>
-      <c r="I94" s="216"/>
-      <c r="J94" s="216"/>
-      <c r="K94" s="216"/>
-      <c r="L94" s="216"/>
+      <c r="A94" s="237"/>
+      <c r="B94" s="237"/>
+      <c r="C94" s="237"/>
+      <c r="D94" s="237"/>
+      <c r="E94" s="237"/>
+      <c r="F94" s="237"/>
+      <c r="G94" s="237"/>
+      <c r="H94" s="237"/>
+      <c r="I94" s="237"/>
+      <c r="J94" s="237"/>
+      <c r="K94" s="237"/>
+      <c r="L94" s="237"/>
     </row>
     <row r="95" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A95" s="216"/>
-      <c r="B95" s="216"/>
-      <c r="C95" s="216"/>
-      <c r="D95" s="216"/>
-      <c r="E95" s="216"/>
-      <c r="F95" s="216"/>
-      <c r="G95" s="216"/>
-      <c r="H95" s="216"/>
-      <c r="I95" s="216"/>
-      <c r="J95" s="216"/>
-      <c r="K95" s="216"/>
-      <c r="L95" s="216"/>
+      <c r="A95" s="237"/>
+      <c r="B95" s="237"/>
+      <c r="C95" s="237"/>
+      <c r="D95" s="237"/>
+      <c r="E95" s="237"/>
+      <c r="F95" s="237"/>
+      <c r="G95" s="237"/>
+      <c r="H95" s="237"/>
+      <c r="I95" s="237"/>
+      <c r="J95" s="237"/>
+      <c r="K95" s="237"/>
+      <c r="L95" s="237"/>
     </row>
     <row r="96" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A96" s="216"/>
-      <c r="B96" s="216"/>
-      <c r="C96" s="216"/>
-      <c r="D96" s="216"/>
-      <c r="E96" s="216"/>
-      <c r="F96" s="216"/>
-      <c r="G96" s="216"/>
-      <c r="H96" s="216"/>
-      <c r="I96" s="216"/>
-      <c r="J96" s="216"/>
-      <c r="K96" s="216"/>
-      <c r="L96" s="216"/>
+      <c r="A96" s="237"/>
+      <c r="B96" s="237"/>
+      <c r="C96" s="237"/>
+      <c r="D96" s="237"/>
+      <c r="E96" s="237"/>
+      <c r="F96" s="237"/>
+      <c r="G96" s="237"/>
+      <c r="H96" s="237"/>
+      <c r="I96" s="237"/>
+      <c r="J96" s="237"/>
+      <c r="K96" s="237"/>
+      <c r="L96" s="237"/>
     </row>
     <row r="97" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A97" s="90" t="s">
@@ -34618,7 +36617,7 @@
     </row>
     <row r="98" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A98" s="216" t="s">
-        <v>1051</v>
+        <v>1202</v>
       </c>
       <c r="B98" s="216"/>
       <c r="C98" s="216"/>
@@ -34680,54 +36679,62 @@
       </c>
     </row>
     <row r="103" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A103" s="82" t="s">
+      <c r="A103" s="240" t="s">
         <v>407</v>
       </c>
-      <c r="B103" s="66"/>
-      <c r="C103" s="169">
+      <c r="B103" s="233"/>
+      <c r="C103" s="245">
         <v>1</v>
       </c>
-      <c r="D103" s="134" t="s">
+      <c r="D103" s="247" t="s">
         <v>1068</v>
       </c>
-      <c r="E103" s="82" t="s">
+      <c r="E103" s="240" t="s">
         <v>483</v>
       </c>
-      <c r="F103" s="66"/>
-      <c r="G103" s="66"/>
-      <c r="H103" s="66"/>
-      <c r="I103" s="66"/>
-      <c r="J103" s="66"/>
-      <c r="K103" s="69"/>
-      <c r="L103" s="66"/>
+      <c r="F103" s="233"/>
+      <c r="G103" s="233"/>
+      <c r="H103" s="233"/>
+      <c r="I103" s="233"/>
+      <c r="J103" s="233"/>
+      <c r="K103" s="234"/>
+      <c r="L103" s="233"/>
     </row>
     <row r="104" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A104" s="80" t="s">
-        <v>1067</v>
-      </c>
-      <c r="C104" s="169" t="s">
+      <c r="A104" s="240" t="s">
+        <v>1183</v>
+      </c>
+      <c r="B104" s="233"/>
+      <c r="C104" s="245" t="s">
         <v>131</v>
       </c>
-      <c r="D104" s="134" t="s">
+      <c r="D104" s="247" t="s">
         <v>1071</v>
       </c>
-      <c r="E104" s="82" t="s">
-        <v>1069</v>
-      </c>
+      <c r="E104" s="246" t="s">
+        <v>1184</v>
+      </c>
+      <c r="F104" s="233"/>
+      <c r="G104" s="233"/>
+      <c r="H104" s="233"/>
+      <c r="I104" s="233"/>
+      <c r="J104" s="233"/>
+      <c r="K104" s="234"/>
+      <c r="L104" s="233"/>
     </row>
     <row r="105" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A105" s="66"/>
-      <c r="B105" s="66"/>
-      <c r="C105" s="66"/>
-      <c r="D105" s="134"/>
-      <c r="E105" s="99"/>
-      <c r="F105" s="66"/>
-      <c r="G105" s="66"/>
-      <c r="H105" s="66"/>
-      <c r="I105" s="66"/>
-      <c r="J105" s="66"/>
-      <c r="K105" s="69"/>
-      <c r="L105" s="66"/>
+      <c r="A105" s="61"/>
+      <c r="B105" s="61"/>
+      <c r="C105" s="61"/>
+      <c r="D105" s="133"/>
+      <c r="E105" s="100"/>
+      <c r="F105" s="61"/>
+      <c r="G105" s="61"/>
+      <c r="H105" s="61"/>
+      <c r="I105" s="61"/>
+      <c r="J105" s="61"/>
+      <c r="K105" s="78"/>
+      <c r="L105" s="61"/>
     </row>
     <row r="106" spans="1:12" x14ac:dyDescent="0.3">
       <c r="D106" s="134"/>
@@ -34873,51 +36880,69 @@
     </row>
     <row r="124" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A124" s="63" t="s">
-        <v>1057</v>
+        <v>1172</v>
       </c>
       <c r="B124" s="63"/>
       <c r="C124" s="155" t="s">
-        <v>1056</v>
+        <v>96</v>
       </c>
       <c r="D124" s="63" t="s">
-        <v>1058</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="125" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A125" s="63" t="s">
-        <v>1059</v>
-      </c>
-      <c r="B125" s="63"/>
-      <c r="C125" s="155" t="s">
-        <v>1056</v>
-      </c>
-      <c r="D125" s="63" t="s">
-        <v>1060</v>
-      </c>
+      <c r="A125" s="232" t="s">
+        <v>1178</v>
+      </c>
+      <c r="B125" s="232"/>
+      <c r="C125" s="239" t="s">
+        <v>1179</v>
+      </c>
+      <c r="D125" s="240" t="s">
+        <v>1180</v>
+      </c>
+      <c r="E125" s="233"/>
+      <c r="F125" s="233"/>
+      <c r="G125" s="233"/>
+      <c r="H125" s="233"/>
+      <c r="I125" s="233"/>
+      <c r="J125" s="233"/>
+      <c r="K125" s="234"/>
+      <c r="L125" s="233"/>
     </row>
     <row r="126" spans="1:12" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A126" s="63" t="s">
-        <v>1064</v>
-      </c>
-      <c r="B126" s="63"/>
-      <c r="C126" s="155" t="s">
-        <v>101</v>
-      </c>
-      <c r="D126" s="63" t="s">
-        <v>1065</v>
-      </c>
+      <c r="A126" s="232" t="s">
+        <v>1181</v>
+      </c>
+      <c r="B126" s="232"/>
+      <c r="C126" s="239" t="s">
+        <v>1179</v>
+      </c>
+      <c r="D126" s="232" t="s">
+        <v>1182</v>
+      </c>
+      <c r="E126" s="233"/>
+      <c r="F126" s="233"/>
+      <c r="G126" s="233"/>
+      <c r="H126" s="233"/>
+      <c r="I126" s="233"/>
+      <c r="J126" s="233"/>
+      <c r="K126" s="234"/>
+      <c r="L126" s="233"/>
     </row>
     <row r="127" spans="1:12" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A127" s="63" t="s">
-        <v>1061</v>
-      </c>
-      <c r="B127" s="63"/>
-      <c r="C127" s="155" t="s">
-        <v>1062</v>
-      </c>
-      <c r="D127" s="63" t="s">
-        <v>1063</v>
-      </c>
+      <c r="A127" s="100"/>
+      <c r="B127" s="100"/>
+      <c r="C127" s="100"/>
+      <c r="D127" s="100"/>
+      <c r="E127" s="61"/>
+      <c r="F127" s="61"/>
+      <c r="G127" s="61"/>
+      <c r="H127" s="61"/>
+      <c r="I127" s="61"/>
+      <c r="J127" s="61"/>
+      <c r="K127" s="78"/>
+      <c r="L127" s="61"/>
     </row>
     <row r="128" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A128" s="61"/>
@@ -35443,11 +37468,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{618731C0-8D69-42F5-B683-631FA94DA355}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB020AF3-E2AF-4B08-9CF1-A8BB16CCBDFC}">
   <dimension ref="A1:L225"/>
   <sheetViews>
-    <sheetView zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="C65" sqref="C65"/>
+    <sheetView topLeftCell="A71" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+      <selection activeCell="D103" sqref="D103:D104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
@@ -35481,7 +37506,7 @@
       <c r="J1" s="100"/>
       <c r="K1" s="61"/>
       <c r="L1" s="209" t="s">
-        <v>1114</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
@@ -35489,16 +37514,16 @@
         <v>0</v>
       </c>
       <c r="B3" s="57" t="s">
-        <v>1074</v>
+        <v>1012</v>
       </c>
       <c r="E3" s="156" t="s">
         <v>2</v>
       </c>
       <c r="F3" s="152" t="s">
-        <v>1109</v>
+        <v>503</v>
       </c>
       <c r="H3" s="55" t="s">
-        <v>1110</v>
+        <v>1013</v>
       </c>
       <c r="K3" s="57"/>
     </row>
@@ -35509,8 +37534,8 @@
       <c r="B4" s="57" t="s">
         <v>1040</v>
       </c>
-      <c r="H4" s="230" t="s">
-        <v>1111</v>
+      <c r="H4" s="55" t="s">
+        <v>1014</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
@@ -35518,17 +37543,17 @@
         <v>4</v>
       </c>
       <c r="B5" s="152" t="s">
-        <v>1073</v>
+        <v>502</v>
       </c>
       <c r="E5" s="210" t="s">
         <v>3</v>
       </c>
       <c r="F5" s="139" t="s">
-        <v>1112</v>
+        <v>504</v>
       </c>
       <c r="G5" s="85"/>
       <c r="H5" s="140" t="s">
-        <v>1113</v>
+        <v>1015</v>
       </c>
       <c r="I5" s="85"/>
       <c r="J5" s="85"/>
@@ -35543,7 +37568,7 @@
         <v>126</v>
       </c>
       <c r="H6" s="55" t="s">
-        <v>1115</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -35581,7 +37606,7 @@
       </c>
       <c r="F10" s="80"/>
       <c r="H10" s="163">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I10" s="165" t="s">
         <v>13</v>
@@ -35595,11 +37620,9 @@
       <c r="A11" s="165" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="80" t="s">
-        <v>1116</v>
-      </c>
+      <c r="B11" s="80"/>
       <c r="D11" s="163">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E11" s="165" t="s">
         <v>16</v>
@@ -35627,18 +37650,18 @@
       <c r="E12" s="165" t="s">
         <v>17</v>
       </c>
-      <c r="F12" s="80"/>
+      <c r="F12" s="80" t="s">
+        <v>509</v>
+      </c>
       <c r="H12" s="163">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I12" s="165" t="s">
         <v>19</v>
       </c>
-      <c r="J12" s="80" t="s">
-        <v>1117</v>
-      </c>
+      <c r="J12" s="80"/>
       <c r="L12" s="163">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
@@ -35672,11 +37695,9 @@
       <c r="A16" s="154" t="s">
         <v>23</v>
       </c>
-      <c r="B16" s="80" t="s">
-        <v>1118</v>
-      </c>
+      <c r="B16" s="80"/>
       <c r="D16" s="163">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E16" s="154" t="s">
         <v>438</v>
@@ -35684,14 +37705,16 @@
       <c r="F16" s="80"/>
       <c r="G16" s="54"/>
       <c r="H16" s="163">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I16" s="154" t="s">
         <v>31</v>
       </c>
-      <c r="J16" s="111"/>
+      <c r="J16" s="111" t="s">
+        <v>1018</v>
+      </c>
       <c r="L16" s="163">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.3">
@@ -35700,7 +37723,7 @@
       </c>
       <c r="B17" s="80"/>
       <c r="D17" s="163">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E17" s="154" t="s">
         <v>33</v>
@@ -35708,7 +37731,7 @@
       <c r="F17" s="80"/>
       <c r="G17" s="54"/>
       <c r="H17" s="163">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I17" s="154" t="s">
         <v>34</v>
@@ -35729,12 +37752,10 @@
       <c r="E18" s="154" t="s">
         <v>437</v>
       </c>
-      <c r="F18" s="111" t="s">
-        <v>1121</v>
-      </c>
+      <c r="F18" s="80"/>
       <c r="G18" s="54"/>
       <c r="H18" s="163">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I18" s="154" t="s">
         <v>36</v>
@@ -35750,7 +37771,7 @@
       </c>
       <c r="B19" s="80"/>
       <c r="D19" s="163">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E19" s="154" t="s">
         <v>38</v>
@@ -35758,7 +37779,7 @@
       <c r="F19" s="80"/>
       <c r="G19" s="54"/>
       <c r="H19" s="163">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I19" s="154" t="s">
         <v>45</v>
@@ -35774,7 +37795,7 @@
       </c>
       <c r="B20" s="80"/>
       <c r="D20" s="163">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E20" s="154" t="s">
         <v>39</v>
@@ -35782,25 +37803,23 @@
       <c r="F20" s="80"/>
       <c r="G20" s="54"/>
       <c r="H20" s="163">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I20" s="154" t="s">
         <v>46</v>
       </c>
       <c r="J20" s="80"/>
       <c r="L20" s="163">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21" s="154" t="s">
         <v>28</v>
       </c>
-      <c r="B21" s="80" t="s">
-        <v>1120</v>
-      </c>
+      <c r="B21" s="80"/>
       <c r="D21" s="163">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E21" s="154" t="s">
         <v>40</v>
@@ -35808,7 +37827,7 @@
       <c r="F21" s="80"/>
       <c r="G21" s="54"/>
       <c r="H21" s="163">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I21" s="154" t="s">
         <v>47</v>
@@ -35822,11 +37841,9 @@
       <c r="A22" s="154" t="s">
         <v>24</v>
       </c>
-      <c r="B22" s="80" t="s">
-        <v>1119</v>
-      </c>
+      <c r="B22" s="80"/>
       <c r="D22" s="163">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E22" s="154" t="s">
         <v>41</v>
@@ -35841,7 +37858,7 @@
       </c>
       <c r="J22" s="80"/>
       <c r="L22" s="163">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.3">
@@ -35865,7 +37882,7 @@
       </c>
       <c r="J23" s="80"/>
       <c r="L23" s="163">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.3">
@@ -35874,7 +37891,7 @@
       </c>
       <c r="B24" s="80"/>
       <c r="D24" s="163">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E24" s="154" t="s">
         <v>43</v>
@@ -35882,14 +37899,14 @@
       <c r="F24" s="80"/>
       <c r="G24" s="54"/>
       <c r="H24" s="163">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I24" s="154" t="s">
         <v>50</v>
       </c>
       <c r="J24" s="80"/>
       <c r="L24" s="163">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.3">
@@ -35898,7 +37915,7 @@
       </c>
       <c r="B25" s="80"/>
       <c r="D25" s="163">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E25" s="154" t="s">
         <v>44</v>
@@ -35906,14 +37923,14 @@
       <c r="F25" s="80"/>
       <c r="G25" s="54"/>
       <c r="H25" s="163">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I25" s="154" t="s">
         <v>51</v>
       </c>
       <c r="J25" s="80"/>
       <c r="L25" s="163">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.3">
@@ -35964,13 +37981,13 @@
     </row>
     <row r="30" spans="1:12" s="73" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A30" s="57" t="s">
-        <v>129</v>
+        <v>512</v>
       </c>
       <c r="B30" s="54">
-        <v>2</v>
-      </c>
-      <c r="C30" s="175" t="s">
-        <v>1122</v>
+        <v>1</v>
+      </c>
+      <c r="C30" s="80" t="s">
+        <v>1041</v>
       </c>
       <c r="D30" s="57"/>
       <c r="E30" s="57"/>
@@ -35981,7 +37998,7 @@
       </c>
       <c r="I30" s="57"/>
       <c r="J30" s="167">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K30" s="55" t="s">
         <v>477</v>
@@ -35990,19 +38007,19 @@
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A31" s="57" t="s">
-        <v>130</v>
+        <v>328</v>
       </c>
       <c r="B31" s="54">
         <v>1</v>
       </c>
       <c r="C31" s="80" t="s">
-        <v>1123</v>
+        <v>440</v>
       </c>
       <c r="H31" s="166" t="s">
         <v>59</v>
       </c>
       <c r="J31" s="167">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K31" s="55" t="s">
         <v>479</v>
@@ -36011,13 +38028,13 @@
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A32" s="57" t="s">
-        <v>130</v>
+        <v>320</v>
       </c>
       <c r="B32" s="54">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C32" s="80" t="s">
-        <v>1124</v>
+        <v>1042</v>
       </c>
       <c r="H32" s="63" t="s">
         <v>70</v>
@@ -36028,12 +38045,20 @@
       <c r="L32" s="54"/>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B33" s="54"/>
-      <c r="C33" s="80"/>
+      <c r="A33" s="57" t="s">
+        <v>320</v>
+      </c>
+      <c r="B33" s="54">
+        <v>2</v>
+      </c>
+      <c r="C33" s="80" t="s">
+        <v>1044</v>
+      </c>
       <c r="H33" s="63" t="s">
         <v>66</v>
       </c>
       <c r="J33" s="167">
+        <f>J29+J30</f>
         <v>6</v>
       </c>
       <c r="K33" s="162" t="s">
@@ -36042,12 +38067,9 @@
       <c r="L33" s="54"/>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A34" s="66"/>
-      <c r="B34" s="66"/>
-      <c r="C34" s="66"/>
-      <c r="D34" s="66"/>
-      <c r="E34" s="66"/>
-      <c r="F34" s="66"/>
+      <c r="C34" s="80" t="s">
+        <v>1043</v>
+      </c>
       <c r="L34" s="215" t="s">
         <v>471</v>
       </c>
@@ -36057,7 +38079,7 @@
         <v>20</v>
       </c>
       <c r="J35" s="167">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K35" s="162" t="s">
         <v>478</v>
@@ -36089,7 +38111,7 @@
       <c r="I37" s="73"/>
       <c r="J37" s="167">
         <f>7-J30</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K37" s="162" t="s">
         <v>481</v>
@@ -36341,13 +38363,13 @@
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A52" s="165" t="s">
-        <v>453</v>
+        <v>746</v>
       </c>
       <c r="C52" s="54">
         <v>2</v>
       </c>
       <c r="D52" s="80" t="s">
-        <v>1125</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.3">
@@ -36355,7 +38377,7 @@
         <v>97</v>
       </c>
       <c r="C53" s="54">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D53" s="80" t="s">
         <v>1033</v>
@@ -36366,10 +38388,10 @@
         <v>99</v>
       </c>
       <c r="C54" s="54">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D54" s="80" t="s">
-        <v>1126</v>
+        <v>1034</v>
       </c>
       <c r="E54" s="155"/>
     </row>
@@ -36387,13 +38409,13 @@
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A56" s="165" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="C56" s="54">
         <v>1</v>
       </c>
       <c r="D56" s="80" t="s">
-        <v>1132</v>
+        <v>1038</v>
       </c>
       <c r="E56" s="155"/>
     </row>
@@ -36459,19 +38481,19 @@
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A63" s="165" t="s">
-        <v>1136</v>
+        <v>1022</v>
       </c>
       <c r="C63" s="54">
-        <v>-5</v>
+        <v>5</v>
       </c>
       <c r="D63" s="80" t="s">
-        <v>1134</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A64" s="63"/>
       <c r="D64" s="80" t="s">
-        <v>1135</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.3">
@@ -36482,23 +38504,41 @@
         <v>1</v>
       </c>
       <c r="D65" s="80" t="s">
-        <v>1133</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A66" s="165"/>
-      <c r="C66" s="54"/>
-      <c r="D66" s="80"/>
+      <c r="A66" s="165" t="s">
+        <v>1023</v>
+      </c>
+      <c r="C66" s="54">
+        <v>-3</v>
+      </c>
+      <c r="D66" s="80" t="s">
+        <v>1030</v>
+      </c>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A67" s="165"/>
-      <c r="C67" s="54"/>
-      <c r="D67" s="80"/>
+      <c r="A67" s="165" t="s">
+        <v>1021</v>
+      </c>
+      <c r="C67" s="54">
+        <v>-2</v>
+      </c>
+      <c r="D67" s="80" t="s">
+        <v>1031</v>
+      </c>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A68" s="165"/>
-      <c r="C68" s="54"/>
-      <c r="D68" s="80"/>
+      <c r="A68" s="165" t="s">
+        <v>1024</v>
+      </c>
+      <c r="C68" s="54">
+        <v>-1</v>
+      </c>
+      <c r="D68" s="80" t="s">
+        <v>1025</v>
+      </c>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A70" s="66"/>
@@ -36533,7 +38573,7 @@
         <v>105</v>
       </c>
       <c r="C73" s="63" t="s">
-        <v>1137</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.3">
@@ -36541,7 +38581,7 @@
         <v>106</v>
       </c>
       <c r="C74" s="63" t="s">
-        <v>1138</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.3">
@@ -36549,7 +38589,7 @@
         <v>98</v>
       </c>
       <c r="C75" s="63" t="s">
-        <v>1139</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.3">
@@ -36580,14 +38620,14 @@
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A79" s="80" t="s">
-        <v>1140</v>
+        <v>1039</v>
       </c>
       <c r="B79" s="80"/>
       <c r="C79" s="80" t="s">
-        <v>1142</v>
+        <v>1052</v>
       </c>
       <c r="E79" s="57" t="s">
-        <v>1141</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.3">
@@ -36633,6 +38673,2210 @@
         <v>113</v>
       </c>
       <c r="C84" s="212">
+        <v>29</v>
+      </c>
+      <c r="E84" s="80" t="s">
+        <v>118</v>
+      </c>
+      <c r="G84" s="212" t="s">
+        <v>1072</v>
+      </c>
+      <c r="I84" s="57" t="s">
+        <v>0</v>
+      </c>
+      <c r="K84" s="57" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A85" s="80" t="s">
+        <v>112</v>
+      </c>
+      <c r="B85" s="66"/>
+      <c r="C85" s="211">
+        <v>0</v>
+      </c>
+      <c r="E85" s="80" t="s">
+        <v>119</v>
+      </c>
+      <c r="F85" s="66"/>
+      <c r="G85" s="211" t="s">
+        <v>392</v>
+      </c>
+      <c r="I85" s="66"/>
+      <c r="J85" s="66"/>
+      <c r="K85" s="66"/>
+      <c r="L85" s="69"/>
+    </row>
+    <row r="86" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A86" s="80" t="s">
+        <v>114</v>
+      </c>
+      <c r="C86" s="235">
+        <v>36047</v>
+      </c>
+      <c r="E86" s="80" t="s">
+        <v>120</v>
+      </c>
+      <c r="G86" s="212" t="s">
+        <v>1047</v>
+      </c>
+      <c r="I86" s="85"/>
+      <c r="J86" s="85"/>
+      <c r="K86" s="85"/>
+      <c r="L86" s="131"/>
+    </row>
+    <row r="87" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A87" s="80" t="s">
+        <v>115</v>
+      </c>
+      <c r="B87" s="66"/>
+      <c r="C87" s="213">
+        <v>45943</v>
+      </c>
+      <c r="E87" s="80" t="s">
+        <v>121</v>
+      </c>
+      <c r="F87" s="66"/>
+      <c r="G87" s="211" t="s">
+        <v>1048</v>
+      </c>
+      <c r="I87" s="66"/>
+      <c r="J87" s="66"/>
+      <c r="K87" s="66"/>
+      <c r="L87" s="69"/>
+    </row>
+    <row r="88" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A88" s="80" t="s">
+        <v>116</v>
+      </c>
+      <c r="C88" s="212" t="s">
+        <v>1049</v>
+      </c>
+      <c r="E88" s="80" t="s">
+        <v>122</v>
+      </c>
+      <c r="G88" s="212" t="s">
+        <v>394</v>
+      </c>
+      <c r="K88" s="57"/>
+      <c r="L88" s="54"/>
+    </row>
+    <row r="89" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A89" s="80" t="s">
+        <v>117</v>
+      </c>
+      <c r="B89" s="66"/>
+      <c r="C89" s="211" t="s">
+        <v>1050</v>
+      </c>
+      <c r="E89" s="80"/>
+      <c r="F89" s="66"/>
+      <c r="G89" s="211"/>
+      <c r="I89" s="66"/>
+      <c r="J89" s="66"/>
+      <c r="K89" s="66"/>
+      <c r="L89" s="69"/>
+    </row>
+    <row r="90" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="I90" s="61"/>
+      <c r="J90" s="61"/>
+      <c r="K90" s="61"/>
+      <c r="L90" s="78"/>
+    </row>
+    <row r="92" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A92" s="90" t="s">
+        <v>1070</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A93" s="216" t="s">
+        <v>1045</v>
+      </c>
+      <c r="B93" s="216"/>
+      <c r="C93" s="216"/>
+      <c r="D93" s="216"/>
+      <c r="E93" s="216"/>
+      <c r="F93" s="216"/>
+      <c r="G93" s="216"/>
+      <c r="H93" s="216"/>
+      <c r="I93" s="216"/>
+      <c r="J93" s="216"/>
+      <c r="K93" s="216"/>
+      <c r="L93" s="216"/>
+    </row>
+    <row r="94" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A94" s="216"/>
+      <c r="B94" s="216"/>
+      <c r="C94" s="216"/>
+      <c r="D94" s="216"/>
+      <c r="E94" s="216"/>
+      <c r="F94" s="216"/>
+      <c r="G94" s="216"/>
+      <c r="H94" s="216"/>
+      <c r="I94" s="216"/>
+      <c r="J94" s="216"/>
+      <c r="K94" s="216"/>
+      <c r="L94" s="216"/>
+    </row>
+    <row r="95" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A95" s="216"/>
+      <c r="B95" s="216"/>
+      <c r="C95" s="216"/>
+      <c r="D95" s="216"/>
+      <c r="E95" s="216"/>
+      <c r="F95" s="216"/>
+      <c r="G95" s="216"/>
+      <c r="H95" s="216"/>
+      <c r="I95" s="216"/>
+      <c r="J95" s="216"/>
+      <c r="K95" s="216"/>
+      <c r="L95" s="216"/>
+    </row>
+    <row r="96" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A96" s="216"/>
+      <c r="B96" s="216"/>
+      <c r="C96" s="216"/>
+      <c r="D96" s="216"/>
+      <c r="E96" s="216"/>
+      <c r="F96" s="216"/>
+      <c r="G96" s="216"/>
+      <c r="H96" s="216"/>
+      <c r="I96" s="216"/>
+      <c r="J96" s="216"/>
+      <c r="K96" s="216"/>
+      <c r="L96" s="216"/>
+    </row>
+    <row r="97" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A97" s="90" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="98" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A98" s="216" t="s">
+        <v>1051</v>
+      </c>
+      <c r="B98" s="216"/>
+      <c r="C98" s="216"/>
+      <c r="D98" s="216"/>
+      <c r="E98" s="216"/>
+      <c r="F98" s="216"/>
+      <c r="G98" s="216"/>
+      <c r="H98" s="216"/>
+      <c r="I98" s="216"/>
+      <c r="J98" s="216"/>
+      <c r="K98" s="216"/>
+      <c r="L98" s="216"/>
+    </row>
+    <row r="99" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A99" s="216"/>
+      <c r="B99" s="216"/>
+      <c r="C99" s="216"/>
+      <c r="D99" s="216"/>
+      <c r="E99" s="216"/>
+      <c r="F99" s="216"/>
+      <c r="G99" s="216"/>
+      <c r="H99" s="216"/>
+      <c r="I99" s="216"/>
+      <c r="J99" s="216"/>
+      <c r="K99" s="216"/>
+      <c r="L99" s="216"/>
+    </row>
+    <row r="100" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A100" s="216"/>
+      <c r="B100" s="216"/>
+      <c r="C100" s="216"/>
+      <c r="D100" s="216"/>
+      <c r="E100" s="216"/>
+      <c r="F100" s="216"/>
+      <c r="G100" s="216"/>
+      <c r="H100" s="216"/>
+      <c r="I100" s="216"/>
+      <c r="J100" s="216"/>
+      <c r="K100" s="216"/>
+      <c r="L100" s="216"/>
+    </row>
+    <row r="101" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="F101" s="72" t="s">
+        <v>1066</v>
+      </c>
+    </row>
+    <row r="102" spans="1:12" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A102" s="57" t="s">
+        <v>78</v>
+      </c>
+      <c r="C102" s="57" t="s">
+        <v>73</v>
+      </c>
+      <c r="D102" s="57" t="s">
+        <v>81</v>
+      </c>
+      <c r="E102" s="57" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="103" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A103" s="240" t="s">
+        <v>407</v>
+      </c>
+      <c r="B103" s="233"/>
+      <c r="C103" s="245">
+        <v>1</v>
+      </c>
+      <c r="D103" s="247" t="s">
+        <v>1068</v>
+      </c>
+      <c r="E103" s="240" t="s">
+        <v>483</v>
+      </c>
+      <c r="F103" s="233"/>
+      <c r="G103" s="233"/>
+      <c r="H103" s="233"/>
+      <c r="I103" s="233"/>
+      <c r="J103" s="233"/>
+      <c r="K103" s="234"/>
+      <c r="L103" s="233"/>
+    </row>
+    <row r="104" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A104" s="240" t="s">
+        <v>1067</v>
+      </c>
+      <c r="B104" s="233"/>
+      <c r="C104" s="245" t="s">
+        <v>131</v>
+      </c>
+      <c r="D104" s="247" t="s">
+        <v>1071</v>
+      </c>
+      <c r="E104" s="240" t="s">
+        <v>1069</v>
+      </c>
+      <c r="F104" s="233"/>
+      <c r="G104" s="233"/>
+      <c r="H104" s="233"/>
+      <c r="I104" s="233"/>
+      <c r="J104" s="233"/>
+      <c r="K104" s="234"/>
+      <c r="L104" s="233"/>
+    </row>
+    <row r="105" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A105" s="61"/>
+      <c r="B105" s="61"/>
+      <c r="C105" s="61"/>
+      <c r="D105" s="133"/>
+      <c r="E105" s="100"/>
+      <c r="F105" s="61"/>
+      <c r="G105" s="61"/>
+      <c r="H105" s="61"/>
+      <c r="I105" s="61"/>
+      <c r="J105" s="61"/>
+      <c r="K105" s="78"/>
+      <c r="L105" s="61"/>
+    </row>
+    <row r="106" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="D106" s="134"/>
+      <c r="E106" s="99"/>
+    </row>
+    <row r="107" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A107" s="66"/>
+      <c r="B107" s="66"/>
+      <c r="C107" s="66"/>
+      <c r="D107" s="134"/>
+      <c r="E107" s="99"/>
+      <c r="F107" s="66"/>
+      <c r="G107" s="66"/>
+      <c r="H107" s="66"/>
+      <c r="I107" s="66"/>
+      <c r="J107" s="66"/>
+      <c r="K107" s="69"/>
+      <c r="L107" s="66"/>
+    </row>
+    <row r="108" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A108" s="66"/>
+      <c r="B108" s="66"/>
+      <c r="C108" s="66"/>
+      <c r="D108" s="66"/>
+      <c r="E108" s="66"/>
+      <c r="F108" s="66"/>
+      <c r="G108" s="66"/>
+      <c r="H108" s="66"/>
+      <c r="I108" s="66"/>
+      <c r="J108" s="66"/>
+      <c r="K108" s="69"/>
+      <c r="L108" s="66"/>
+    </row>
+    <row r="110" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="F110" s="72" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="111" spans="1:12" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A111" s="80" t="s">
+        <v>81</v>
+      </c>
+      <c r="B111" s="80" t="s">
+        <v>82</v>
+      </c>
+      <c r="C111" s="80" t="s">
+        <v>61</v>
+      </c>
+      <c r="D111" s="80"/>
+      <c r="E111" s="80"/>
+      <c r="F111" s="80" t="s">
+        <v>83</v>
+      </c>
+      <c r="G111" s="80" t="s">
+        <v>86</v>
+      </c>
+      <c r="H111" s="80" t="s">
+        <v>85</v>
+      </c>
+      <c r="I111" s="80" t="s">
+        <v>84</v>
+      </c>
+      <c r="J111" s="80" t="s">
+        <v>87</v>
+      </c>
+      <c r="K111" s="75"/>
+      <c r="L111" s="80"/>
+    </row>
+    <row r="113" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A113" s="66"/>
+      <c r="B113" s="66"/>
+      <c r="C113" s="66"/>
+      <c r="D113" s="66"/>
+      <c r="E113" s="66"/>
+      <c r="F113" s="66"/>
+      <c r="G113" s="66"/>
+      <c r="H113" s="66"/>
+      <c r="I113" s="66"/>
+      <c r="J113" s="66"/>
+      <c r="K113" s="69"/>
+      <c r="L113" s="66"/>
+    </row>
+    <row r="115" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A115" s="66"/>
+      <c r="B115" s="66"/>
+      <c r="C115" s="66"/>
+      <c r="D115" s="66"/>
+      <c r="E115" s="66"/>
+      <c r="F115" s="66"/>
+      <c r="G115" s="66"/>
+      <c r="H115" s="66"/>
+      <c r="I115" s="66"/>
+      <c r="J115" s="66"/>
+      <c r="K115" s="69"/>
+      <c r="L115" s="66"/>
+    </row>
+    <row r="117" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A117" s="66"/>
+      <c r="B117" s="66"/>
+      <c r="C117" s="66"/>
+      <c r="D117" s="66"/>
+      <c r="E117" s="66"/>
+      <c r="F117" s="66"/>
+      <c r="G117" s="66"/>
+      <c r="H117" s="66"/>
+      <c r="I117" s="66"/>
+      <c r="J117" s="66"/>
+      <c r="K117" s="69"/>
+      <c r="L117" s="66"/>
+    </row>
+    <row r="119" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A119" s="66"/>
+      <c r="B119" s="66"/>
+      <c r="C119" s="66"/>
+      <c r="D119" s="66"/>
+      <c r="E119" s="66"/>
+      <c r="F119" s="66"/>
+      <c r="G119" s="66"/>
+      <c r="H119" s="66"/>
+      <c r="I119" s="66"/>
+      <c r="J119" s="66"/>
+      <c r="K119" s="69"/>
+      <c r="L119" s="66"/>
+    </row>
+    <row r="121" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A121" s="66"/>
+      <c r="B121" s="66"/>
+      <c r="C121" s="66"/>
+      <c r="D121" s="66"/>
+      <c r="E121" s="66"/>
+      <c r="F121" s="66"/>
+      <c r="G121" s="66"/>
+      <c r="H121" s="66"/>
+      <c r="I121" s="66"/>
+      <c r="J121" s="66"/>
+      <c r="K121" s="69"/>
+      <c r="L121" s="66"/>
+    </row>
+    <row r="123" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="F123" s="72" t="s">
+        <v>1131</v>
+      </c>
+    </row>
+    <row r="124" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A124" s="63" t="s">
+        <v>1057</v>
+      </c>
+      <c r="B124" s="63"/>
+      <c r="C124" s="155" t="s">
+        <v>1056</v>
+      </c>
+      <c r="D124" s="63" t="s">
+        <v>1058</v>
+      </c>
+    </row>
+    <row r="125" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A125" s="63" t="s">
+        <v>1059</v>
+      </c>
+      <c r="B125" s="63"/>
+      <c r="C125" s="155" t="s">
+        <v>1056</v>
+      </c>
+      <c r="D125" s="63" t="s">
+        <v>1060</v>
+      </c>
+    </row>
+    <row r="126" spans="1:12" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A126" s="63" t="s">
+        <v>1064</v>
+      </c>
+      <c r="B126" s="63"/>
+      <c r="C126" s="155" t="s">
+        <v>101</v>
+      </c>
+      <c r="D126" s="63" t="s">
+        <v>1065</v>
+      </c>
+    </row>
+    <row r="127" spans="1:12" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A127" s="63" t="s">
+        <v>1061</v>
+      </c>
+      <c r="B127" s="63"/>
+      <c r="C127" s="155" t="s">
+        <v>1062</v>
+      </c>
+      <c r="D127" s="63" t="s">
+        <v>1063</v>
+      </c>
+    </row>
+    <row r="128" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A128" s="61"/>
+      <c r="B128" s="61"/>
+      <c r="C128" s="61"/>
+      <c r="D128" s="61"/>
+      <c r="E128" s="61"/>
+      <c r="F128" s="61"/>
+      <c r="G128" s="61"/>
+      <c r="H128" s="61"/>
+      <c r="I128" s="61"/>
+      <c r="J128" s="61"/>
+      <c r="K128" s="78"/>
+      <c r="L128" s="61"/>
+    </row>
+    <row r="129" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A129" s="63"/>
+      <c r="B129" s="63"/>
+      <c r="C129" s="63"/>
+      <c r="D129" s="63"/>
+    </row>
+    <row r="130" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A130" s="99"/>
+      <c r="B130" s="99"/>
+      <c r="C130" s="99"/>
+      <c r="D130" s="99"/>
+      <c r="E130" s="66"/>
+      <c r="F130" s="66"/>
+      <c r="G130" s="66"/>
+      <c r="H130" s="66"/>
+      <c r="I130" s="66"/>
+      <c r="J130" s="66"/>
+      <c r="K130" s="69"/>
+      <c r="L130" s="66"/>
+    </row>
+    <row r="132" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A132" s="66"/>
+      <c r="B132" s="66"/>
+      <c r="C132" s="66"/>
+      <c r="D132" s="66"/>
+      <c r="E132" s="66"/>
+      <c r="F132" s="66"/>
+      <c r="G132" s="66"/>
+      <c r="H132" s="66"/>
+      <c r="I132" s="66"/>
+      <c r="J132" s="66"/>
+      <c r="K132" s="69"/>
+      <c r="L132" s="66"/>
+    </row>
+    <row r="134" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B134" s="72" t="s">
+        <v>72</v>
+      </c>
+      <c r="F134" s="101" t="s">
+        <v>373</v>
+      </c>
+      <c r="J134" s="54" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="135" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A135" s="57" t="s">
+        <v>0</v>
+      </c>
+      <c r="B135" s="57" t="s">
+        <v>73</v>
+      </c>
+      <c r="C135" s="57" t="s">
+        <v>61</v>
+      </c>
+      <c r="E135" s="76" t="s">
+        <v>61</v>
+      </c>
+      <c r="I135" s="76" t="s">
+        <v>75</v>
+      </c>
+      <c r="K135" s="69"/>
+      <c r="L135" s="66"/>
+    </row>
+    <row r="136" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A136" s="76"/>
+      <c r="E136" s="76"/>
+      <c r="I136" s="76" t="s">
+        <v>76</v>
+      </c>
+      <c r="K136" s="69"/>
+      <c r="L136" s="66"/>
+    </row>
+    <row r="137" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A137" s="94"/>
+      <c r="B137" s="66"/>
+      <c r="C137" s="66"/>
+      <c r="D137" s="66"/>
+      <c r="E137" s="94"/>
+      <c r="F137" s="66"/>
+      <c r="G137" s="66"/>
+      <c r="H137" s="66"/>
+      <c r="I137" s="94"/>
+      <c r="J137" s="66"/>
+      <c r="K137" s="69"/>
+      <c r="L137" s="66"/>
+    </row>
+    <row r="138" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A138" s="76"/>
+      <c r="E138" s="76"/>
+      <c r="I138" s="76"/>
+    </row>
+    <row r="139" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A139" s="94"/>
+      <c r="B139" s="66"/>
+      <c r="C139" s="66"/>
+      <c r="D139" s="66"/>
+      <c r="E139" s="94"/>
+      <c r="F139" s="66"/>
+      <c r="G139" s="66"/>
+      <c r="H139" s="66"/>
+      <c r="I139" s="94"/>
+      <c r="J139" s="66"/>
+      <c r="K139" s="69"/>
+      <c r="L139" s="66"/>
+    </row>
+    <row r="140" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A140" s="76"/>
+      <c r="E140" s="76"/>
+      <c r="I140" s="76"/>
+    </row>
+    <row r="141" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A141" s="94"/>
+      <c r="B141" s="66"/>
+      <c r="C141" s="66"/>
+      <c r="D141" s="66"/>
+      <c r="E141" s="94"/>
+      <c r="F141" s="66"/>
+      <c r="G141" s="66"/>
+      <c r="H141" s="66"/>
+      <c r="I141" s="94"/>
+      <c r="J141" s="66"/>
+      <c r="K141" s="69"/>
+      <c r="L141" s="66"/>
+    </row>
+    <row r="143" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A143" s="80" t="s">
+        <v>88</v>
+      </c>
+      <c r="B143" s="80" t="s">
+        <v>89</v>
+      </c>
+      <c r="C143" s="80" t="s">
+        <v>486</v>
+      </c>
+      <c r="D143" s="80" t="s">
+        <v>90</v>
+      </c>
+      <c r="E143" s="80" t="s">
+        <v>91</v>
+      </c>
+      <c r="F143" s="80" t="s">
+        <v>92</v>
+      </c>
+      <c r="G143" s="80" t="s">
+        <v>93</v>
+      </c>
+      <c r="H143" s="80" t="s">
+        <v>87</v>
+      </c>
+      <c r="J143" s="57" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="145" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A145" s="99" t="s">
+        <v>484</v>
+      </c>
+      <c r="B145" s="134" t="s">
+        <v>485</v>
+      </c>
+      <c r="C145" s="134">
+        <v>6</v>
+      </c>
+      <c r="D145" s="134" t="s">
+        <v>492</v>
+      </c>
+      <c r="E145" s="134">
+        <v>0</v>
+      </c>
+      <c r="F145" s="134">
+        <v>0</v>
+      </c>
+      <c r="G145" s="134"/>
+      <c r="H145" s="82" t="s">
+        <v>143</v>
+      </c>
+      <c r="J145" s="66"/>
+      <c r="K145" s="69"/>
+      <c r="L145" s="66"/>
+    </row>
+    <row r="146" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A146" s="99" t="s">
+        <v>487</v>
+      </c>
+      <c r="B146" s="134" t="s">
+        <v>485</v>
+      </c>
+      <c r="C146" s="134">
+        <v>6</v>
+      </c>
+      <c r="D146" s="134">
+        <v>0</v>
+      </c>
+      <c r="E146" s="134">
+        <v>0</v>
+      </c>
+      <c r="F146" s="134">
+        <v>0</v>
+      </c>
+      <c r="G146" s="134"/>
+      <c r="H146" s="82" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="147" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A147" s="99" t="s">
+        <v>489</v>
+      </c>
+      <c r="B147" s="134" t="s">
+        <v>488</v>
+      </c>
+      <c r="C147" s="134">
+        <v>5</v>
+      </c>
+      <c r="D147" s="134">
+        <v>0</v>
+      </c>
+      <c r="E147" s="134">
+        <v>0</v>
+      </c>
+      <c r="F147" s="134">
+        <v>0</v>
+      </c>
+      <c r="G147" s="134"/>
+      <c r="H147" s="82" t="s">
+        <v>142</v>
+      </c>
+      <c r="J147" s="66"/>
+      <c r="K147" s="69"/>
+      <c r="L147" s="66"/>
+    </row>
+    <row r="148" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A148" s="99" t="s">
+        <v>491</v>
+      </c>
+      <c r="B148" s="134">
+        <v>4</v>
+      </c>
+      <c r="C148" s="134">
+        <v>6</v>
+      </c>
+      <c r="D148" s="134">
+        <v>12</v>
+      </c>
+      <c r="E148" s="134">
+        <v>3</v>
+      </c>
+      <c r="F148" s="134">
+        <v>6</v>
+      </c>
+      <c r="G148" s="134" t="s">
+        <v>493</v>
+      </c>
+      <c r="H148" s="82" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="149" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A149" s="99"/>
+      <c r="B149" s="99"/>
+      <c r="C149" s="134"/>
+      <c r="D149" s="134"/>
+      <c r="E149" s="134"/>
+      <c r="F149" s="134"/>
+      <c r="G149" s="99"/>
+      <c r="H149" s="82"/>
+      <c r="J149" s="66"/>
+      <c r="K149" s="69"/>
+      <c r="L149" s="66"/>
+    </row>
+    <row r="150" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A150" s="66"/>
+      <c r="B150" s="66"/>
+      <c r="C150" s="66"/>
+      <c r="D150" s="66"/>
+      <c r="E150" s="66"/>
+      <c r="F150" s="66"/>
+      <c r="G150" s="66"/>
+      <c r="H150" s="66"/>
+      <c r="J150" s="66"/>
+      <c r="K150" s="69"/>
+      <c r="L150" s="66"/>
+    </row>
+    <row r="175" ht="13.8" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="179" ht="13.2" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="180" ht="13.8" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="181" ht="13.8" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="199" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="F199" s="72"/>
+    </row>
+    <row r="201" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A201" s="63"/>
+    </row>
+    <row r="202" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A202" s="63"/>
+    </row>
+    <row r="204" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A204" s="63"/>
+      <c r="C204" s="63"/>
+      <c r="D204" s="63"/>
+      <c r="E204" s="63"/>
+      <c r="F204" s="63"/>
+      <c r="G204" s="63"/>
+      <c r="H204" s="63"/>
+      <c r="I204" s="63"/>
+      <c r="J204" s="63"/>
+      <c r="K204" s="63"/>
+      <c r="L204" s="63"/>
+    </row>
+    <row r="205" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="D205" s="63"/>
+      <c r="E205" s="63"/>
+      <c r="F205" s="63"/>
+      <c r="G205" s="63"/>
+      <c r="H205" s="63"/>
+      <c r="I205" s="63"/>
+      <c r="J205" s="63"/>
+      <c r="K205" s="63"/>
+      <c r="L205" s="63"/>
+    </row>
+    <row r="206" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A206" s="63"/>
+      <c r="B206" s="63"/>
+      <c r="C206" s="63"/>
+      <c r="D206" s="63"/>
+      <c r="E206" s="63"/>
+      <c r="F206" s="63"/>
+      <c r="G206" s="63"/>
+      <c r="H206" s="63"/>
+      <c r="I206" s="63"/>
+      <c r="J206" s="63"/>
+      <c r="K206" s="63"/>
+      <c r="L206" s="63"/>
+    </row>
+    <row r="207" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B207" s="63"/>
+      <c r="C207" s="63"/>
+      <c r="D207" s="63"/>
+      <c r="E207" s="63"/>
+      <c r="F207" s="63"/>
+      <c r="G207" s="63"/>
+      <c r="H207" s="63"/>
+      <c r="I207" s="63"/>
+      <c r="J207" s="63"/>
+      <c r="K207" s="63"/>
+      <c r="L207" s="63"/>
+    </row>
+    <row r="208" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A208" s="63"/>
+      <c r="B208" s="63"/>
+      <c r="C208" s="63"/>
+      <c r="D208" s="63"/>
+      <c r="E208" s="63"/>
+      <c r="F208" s="63"/>
+      <c r="G208" s="63"/>
+      <c r="H208" s="63"/>
+      <c r="I208" s="63"/>
+      <c r="J208" s="63"/>
+      <c r="K208" s="63"/>
+      <c r="L208" s="63"/>
+    </row>
+    <row r="209" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A209" s="63"/>
+      <c r="B209" s="63"/>
+      <c r="C209" s="63"/>
+      <c r="D209" s="63"/>
+      <c r="E209" s="63"/>
+      <c r="F209" s="63"/>
+      <c r="G209" s="63"/>
+      <c r="H209" s="63"/>
+      <c r="I209" s="63"/>
+      <c r="J209" s="63"/>
+      <c r="K209" s="63"/>
+      <c r="L209" s="63"/>
+    </row>
+    <row r="210" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A210" s="63"/>
+      <c r="B210" s="63"/>
+      <c r="C210" s="63"/>
+      <c r="D210" s="63"/>
+      <c r="E210" s="63"/>
+      <c r="F210" s="63"/>
+      <c r="G210" s="63"/>
+      <c r="H210" s="63"/>
+      <c r="I210" s="63"/>
+      <c r="J210" s="63"/>
+      <c r="K210" s="63"/>
+      <c r="L210" s="63"/>
+    </row>
+    <row r="211" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A211" s="63"/>
+      <c r="B211" s="63"/>
+      <c r="C211" s="63"/>
+      <c r="D211" s="63"/>
+      <c r="E211" s="63"/>
+      <c r="F211" s="63"/>
+      <c r="G211" s="63"/>
+      <c r="H211" s="63"/>
+      <c r="I211" s="63"/>
+      <c r="J211" s="63"/>
+      <c r="K211" s="63"/>
+      <c r="L211" s="63"/>
+    </row>
+    <row r="212" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A212" s="63"/>
+      <c r="B212" s="63"/>
+      <c r="C212" s="63"/>
+      <c r="D212" s="63"/>
+      <c r="E212" s="63"/>
+      <c r="F212" s="63"/>
+      <c r="G212" s="63"/>
+      <c r="H212" s="63"/>
+      <c r="I212" s="63"/>
+      <c r="J212" s="63"/>
+      <c r="K212" s="63"/>
+      <c r="L212" s="63"/>
+    </row>
+    <row r="213" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A213" s="63"/>
+      <c r="B213" s="63"/>
+      <c r="C213" s="63"/>
+      <c r="D213" s="63"/>
+      <c r="E213" s="63"/>
+      <c r="F213" s="63"/>
+      <c r="G213" s="63"/>
+      <c r="H213" s="63"/>
+      <c r="I213" s="63"/>
+      <c r="J213" s="63"/>
+      <c r="K213" s="63"/>
+      <c r="L213" s="63"/>
+    </row>
+    <row r="214" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A214" s="72"/>
+      <c r="B214" s="90"/>
+      <c r="J214" s="72"/>
+      <c r="K214" s="57"/>
+    </row>
+    <row r="215" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A215" s="72"/>
+      <c r="B215" s="80"/>
+      <c r="I215" s="80"/>
+      <c r="K215" s="57"/>
+    </row>
+    <row r="216" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A216" s="72"/>
+      <c r="B216" s="80"/>
+      <c r="I216" s="80"/>
+      <c r="K216" s="57"/>
+    </row>
+    <row r="217" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A217" s="72"/>
+      <c r="B217" s="80"/>
+      <c r="I217" s="80"/>
+      <c r="K217" s="57"/>
+    </row>
+    <row r="218" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A218" s="72"/>
+      <c r="B218" s="80"/>
+      <c r="I218" s="80"/>
+      <c r="K218" s="57"/>
+    </row>
+    <row r="219" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A219" s="72"/>
+      <c r="B219" s="80"/>
+      <c r="I219" s="80"/>
+      <c r="K219" s="57"/>
+    </row>
+    <row r="220" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A220" s="72"/>
+      <c r="B220" s="80"/>
+      <c r="I220" s="80"/>
+      <c r="K220" s="57"/>
+    </row>
+    <row r="221" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A221" s="72"/>
+      <c r="B221" s="80"/>
+      <c r="I221" s="80"/>
+      <c r="K221" s="57"/>
+    </row>
+    <row r="222" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A222" s="72"/>
+      <c r="B222" s="80"/>
+      <c r="I222" s="80"/>
+      <c r="K222" s="57"/>
+    </row>
+    <row r="223" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A223" s="72"/>
+      <c r="B223" s="80"/>
+    </row>
+    <row r="224" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A224" s="72"/>
+      <c r="B224" s="80"/>
+    </row>
+    <row r="225" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A225" s="72"/>
+      <c r="B225" s="80"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A93:L96"/>
+    <mergeCell ref="A98:L100"/>
+  </mergeCells>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{618731C0-8D69-42F5-B683-631FA94DA355}">
+  <dimension ref="A1:L225"/>
+  <sheetViews>
+    <sheetView topLeftCell="A99" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+      <selection activeCell="D103" sqref="D103:D104"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="10" width="8" style="57" customWidth="1"/>
+    <col min="11" max="11" width="8" style="54" customWidth="1"/>
+    <col min="12" max="12" width="8" style="57" customWidth="1"/>
+    <col min="13" max="13" width="8.88671875" style="57"/>
+    <col min="14" max="15" width="8.88671875" style="57" customWidth="1"/>
+    <col min="16" max="16384" width="8.88671875" style="57"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="90" t="s">
+        <v>1010</v>
+      </c>
+      <c r="C1" s="61"/>
+      <c r="D1" s="61"/>
+      <c r="F1" s="75" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="54" t="s">
+        <v>1036</v>
+      </c>
+      <c r="H1" s="151" t="s">
+        <v>173</v>
+      </c>
+      <c r="I1" s="81" t="s">
+        <v>348</v>
+      </c>
+      <c r="J1" s="100"/>
+      <c r="K1" s="61"/>
+      <c r="L1" s="209" t="s">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A3" s="156" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="57" t="s">
+        <v>1074</v>
+      </c>
+      <c r="E3" s="156" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" s="152" t="s">
+        <v>1109</v>
+      </c>
+      <c r="H3" s="55" t="s">
+        <v>1110</v>
+      </c>
+      <c r="K3" s="57"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A4" s="156" t="s">
+        <v>343</v>
+      </c>
+      <c r="B4" s="57" t="s">
+        <v>1040</v>
+      </c>
+      <c r="H4" s="230" t="s">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A5" s="156" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="152" t="s">
+        <v>1073</v>
+      </c>
+      <c r="E5" s="210" t="s">
+        <v>3</v>
+      </c>
+      <c r="F5" s="139" t="s">
+        <v>1112</v>
+      </c>
+      <c r="G5" s="85"/>
+      <c r="H5" s="140" t="s">
+        <v>1113</v>
+      </c>
+      <c r="I5" s="85"/>
+      <c r="J5" s="85"/>
+      <c r="K5" s="131"/>
+      <c r="L5" s="85"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A6" s="156" t="s">
+        <v>69</v>
+      </c>
+      <c r="B6" s="57" t="s">
+        <v>126</v>
+      </c>
+      <c r="H6" s="55" t="s">
+        <v>1115</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F8" s="72" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B9" s="72" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="73"/>
+      <c r="D9" s="73"/>
+      <c r="E9" s="73"/>
+      <c r="F9" s="72" t="s">
+        <v>9</v>
+      </c>
+      <c r="G9" s="73"/>
+      <c r="H9" s="73"/>
+      <c r="I9" s="73"/>
+      <c r="J9" s="72" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A10" s="165" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="80"/>
+      <c r="D10" s="163">
+        <v>3</v>
+      </c>
+      <c r="E10" s="165" t="s">
+        <v>12</v>
+      </c>
+      <c r="F10" s="80"/>
+      <c r="H10" s="163">
+        <v>2</v>
+      </c>
+      <c r="I10" s="165" t="s">
+        <v>13</v>
+      </c>
+      <c r="J10" s="80"/>
+      <c r="L10" s="163">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A11" s="165" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" s="80" t="s">
+        <v>1116</v>
+      </c>
+      <c r="D11" s="163">
+        <v>4</v>
+      </c>
+      <c r="E11" s="165" t="s">
+        <v>16</v>
+      </c>
+      <c r="F11" s="80"/>
+      <c r="H11" s="163">
+        <v>2</v>
+      </c>
+      <c r="I11" s="165" t="s">
+        <v>18</v>
+      </c>
+      <c r="J11" s="80"/>
+      <c r="L11" s="163">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A12" s="165" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" s="80"/>
+      <c r="D12" s="163">
+        <v>3</v>
+      </c>
+      <c r="E12" s="165" t="s">
+        <v>17</v>
+      </c>
+      <c r="F12" s="80"/>
+      <c r="H12" s="163">
+        <v>2</v>
+      </c>
+      <c r="I12" s="165" t="s">
+        <v>19</v>
+      </c>
+      <c r="J12" s="80" t="s">
+        <v>1117</v>
+      </c>
+      <c r="L12" s="163">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="C13" s="75"/>
+      <c r="G13" s="75"/>
+      <c r="K13" s="75"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="F14" s="72" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="72" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15" s="72"/>
+      <c r="D15" s="72"/>
+      <c r="E15" s="72"/>
+      <c r="F15" s="72" t="s">
+        <v>53</v>
+      </c>
+      <c r="G15" s="72"/>
+      <c r="H15" s="72"/>
+      <c r="I15" s="72"/>
+      <c r="J15" s="72" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A16" s="154" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" s="80" t="s">
+        <v>1118</v>
+      </c>
+      <c r="D16" s="163">
+        <v>4</v>
+      </c>
+      <c r="E16" s="154" t="s">
+        <v>438</v>
+      </c>
+      <c r="F16" s="80"/>
+      <c r="G16" s="54"/>
+      <c r="H16" s="163">
+        <v>1</v>
+      </c>
+      <c r="I16" s="154" t="s">
+        <v>31</v>
+      </c>
+      <c r="J16" s="111"/>
+      <c r="L16" s="163">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A17" s="154" t="s">
+        <v>32</v>
+      </c>
+      <c r="B17" s="80"/>
+      <c r="D17" s="163">
+        <v>0</v>
+      </c>
+      <c r="E17" s="154" t="s">
+        <v>33</v>
+      </c>
+      <c r="F17" s="80"/>
+      <c r="G17" s="54"/>
+      <c r="H17" s="163">
+        <v>0</v>
+      </c>
+      <c r="I17" s="154" t="s">
+        <v>34</v>
+      </c>
+      <c r="J17" s="80"/>
+      <c r="L17" s="163">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A18" s="154" t="s">
+        <v>436</v>
+      </c>
+      <c r="B18" s="80"/>
+      <c r="D18" s="163">
+        <v>1</v>
+      </c>
+      <c r="E18" s="154" t="s">
+        <v>437</v>
+      </c>
+      <c r="F18" s="111" t="s">
+        <v>1121</v>
+      </c>
+      <c r="G18" s="54"/>
+      <c r="H18" s="163">
+        <v>2</v>
+      </c>
+      <c r="I18" s="154" t="s">
+        <v>36</v>
+      </c>
+      <c r="J18" s="80"/>
+      <c r="L18" s="163">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A19" s="154" t="s">
+        <v>26</v>
+      </c>
+      <c r="B19" s="80"/>
+      <c r="D19" s="163">
+        <v>1</v>
+      </c>
+      <c r="E19" s="154" t="s">
+        <v>38</v>
+      </c>
+      <c r="F19" s="80"/>
+      <c r="G19" s="54"/>
+      <c r="H19" s="163">
+        <v>1</v>
+      </c>
+      <c r="I19" s="154" t="s">
+        <v>45</v>
+      </c>
+      <c r="J19" s="80"/>
+      <c r="L19" s="163">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A20" s="154" t="s">
+        <v>27</v>
+      </c>
+      <c r="B20" s="80"/>
+      <c r="D20" s="163">
+        <v>0</v>
+      </c>
+      <c r="E20" s="154" t="s">
+        <v>39</v>
+      </c>
+      <c r="F20" s="80"/>
+      <c r="G20" s="54"/>
+      <c r="H20" s="163">
+        <v>1</v>
+      </c>
+      <c r="I20" s="154" t="s">
+        <v>46</v>
+      </c>
+      <c r="J20" s="80"/>
+      <c r="L20" s="163">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A21" s="154" t="s">
+        <v>28</v>
+      </c>
+      <c r="B21" s="80" t="s">
+        <v>1120</v>
+      </c>
+      <c r="D21" s="163">
+        <v>4</v>
+      </c>
+      <c r="E21" s="154" t="s">
+        <v>40</v>
+      </c>
+      <c r="F21" s="80"/>
+      <c r="G21" s="54"/>
+      <c r="H21" s="163">
+        <v>2</v>
+      </c>
+      <c r="I21" s="154" t="s">
+        <v>47</v>
+      </c>
+      <c r="J21" s="80"/>
+      <c r="L21" s="163">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A22" s="154" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" s="80" t="s">
+        <v>1119</v>
+      </c>
+      <c r="D22" s="163">
+        <v>4</v>
+      </c>
+      <c r="E22" s="154" t="s">
+        <v>41</v>
+      </c>
+      <c r="F22" s="80"/>
+      <c r="G22" s="54"/>
+      <c r="H22" s="163">
+        <v>0</v>
+      </c>
+      <c r="I22" s="154" t="s">
+        <v>48</v>
+      </c>
+      <c r="J22" s="80"/>
+      <c r="L22" s="163">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A23" s="154" t="s">
+        <v>1011</v>
+      </c>
+      <c r="B23" s="80"/>
+      <c r="D23" s="163">
+        <v>0</v>
+      </c>
+      <c r="E23" s="154" t="s">
+        <v>42</v>
+      </c>
+      <c r="F23" s="80"/>
+      <c r="G23" s="54"/>
+      <c r="H23" s="163">
+        <v>0</v>
+      </c>
+      <c r="I23" s="154" t="s">
+        <v>49</v>
+      </c>
+      <c r="J23" s="80"/>
+      <c r="L23" s="163">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A24" s="154" t="s">
+        <v>358</v>
+      </c>
+      <c r="B24" s="80"/>
+      <c r="D24" s="163">
+        <v>2</v>
+      </c>
+      <c r="E24" s="154" t="s">
+        <v>43</v>
+      </c>
+      <c r="F24" s="80"/>
+      <c r="G24" s="54"/>
+      <c r="H24" s="163">
+        <v>1</v>
+      </c>
+      <c r="I24" s="154" t="s">
+        <v>50</v>
+      </c>
+      <c r="J24" s="80"/>
+      <c r="L24" s="163">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A25" s="154" t="s">
+        <v>29</v>
+      </c>
+      <c r="B25" s="80"/>
+      <c r="D25" s="163">
+        <v>0</v>
+      </c>
+      <c r="E25" s="154" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" s="80"/>
+      <c r="G25" s="54"/>
+      <c r="H25" s="163">
+        <v>2</v>
+      </c>
+      <c r="I25" s="154" t="s">
+        <v>51</v>
+      </c>
+      <c r="J25" s="80"/>
+      <c r="L25" s="163">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="C27" s="75"/>
+      <c r="G27" s="75"/>
+      <c r="K27" s="75"/>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A28" s="73"/>
+      <c r="B28" s="72" t="s">
+        <v>56</v>
+      </c>
+      <c r="C28" s="73"/>
+      <c r="D28" s="73"/>
+      <c r="E28" s="73"/>
+      <c r="F28" s="73"/>
+      <c r="H28" s="73"/>
+      <c r="I28" s="72" t="s">
+        <v>57</v>
+      </c>
+      <c r="J28" s="73"/>
+      <c r="K28" s="55"/>
+      <c r="L28" s="170" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="80" t="s">
+        <v>0</v>
+      </c>
+      <c r="B29" s="75" t="s">
+        <v>73</v>
+      </c>
+      <c r="C29" s="80" t="s">
+        <v>61</v>
+      </c>
+      <c r="G29" s="73"/>
+      <c r="H29" s="166" t="s">
+        <v>58</v>
+      </c>
+      <c r="J29" s="167">
+        <v>3</v>
+      </c>
+      <c r="K29" s="162" t="s">
+        <v>465</v>
+      </c>
+      <c r="L29" s="54"/>
+    </row>
+    <row r="30" spans="1:12" s="73" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="57" t="s">
+        <v>129</v>
+      </c>
+      <c r="B30" s="54">
+        <v>2</v>
+      </c>
+      <c r="C30" s="175" t="s">
+        <v>1122</v>
+      </c>
+      <c r="D30" s="57"/>
+      <c r="E30" s="57"/>
+      <c r="F30" s="57"/>
+      <c r="G30" s="57"/>
+      <c r="H30" s="166" t="s">
+        <v>342</v>
+      </c>
+      <c r="I30" s="57"/>
+      <c r="J30" s="167">
+        <v>2</v>
+      </c>
+      <c r="K30" s="55" t="s">
+        <v>477</v>
+      </c>
+      <c r="L30" s="54"/>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A31" s="57" t="s">
+        <v>130</v>
+      </c>
+      <c r="B31" s="54">
+        <v>1</v>
+      </c>
+      <c r="C31" s="80" t="s">
+        <v>1123</v>
+      </c>
+      <c r="H31" s="166" t="s">
+        <v>59</v>
+      </c>
+      <c r="J31" s="167">
+        <v>5</v>
+      </c>
+      <c r="K31" s="55" t="s">
+        <v>479</v>
+      </c>
+      <c r="L31" s="54"/>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A32" s="57" t="s">
+        <v>130</v>
+      </c>
+      <c r="B32" s="54">
+        <v>2</v>
+      </c>
+      <c r="C32" s="80" t="s">
+        <v>1124</v>
+      </c>
+      <c r="H32" s="63" t="s">
+        <v>70</v>
+      </c>
+      <c r="J32" s="167" t="s">
+        <v>131</v>
+      </c>
+      <c r="L32" s="54"/>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B33" s="54"/>
+      <c r="C33" s="80"/>
+      <c r="H33" s="63" t="s">
+        <v>66</v>
+      </c>
+      <c r="J33" s="167">
+        <v>6</v>
+      </c>
+      <c r="K33" s="162" t="s">
+        <v>464</v>
+      </c>
+      <c r="L33" s="54"/>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A34" s="66"/>
+      <c r="B34" s="66"/>
+      <c r="C34" s="66"/>
+      <c r="D34" s="66"/>
+      <c r="E34" s="66"/>
+      <c r="F34" s="66"/>
+      <c r="L34" s="215" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="H35" s="63" t="s">
+        <v>20</v>
+      </c>
+      <c r="J35" s="167">
+        <v>5</v>
+      </c>
+      <c r="K35" s="162" t="s">
+        <v>478</v>
+      </c>
+      <c r="L35" s="54"/>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A36" s="66"/>
+      <c r="B36" s="66"/>
+      <c r="C36" s="66"/>
+      <c r="D36" s="66"/>
+      <c r="E36" s="66"/>
+      <c r="F36" s="66"/>
+      <c r="H36" s="63" t="s">
+        <v>1019</v>
+      </c>
+      <c r="J36" s="167">
+        <v>10</v>
+      </c>
+      <c r="K36" s="162" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="G37" s="73"/>
+      <c r="H37" s="63" t="s">
+        <v>341</v>
+      </c>
+      <c r="I37" s="73"/>
+      <c r="J37" s="167">
+        <f>7-J30</f>
+        <v>5</v>
+      </c>
+      <c r="K37" s="162" t="s">
+        <v>481</v>
+      </c>
+      <c r="L37" s="73"/>
+    </row>
+    <row r="38" spans="1:12" s="73" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="157"/>
+      <c r="B38" s="157"/>
+      <c r="C38" s="157"/>
+      <c r="D38" s="157"/>
+      <c r="E38" s="157"/>
+      <c r="F38" s="157"/>
+      <c r="H38" s="57"/>
+      <c r="I38" s="57"/>
+      <c r="J38" s="57"/>
+      <c r="K38" s="54"/>
+      <c r="L38" s="57"/>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A39" s="66"/>
+      <c r="B39" s="66"/>
+      <c r="C39" s="66"/>
+      <c r="D39" s="66"/>
+      <c r="E39" s="66"/>
+      <c r="F39" s="66"/>
+      <c r="H39" s="63" t="s">
+        <v>495</v>
+      </c>
+      <c r="I39" s="171"/>
+      <c r="J39" s="171"/>
+      <c r="K39" s="73"/>
+      <c r="L39" s="73"/>
+    </row>
+    <row r="40" spans="1:12" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H40" s="63" t="s">
+        <v>496</v>
+      </c>
+      <c r="I40" s="66"/>
+      <c r="J40" s="66"/>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A41" s="157"/>
+      <c r="B41" s="158"/>
+      <c r="C41" s="157"/>
+      <c r="D41" s="66"/>
+      <c r="E41" s="69"/>
+      <c r="F41" s="66"/>
+      <c r="G41" s="73"/>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B42" s="54"/>
+      <c r="D42" s="54"/>
+      <c r="E42" s="153"/>
+      <c r="H42" s="90" t="s">
+        <v>366</v>
+      </c>
+      <c r="I42" s="75" t="s">
+        <v>182</v>
+      </c>
+      <c r="J42" s="75" t="s">
+        <v>142</v>
+      </c>
+      <c r="K42" s="75" t="s">
+        <v>143</v>
+      </c>
+      <c r="L42" s="75" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A43" s="68"/>
+      <c r="B43" s="68"/>
+      <c r="C43" s="69"/>
+      <c r="D43" s="108"/>
+      <c r="E43" s="109"/>
+      <c r="F43" s="66"/>
+      <c r="H43" s="172"/>
+      <c r="I43" s="172" t="s">
+        <v>500</v>
+      </c>
+      <c r="J43" s="172" t="s">
+        <v>498</v>
+      </c>
+      <c r="K43" s="172" t="s">
+        <v>499</v>
+      </c>
+      <c r="L43" s="172" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A44" s="152"/>
+      <c r="B44" s="152"/>
+      <c r="C44" s="54"/>
+      <c r="D44" s="55"/>
+      <c r="E44" s="153"/>
+      <c r="H44" s="63" t="s">
+        <v>156</v>
+      </c>
+      <c r="I44" s="167">
+        <v>0</v>
+      </c>
+      <c r="J44" s="159" t="b">
+        <v>0</v>
+      </c>
+      <c r="K44" s="160" t="b">
+        <v>0</v>
+      </c>
+      <c r="L44" s="159" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="68"/>
+      <c r="B45" s="68"/>
+      <c r="C45" s="69"/>
+      <c r="D45" s="168"/>
+      <c r="E45" s="109"/>
+      <c r="F45" s="66"/>
+      <c r="H45" s="63" t="s">
+        <v>157</v>
+      </c>
+      <c r="I45" s="167">
+        <v>-1</v>
+      </c>
+      <c r="J45" s="161" t="b">
+        <v>0</v>
+      </c>
+      <c r="K45" s="160" t="b">
+        <v>0</v>
+      </c>
+      <c r="L45" s="159" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="C46" s="54"/>
+      <c r="D46" s="80"/>
+      <c r="E46" s="54"/>
+      <c r="H46" s="63" t="s">
+        <v>158</v>
+      </c>
+      <c r="I46" s="167">
+        <v>-1</v>
+      </c>
+      <c r="J46" s="159" t="b">
+        <v>0</v>
+      </c>
+      <c r="K46" s="160" t="b">
+        <v>0</v>
+      </c>
+      <c r="L46" s="159" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A47" s="68"/>
+      <c r="B47" s="68"/>
+      <c r="C47" s="69"/>
+      <c r="D47" s="108"/>
+      <c r="E47" s="109"/>
+      <c r="F47" s="66"/>
+      <c r="H47" s="63" t="s">
+        <v>159</v>
+      </c>
+      <c r="I47" s="167">
+        <v>-2</v>
+      </c>
+      <c r="J47" s="159" t="b">
+        <v>0</v>
+      </c>
+      <c r="K47" s="160" t="b">
+        <v>0</v>
+      </c>
+      <c r="L47" s="159" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A48" s="152"/>
+      <c r="B48" s="152"/>
+      <c r="C48" s="54"/>
+      <c r="D48" s="55"/>
+      <c r="E48" s="153"/>
+      <c r="H48" s="63" t="s">
+        <v>441</v>
+      </c>
+      <c r="I48" s="167">
+        <v>-2</v>
+      </c>
+      <c r="J48" s="159" t="b">
+        <v>0</v>
+      </c>
+      <c r="K48" s="160" t="b">
+        <v>0</v>
+      </c>
+      <c r="L48" s="159" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A49" s="66"/>
+      <c r="B49" s="69"/>
+      <c r="C49" s="66"/>
+      <c r="D49" s="82"/>
+      <c r="E49" s="66"/>
+      <c r="F49" s="66"/>
+      <c r="H49" s="63" t="s">
+        <v>161</v>
+      </c>
+      <c r="I49" s="167">
+        <v>-5</v>
+      </c>
+      <c r="J49" s="159" t="b">
+        <v>0</v>
+      </c>
+      <c r="K49" s="160" t="b">
+        <v>0</v>
+      </c>
+      <c r="L49" s="159" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A50" s="66"/>
+      <c r="B50" s="69"/>
+      <c r="C50" s="66"/>
+      <c r="D50" s="82"/>
+      <c r="E50" s="66"/>
+      <c r="F50" s="66"/>
+      <c r="H50" s="63" t="s">
+        <v>162</v>
+      </c>
+      <c r="I50" s="167" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A51" s="80" t="s">
+        <v>55</v>
+      </c>
+      <c r="C51" s="75" t="s">
+        <v>73</v>
+      </c>
+      <c r="D51" s="80" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A52" s="165" t="s">
+        <v>453</v>
+      </c>
+      <c r="C52" s="54">
+        <v>2</v>
+      </c>
+      <c r="D52" s="80" t="s">
+        <v>1125</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A53" s="165" t="s">
+        <v>97</v>
+      </c>
+      <c r="C53" s="54">
+        <v>1</v>
+      </c>
+      <c r="D53" s="80" t="s">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A54" s="165" t="s">
+        <v>99</v>
+      </c>
+      <c r="C54" s="54">
+        <v>2</v>
+      </c>
+      <c r="D54" s="80" t="s">
+        <v>1126</v>
+      </c>
+      <c r="E54" s="155"/>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A55" s="165" t="s">
+        <v>5</v>
+      </c>
+      <c r="C55" s="54">
+        <v>1</v>
+      </c>
+      <c r="D55" s="80" t="s">
+        <v>1035</v>
+      </c>
+      <c r="E55" s="155"/>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A56" s="165" t="s">
+        <v>96</v>
+      </c>
+      <c r="C56" s="54">
+        <v>1</v>
+      </c>
+      <c r="D56" s="80" t="s">
+        <v>1132</v>
+      </c>
+      <c r="E56" s="155"/>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A57" s="165" t="s">
+        <v>98</v>
+      </c>
+      <c r="C57" s="54">
+        <v>2</v>
+      </c>
+      <c r="D57" s="80" t="s">
+        <v>1037</v>
+      </c>
+      <c r="E57" s="155"/>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="E58" s="155"/>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A59" s="214"/>
+      <c r="B59" s="66"/>
+      <c r="C59" s="69"/>
+      <c r="D59" s="82"/>
+      <c r="E59" s="214"/>
+      <c r="F59" s="66"/>
+      <c r="G59" s="66"/>
+      <c r="H59" s="66"/>
+      <c r="I59" s="66"/>
+      <c r="J59" s="66"/>
+      <c r="K59" s="69"/>
+      <c r="L59" s="66"/>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A60" s="214"/>
+      <c r="B60" s="66"/>
+      <c r="C60" s="69"/>
+      <c r="D60" s="82"/>
+      <c r="E60" s="214"/>
+      <c r="F60" s="66"/>
+      <c r="G60" s="66"/>
+      <c r="H60" s="66"/>
+      <c r="I60" s="66"/>
+      <c r="J60" s="66"/>
+      <c r="K60" s="69"/>
+      <c r="L60" s="66"/>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A61" s="155"/>
+      <c r="C61" s="54"/>
+      <c r="D61" s="80"/>
+      <c r="E61" s="155"/>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A62" s="55" t="s">
+        <v>1028</v>
+      </c>
+      <c r="C62" s="75" t="s">
+        <v>203</v>
+      </c>
+      <c r="D62" s="80" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A63" s="165" t="s">
+        <v>1136</v>
+      </c>
+      <c r="C63" s="54">
+        <v>-5</v>
+      </c>
+      <c r="D63" s="80" t="s">
+        <v>1134</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A64" s="63"/>
+      <c r="D64" s="80" t="s">
+        <v>1135</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A65" s="165" t="s">
+        <v>1020</v>
+      </c>
+      <c r="C65" s="54">
+        <v>1</v>
+      </c>
+      <c r="D65" s="80" t="s">
+        <v>1133</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A66" s="165"/>
+      <c r="C66" s="54"/>
+      <c r="D66" s="80"/>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A67" s="165"/>
+      <c r="C67" s="54"/>
+      <c r="D67" s="80"/>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A68" s="165"/>
+      <c r="C68" s="54"/>
+      <c r="D68" s="80"/>
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A70" s="66"/>
+      <c r="B70" s="66"/>
+      <c r="C70" s="66"/>
+      <c r="D70" s="66"/>
+      <c r="E70" s="66"/>
+      <c r="F70" s="66"/>
+      <c r="G70" s="66"/>
+      <c r="H70" s="66"/>
+      <c r="I70" s="66"/>
+      <c r="J70" s="66"/>
+      <c r="K70" s="69"/>
+      <c r="L70" s="66"/>
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A71" s="66"/>
+      <c r="B71" s="66"/>
+      <c r="C71" s="66"/>
+      <c r="D71" s="66"/>
+      <c r="E71" s="66"/>
+      <c r="F71" s="66"/>
+      <c r="G71" s="66"/>
+      <c r="H71" s="66"/>
+      <c r="I71" s="66"/>
+      <c r="J71" s="66"/>
+      <c r="K71" s="69"/>
+      <c r="L71" s="66"/>
+    </row>
+    <row r="73" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A73" s="57" t="s">
+        <v>105</v>
+      </c>
+      <c r="C73" s="63" t="s">
+        <v>1137</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A74" s="57" t="s">
+        <v>106</v>
+      </c>
+      <c r="C74" s="63" t="s">
+        <v>1138</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A75" s="57" t="s">
+        <v>98</v>
+      </c>
+      <c r="C75" s="63" t="s">
+        <v>1139</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A76" s="57" t="s">
+        <v>108</v>
+      </c>
+      <c r="C76" s="100"/>
+      <c r="D76" s="61"/>
+      <c r="E76" s="61"/>
+      <c r="F76" s="61"/>
+      <c r="G76" s="61"/>
+      <c r="H76" s="61"/>
+      <c r="I76" s="61"/>
+      <c r="J76" s="61"/>
+      <c r="K76" s="78"/>
+      <c r="L76" s="61"/>
+    </row>
+    <row r="78" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A78" s="57" t="s">
+        <v>110</v>
+      </c>
+      <c r="C78" s="57" t="s">
+        <v>109</v>
+      </c>
+      <c r="E78" s="57" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A79" s="80" t="s">
+        <v>1140</v>
+      </c>
+      <c r="B79" s="80"/>
+      <c r="C79" s="80" t="s">
+        <v>1142</v>
+      </c>
+      <c r="E79" s="57" t="s">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A80" s="81"/>
+      <c r="B80" s="81"/>
+      <c r="C80" s="81"/>
+      <c r="D80" s="61"/>
+      <c r="E80" s="61"/>
+      <c r="F80" s="61"/>
+      <c r="G80" s="61"/>
+      <c r="H80" s="61"/>
+      <c r="I80" s="61"/>
+      <c r="J80" s="61"/>
+      <c r="K80" s="78"/>
+      <c r="L80" s="61"/>
+    </row>
+    <row r="81" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A81" s="82"/>
+      <c r="B81" s="82"/>
+      <c r="C81" s="82"/>
+      <c r="D81" s="66"/>
+      <c r="E81" s="66"/>
+      <c r="F81" s="66"/>
+      <c r="G81" s="66"/>
+      <c r="H81" s="66"/>
+      <c r="I81" s="66"/>
+      <c r="J81" s="66"/>
+      <c r="K81" s="69"/>
+      <c r="L81" s="66"/>
+    </row>
+    <row r="83" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B83" s="54" t="s">
+        <v>17</v>
+      </c>
+      <c r="J83" s="54" t="s">
+        <v>123</v>
+      </c>
+      <c r="K83" s="57"/>
+      <c r="L83" s="54"/>
+    </row>
+    <row r="84" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A84" s="80" t="s">
+        <v>113</v>
+      </c>
+      <c r="C84" s="212">
         <v>32</v>
       </c>
       <c r="E84" s="80" t="s">
@@ -36876,54 +41120,62 @@
       </c>
     </row>
     <row r="103" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A103" s="82" t="s">
+      <c r="A103" s="240" t="s">
         <v>407</v>
       </c>
-      <c r="B103" s="66"/>
-      <c r="C103" s="169">
+      <c r="B103" s="233"/>
+      <c r="C103" s="245">
         <v>1</v>
       </c>
-      <c r="D103" s="134" t="s">
+      <c r="D103" s="247" t="s">
         <v>1068</v>
       </c>
-      <c r="E103" s="82" t="s">
+      <c r="E103" s="240" t="s">
         <v>483</v>
       </c>
-      <c r="F103" s="66"/>
-      <c r="G103" s="66"/>
-      <c r="H103" s="66"/>
-      <c r="I103" s="66"/>
-      <c r="J103" s="66"/>
-      <c r="K103" s="69"/>
-      <c r="L103" s="66"/>
+      <c r="F103" s="233"/>
+      <c r="G103" s="233"/>
+      <c r="H103" s="233"/>
+      <c r="I103" s="233"/>
+      <c r="J103" s="233"/>
+      <c r="K103" s="234"/>
+      <c r="L103" s="233"/>
     </row>
     <row r="104" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A104" s="80" t="s">
+      <c r="A104" s="240" t="s">
         <v>1151</v>
       </c>
-      <c r="C104" s="169" t="s">
+      <c r="B104" s="233"/>
+      <c r="C104" s="245" t="s">
         <v>131</v>
       </c>
-      <c r="D104" s="134" t="s">
+      <c r="D104" s="247" t="s">
         <v>1128</v>
       </c>
-      <c r="E104" s="238" t="s">
+      <c r="E104" s="246" t="s">
         <v>1152</v>
       </c>
+      <c r="F104" s="233"/>
+      <c r="G104" s="233"/>
+      <c r="H104" s="233"/>
+      <c r="I104" s="233"/>
+      <c r="J104" s="233"/>
+      <c r="K104" s="234"/>
+      <c r="L104" s="233"/>
     </row>
     <row r="105" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A105" s="66"/>
-      <c r="B105" s="66"/>
-      <c r="C105" s="66"/>
-      <c r="D105" s="134"/>
-      <c r="E105" s="99"/>
-      <c r="F105" s="66"/>
-      <c r="G105" s="66"/>
-      <c r="H105" s="66"/>
-      <c r="I105" s="66"/>
-      <c r="J105" s="66"/>
-      <c r="K105" s="69"/>
-      <c r="L105" s="66"/>
+      <c r="A105" s="61"/>
+      <c r="B105" s="61"/>
+      <c r="C105" s="61"/>
+      <c r="D105" s="133"/>
+      <c r="E105" s="100"/>
+      <c r="F105" s="61"/>
+      <c r="G105" s="61"/>
+      <c r="H105" s="61"/>
+      <c r="I105" s="61"/>
+      <c r="J105" s="61"/>
+      <c r="K105" s="78"/>
+      <c r="L105" s="61"/>
     </row>
     <row r="106" spans="1:12" x14ac:dyDescent="0.3">
       <c r="D106" s="134"/>
@@ -37650,7 +41902,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9F6B7E5-20DC-4256-8C7B-E01845B2F220}">
   <sheetPr codeName="Foglio2"/>
   <dimension ref="A1:L175"/>
@@ -39768,7 +44020,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BC5CACB-6F53-4618-ABAE-A31D18E277D3}">
   <dimension ref="A1:R182"/>
   <sheetViews>
@@ -41947,7 +46199,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62C246EC-482A-4FE1-8373-072C4CA20E9F}">
   <dimension ref="A1:S31"/>
   <sheetViews>
@@ -42851,7 +47103,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E747E437-885A-4324-9E14-3FC479EC2837}">
   <sheetPr codeName="Foglio1"/>
   <dimension ref="B1:N23"/>
@@ -42914,11 +47166,11 @@
       <c r="C3" s="47"/>
       <c r="D3" s="44">
         <f ca="1">RANDBETWEEN(1,10)</f>
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E3" s="44">
         <f t="shared" ref="E3:M3" ca="1" si="0">RANDBETWEEN(1,10)</f>
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="F3" s="44">
         <f t="shared" ca="1" si="0"/>
@@ -42926,31 +47178,31 @@
       </c>
       <c r="G3" s="44">
         <f t="shared" ca="1" si="0"/>
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="H3" s="44">
         <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="I3" s="44">
         <f t="shared" ca="1" si="0"/>
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="J3" s="44">
         <f t="shared" ca="1" si="0"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K3" s="44">
         <f t="shared" ca="1" si="0"/>
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="L3" s="44">
         <f t="shared" ca="1" si="0"/>
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="M3" s="44">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="N3" s="44"/>
     </row>
@@ -43035,31 +47287,31 @@
       </c>
       <c r="G6" s="46">
         <f t="shared" ca="1" si="3"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H6" s="46">
         <f t="shared" ca="1" si="3"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I6" s="46">
         <f t="shared" ca="1" si="3"/>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="J6" s="46">
         <f t="shared" ca="1" si="3"/>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K6" s="46">
         <f t="shared" ca="1" si="3"/>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="L6" s="46">
         <f t="shared" ca="1" si="3"/>
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="M6" s="46">
         <f t="shared" ca="1" si="3"/>
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="2:14" x14ac:dyDescent="0.3">
@@ -43081,31 +47333,31 @@
       </c>
       <c r="G7" s="46">
         <f t="shared" ca="1" si="3"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H7" s="46">
         <f t="shared" ca="1" si="3"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I7" s="46">
         <f t="shared" ca="1" si="3"/>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="J7" s="46">
         <f t="shared" ca="1" si="3"/>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K7" s="46">
         <f t="shared" ca="1" si="3"/>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="L7" s="46">
         <f t="shared" ca="1" si="3"/>
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="M7" s="46">
         <f t="shared" ca="1" si="3"/>
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="2:14" x14ac:dyDescent="0.3">
@@ -43119,39 +47371,39 @@
       </c>
       <c r="E8" s="46">
         <f t="shared" ca="1" si="3"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F8" s="46">
         <f t="shared" ca="1" si="3"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G8" s="46">
         <f t="shared" ca="1" si="3"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H8" s="46">
         <f t="shared" ca="1" si="3"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I8" s="46">
         <f t="shared" ca="1" si="3"/>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="J8" s="46">
         <f t="shared" ca="1" si="3"/>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="K8" s="46">
         <f t="shared" ca="1" si="3"/>
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="L8" s="46">
         <f t="shared" ca="1" si="3"/>
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="M8" s="46">
         <f t="shared" ca="1" si="3"/>
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="2:14" x14ac:dyDescent="0.3">
@@ -43165,39 +47417,39 @@
       </c>
       <c r="E9" s="46">
         <f t="shared" ca="1" si="3"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F9" s="46">
         <f t="shared" ca="1" si="3"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G9" s="46">
         <f t="shared" ca="1" si="3"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H9" s="46">
         <f t="shared" ca="1" si="3"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I9" s="46">
         <f t="shared" ca="1" si="3"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J9" s="46">
         <f t="shared" ca="1" si="3"/>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="K9" s="46">
         <f t="shared" ca="1" si="3"/>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="L9" s="46">
         <f t="shared" ca="1" si="3"/>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="M9" s="46">
         <f t="shared" ca="1" si="3"/>
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="2:14" x14ac:dyDescent="0.3">
@@ -43207,43 +47459,43 @@
       <c r="C10" s="47"/>
       <c r="D10" s="46">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E10" s="46">
         <f t="shared" ca="1" si="3"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F10" s="46">
         <f t="shared" ca="1" si="3"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G10" s="46">
         <f t="shared" ca="1" si="3"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H10" s="46">
         <f t="shared" ca="1" si="3"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I10" s="46">
         <f t="shared" ca="1" si="3"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J10" s="46">
         <f t="shared" ca="1" si="3"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K10" s="46">
         <f t="shared" ca="1" si="3"/>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="L10" s="46">
         <f t="shared" ca="1" si="3"/>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="M10" s="46">
         <f t="shared" ca="1" si="3"/>
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="2:14" x14ac:dyDescent="0.3">
@@ -43253,43 +47505,43 @@
       <c r="C11" s="47"/>
       <c r="D11" s="46">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E11" s="46">
         <f t="shared" ca="1" si="3"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F11" s="46">
         <f t="shared" ca="1" si="3"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G11" s="46">
         <f t="shared" ca="1" si="3"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H11" s="46">
         <f t="shared" ca="1" si="3"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I11" s="46">
         <f t="shared" ca="1" si="3"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J11" s="46">
         <f t="shared" ca="1" si="3"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K11" s="46">
         <f t="shared" ca="1" si="3"/>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="L11" s="46">
         <f t="shared" ca="1" si="3"/>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="M11" s="46">
         <f t="shared" ca="1" si="3"/>
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12" spans="2:14" x14ac:dyDescent="0.3">
@@ -43299,43 +47551,43 @@
       <c r="C12" s="47"/>
       <c r="D12" s="46">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E12" s="46">
         <f t="shared" ca="1" si="3"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F12" s="46">
         <f t="shared" ca="1" si="3"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G12" s="46">
         <f t="shared" ca="1" si="3"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H12" s="46">
         <f t="shared" ca="1" si="3"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I12" s="46">
         <f t="shared" ca="1" si="3"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J12" s="46">
         <f t="shared" ca="1" si="3"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K12" s="46">
         <f t="shared" ca="1" si="3"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L12" s="46">
         <f t="shared" ca="1" si="3"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M12" s="46">
         <f t="shared" ca="1" si="3"/>
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13" spans="2:14" x14ac:dyDescent="0.3">
@@ -43345,43 +47597,43 @@
       <c r="C13" s="47"/>
       <c r="D13" s="46">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E13" s="46">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F13" s="46">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G13" s="46">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H13" s="46">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I13" s="46">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J13" s="46">
         <f t="shared" ca="1" si="3"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K13" s="46">
         <f t="shared" ca="1" si="3"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L13" s="46">
         <f t="shared" ca="1" si="3"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M13" s="46">
         <f t="shared" ca="1" si="3"/>
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="2:14" x14ac:dyDescent="0.3">
@@ -43404,7 +47656,7 @@
       </c>
       <c r="G16" s="49" cm="1">
         <f t="array" aca="1" ref="G16" ca="1">INDIRECT(ADDRESS(E16+3,D16+3,1))</f>
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="17" spans="4:7" ht="8.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -43420,7 +47672,7 @@
       <c r="F18" s="46"/>
       <c r="G18" s="50" cm="1">
         <f t="array" aca="1" ref="G18" ca="1">INDIRECT(ADDRESS(E18+3,D18+3,1))</f>
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="4:7" ht="15.6" x14ac:dyDescent="0.3">
@@ -43433,7 +47685,7 @@
       <c r="F19" s="46"/>
       <c r="G19" s="50" cm="1">
         <f t="array" aca="1" ref="G19" ca="1">INDIRECT(ADDRESS(E19+3,D19+3,1))</f>
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="20" spans="4:7" ht="15.6" x14ac:dyDescent="0.3">
@@ -43446,7 +47698,7 @@
       <c r="F20" s="46"/>
       <c r="G20" s="50" cm="1">
         <f t="array" aca="1" ref="G20" ca="1">INDIRECT(ADDRESS(E20+3,D20+3,1))</f>
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="21" spans="4:7" ht="15.6" x14ac:dyDescent="0.3">
@@ -43459,7 +47711,7 @@
       <c r="F21" s="46"/>
       <c r="G21" s="50" cm="1">
         <f t="array" aca="1" ref="G21" ca="1">INDIRECT(ADDRESS(E21+3,D21+3,1))</f>
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="22" spans="4:7" ht="15.6" x14ac:dyDescent="0.3">
@@ -43472,7 +47724,7 @@
       <c r="F22" s="46"/>
       <c r="G22" s="50" cm="1">
         <f t="array" aca="1" ref="G22" ca="1">INDIRECT(ADDRESS(E22+3,D22+3,1))</f>
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="23" spans="4:7" ht="15.6" x14ac:dyDescent="0.3">
@@ -43485,7 +47737,7 @@
       <c r="F23" s="46"/>
       <c r="G23" s="50" cm="1">
         <f t="array" aca="1" ref="G23" ca="1">INDIRECT(ADDRESS(E23+3,D23+3,1))</f>
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -43518,980 +47770,4 @@
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{106E20E3-13A3-48B6-A2CF-7D28B3262DEC}">
-  <dimension ref="A1:L62"/>
-  <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="13.77734375" style="8" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.6640625" style="6" customWidth="1"/>
-    <col min="3" max="3" width="67" style="176" customWidth="1"/>
-    <col min="4" max="4" width="55.21875" style="176" customWidth="1"/>
-    <col min="5" max="16384" width="8.88671875" style="8"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A1" s="8" t="s">
-        <v>517</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="C1" s="176" t="s">
-        <v>518</v>
-      </c>
-      <c r="D1" s="176" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A2" s="182" t="s">
-        <v>319</v>
-      </c>
-      <c r="B2" s="183">
-        <v>1</v>
-      </c>
-      <c r="C2" s="181" t="s">
-        <v>520</v>
-      </c>
-      <c r="D2" s="181" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A3" s="182" t="s">
-        <v>319</v>
-      </c>
-      <c r="B3" s="183">
-        <v>2</v>
-      </c>
-      <c r="C3" s="181" t="s">
-        <v>522</v>
-      </c>
-      <c r="D3" s="181" t="s">
-        <v>523</v>
-      </c>
-      <c r="E3" s="152"/>
-      <c r="F3" s="152"/>
-      <c r="G3" s="152"/>
-      <c r="H3" s="152"/>
-      <c r="I3" s="152"/>
-      <c r="J3" s="152"/>
-      <c r="K3" s="152"/>
-      <c r="L3" s="152"/>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A4" s="182" t="s">
-        <v>319</v>
-      </c>
-      <c r="B4" s="183">
-        <v>3</v>
-      </c>
-      <c r="C4" s="181" t="s">
-        <v>524</v>
-      </c>
-      <c r="D4" s="181" t="s">
-        <v>525</v>
-      </c>
-      <c r="E4" s="152"/>
-      <c r="F4" s="152"/>
-      <c r="G4" s="152"/>
-      <c r="H4" s="152"/>
-      <c r="I4" s="152"/>
-      <c r="J4" s="152"/>
-      <c r="K4" s="152"/>
-      <c r="L4" s="152"/>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A5" s="182" t="s">
-        <v>514</v>
-      </c>
-      <c r="B5" s="183">
-        <v>1</v>
-      </c>
-      <c r="C5" s="181" t="s">
-        <v>526</v>
-      </c>
-      <c r="D5" s="181" t="s">
-        <v>527</v>
-      </c>
-      <c r="E5" s="152"/>
-      <c r="F5" s="152"/>
-      <c r="G5" s="152"/>
-      <c r="H5" s="152"/>
-      <c r="I5" s="152"/>
-      <c r="J5" s="152"/>
-      <c r="K5" s="152"/>
-      <c r="L5" s="152"/>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A6" s="182" t="s">
-        <v>514</v>
-      </c>
-      <c r="B6" s="183">
-        <v>2</v>
-      </c>
-      <c r="C6" s="181" t="s">
-        <v>528</v>
-      </c>
-      <c r="D6" s="181" t="s">
-        <v>529</v>
-      </c>
-      <c r="E6" s="79"/>
-      <c r="F6" s="79"/>
-      <c r="G6" s="79"/>
-      <c r="H6" s="79"/>
-      <c r="I6" s="79"/>
-      <c r="J6" s="79"/>
-      <c r="K6" s="79"/>
-      <c r="L6" s="79"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A7" s="182" t="s">
-        <v>514</v>
-      </c>
-      <c r="B7" s="183">
-        <v>3</v>
-      </c>
-      <c r="C7" s="181" t="s">
-        <v>530</v>
-      </c>
-      <c r="D7" s="181" t="s">
-        <v>531</v>
-      </c>
-      <c r="E7" s="79"/>
-      <c r="F7" s="79"/>
-      <c r="G7" s="79"/>
-      <c r="H7" s="79"/>
-      <c r="I7" s="79"/>
-      <c r="J7" s="79"/>
-      <c r="K7" s="79"/>
-      <c r="L7" s="79"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A8" s="182" t="s">
-        <v>328</v>
-      </c>
-      <c r="B8" s="183">
-        <v>1</v>
-      </c>
-      <c r="C8" s="181" t="s">
-        <v>532</v>
-      </c>
-      <c r="D8" s="181" t="s">
-        <v>533</v>
-      </c>
-      <c r="E8" s="79"/>
-      <c r="F8" s="79"/>
-      <c r="G8" s="79"/>
-      <c r="H8" s="79"/>
-      <c r="I8" s="79"/>
-      <c r="J8" s="79"/>
-      <c r="K8" s="79"/>
-      <c r="L8" s="79"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A9" s="182" t="s">
-        <v>328</v>
-      </c>
-      <c r="B9" s="183">
-        <v>2</v>
-      </c>
-      <c r="C9" s="181" t="s">
-        <v>534</v>
-      </c>
-      <c r="D9" s="181" t="s">
-        <v>535</v>
-      </c>
-      <c r="E9" s="79"/>
-      <c r="F9" s="79"/>
-      <c r="G9" s="79"/>
-      <c r="H9" s="79"/>
-      <c r="I9" s="79"/>
-      <c r="J9" s="79"/>
-      <c r="K9" s="79"/>
-      <c r="L9" s="79"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A10" s="182" t="s">
-        <v>328</v>
-      </c>
-      <c r="B10" s="183">
-        <v>3</v>
-      </c>
-      <c r="C10" s="181" t="s">
-        <v>536</v>
-      </c>
-      <c r="D10" s="181" t="s">
-        <v>537</v>
-      </c>
-      <c r="E10" s="79"/>
-      <c r="F10" s="79"/>
-      <c r="G10" s="79"/>
-      <c r="H10" s="79"/>
-      <c r="I10" s="79"/>
-      <c r="J10" s="79"/>
-      <c r="K10" s="79"/>
-      <c r="L10" s="79"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A11" s="182" t="s">
-        <v>538</v>
-      </c>
-      <c r="B11" s="183">
-        <v>1</v>
-      </c>
-      <c r="C11" s="181" t="s">
-        <v>539</v>
-      </c>
-      <c r="D11" s="181" t="s">
-        <v>540</v>
-      </c>
-      <c r="E11" s="79"/>
-      <c r="F11" s="79"/>
-      <c r="G11" s="79"/>
-      <c r="H11" s="79"/>
-      <c r="I11" s="79"/>
-      <c r="J11" s="79"/>
-      <c r="K11" s="79"/>
-      <c r="L11" s="79"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A12" s="182" t="s">
-        <v>538</v>
-      </c>
-      <c r="B12" s="183">
-        <v>2</v>
-      </c>
-      <c r="C12" s="181" t="s">
-        <v>541</v>
-      </c>
-      <c r="D12" s="181" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A13" s="182" t="s">
-        <v>538</v>
-      </c>
-      <c r="B13" s="183">
-        <v>3</v>
-      </c>
-      <c r="C13" s="181" t="s">
-        <v>543</v>
-      </c>
-      <c r="D13" s="181" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A14" s="182" t="s">
-        <v>317</v>
-      </c>
-      <c r="B14" s="183">
-        <v>1</v>
-      </c>
-      <c r="C14" s="181" t="s">
-        <v>545</v>
-      </c>
-      <c r="D14" s="181" t="s">
-        <v>546</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A15" s="182" t="s">
-        <v>317</v>
-      </c>
-      <c r="B15" s="183">
-        <v>2</v>
-      </c>
-      <c r="C15" s="181" t="s">
-        <v>547</v>
-      </c>
-      <c r="D15" s="181" t="s">
-        <v>548</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A16" s="182" t="s">
-        <v>317</v>
-      </c>
-      <c r="B16" s="183">
-        <v>3</v>
-      </c>
-      <c r="C16" s="181" t="s">
-        <v>549</v>
-      </c>
-      <c r="D16" s="181" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" s="182" t="s">
-        <v>327</v>
-      </c>
-      <c r="B17" s="183">
-        <v>1</v>
-      </c>
-      <c r="C17" s="181" t="s">
-        <v>551</v>
-      </c>
-      <c r="D17" s="181" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" s="182" t="s">
-        <v>327</v>
-      </c>
-      <c r="B18" s="183">
-        <v>2</v>
-      </c>
-      <c r="C18" s="181" t="s">
-        <v>553</v>
-      </c>
-      <c r="D18" s="181" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" s="182" t="s">
-        <v>327</v>
-      </c>
-      <c r="B19" s="183">
-        <v>3</v>
-      </c>
-      <c r="C19" s="181" t="s">
-        <v>555</v>
-      </c>
-      <c r="D19" s="181" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20" s="182" t="s">
-        <v>130</v>
-      </c>
-      <c r="B20" s="183">
-        <v>1</v>
-      </c>
-      <c r="C20" s="181" t="s">
-        <v>557</v>
-      </c>
-      <c r="D20" s="181" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21" s="182" t="s">
-        <v>130</v>
-      </c>
-      <c r="B21" s="183">
-        <v>2</v>
-      </c>
-      <c r="C21" s="181" t="s">
-        <v>559</v>
-      </c>
-      <c r="D21" s="181" t="s">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22" s="182" t="s">
-        <v>130</v>
-      </c>
-      <c r="B22" s="183">
-        <v>3</v>
-      </c>
-      <c r="C22" s="181" t="s">
-        <v>561</v>
-      </c>
-      <c r="D22" s="181" t="s">
-        <v>562</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A23" s="182" t="s">
-        <v>316</v>
-      </c>
-      <c r="B23" s="183">
-        <v>1</v>
-      </c>
-      <c r="C23" s="181" t="s">
-        <v>563</v>
-      </c>
-      <c r="D23" s="181" t="s">
-        <v>564</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A24" s="182" t="s">
-        <v>316</v>
-      </c>
-      <c r="B24" s="183">
-        <v>2</v>
-      </c>
-      <c r="C24" s="181" t="s">
-        <v>565</v>
-      </c>
-      <c r="D24" s="181" t="s">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A25" s="182" t="s">
-        <v>316</v>
-      </c>
-      <c r="B25" s="183">
-        <v>3</v>
-      </c>
-      <c r="C25" s="181" t="s">
-        <v>567</v>
-      </c>
-      <c r="D25" s="181" t="s">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A26" s="182" t="s">
-        <v>129</v>
-      </c>
-      <c r="B26" s="183">
-        <v>1</v>
-      </c>
-      <c r="C26" s="181" t="s">
-        <v>569</v>
-      </c>
-      <c r="D26" s="181" t="s">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A27" s="182" t="s">
-        <v>129</v>
-      </c>
-      <c r="B27" s="183">
-        <v>2</v>
-      </c>
-      <c r="C27" s="181" t="s">
-        <v>571</v>
-      </c>
-      <c r="D27" s="181" t="s">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A28" s="182" t="s">
-        <v>129</v>
-      </c>
-      <c r="B28" s="183">
-        <v>3</v>
-      </c>
-      <c r="C28" s="181" t="s">
-        <v>573</v>
-      </c>
-      <c r="D28" s="181" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A29" s="182" t="s">
-        <v>322</v>
-      </c>
-      <c r="B29" s="183">
-        <v>1</v>
-      </c>
-      <c r="C29" s="181" t="s">
-        <v>575</v>
-      </c>
-      <c r="D29" s="181" t="s">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A30" s="182" t="s">
-        <v>322</v>
-      </c>
-      <c r="B30" s="183">
-        <v>2</v>
-      </c>
-      <c r="C30" s="181" t="s">
-        <v>577</v>
-      </c>
-      <c r="D30" s="181" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A31" s="182" t="s">
-        <v>322</v>
-      </c>
-      <c r="B31" s="183">
-        <v>3</v>
-      </c>
-      <c r="C31" s="181" t="s">
-        <v>579</v>
-      </c>
-      <c r="D31" s="181" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A32" s="182" t="s">
-        <v>321</v>
-      </c>
-      <c r="B32" s="183">
-        <v>1</v>
-      </c>
-      <c r="C32" s="181" t="s">
-        <v>581</v>
-      </c>
-      <c r="D32" s="181" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A33" s="182" t="s">
-        <v>321</v>
-      </c>
-      <c r="B33" s="183">
-        <v>2</v>
-      </c>
-      <c r="C33" s="181" t="s">
-        <v>583</v>
-      </c>
-      <c r="D33" s="181" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A34" s="182" t="s">
-        <v>321</v>
-      </c>
-      <c r="B34" s="183">
-        <v>3</v>
-      </c>
-      <c r="C34" s="181" t="s">
-        <v>585</v>
-      </c>
-      <c r="D34" s="181" t="s">
-        <v>586</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A35" s="182" t="s">
-        <v>325</v>
-      </c>
-      <c r="B35" s="183">
-        <v>1</v>
-      </c>
-      <c r="C35" s="181" t="s">
-        <v>587</v>
-      </c>
-      <c r="D35" s="181" t="s">
-        <v>588</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A36" s="182" t="s">
-        <v>325</v>
-      </c>
-      <c r="B36" s="183">
-        <v>2</v>
-      </c>
-      <c r="C36" s="181" t="s">
-        <v>589</v>
-      </c>
-      <c r="D36" s="181" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A37" s="182" t="s">
-        <v>325</v>
-      </c>
-      <c r="B37" s="183">
-        <v>3</v>
-      </c>
-      <c r="C37" s="181" t="s">
-        <v>591</v>
-      </c>
-      <c r="D37" s="181" t="s">
-        <v>592</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A38" s="182" t="s">
-        <v>593</v>
-      </c>
-      <c r="B38" s="183">
-        <v>1</v>
-      </c>
-      <c r="C38" s="181" t="s">
-        <v>594</v>
-      </c>
-      <c r="D38" s="181" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A39" s="182" t="s">
-        <v>593</v>
-      </c>
-      <c r="B39" s="183">
-        <v>2</v>
-      </c>
-      <c r="C39" s="181" t="s">
-        <v>596</v>
-      </c>
-      <c r="D39" s="181" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A40" s="182" t="s">
-        <v>593</v>
-      </c>
-      <c r="B40" s="183">
-        <v>3</v>
-      </c>
-      <c r="C40" s="181" t="s">
-        <v>598</v>
-      </c>
-      <c r="D40" s="181" t="s">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A41" s="182" t="s">
-        <v>330</v>
-      </c>
-      <c r="B41" s="183">
-        <v>1</v>
-      </c>
-      <c r="C41" s="181" t="s">
-        <v>600</v>
-      </c>
-      <c r="D41" s="181" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A42" s="182" t="s">
-        <v>330</v>
-      </c>
-      <c r="B42" s="183">
-        <v>2</v>
-      </c>
-      <c r="C42" s="181" t="s">
-        <v>602</v>
-      </c>
-      <c r="D42" s="181" t="s">
-        <v>603</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A43" s="182" t="s">
-        <v>330</v>
-      </c>
-      <c r="B43" s="183">
-        <v>3</v>
-      </c>
-      <c r="C43" s="181" t="s">
-        <v>604</v>
-      </c>
-      <c r="D43" s="181" t="s">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A44" s="182" t="s">
-        <v>324</v>
-      </c>
-      <c r="B44" s="183">
-        <v>1</v>
-      </c>
-      <c r="C44" s="181" t="s">
-        <v>606</v>
-      </c>
-      <c r="D44" s="181" t="s">
-        <v>607</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A45" s="182" t="s">
-        <v>324</v>
-      </c>
-      <c r="B45" s="183">
-        <v>2</v>
-      </c>
-      <c r="C45" s="181" t="s">
-        <v>608</v>
-      </c>
-      <c r="D45" s="181" t="s">
-        <v>609</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A46" s="182" t="s">
-        <v>324</v>
-      </c>
-      <c r="B46" s="183">
-        <v>3</v>
-      </c>
-      <c r="C46" s="181" t="s">
-        <v>610</v>
-      </c>
-      <c r="D46" s="181" t="s">
-        <v>611</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A47" s="182" t="s">
-        <v>326</v>
-      </c>
-      <c r="B47" s="183">
-        <v>1</v>
-      </c>
-      <c r="C47" s="181" t="s">
-        <v>612</v>
-      </c>
-      <c r="D47" s="181" t="s">
-        <v>613</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A48" s="182" t="s">
-        <v>326</v>
-      </c>
-      <c r="B48" s="183">
-        <v>2</v>
-      </c>
-      <c r="C48" s="181" t="s">
-        <v>614</v>
-      </c>
-      <c r="D48" s="181" t="s">
-        <v>615</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A49" s="182" t="s">
-        <v>326</v>
-      </c>
-      <c r="B49" s="183">
-        <v>3</v>
-      </c>
-      <c r="C49" s="181" t="s">
-        <v>616</v>
-      </c>
-      <c r="D49" s="181" t="s">
-        <v>617</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A50" s="177" t="s">
-        <v>517</v>
-      </c>
-      <c r="B50" s="178" t="s">
-        <v>73</v>
-      </c>
-      <c r="C50" s="177" t="s">
-        <v>618</v>
-      </c>
-      <c r="D50" s="177" t="s">
-        <v>518</v>
-      </c>
-      <c r="E50"/>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A51" s="179" t="s">
-        <v>321</v>
-      </c>
-      <c r="B51" s="180">
-        <v>1</v>
-      </c>
-      <c r="C51" s="181" t="s">
-        <v>631</v>
-      </c>
-      <c r="D51" s="179" t="s">
-        <v>619</v>
-      </c>
-      <c r="E51"/>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A52" s="179" t="s">
-        <v>321</v>
-      </c>
-      <c r="B52" s="180">
-        <v>1</v>
-      </c>
-      <c r="C52" s="181" t="s">
-        <v>632</v>
-      </c>
-      <c r="D52" s="179" t="s">
-        <v>620</v>
-      </c>
-      <c r="E52"/>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A53" s="179" t="s">
-        <v>321</v>
-      </c>
-      <c r="B53" s="180">
-        <v>2</v>
-      </c>
-      <c r="C53" s="181" t="s">
-        <v>633</v>
-      </c>
-      <c r="D53" s="179" t="s">
-        <v>621</v>
-      </c>
-      <c r="E53"/>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A54" s="179" t="s">
-        <v>321</v>
-      </c>
-      <c r="B54" s="180">
-        <v>2</v>
-      </c>
-      <c r="C54" s="181" t="s">
-        <v>634</v>
-      </c>
-      <c r="D54" s="179" t="s">
-        <v>622</v>
-      </c>
-      <c r="E54"/>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A55" s="179" t="s">
-        <v>321</v>
-      </c>
-      <c r="B55" s="180">
-        <v>3</v>
-      </c>
-      <c r="C55" s="181" t="s">
-        <v>635</v>
-      </c>
-      <c r="D55" s="179" t="s">
-        <v>623</v>
-      </c>
-      <c r="E55"/>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A56" s="179" t="s">
-        <v>321</v>
-      </c>
-      <c r="B56" s="180">
-        <v>3</v>
-      </c>
-      <c r="C56" s="181" t="s">
-        <v>636</v>
-      </c>
-      <c r="D56" s="179" t="s">
-        <v>624</v>
-      </c>
-      <c r="E56"/>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A57" s="179" t="s">
-        <v>322</v>
-      </c>
-      <c r="B57" s="180">
-        <v>1</v>
-      </c>
-      <c r="C57" s="181" t="s">
-        <v>637</v>
-      </c>
-      <c r="D57" s="179" t="s">
-        <v>625</v>
-      </c>
-      <c r="E57"/>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A58" s="179" t="s">
-        <v>322</v>
-      </c>
-      <c r="B58" s="180">
-        <v>1</v>
-      </c>
-      <c r="C58" s="181" t="s">
-        <v>638</v>
-      </c>
-      <c r="D58" s="179" t="s">
-        <v>626</v>
-      </c>
-      <c r="E58"/>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A59" s="179" t="s">
-        <v>322</v>
-      </c>
-      <c r="B59" s="180">
-        <v>2</v>
-      </c>
-      <c r="C59" s="181" t="s">
-        <v>639</v>
-      </c>
-      <c r="D59" s="179" t="s">
-        <v>627</v>
-      </c>
-      <c r="E59"/>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A60" s="179" t="s">
-        <v>322</v>
-      </c>
-      <c r="B60" s="180">
-        <v>2</v>
-      </c>
-      <c r="C60" s="181" t="s">
-        <v>640</v>
-      </c>
-      <c r="D60" s="179" t="s">
-        <v>628</v>
-      </c>
-      <c r="E60"/>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A61" s="179" t="s">
-        <v>322</v>
-      </c>
-      <c r="B61" s="180">
-        <v>3</v>
-      </c>
-      <c r="C61" s="181" t="s">
-        <v>641</v>
-      </c>
-      <c r="D61" s="179" t="s">
-        <v>629</v>
-      </c>
-      <c r="E61"/>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A62" s="179" t="s">
-        <v>322</v>
-      </c>
-      <c r="B62" s="180">
-        <v>3</v>
-      </c>
-      <c r="C62" s="181" t="s">
-        <v>642</v>
-      </c>
-      <c r="D62" s="179" t="s">
-        <v>630</v>
-      </c>
-      <c r="E62"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
-</worksheet>
 </file>
--- a/Strumenti.xlsx
+++ b/Strumenti.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Public\_Clienti\Maruga\Giochi\Vampiri\Vault\Vampiri\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67213EF4-675F-4501-B548-99738C61F3AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2BC718F-41FF-48E2-AED7-59F2A00D0C87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25452" yWindow="0" windowWidth="29148" windowHeight="16656" activeTab="1" xr2:uid="{3C69CAEB-EF54-41D7-B74D-5F784B8051C2}"/>
+    <workbookView xWindow="25452" yWindow="0" windowWidth="29148" windowHeight="16656" xr2:uid="{3C69CAEB-EF54-41D7-B74D-5F784B8051C2}"/>
   </bookViews>
   <sheets>
     <sheet name="_Ventrue" sheetId="18" r:id="rId1"/>
@@ -75,7 +75,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3073" uniqueCount="1260">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3040" uniqueCount="1271">
   <si>
     <t>Nome</t>
   </si>
@@ -3907,6 +3907,40 @@
   </si>
   <si>
     <t>Un gesto, una parola, uno sguardo bastano per aprire le porte.</t>
+  </si>
+  <si>
+    <t>Dipingere</t>
+  </si>
+  <si>
+    <t>Dominare</t>
+  </si>
+  <si>
+    <t>Carisma + Intimidazione,  Dif. uguale alla Forza di Volontà bersaglio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ordine monosillabico (“Fermati!”, “Dormi!”, “Via!”) il bersaglio esegue
+</t>
+  </si>
+  <si>
+    <t>Arte dell’Epoca Romantica</t>
+  </si>
+  <si>
+    <t>Menzogne Impeccabili</t>
+  </si>
+  <si>
+    <t>Non devi giustificare spese ordinarie e puoi sostenere operazioni notevoli, decine di migliaia di euro disponibili con facilità</t>
+  </si>
+  <si>
+    <t>Frequentatore dell’Elysium</t>
+  </si>
+  <si>
+    <t>Questo ti permette di ottenere informazioni, mantenere una buona reputazione e osservare le dinamiche della Jyhad da vicino.</t>
+  </si>
+  <si>
+    <t>Preferenza di Vitae Insolita</t>
+  </si>
+  <si>
+    <t>Può nutrirsi solo da artisti; maggiore è la fama, maggiore l’efficacia. Dai non-artisti ottiene solo metà dei punti sangue.</t>
   </si>
 </sst>
 </file>
@@ -22344,8 +22378,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80F8F40E-FA57-4F3C-B9C3-6981E5263578}">
   <dimension ref="A1:L225"/>
   <sheetViews>
-    <sheetView zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+      <selection activeCell="N32" sqref="N32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
@@ -22572,7 +22606,7 @@
       </c>
       <c r="B16" s="80"/>
       <c r="D16" s="163">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E16" s="154" t="s">
         <v>438</v>
@@ -22586,10 +22620,10 @@
         <v>31</v>
       </c>
       <c r="J16" s="111" t="s">
-        <v>1018</v>
+        <v>1264</v>
       </c>
       <c r="L16" s="163">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.3">
@@ -22598,7 +22632,7 @@
       </c>
       <c r="B17" s="80"/>
       <c r="D17" s="163">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E17" s="154" t="s">
         <v>33</v>
@@ -22606,14 +22640,14 @@
       <c r="F17" s="80"/>
       <c r="G17" s="54"/>
       <c r="H17" s="163">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I17" s="154" t="s">
         <v>34</v>
       </c>
       <c r="J17" s="80"/>
       <c r="L17" s="163">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.3">
@@ -22622,7 +22656,7 @@
       </c>
       <c r="B18" s="80"/>
       <c r="D18" s="163">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E18" s="154" t="s">
         <v>437</v>
@@ -22630,7 +22664,7 @@
       <c r="F18" s="80"/>
       <c r="G18" s="54"/>
       <c r="H18" s="163">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I18" s="154" t="s">
         <v>36</v>
@@ -22661,7 +22695,7 @@
       </c>
       <c r="J19" s="80"/>
       <c r="L19" s="163">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.3">
@@ -22670,7 +22704,7 @@
       </c>
       <c r="B20" s="80"/>
       <c r="D20" s="163">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E20" s="154" t="s">
         <v>39</v>
@@ -22718,15 +22752,17 @@
       </c>
       <c r="B22" s="80"/>
       <c r="D22" s="163">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E22" s="154" t="s">
         <v>41</v>
       </c>
-      <c r="F22" s="80"/>
+      <c r="F22" s="80" t="s">
+        <v>1260</v>
+      </c>
       <c r="G22" s="54"/>
       <c r="H22" s="163">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I22" s="154" t="s">
         <v>48</v>
@@ -22766,7 +22802,7 @@
       </c>
       <c r="B24" s="80"/>
       <c r="D24" s="163">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E24" s="154" t="s">
         <v>43</v>
@@ -22788,9 +22824,11 @@
       <c r="A25" s="154" t="s">
         <v>29</v>
       </c>
-      <c r="B25" s="80"/>
+      <c r="B25" s="80" t="s">
+        <v>1265</v>
+      </c>
       <c r="D25" s="163">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E25" s="154" t="s">
         <v>44</v>
@@ -22798,7 +22836,7 @@
       <c r="F25" s="80"/>
       <c r="G25" s="54"/>
       <c r="H25" s="163">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I25" s="154" t="s">
         <v>51</v>
@@ -22847,7 +22885,7 @@
         <v>58</v>
       </c>
       <c r="J29" s="167">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K29" s="162" t="s">
         <v>465</v>
@@ -22856,13 +22894,13 @@
     </row>
     <row r="30" spans="1:12" s="73" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A30" s="57" t="s">
-        <v>512</v>
+        <v>1261</v>
       </c>
       <c r="B30" s="54">
         <v>1</v>
       </c>
       <c r="C30" s="80" t="s">
-        <v>1041</v>
+        <v>1263</v>
       </c>
       <c r="D30" s="57"/>
       <c r="E30" s="57"/>
@@ -22881,20 +22919,15 @@
       <c r="L30" s="54"/>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A31" s="57" t="s">
-        <v>328</v>
-      </c>
-      <c r="B31" s="54">
-        <v>1</v>
-      </c>
+      <c r="B31" s="54"/>
       <c r="C31" s="80" t="s">
-        <v>440</v>
+        <v>1262</v>
       </c>
       <c r="H31" s="166" t="s">
         <v>59</v>
       </c>
       <c r="J31" s="167">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K31" s="55" t="s">
         <v>479</v>
@@ -22934,7 +22967,7 @@
       </c>
       <c r="J33" s="167">
         <f>J29+J30</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="K33" s="162" t="s">
         <v>464</v>
@@ -23238,13 +23271,13 @@
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A52" s="165" t="s">
-        <v>746</v>
+        <v>102</v>
       </c>
       <c r="C52" s="54">
         <v>2</v>
       </c>
       <c r="D52" s="80" t="s">
-        <v>1032</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.3">
@@ -23260,50 +23293,30 @@
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A54" s="165" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C54" s="54">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D54" s="80" t="s">
-        <v>1034</v>
+        <v>1266</v>
       </c>
       <c r="E54" s="155"/>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A55" s="165" t="s">
-        <v>5</v>
-      </c>
-      <c r="C55" s="54">
-        <v>1</v>
-      </c>
-      <c r="D55" s="80" t="s">
-        <v>1035</v>
-      </c>
+      <c r="A55" s="165"/>
+      <c r="C55" s="54"/>
+      <c r="D55" s="80"/>
       <c r="E55" s="155"/>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A56" s="165" t="s">
-        <v>101</v>
-      </c>
-      <c r="C56" s="54">
-        <v>1</v>
-      </c>
-      <c r="D56" s="80" t="s">
-        <v>1038</v>
-      </c>
+      <c r="A56" s="165"/>
+      <c r="C56" s="54"/>
+      <c r="D56" s="80"/>
       <c r="E56" s="155"/>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A57" s="165" t="s">
-        <v>98</v>
-      </c>
-      <c r="C57" s="54">
-        <v>2</v>
-      </c>
-      <c r="D57" s="80" t="s">
-        <v>1037</v>
-      </c>
+      <c r="D57" s="80"/>
       <c r="E57" s="155"/>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.3">
@@ -23355,65 +23368,70 @@
       </c>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A63" s="165" t="s">
-        <v>1022</v>
+      <c r="A63" s="155" t="s">
+        <v>1267</v>
       </c>
       <c r="C63" s="54">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D63" s="80" t="s">
-        <v>1026</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A64" s="63"/>
+      <c r="A64" s="165" t="s">
+        <v>1020</v>
+      </c>
+      <c r="C64" s="54">
+        <v>1</v>
+      </c>
       <c r="D64" s="80" t="s">
-        <v>1029</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A65" s="165" t="s">
-        <v>1020</v>
+      <c r="A65" s="155" t="s">
+        <v>1269</v>
       </c>
       <c r="C65" s="54">
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="D65" s="80" t="s">
-        <v>1027</v>
+        <v>1270</v>
       </c>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A66" s="165" t="s">
-        <v>1023</v>
-      </c>
-      <c r="C66" s="54">
-        <v>-3</v>
-      </c>
-      <c r="D66" s="80" t="s">
-        <v>1030</v>
-      </c>
+      <c r="A66" s="165"/>
+      <c r="C66" s="54"/>
+      <c r="D66" s="80"/>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A67" s="165" t="s">
-        <v>1021</v>
-      </c>
-      <c r="C67" s="54">
-        <v>-2</v>
-      </c>
-      <c r="D67" s="80" t="s">
-        <v>1031</v>
-      </c>
+      <c r="A67" s="241"/>
+      <c r="B67" s="66"/>
+      <c r="C67" s="69"/>
+      <c r="D67" s="82"/>
+      <c r="E67" s="66"/>
+      <c r="F67" s="66"/>
+      <c r="G67" s="66"/>
+      <c r="H67" s="66"/>
+      <c r="I67" s="66"/>
+      <c r="J67" s="66"/>
+      <c r="K67" s="69"/>
+      <c r="L67" s="66"/>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A68" s="165" t="s">
-        <v>1024</v>
-      </c>
-      <c r="C68" s="54">
-        <v>-1</v>
-      </c>
-      <c r="D68" s="80" t="s">
-        <v>1025</v>
-      </c>
+      <c r="A68" s="241"/>
+      <c r="B68" s="66"/>
+      <c r="C68" s="69"/>
+      <c r="D68" s="82"/>
+      <c r="E68" s="66"/>
+      <c r="F68" s="66"/>
+      <c r="G68" s="66"/>
+      <c r="H68" s="66"/>
+      <c r="I68" s="66"/>
+      <c r="J68" s="66"/>
+      <c r="K68" s="69"/>
+      <c r="L68" s="66"/>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A70" s="66"/>
@@ -23447,25 +23465,19 @@
       <c r="A73" s="57" t="s">
         <v>105</v>
       </c>
-      <c r="C73" s="63" t="s">
-        <v>1046</v>
-      </c>
+      <c r="C73" s="63"/>
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A74" s="57" t="s">
         <v>106</v>
       </c>
-      <c r="C74" s="63" t="s">
-        <v>1053</v>
-      </c>
+      <c r="C74" s="63"/>
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A75" s="57" t="s">
         <v>98</v>
       </c>
-      <c r="C75" s="63" t="s">
-        <v>1054</v>
-      </c>
+      <c r="C75" s="63"/>
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A76" s="57" t="s">
@@ -23494,16 +23506,9 @@
       </c>
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A79" s="80" t="s">
-        <v>1039</v>
-      </c>
+      <c r="A79" s="80"/>
       <c r="B79" s="80"/>
-      <c r="C79" s="80" t="s">
-        <v>1052</v>
-      </c>
-      <c r="E79" s="57" t="s">
-        <v>1055</v>
-      </c>
+      <c r="C79" s="80"/>
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A80" s="81"/>
@@ -23547,15 +23552,11 @@
       <c r="A84" s="80" t="s">
         <v>113</v>
       </c>
-      <c r="C84" s="212">
-        <v>29</v>
-      </c>
+      <c r="C84" s="212"/>
       <c r="E84" s="80" t="s">
         <v>118</v>
       </c>
-      <c r="G84" s="212" t="s">
-        <v>1072</v>
-      </c>
+      <c r="G84" s="212"/>
       <c r="I84" s="57" t="s">
         <v>0</v>
       </c>
@@ -23568,16 +23569,12 @@
         <v>112</v>
       </c>
       <c r="B85" s="66"/>
-      <c r="C85" s="211">
-        <v>0</v>
-      </c>
+      <c r="C85" s="211"/>
       <c r="E85" s="80" t="s">
         <v>119</v>
       </c>
       <c r="F85" s="66"/>
-      <c r="G85" s="211" t="s">
-        <v>392</v>
-      </c>
+      <c r="G85" s="211"/>
       <c r="I85" s="66"/>
       <c r="J85" s="66"/>
       <c r="K85" s="66"/>
@@ -23587,15 +23584,11 @@
       <c r="A86" s="80" t="s">
         <v>114</v>
       </c>
-      <c r="C86" s="235">
-        <v>36047</v>
-      </c>
+      <c r="C86" s="235"/>
       <c r="E86" s="80" t="s">
         <v>120</v>
       </c>
-      <c r="G86" s="212" t="s">
-        <v>1047</v>
-      </c>
+      <c r="G86" s="212"/>
       <c r="I86" s="85"/>
       <c r="J86" s="85"/>
       <c r="K86" s="85"/>
@@ -23606,16 +23599,12 @@
         <v>115</v>
       </c>
       <c r="B87" s="66"/>
-      <c r="C87" s="213">
-        <v>45943</v>
-      </c>
+      <c r="C87" s="213"/>
       <c r="E87" s="80" t="s">
         <v>121</v>
       </c>
       <c r="F87" s="66"/>
-      <c r="G87" s="211" t="s">
-        <v>1048</v>
-      </c>
+      <c r="G87" s="211"/>
       <c r="I87" s="66"/>
       <c r="J87" s="66"/>
       <c r="K87" s="66"/>
@@ -23625,15 +23614,11 @@
       <c r="A88" s="80" t="s">
         <v>116</v>
       </c>
-      <c r="C88" s="212" t="s">
-        <v>1049</v>
-      </c>
+      <c r="C88" s="212"/>
       <c r="E88" s="80" t="s">
         <v>122</v>
       </c>
-      <c r="G88" s="212" t="s">
-        <v>394</v>
-      </c>
+      <c r="G88" s="212"/>
       <c r="K88" s="57"/>
       <c r="L88" s="54"/>
     </row>
@@ -23642,9 +23627,7 @@
         <v>117</v>
       </c>
       <c r="B89" s="66"/>
-      <c r="C89" s="211" t="s">
-        <v>1050</v>
-      </c>
+      <c r="C89" s="211"/>
       <c r="E89" s="80"/>
       <c r="F89" s="66"/>
       <c r="G89" s="211"/>
@@ -23665,9 +23648,7 @@
       </c>
     </row>
     <row r="93" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A93" s="216" t="s">
-        <v>1045</v>
-      </c>
+      <c r="A93" s="216"/>
       <c r="B93" s="216"/>
       <c r="C93" s="216"/>
       <c r="D93" s="216"/>
@@ -23728,9 +23709,7 @@
       </c>
     </row>
     <row r="98" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A98" s="216" t="s">
-        <v>1051</v>
-      </c>
+      <c r="A98" s="216"/>
       <c r="B98" s="216"/>
       <c r="C98" s="216"/>
       <c r="D98" s="216"/>
@@ -23813,19 +23792,11 @@
       <c r="L103" s="233"/>
     </row>
     <row r="104" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A104" s="240" t="s">
-        <v>1067</v>
-      </c>
+      <c r="A104" s="240"/>
       <c r="B104" s="233"/>
-      <c r="C104" s="245" t="s">
-        <v>131</v>
-      </c>
-      <c r="D104" s="247" t="s">
-        <v>1071</v>
-      </c>
-      <c r="E104" s="240" t="s">
-        <v>1069</v>
-      </c>
+      <c r="C104" s="245"/>
+      <c r="D104" s="247"/>
+      <c r="E104" s="240"/>
       <c r="F104" s="233"/>
       <c r="G104" s="233"/>
       <c r="H104" s="233"/>
@@ -23991,9 +23962,7 @@
       </c>
     </row>
     <row r="124" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A124" s="63" t="s">
-        <v>1057</v>
-      </c>
+      <c r="A124" s="63"/>
       <c r="B124" s="63"/>
       <c r="C124" s="155" t="s">
         <v>1056</v>
@@ -24003,9 +23972,7 @@
       </c>
     </row>
     <row r="125" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A125" s="63" t="s">
-        <v>1059</v>
-      </c>
+      <c r="A125" s="63"/>
       <c r="B125" s="63"/>
       <c r="C125" s="155" t="s">
         <v>1056</v>
@@ -24015,9 +23982,7 @@
       </c>
     </row>
     <row r="126" spans="1:12" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A126" s="63" t="s">
-        <v>1064</v>
-      </c>
+      <c r="A126" s="63"/>
       <c r="B126" s="63"/>
       <c r="C126" s="155" t="s">
         <v>101</v>
@@ -24027,9 +23992,7 @@
       </c>
     </row>
     <row r="127" spans="1:12" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A127" s="63" t="s">
-        <v>1061</v>
-      </c>
+      <c r="A127" s="63"/>
       <c r="B127" s="63"/>
       <c r="C127" s="155" t="s">
         <v>1062</v>
@@ -32993,7 +32956,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5334263-4143-413C-81B1-B37F8CC6DF82}">
   <dimension ref="A1:L225"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+    <sheetView topLeftCell="A36" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
       <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
@@ -35228,7 +35191,2250 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22AF1615-1EA2-4AD7-A86C-59952E5A099E}">
   <dimension ref="A1:L225"/>
   <sheetViews>
-    <sheetView topLeftCell="A71" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+    <sheetView topLeftCell="A43" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+      <selection activeCell="D54" sqref="D54"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="10" width="8" style="57" customWidth="1"/>
+    <col min="11" max="11" width="8" style="54" customWidth="1"/>
+    <col min="12" max="12" width="8" style="57" customWidth="1"/>
+    <col min="13" max="13" width="8.88671875" style="57"/>
+    <col min="14" max="15" width="8.88671875" style="57" customWidth="1"/>
+    <col min="16" max="16384" width="8.88671875" style="57"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="90" t="s">
+        <v>1010</v>
+      </c>
+      <c r="C1" s="61"/>
+      <c r="D1" s="61"/>
+      <c r="F1" s="75" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="54" t="s">
+        <v>1200</v>
+      </c>
+      <c r="H1" s="151" t="s">
+        <v>1201</v>
+      </c>
+      <c r="I1" s="81" t="s">
+        <v>348</v>
+      </c>
+      <c r="J1" s="100"/>
+      <c r="K1" s="61"/>
+      <c r="L1" s="209" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A3" s="156" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="57" t="s">
+        <v>1158</v>
+      </c>
+      <c r="E3" s="156" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" s="152" t="s">
+        <v>1153</v>
+      </c>
+      <c r="H3" s="55" t="s">
+        <v>1154</v>
+      </c>
+      <c r="K3" s="57"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A4" s="156" t="s">
+        <v>343</v>
+      </c>
+      <c r="B4" s="57" t="s">
+        <v>1040</v>
+      </c>
+      <c r="H4" s="230" t="s">
+        <v>1155</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A5" s="156" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="152" t="s">
+        <v>1159</v>
+      </c>
+      <c r="E5" s="210" t="s">
+        <v>3</v>
+      </c>
+      <c r="F5" s="139" t="s">
+        <v>1156</v>
+      </c>
+      <c r="G5" s="85"/>
+      <c r="H5" s="140" t="s">
+        <v>1157</v>
+      </c>
+      <c r="I5" s="85"/>
+      <c r="J5" s="85"/>
+      <c r="K5" s="131"/>
+      <c r="L5" s="85"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A6" s="156" t="s">
+        <v>69</v>
+      </c>
+      <c r="B6" s="57" t="s">
+        <v>126</v>
+      </c>
+      <c r="H6" s="55" t="s">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F8" s="72" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B9" s="72" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="73"/>
+      <c r="D9" s="73"/>
+      <c r="E9" s="73"/>
+      <c r="F9" s="72" t="s">
+        <v>9</v>
+      </c>
+      <c r="G9" s="73"/>
+      <c r="H9" s="73"/>
+      <c r="I9" s="73"/>
+      <c r="J9" s="72" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A10" s="165" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="80"/>
+      <c r="D10" s="163">
+        <v>2</v>
+      </c>
+      <c r="E10" s="165" t="s">
+        <v>12</v>
+      </c>
+      <c r="F10" s="80"/>
+      <c r="H10" s="163">
+        <v>2</v>
+      </c>
+      <c r="I10" s="165" t="s">
+        <v>13</v>
+      </c>
+      <c r="J10" s="80" t="s">
+        <v>1163</v>
+      </c>
+      <c r="L10" s="163">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A11" s="165" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" s="80" t="s">
+        <v>1162</v>
+      </c>
+      <c r="D11" s="163">
+        <v>4</v>
+      </c>
+      <c r="E11" s="165" t="s">
+        <v>16</v>
+      </c>
+      <c r="F11" s="80"/>
+      <c r="H11" s="163">
+        <v>3</v>
+      </c>
+      <c r="I11" s="165" t="s">
+        <v>18</v>
+      </c>
+      <c r="J11" s="80"/>
+      <c r="L11" s="163">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A12" s="165" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" s="80"/>
+      <c r="D12" s="163">
+        <v>2</v>
+      </c>
+      <c r="E12" s="165" t="s">
+        <v>17</v>
+      </c>
+      <c r="F12" s="80"/>
+      <c r="H12" s="163">
+        <v>0</v>
+      </c>
+      <c r="I12" s="165" t="s">
+        <v>19</v>
+      </c>
+      <c r="J12" s="80"/>
+      <c r="L12" s="163">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="C13" s="75"/>
+      <c r="G13" s="75"/>
+      <c r="K13" s="75"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="F14" s="72" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="72" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15" s="72"/>
+      <c r="D15" s="72"/>
+      <c r="E15" s="72"/>
+      <c r="F15" s="72" t="s">
+        <v>53</v>
+      </c>
+      <c r="G15" s="72"/>
+      <c r="H15" s="72"/>
+      <c r="I15" s="72"/>
+      <c r="J15" s="72" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A16" s="154" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" s="80"/>
+      <c r="D16" s="163">
+        <v>0</v>
+      </c>
+      <c r="E16" s="154" t="s">
+        <v>438</v>
+      </c>
+      <c r="F16" s="80"/>
+      <c r="G16" s="54"/>
+      <c r="H16" s="163">
+        <v>3</v>
+      </c>
+      <c r="I16" s="154" t="s">
+        <v>31</v>
+      </c>
+      <c r="J16" s="111" t="s">
+        <v>1161</v>
+      </c>
+      <c r="L16" s="163">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A17" s="154" t="s">
+        <v>32</v>
+      </c>
+      <c r="B17" s="80" t="s">
+        <v>1170</v>
+      </c>
+      <c r="D17" s="163">
+        <v>4</v>
+      </c>
+      <c r="E17" s="154" t="s">
+        <v>33</v>
+      </c>
+      <c r="F17" s="80"/>
+      <c r="G17" s="54"/>
+      <c r="H17" s="163">
+        <v>0</v>
+      </c>
+      <c r="I17" s="154" t="s">
+        <v>34</v>
+      </c>
+      <c r="J17" s="80"/>
+      <c r="L17" s="163">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A18" s="154" t="s">
+        <v>436</v>
+      </c>
+      <c r="B18" s="80"/>
+      <c r="D18" s="163">
+        <v>1</v>
+      </c>
+      <c r="E18" s="154" t="s">
+        <v>437</v>
+      </c>
+      <c r="F18" s="111"/>
+      <c r="G18" s="54"/>
+      <c r="H18" s="163">
+        <v>2</v>
+      </c>
+      <c r="I18" s="154" t="s">
+        <v>36</v>
+      </c>
+      <c r="J18" s="80"/>
+      <c r="L18" s="163">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A19" s="154" t="s">
+        <v>26</v>
+      </c>
+      <c r="B19" s="80"/>
+      <c r="D19" s="163">
+        <v>0</v>
+      </c>
+      <c r="E19" s="154" t="s">
+        <v>38</v>
+      </c>
+      <c r="F19" s="80" t="s">
+        <v>1171</v>
+      </c>
+      <c r="G19" s="54"/>
+      <c r="H19" s="163">
+        <v>4</v>
+      </c>
+      <c r="I19" s="154" t="s">
+        <v>45</v>
+      </c>
+      <c r="J19" s="80"/>
+      <c r="L19" s="163">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A20" s="154" t="s">
+        <v>27</v>
+      </c>
+      <c r="B20" s="80"/>
+      <c r="D20" s="163">
+        <v>2</v>
+      </c>
+      <c r="E20" s="154" t="s">
+        <v>39</v>
+      </c>
+      <c r="F20" s="80"/>
+      <c r="G20" s="54"/>
+      <c r="H20" s="163">
+        <v>2</v>
+      </c>
+      <c r="I20" s="154" t="s">
+        <v>46</v>
+      </c>
+      <c r="J20" s="80"/>
+      <c r="L20" s="163">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A21" s="154" t="s">
+        <v>28</v>
+      </c>
+      <c r="B21" s="80"/>
+      <c r="D21" s="163">
+        <v>1</v>
+      </c>
+      <c r="E21" s="154" t="s">
+        <v>40</v>
+      </c>
+      <c r="F21" s="80"/>
+      <c r="G21" s="54"/>
+      <c r="H21" s="163">
+        <v>0</v>
+      </c>
+      <c r="I21" s="154" t="s">
+        <v>47</v>
+      </c>
+      <c r="J21" s="80"/>
+      <c r="L21" s="163">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A22" s="154" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" s="80"/>
+      <c r="D22" s="163">
+        <v>0</v>
+      </c>
+      <c r="E22" s="154" t="s">
+        <v>41</v>
+      </c>
+      <c r="F22" s="80"/>
+      <c r="G22" s="54"/>
+      <c r="H22" s="163">
+        <v>0</v>
+      </c>
+      <c r="I22" s="154" t="s">
+        <v>48</v>
+      </c>
+      <c r="J22" s="80"/>
+      <c r="L22" s="163">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A23" s="154" t="s">
+        <v>1011</v>
+      </c>
+      <c r="B23" s="80"/>
+      <c r="D23" s="163">
+        <v>0</v>
+      </c>
+      <c r="E23" s="154" t="s">
+        <v>42</v>
+      </c>
+      <c r="F23" s="80"/>
+      <c r="G23" s="54"/>
+      <c r="H23" s="163">
+        <v>0</v>
+      </c>
+      <c r="I23" s="154" t="s">
+        <v>49</v>
+      </c>
+      <c r="J23" s="80"/>
+      <c r="L23" s="163">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A24" s="154" t="s">
+        <v>358</v>
+      </c>
+      <c r="B24" s="80"/>
+      <c r="D24" s="163">
+        <v>2</v>
+      </c>
+      <c r="E24" s="154" t="s">
+        <v>43</v>
+      </c>
+      <c r="G24" s="54"/>
+      <c r="H24" s="163">
+        <v>0</v>
+      </c>
+      <c r="I24" s="154" t="s">
+        <v>50</v>
+      </c>
+      <c r="J24" s="80"/>
+      <c r="L24" s="163">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A25" s="154" t="s">
+        <v>29</v>
+      </c>
+      <c r="B25" s="80"/>
+      <c r="D25" s="163">
+        <v>2</v>
+      </c>
+      <c r="E25" s="154" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" s="80"/>
+      <c r="G25" s="54"/>
+      <c r="H25" s="163">
+        <v>0</v>
+      </c>
+      <c r="I25" s="154" t="s">
+        <v>51</v>
+      </c>
+      <c r="J25" s="80"/>
+      <c r="L25" s="163">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="C27" s="75"/>
+      <c r="G27" s="75"/>
+      <c r="K27" s="75"/>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A28" s="73"/>
+      <c r="B28" s="72" t="s">
+        <v>56</v>
+      </c>
+      <c r="C28" s="73"/>
+      <c r="D28" s="73"/>
+      <c r="E28" s="73"/>
+      <c r="F28" s="73"/>
+      <c r="H28" s="73"/>
+      <c r="I28" s="72" t="s">
+        <v>57</v>
+      </c>
+      <c r="J28" s="73"/>
+      <c r="K28" s="55"/>
+      <c r="L28" s="170" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="80" t="s">
+        <v>0</v>
+      </c>
+      <c r="B29" s="75" t="s">
+        <v>73</v>
+      </c>
+      <c r="C29" s="80" t="s">
+        <v>61</v>
+      </c>
+      <c r="G29" s="73"/>
+      <c r="H29" s="166" t="s">
+        <v>58</v>
+      </c>
+      <c r="J29" s="167">
+        <v>3</v>
+      </c>
+      <c r="K29" s="162" t="s">
+        <v>465</v>
+      </c>
+      <c r="L29" s="54"/>
+    </row>
+    <row r="30" spans="1:12" s="73" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="57" t="s">
+        <v>1164</v>
+      </c>
+      <c r="B30" s="54">
+        <v>1</v>
+      </c>
+      <c r="C30" s="175" t="s">
+        <v>1165</v>
+      </c>
+      <c r="D30" s="57"/>
+      <c r="E30" s="57"/>
+      <c r="F30" s="57"/>
+      <c r="G30" s="57"/>
+      <c r="H30" s="166" t="s">
+        <v>342</v>
+      </c>
+      <c r="I30" s="57"/>
+      <c r="J30" s="167">
+        <v>4</v>
+      </c>
+      <c r="K30" s="55" t="s">
+        <v>477</v>
+      </c>
+      <c r="L30" s="54"/>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A31" s="238" t="s">
+        <v>1166</v>
+      </c>
+      <c r="B31" s="54">
+        <v>1</v>
+      </c>
+      <c r="C31" s="80" t="s">
+        <v>1167</v>
+      </c>
+      <c r="H31" s="166" t="s">
+        <v>59</v>
+      </c>
+      <c r="J31" s="167">
+        <v>3</v>
+      </c>
+      <c r="K31" s="55" t="s">
+        <v>479</v>
+      </c>
+      <c r="L31" s="54"/>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A32" s="238" t="s">
+        <v>1166</v>
+      </c>
+      <c r="B32" s="54">
+        <v>2</v>
+      </c>
+      <c r="C32" s="80" t="s">
+        <v>1168</v>
+      </c>
+      <c r="H32" s="63" t="s">
+        <v>70</v>
+      </c>
+      <c r="J32" s="167" t="s">
+        <v>131</v>
+      </c>
+      <c r="L32" s="54"/>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A33" s="233"/>
+      <c r="B33" s="234"/>
+      <c r="C33" s="240" t="s">
+        <v>1169</v>
+      </c>
+      <c r="D33" s="233"/>
+      <c r="E33" s="233"/>
+      <c r="F33" s="233"/>
+      <c r="H33" s="63" t="s">
+        <v>66</v>
+      </c>
+      <c r="J33" s="167">
+        <v>7</v>
+      </c>
+      <c r="K33" s="162" t="s">
+        <v>464</v>
+      </c>
+      <c r="L33" s="54"/>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A34" s="61"/>
+      <c r="B34" s="61"/>
+      <c r="C34" s="61"/>
+      <c r="D34" s="61"/>
+      <c r="E34" s="61"/>
+      <c r="F34" s="61"/>
+      <c r="L34" s="215" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="H35" s="63" t="s">
+        <v>20</v>
+      </c>
+      <c r="J35" s="167">
+        <v>5</v>
+      </c>
+      <c r="K35" s="162" t="s">
+        <v>478</v>
+      </c>
+      <c r="L35" s="54"/>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A36" s="66"/>
+      <c r="B36" s="66"/>
+      <c r="C36" s="66"/>
+      <c r="D36" s="66"/>
+      <c r="E36" s="66"/>
+      <c r="F36" s="66"/>
+      <c r="H36" s="63" t="s">
+        <v>1019</v>
+      </c>
+      <c r="J36" s="167">
+        <v>12</v>
+      </c>
+      <c r="K36" s="162" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="G37" s="73"/>
+      <c r="H37" s="63" t="s">
+        <v>341</v>
+      </c>
+      <c r="I37" s="73"/>
+      <c r="J37" s="167">
+        <f>7-J30</f>
+        <v>3</v>
+      </c>
+      <c r="K37" s="162" t="s">
+        <v>481</v>
+      </c>
+      <c r="L37" s="73"/>
+    </row>
+    <row r="38" spans="1:12" s="73" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="157"/>
+      <c r="B38" s="157"/>
+      <c r="C38" s="157"/>
+      <c r="D38" s="157"/>
+      <c r="E38" s="157"/>
+      <c r="F38" s="157"/>
+      <c r="H38" s="57"/>
+      <c r="I38" s="57"/>
+      <c r="J38" s="57"/>
+      <c r="K38" s="54"/>
+      <c r="L38" s="57"/>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A39" s="66"/>
+      <c r="B39" s="66"/>
+      <c r="C39" s="66"/>
+      <c r="D39" s="66"/>
+      <c r="E39" s="66"/>
+      <c r="F39" s="66"/>
+      <c r="H39" s="63" t="s">
+        <v>495</v>
+      </c>
+      <c r="I39" s="171"/>
+      <c r="J39" s="171"/>
+      <c r="K39" s="73"/>
+      <c r="L39" s="73"/>
+    </row>
+    <row r="40" spans="1:12" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H40" s="63" t="s">
+        <v>496</v>
+      </c>
+      <c r="I40" s="66"/>
+      <c r="J40" s="66"/>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A41" s="157"/>
+      <c r="B41" s="158"/>
+      <c r="C41" s="157"/>
+      <c r="D41" s="66"/>
+      <c r="E41" s="69"/>
+      <c r="F41" s="66"/>
+      <c r="G41" s="73"/>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B42" s="54"/>
+      <c r="D42" s="54"/>
+      <c r="E42" s="153"/>
+      <c r="H42" s="90" t="s">
+        <v>366</v>
+      </c>
+      <c r="I42" s="75" t="s">
+        <v>182</v>
+      </c>
+      <c r="J42" s="75" t="s">
+        <v>142</v>
+      </c>
+      <c r="K42" s="75" t="s">
+        <v>143</v>
+      </c>
+      <c r="L42" s="75" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A43" s="68"/>
+      <c r="B43" s="68"/>
+      <c r="C43" s="69"/>
+      <c r="D43" s="108"/>
+      <c r="E43" s="109"/>
+      <c r="F43" s="66"/>
+      <c r="H43" s="172"/>
+      <c r="I43" s="172" t="s">
+        <v>500</v>
+      </c>
+      <c r="J43" s="172" t="s">
+        <v>498</v>
+      </c>
+      <c r="K43" s="172" t="s">
+        <v>499</v>
+      </c>
+      <c r="L43" s="172" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A44" s="152"/>
+      <c r="B44" s="152"/>
+      <c r="C44" s="54"/>
+      <c r="D44" s="55"/>
+      <c r="E44" s="153"/>
+      <c r="H44" s="63" t="s">
+        <v>156</v>
+      </c>
+      <c r="I44" s="167">
+        <v>0</v>
+      </c>
+      <c r="J44" s="159" t="b">
+        <v>0</v>
+      </c>
+      <c r="K44" s="160" t="b">
+        <v>0</v>
+      </c>
+      <c r="L44" s="159" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="68"/>
+      <c r="B45" s="68"/>
+      <c r="C45" s="69"/>
+      <c r="D45" s="168"/>
+      <c r="E45" s="109"/>
+      <c r="F45" s="66"/>
+      <c r="H45" s="63" t="s">
+        <v>157</v>
+      </c>
+      <c r="I45" s="167">
+        <v>-1</v>
+      </c>
+      <c r="J45" s="161" t="b">
+        <v>0</v>
+      </c>
+      <c r="K45" s="160" t="b">
+        <v>0</v>
+      </c>
+      <c r="L45" s="159" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="C46" s="54"/>
+      <c r="D46" s="80"/>
+      <c r="E46" s="54"/>
+      <c r="H46" s="63" t="s">
+        <v>158</v>
+      </c>
+      <c r="I46" s="167">
+        <v>-1</v>
+      </c>
+      <c r="J46" s="159" t="b">
+        <v>0</v>
+      </c>
+      <c r="K46" s="160" t="b">
+        <v>0</v>
+      </c>
+      <c r="L46" s="159" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A47" s="68"/>
+      <c r="B47" s="68"/>
+      <c r="C47" s="69"/>
+      <c r="D47" s="108"/>
+      <c r="E47" s="109"/>
+      <c r="F47" s="66"/>
+      <c r="H47" s="63" t="s">
+        <v>159</v>
+      </c>
+      <c r="I47" s="167">
+        <v>-2</v>
+      </c>
+      <c r="J47" s="159" t="b">
+        <v>0</v>
+      </c>
+      <c r="K47" s="160" t="b">
+        <v>0</v>
+      </c>
+      <c r="L47" s="159" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A48" s="152"/>
+      <c r="B48" s="152"/>
+      <c r="C48" s="54"/>
+      <c r="D48" s="55"/>
+      <c r="E48" s="153"/>
+      <c r="H48" s="63" t="s">
+        <v>441</v>
+      </c>
+      <c r="I48" s="167">
+        <v>-2</v>
+      </c>
+      <c r="J48" s="159" t="b">
+        <v>0</v>
+      </c>
+      <c r="K48" s="160" t="b">
+        <v>0</v>
+      </c>
+      <c r="L48" s="159" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A49" s="66"/>
+      <c r="B49" s="69"/>
+      <c r="C49" s="66"/>
+      <c r="D49" s="82"/>
+      <c r="E49" s="66"/>
+      <c r="F49" s="66"/>
+      <c r="H49" s="63" t="s">
+        <v>161</v>
+      </c>
+      <c r="I49" s="167">
+        <v>-5</v>
+      </c>
+      <c r="J49" s="159" t="b">
+        <v>0</v>
+      </c>
+      <c r="K49" s="160" t="b">
+        <v>0</v>
+      </c>
+      <c r="L49" s="159" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A50" s="66"/>
+      <c r="B50" s="69"/>
+      <c r="C50" s="66"/>
+      <c r="D50" s="82"/>
+      <c r="E50" s="66"/>
+      <c r="F50" s="66"/>
+      <c r="H50" s="63" t="s">
+        <v>162</v>
+      </c>
+      <c r="I50" s="167" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A51" s="80" t="s">
+        <v>55</v>
+      </c>
+      <c r="C51" s="75" t="s">
+        <v>73</v>
+      </c>
+      <c r="D51" s="80" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A52" s="165" t="s">
+        <v>453</v>
+      </c>
+      <c r="C52" s="54">
+        <v>2</v>
+      </c>
+      <c r="D52" s="80" t="s">
+        <v>1199</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A53" s="165" t="s">
+        <v>100</v>
+      </c>
+      <c r="C53" s="54">
+        <v>2</v>
+      </c>
+      <c r="D53" s="80" t="s">
+        <v>1227</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A54" s="165" t="s">
+        <v>102</v>
+      </c>
+      <c r="C54" s="54">
+        <v>2</v>
+      </c>
+      <c r="D54" s="80" t="s">
+        <v>1177</v>
+      </c>
+      <c r="E54" s="155"/>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A55" s="165" t="s">
+        <v>5</v>
+      </c>
+      <c r="C55" s="54">
+        <v>2</v>
+      </c>
+      <c r="D55" s="80" t="s">
+        <v>1217</v>
+      </c>
+      <c r="E55" s="155"/>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A56" s="165" t="s">
+        <v>96</v>
+      </c>
+      <c r="C56" s="54">
+        <v>3</v>
+      </c>
+      <c r="D56" s="80" t="s">
+        <v>1174</v>
+      </c>
+      <c r="E56" s="155"/>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A57" s="165" t="s">
+        <v>98</v>
+      </c>
+      <c r="C57" s="54">
+        <v>2</v>
+      </c>
+      <c r="D57" s="80" t="s">
+        <v>1037</v>
+      </c>
+      <c r="E57" s="155"/>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="E58" s="155"/>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A59" s="214"/>
+      <c r="B59" s="66"/>
+      <c r="C59" s="69"/>
+      <c r="D59" s="82"/>
+      <c r="E59" s="214"/>
+      <c r="F59" s="66"/>
+      <c r="G59" s="66"/>
+      <c r="H59" s="66"/>
+      <c r="I59" s="66"/>
+      <c r="J59" s="66"/>
+      <c r="K59" s="69"/>
+      <c r="L59" s="66"/>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A60" s="214"/>
+      <c r="B60" s="66"/>
+      <c r="C60" s="69"/>
+      <c r="D60" s="82"/>
+      <c r="E60" s="214"/>
+      <c r="F60" s="66"/>
+      <c r="G60" s="66"/>
+      <c r="H60" s="66"/>
+      <c r="I60" s="66"/>
+      <c r="J60" s="66"/>
+      <c r="K60" s="69"/>
+      <c r="L60" s="66"/>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A61" s="155"/>
+      <c r="C61" s="54"/>
+      <c r="D61" s="80"/>
+      <c r="E61" s="155"/>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A62" s="55" t="s">
+        <v>1028</v>
+      </c>
+      <c r="C62" s="75" t="s">
+        <v>203</v>
+      </c>
+      <c r="D62" s="80" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A63" s="165" t="s">
+        <v>1175</v>
+      </c>
+      <c r="C63" s="54">
+        <v>-3</v>
+      </c>
+      <c r="D63" s="80" t="s">
+        <v>1187</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A64" s="63"/>
+      <c r="D64" s="238" t="s">
+        <v>1186</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A65" s="165" t="s">
+        <v>1176</v>
+      </c>
+      <c r="C65" s="54">
+        <v>-3</v>
+      </c>
+      <c r="D65" s="238" t="s">
+        <v>1185</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A66" s="165"/>
+      <c r="C66" s="54"/>
+      <c r="D66" s="80"/>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A67" s="241"/>
+      <c r="B67" s="66"/>
+      <c r="C67" s="69"/>
+      <c r="D67" s="82"/>
+      <c r="E67" s="66"/>
+      <c r="F67" s="66"/>
+      <c r="G67" s="66"/>
+      <c r="H67" s="66"/>
+      <c r="I67" s="66"/>
+      <c r="J67" s="66"/>
+      <c r="K67" s="69"/>
+      <c r="L67" s="66"/>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A68" s="241"/>
+      <c r="B68" s="66"/>
+      <c r="C68" s="69"/>
+      <c r="D68" s="82"/>
+      <c r="E68" s="66"/>
+      <c r="F68" s="66"/>
+      <c r="G68" s="66"/>
+      <c r="H68" s="66"/>
+      <c r="I68" s="66"/>
+      <c r="J68" s="66"/>
+      <c r="K68" s="69"/>
+      <c r="L68" s="66"/>
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A70" s="66"/>
+      <c r="B70" s="66"/>
+      <c r="C70" s="66"/>
+      <c r="D70" s="66"/>
+      <c r="E70" s="66"/>
+      <c r="F70" s="66"/>
+      <c r="G70" s="66"/>
+      <c r="H70" s="66"/>
+      <c r="I70" s="66"/>
+      <c r="J70" s="66"/>
+      <c r="K70" s="69"/>
+      <c r="L70" s="66"/>
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A71" s="66"/>
+      <c r="B71" s="66"/>
+      <c r="C71" s="66"/>
+      <c r="D71" s="66"/>
+      <c r="E71" s="66"/>
+      <c r="F71" s="66"/>
+      <c r="G71" s="66"/>
+      <c r="H71" s="66"/>
+      <c r="I71" s="66"/>
+      <c r="J71" s="66"/>
+      <c r="K71" s="69"/>
+      <c r="L71" s="66"/>
+    </row>
+    <row r="73" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A73" s="57" t="s">
+        <v>105</v>
+      </c>
+      <c r="C73" s="63" t="s">
+        <v>1203</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A74" s="57" t="s">
+        <v>106</v>
+      </c>
+      <c r="C74" s="63" t="s">
+        <v>1188</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A75" s="57" t="s">
+        <v>98</v>
+      </c>
+      <c r="C75" s="63" t="s">
+        <v>1189</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A76" s="57" t="s">
+        <v>108</v>
+      </c>
+      <c r="C76" s="100"/>
+      <c r="D76" s="61"/>
+      <c r="E76" s="61"/>
+      <c r="F76" s="61"/>
+      <c r="G76" s="61"/>
+      <c r="H76" s="61"/>
+      <c r="I76" s="61"/>
+      <c r="J76" s="61"/>
+      <c r="K76" s="78"/>
+      <c r="L76" s="61"/>
+    </row>
+    <row r="78" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A78" s="57" t="s">
+        <v>110</v>
+      </c>
+      <c r="C78" s="57" t="s">
+        <v>109</v>
+      </c>
+      <c r="E78" s="57" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A79" s="80" t="s">
+        <v>1039</v>
+      </c>
+      <c r="B79" s="80"/>
+      <c r="C79" s="80" t="s">
+        <v>1190</v>
+      </c>
+      <c r="E79" s="57" t="s">
+        <v>1191</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A80" s="81"/>
+      <c r="B80" s="81"/>
+      <c r="C80" s="81"/>
+      <c r="D80" s="61"/>
+      <c r="E80" s="61"/>
+      <c r="F80" s="61"/>
+      <c r="G80" s="61"/>
+      <c r="H80" s="61"/>
+      <c r="I80" s="61"/>
+      <c r="J80" s="61"/>
+      <c r="K80" s="78"/>
+      <c r="L80" s="61"/>
+    </row>
+    <row r="81" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A81" s="82"/>
+      <c r="B81" s="82"/>
+      <c r="C81" s="82"/>
+      <c r="D81" s="66"/>
+      <c r="E81" s="66"/>
+      <c r="F81" s="66"/>
+      <c r="G81" s="66"/>
+      <c r="H81" s="66"/>
+      <c r="I81" s="66"/>
+      <c r="J81" s="66"/>
+      <c r="K81" s="69"/>
+      <c r="L81" s="66"/>
+    </row>
+    <row r="83" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B83" s="54" t="s">
+        <v>17</v>
+      </c>
+      <c r="J83" s="54" t="s">
+        <v>123</v>
+      </c>
+      <c r="K83" s="57"/>
+      <c r="L83" s="54"/>
+    </row>
+    <row r="84" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A84" s="80" t="s">
+        <v>113</v>
+      </c>
+      <c r="C84" s="212">
+        <v>35</v>
+      </c>
+      <c r="E84" s="80" t="s">
+        <v>118</v>
+      </c>
+      <c r="G84" s="212" t="s">
+        <v>1194</v>
+      </c>
+      <c r="I84" s="57" t="s">
+        <v>0</v>
+      </c>
+      <c r="K84" s="57" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A85" s="80" t="s">
+        <v>112</v>
+      </c>
+      <c r="B85" s="66"/>
+      <c r="C85" s="211">
+        <v>0</v>
+      </c>
+      <c r="E85" s="80" t="s">
+        <v>119</v>
+      </c>
+      <c r="F85" s="66"/>
+      <c r="G85" s="236" t="s">
+        <v>392</v>
+      </c>
+      <c r="I85" s="66"/>
+      <c r="J85" s="66"/>
+      <c r="K85" s="66"/>
+      <c r="L85" s="69"/>
+    </row>
+    <row r="86" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A86" s="80" t="s">
+        <v>114</v>
+      </c>
+      <c r="C86" s="213">
+        <v>32939</v>
+      </c>
+      <c r="E86" s="80" t="s">
+        <v>120</v>
+      </c>
+      <c r="G86" s="212" t="s">
+        <v>1195</v>
+      </c>
+      <c r="I86" s="85"/>
+      <c r="J86" s="85"/>
+      <c r="K86" s="85"/>
+      <c r="L86" s="131"/>
+    </row>
+    <row r="87" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A87" s="80" t="s">
+        <v>115</v>
+      </c>
+      <c r="B87" s="66"/>
+      <c r="C87" s="213">
+        <v>45943</v>
+      </c>
+      <c r="E87" s="80" t="s">
+        <v>121</v>
+      </c>
+      <c r="F87" s="66"/>
+      <c r="G87" s="211" t="s">
+        <v>1196</v>
+      </c>
+      <c r="I87" s="66"/>
+      <c r="J87" s="66"/>
+      <c r="K87" s="66"/>
+      <c r="L87" s="69"/>
+    </row>
+    <row r="88" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A88" s="80" t="s">
+        <v>116</v>
+      </c>
+      <c r="C88" s="212" t="s">
+        <v>1192</v>
+      </c>
+      <c r="E88" s="80" t="s">
+        <v>122</v>
+      </c>
+      <c r="G88" s="212" t="s">
+        <v>1197</v>
+      </c>
+      <c r="K88" s="57"/>
+      <c r="L88" s="54"/>
+    </row>
+    <row r="89" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A89" s="80" t="s">
+        <v>117</v>
+      </c>
+      <c r="B89" s="66"/>
+      <c r="C89" s="211" t="s">
+        <v>1193</v>
+      </c>
+      <c r="E89" s="80"/>
+      <c r="F89" s="66"/>
+      <c r="G89" s="211"/>
+      <c r="I89" s="66"/>
+      <c r="J89" s="66"/>
+      <c r="K89" s="66"/>
+      <c r="L89" s="69"/>
+    </row>
+    <row r="90" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="I90" s="61"/>
+      <c r="J90" s="61"/>
+      <c r="K90" s="61"/>
+      <c r="L90" s="78"/>
+    </row>
+    <row r="92" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A92" s="90" t="s">
+        <v>1070</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A93" s="237" t="s">
+        <v>1198</v>
+      </c>
+      <c r="B93" s="237"/>
+      <c r="C93" s="237"/>
+      <c r="D93" s="237"/>
+      <c r="E93" s="237"/>
+      <c r="F93" s="237"/>
+      <c r="G93" s="237"/>
+      <c r="H93" s="237"/>
+      <c r="I93" s="237"/>
+      <c r="J93" s="237"/>
+      <c r="K93" s="237"/>
+      <c r="L93" s="237"/>
+    </row>
+    <row r="94" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A94" s="237"/>
+      <c r="B94" s="237"/>
+      <c r="C94" s="237"/>
+      <c r="D94" s="237"/>
+      <c r="E94" s="237"/>
+      <c r="F94" s="237"/>
+      <c r="G94" s="237"/>
+      <c r="H94" s="237"/>
+      <c r="I94" s="237"/>
+      <c r="J94" s="237"/>
+      <c r="K94" s="237"/>
+      <c r="L94" s="237"/>
+    </row>
+    <row r="95" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A95" s="237"/>
+      <c r="B95" s="237"/>
+      <c r="C95" s="237"/>
+      <c r="D95" s="237"/>
+      <c r="E95" s="237"/>
+      <c r="F95" s="237"/>
+      <c r="G95" s="237"/>
+      <c r="H95" s="237"/>
+      <c r="I95" s="237"/>
+      <c r="J95" s="237"/>
+      <c r="K95" s="237"/>
+      <c r="L95" s="237"/>
+    </row>
+    <row r="96" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A96" s="237"/>
+      <c r="B96" s="237"/>
+      <c r="C96" s="237"/>
+      <c r="D96" s="237"/>
+      <c r="E96" s="237"/>
+      <c r="F96" s="237"/>
+      <c r="G96" s="237"/>
+      <c r="H96" s="237"/>
+      <c r="I96" s="237"/>
+      <c r="J96" s="237"/>
+      <c r="K96" s="237"/>
+      <c r="L96" s="237"/>
+    </row>
+    <row r="97" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A97" s="90" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="98" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A98" s="216" t="s">
+        <v>1202</v>
+      </c>
+      <c r="B98" s="216"/>
+      <c r="C98" s="216"/>
+      <c r="D98" s="216"/>
+      <c r="E98" s="216"/>
+      <c r="F98" s="216"/>
+      <c r="G98" s="216"/>
+      <c r="H98" s="216"/>
+      <c r="I98" s="216"/>
+      <c r="J98" s="216"/>
+      <c r="K98" s="216"/>
+      <c r="L98" s="216"/>
+    </row>
+    <row r="99" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A99" s="216"/>
+      <c r="B99" s="216"/>
+      <c r="C99" s="216"/>
+      <c r="D99" s="216"/>
+      <c r="E99" s="216"/>
+      <c r="F99" s="216"/>
+      <c r="G99" s="216"/>
+      <c r="H99" s="216"/>
+      <c r="I99" s="216"/>
+      <c r="J99" s="216"/>
+      <c r="K99" s="216"/>
+      <c r="L99" s="216"/>
+    </row>
+    <row r="100" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A100" s="216"/>
+      <c r="B100" s="216"/>
+      <c r="C100" s="216"/>
+      <c r="D100" s="216"/>
+      <c r="E100" s="216"/>
+      <c r="F100" s="216"/>
+      <c r="G100" s="216"/>
+      <c r="H100" s="216"/>
+      <c r="I100" s="216"/>
+      <c r="J100" s="216"/>
+      <c r="K100" s="216"/>
+      <c r="L100" s="216"/>
+    </row>
+    <row r="101" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="F101" s="72" t="s">
+        <v>1066</v>
+      </c>
+    </row>
+    <row r="102" spans="1:12" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A102" s="57" t="s">
+        <v>78</v>
+      </c>
+      <c r="C102" s="57" t="s">
+        <v>73</v>
+      </c>
+      <c r="D102" s="57" t="s">
+        <v>81</v>
+      </c>
+      <c r="E102" s="57" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="103" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A103" s="240" t="s">
+        <v>407</v>
+      </c>
+      <c r="B103" s="233"/>
+      <c r="C103" s="245">
+        <v>1</v>
+      </c>
+      <c r="D103" s="247" t="s">
+        <v>1068</v>
+      </c>
+      <c r="E103" s="240" t="s">
+        <v>483</v>
+      </c>
+      <c r="F103" s="233"/>
+      <c r="G103" s="233"/>
+      <c r="H103" s="233"/>
+      <c r="I103" s="233"/>
+      <c r="J103" s="233"/>
+      <c r="K103" s="234"/>
+      <c r="L103" s="233"/>
+    </row>
+    <row r="104" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A104" s="240" t="s">
+        <v>1183</v>
+      </c>
+      <c r="B104" s="233"/>
+      <c r="C104" s="245" t="s">
+        <v>131</v>
+      </c>
+      <c r="D104" s="247" t="s">
+        <v>1071</v>
+      </c>
+      <c r="E104" s="246" t="s">
+        <v>1184</v>
+      </c>
+      <c r="F104" s="233"/>
+      <c r="G104" s="233"/>
+      <c r="H104" s="233"/>
+      <c r="I104" s="233"/>
+      <c r="J104" s="233"/>
+      <c r="K104" s="234"/>
+      <c r="L104" s="233"/>
+    </row>
+    <row r="105" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A105" s="61"/>
+      <c r="B105" s="61"/>
+      <c r="C105" s="61"/>
+      <c r="D105" s="133"/>
+      <c r="E105" s="100"/>
+      <c r="F105" s="61"/>
+      <c r="G105" s="61"/>
+      <c r="H105" s="61"/>
+      <c r="I105" s="61"/>
+      <c r="J105" s="61"/>
+      <c r="K105" s="78"/>
+      <c r="L105" s="61"/>
+    </row>
+    <row r="106" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="D106" s="134"/>
+      <c r="E106" s="99"/>
+    </row>
+    <row r="107" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A107" s="66"/>
+      <c r="B107" s="66"/>
+      <c r="C107" s="66"/>
+      <c r="D107" s="134"/>
+      <c r="E107" s="99"/>
+      <c r="F107" s="66"/>
+      <c r="G107" s="66"/>
+      <c r="H107" s="66"/>
+      <c r="I107" s="66"/>
+      <c r="J107" s="66"/>
+      <c r="K107" s="69"/>
+      <c r="L107" s="66"/>
+    </row>
+    <row r="108" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A108" s="66"/>
+      <c r="B108" s="66"/>
+      <c r="C108" s="66"/>
+      <c r="D108" s="66"/>
+      <c r="E108" s="66"/>
+      <c r="F108" s="66"/>
+      <c r="G108" s="66"/>
+      <c r="H108" s="66"/>
+      <c r="I108" s="66"/>
+      <c r="J108" s="66"/>
+      <c r="K108" s="69"/>
+      <c r="L108" s="66"/>
+    </row>
+    <row r="110" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="F110" s="72" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="111" spans="1:12" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A111" s="80" t="s">
+        <v>81</v>
+      </c>
+      <c r="B111" s="80" t="s">
+        <v>82</v>
+      </c>
+      <c r="C111" s="80" t="s">
+        <v>61</v>
+      </c>
+      <c r="D111" s="80"/>
+      <c r="E111" s="80"/>
+      <c r="F111" s="80" t="s">
+        <v>83</v>
+      </c>
+      <c r="G111" s="80" t="s">
+        <v>86</v>
+      </c>
+      <c r="H111" s="80" t="s">
+        <v>85</v>
+      </c>
+      <c r="I111" s="80" t="s">
+        <v>84</v>
+      </c>
+      <c r="J111" s="80" t="s">
+        <v>87</v>
+      </c>
+      <c r="K111" s="75"/>
+      <c r="L111" s="80"/>
+    </row>
+    <row r="113" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A113" s="66"/>
+      <c r="B113" s="66"/>
+      <c r="C113" s="66"/>
+      <c r="D113" s="66"/>
+      <c r="E113" s="66"/>
+      <c r="F113" s="66"/>
+      <c r="G113" s="66"/>
+      <c r="H113" s="66"/>
+      <c r="I113" s="66"/>
+      <c r="J113" s="66"/>
+      <c r="K113" s="69"/>
+      <c r="L113" s="66"/>
+    </row>
+    <row r="115" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A115" s="66"/>
+      <c r="B115" s="66"/>
+      <c r="C115" s="66"/>
+      <c r="D115" s="66"/>
+      <c r="E115" s="66"/>
+      <c r="F115" s="66"/>
+      <c r="G115" s="66"/>
+      <c r="H115" s="66"/>
+      <c r="I115" s="66"/>
+      <c r="J115" s="66"/>
+      <c r="K115" s="69"/>
+      <c r="L115" s="66"/>
+    </row>
+    <row r="117" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A117" s="66"/>
+      <c r="B117" s="66"/>
+      <c r="C117" s="66"/>
+      <c r="D117" s="66"/>
+      <c r="E117" s="66"/>
+      <c r="F117" s="66"/>
+      <c r="G117" s="66"/>
+      <c r="H117" s="66"/>
+      <c r="I117" s="66"/>
+      <c r="J117" s="66"/>
+      <c r="K117" s="69"/>
+      <c r="L117" s="66"/>
+    </row>
+    <row r="119" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A119" s="66"/>
+      <c r="B119" s="66"/>
+      <c r="C119" s="66"/>
+      <c r="D119" s="66"/>
+      <c r="E119" s="66"/>
+      <c r="F119" s="66"/>
+      <c r="G119" s="66"/>
+      <c r="H119" s="66"/>
+      <c r="I119" s="66"/>
+      <c r="J119" s="66"/>
+      <c r="K119" s="69"/>
+      <c r="L119" s="66"/>
+    </row>
+    <row r="121" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A121" s="66"/>
+      <c r="B121" s="66"/>
+      <c r="C121" s="66"/>
+      <c r="D121" s="66"/>
+      <c r="E121" s="66"/>
+      <c r="F121" s="66"/>
+      <c r="G121" s="66"/>
+      <c r="H121" s="66"/>
+      <c r="I121" s="66"/>
+      <c r="J121" s="66"/>
+      <c r="K121" s="69"/>
+      <c r="L121" s="66"/>
+    </row>
+    <row r="123" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="F123" s="72" t="s">
+        <v>1131</v>
+      </c>
+    </row>
+    <row r="124" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A124" s="63" t="s">
+        <v>1172</v>
+      </c>
+      <c r="B124" s="63"/>
+      <c r="C124" s="155" t="s">
+        <v>96</v>
+      </c>
+      <c r="D124" s="63" t="s">
+        <v>1173</v>
+      </c>
+    </row>
+    <row r="125" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A125" s="232" t="s">
+        <v>1178</v>
+      </c>
+      <c r="B125" s="232"/>
+      <c r="C125" s="239" t="s">
+        <v>1179</v>
+      </c>
+      <c r="D125" s="240" t="s">
+        <v>1180</v>
+      </c>
+      <c r="E125" s="233"/>
+      <c r="F125" s="233"/>
+      <c r="G125" s="233"/>
+      <c r="H125" s="233"/>
+      <c r="I125" s="233"/>
+      <c r="J125" s="233"/>
+      <c r="K125" s="234"/>
+      <c r="L125" s="233"/>
+    </row>
+    <row r="126" spans="1:12" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A126" s="232" t="s">
+        <v>1181</v>
+      </c>
+      <c r="B126" s="232"/>
+      <c r="C126" s="239" t="s">
+        <v>1179</v>
+      </c>
+      <c r="D126" s="232" t="s">
+        <v>1182</v>
+      </c>
+      <c r="E126" s="233"/>
+      <c r="F126" s="233"/>
+      <c r="G126" s="233"/>
+      <c r="H126" s="233"/>
+      <c r="I126" s="233"/>
+      <c r="J126" s="233"/>
+      <c r="K126" s="234"/>
+      <c r="L126" s="233"/>
+    </row>
+    <row r="127" spans="1:12" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A127" s="100"/>
+      <c r="B127" s="100"/>
+      <c r="C127" s="100"/>
+      <c r="D127" s="100"/>
+      <c r="E127" s="61"/>
+      <c r="F127" s="61"/>
+      <c r="G127" s="61"/>
+      <c r="H127" s="61"/>
+      <c r="I127" s="61"/>
+      <c r="J127" s="61"/>
+      <c r="K127" s="78"/>
+      <c r="L127" s="61"/>
+    </row>
+    <row r="128" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A128" s="61"/>
+      <c r="B128" s="61"/>
+      <c r="C128" s="61"/>
+      <c r="D128" s="61"/>
+      <c r="E128" s="61"/>
+      <c r="F128" s="61"/>
+      <c r="G128" s="61"/>
+      <c r="H128" s="61"/>
+      <c r="I128" s="61"/>
+      <c r="J128" s="61"/>
+      <c r="K128" s="78"/>
+      <c r="L128" s="61"/>
+    </row>
+    <row r="129" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A129" s="63"/>
+      <c r="B129" s="63"/>
+      <c r="C129" s="63"/>
+      <c r="D129" s="63"/>
+    </row>
+    <row r="130" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A130" s="99"/>
+      <c r="B130" s="99"/>
+      <c r="C130" s="99"/>
+      <c r="D130" s="99"/>
+      <c r="E130" s="66"/>
+      <c r="F130" s="66"/>
+      <c r="G130" s="66"/>
+      <c r="H130" s="66"/>
+      <c r="I130" s="66"/>
+      <c r="J130" s="66"/>
+      <c r="K130" s="69"/>
+      <c r="L130" s="66"/>
+    </row>
+    <row r="132" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A132" s="66"/>
+      <c r="B132" s="66"/>
+      <c r="C132" s="66"/>
+      <c r="D132" s="66"/>
+      <c r="E132" s="66"/>
+      <c r="F132" s="66"/>
+      <c r="G132" s="66"/>
+      <c r="H132" s="66"/>
+      <c r="I132" s="66"/>
+      <c r="J132" s="66"/>
+      <c r="K132" s="69"/>
+      <c r="L132" s="66"/>
+    </row>
+    <row r="134" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B134" s="72" t="s">
+        <v>72</v>
+      </c>
+      <c r="F134" s="101" t="s">
+        <v>373</v>
+      </c>
+      <c r="J134" s="54" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="135" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A135" s="57" t="s">
+        <v>0</v>
+      </c>
+      <c r="B135" s="57" t="s">
+        <v>73</v>
+      </c>
+      <c r="C135" s="57" t="s">
+        <v>61</v>
+      </c>
+      <c r="E135" s="76" t="s">
+        <v>61</v>
+      </c>
+      <c r="I135" s="76" t="s">
+        <v>75</v>
+      </c>
+      <c r="K135" s="69"/>
+      <c r="L135" s="66"/>
+    </row>
+    <row r="136" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A136" s="76"/>
+      <c r="E136" s="76"/>
+      <c r="I136" s="76" t="s">
+        <v>76</v>
+      </c>
+      <c r="K136" s="69"/>
+      <c r="L136" s="66"/>
+    </row>
+    <row r="137" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A137" s="94"/>
+      <c r="B137" s="66"/>
+      <c r="C137" s="66"/>
+      <c r="D137" s="66"/>
+      <c r="E137" s="94"/>
+      <c r="F137" s="66"/>
+      <c r="G137" s="66"/>
+      <c r="H137" s="66"/>
+      <c r="I137" s="94"/>
+      <c r="J137" s="66"/>
+      <c r="K137" s="69"/>
+      <c r="L137" s="66"/>
+    </row>
+    <row r="138" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A138" s="76"/>
+      <c r="E138" s="76"/>
+      <c r="I138" s="76"/>
+    </row>
+    <row r="139" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A139" s="94"/>
+      <c r="B139" s="66"/>
+      <c r="C139" s="66"/>
+      <c r="D139" s="66"/>
+      <c r="E139" s="94"/>
+      <c r="F139" s="66"/>
+      <c r="G139" s="66"/>
+      <c r="H139" s="66"/>
+      <c r="I139" s="94"/>
+      <c r="J139" s="66"/>
+      <c r="K139" s="69"/>
+      <c r="L139" s="66"/>
+    </row>
+    <row r="140" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A140" s="76"/>
+      <c r="E140" s="76"/>
+      <c r="I140" s="76"/>
+    </row>
+    <row r="141" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A141" s="94"/>
+      <c r="B141" s="66"/>
+      <c r="C141" s="66"/>
+      <c r="D141" s="66"/>
+      <c r="E141" s="94"/>
+      <c r="F141" s="66"/>
+      <c r="G141" s="66"/>
+      <c r="H141" s="66"/>
+      <c r="I141" s="94"/>
+      <c r="J141" s="66"/>
+      <c r="K141" s="69"/>
+      <c r="L141" s="66"/>
+    </row>
+    <row r="143" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A143" s="80" t="s">
+        <v>88</v>
+      </c>
+      <c r="B143" s="80" t="s">
+        <v>89</v>
+      </c>
+      <c r="C143" s="80" t="s">
+        <v>486</v>
+      </c>
+      <c r="D143" s="80" t="s">
+        <v>90</v>
+      </c>
+      <c r="E143" s="80" t="s">
+        <v>91</v>
+      </c>
+      <c r="F143" s="80" t="s">
+        <v>92</v>
+      </c>
+      <c r="G143" s="80" t="s">
+        <v>93</v>
+      </c>
+      <c r="H143" s="80" t="s">
+        <v>87</v>
+      </c>
+      <c r="J143" s="57" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="145" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A145" s="99" t="s">
+        <v>484</v>
+      </c>
+      <c r="B145" s="134" t="s">
+        <v>485</v>
+      </c>
+      <c r="C145" s="134">
+        <v>6</v>
+      </c>
+      <c r="D145" s="134" t="s">
+        <v>492</v>
+      </c>
+      <c r="E145" s="134">
+        <v>0</v>
+      </c>
+      <c r="F145" s="134">
+        <v>0</v>
+      </c>
+      <c r="G145" s="134"/>
+      <c r="H145" s="82" t="s">
+        <v>143</v>
+      </c>
+      <c r="J145" s="66"/>
+      <c r="K145" s="69"/>
+      <c r="L145" s="66"/>
+    </row>
+    <row r="146" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A146" s="99" t="s">
+        <v>487</v>
+      </c>
+      <c r="B146" s="134" t="s">
+        <v>485</v>
+      </c>
+      <c r="C146" s="134">
+        <v>6</v>
+      </c>
+      <c r="D146" s="134">
+        <v>0</v>
+      </c>
+      <c r="E146" s="134">
+        <v>0</v>
+      </c>
+      <c r="F146" s="134">
+        <v>0</v>
+      </c>
+      <c r="G146" s="134"/>
+      <c r="H146" s="82" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="147" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A147" s="99" t="s">
+        <v>489</v>
+      </c>
+      <c r="B147" s="134" t="s">
+        <v>488</v>
+      </c>
+      <c r="C147" s="134">
+        <v>5</v>
+      </c>
+      <c r="D147" s="134">
+        <v>0</v>
+      </c>
+      <c r="E147" s="134">
+        <v>0</v>
+      </c>
+      <c r="F147" s="134">
+        <v>0</v>
+      </c>
+      <c r="G147" s="134"/>
+      <c r="H147" s="82" t="s">
+        <v>142</v>
+      </c>
+      <c r="J147" s="66"/>
+      <c r="K147" s="69"/>
+      <c r="L147" s="66"/>
+    </row>
+    <row r="148" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A148" s="99" t="s">
+        <v>491</v>
+      </c>
+      <c r="B148" s="134">
+        <v>4</v>
+      </c>
+      <c r="C148" s="134">
+        <v>6</v>
+      </c>
+      <c r="D148" s="134">
+        <v>12</v>
+      </c>
+      <c r="E148" s="134">
+        <v>3</v>
+      </c>
+      <c r="F148" s="134">
+        <v>6</v>
+      </c>
+      <c r="G148" s="134" t="s">
+        <v>493</v>
+      </c>
+      <c r="H148" s="82" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="149" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A149" s="99"/>
+      <c r="B149" s="99"/>
+      <c r="C149" s="134"/>
+      <c r="D149" s="134"/>
+      <c r="E149" s="134"/>
+      <c r="F149" s="134"/>
+      <c r="G149" s="99"/>
+      <c r="H149" s="82"/>
+      <c r="J149" s="66"/>
+      <c r="K149" s="69"/>
+      <c r="L149" s="66"/>
+    </row>
+    <row r="150" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A150" s="66"/>
+      <c r="B150" s="66"/>
+      <c r="C150" s="66"/>
+      <c r="D150" s="66"/>
+      <c r="E150" s="66"/>
+      <c r="F150" s="66"/>
+      <c r="G150" s="66"/>
+      <c r="H150" s="66"/>
+      <c r="J150" s="66"/>
+      <c r="K150" s="69"/>
+      <c r="L150" s="66"/>
+    </row>
+    <row r="175" ht="13.8" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="179" ht="13.2" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="180" ht="13.8" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="181" ht="13.8" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="199" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="F199" s="72"/>
+    </row>
+    <row r="201" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A201" s="63"/>
+    </row>
+    <row r="202" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A202" s="63"/>
+    </row>
+    <row r="204" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A204" s="63"/>
+      <c r="C204" s="63"/>
+      <c r="D204" s="63"/>
+      <c r="E204" s="63"/>
+      <c r="F204" s="63"/>
+      <c r="G204" s="63"/>
+      <c r="H204" s="63"/>
+      <c r="I204" s="63"/>
+      <c r="J204" s="63"/>
+      <c r="K204" s="63"/>
+      <c r="L204" s="63"/>
+    </row>
+    <row r="205" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="D205" s="63"/>
+      <c r="E205" s="63"/>
+      <c r="F205" s="63"/>
+      <c r="G205" s="63"/>
+      <c r="H205" s="63"/>
+      <c r="I205" s="63"/>
+      <c r="J205" s="63"/>
+      <c r="K205" s="63"/>
+      <c r="L205" s="63"/>
+    </row>
+    <row r="206" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A206" s="63"/>
+      <c r="B206" s="63"/>
+      <c r="C206" s="63"/>
+      <c r="D206" s="63"/>
+      <c r="E206" s="63"/>
+      <c r="F206" s="63"/>
+      <c r="G206" s="63"/>
+      <c r="H206" s="63"/>
+      <c r="I206" s="63"/>
+      <c r="J206" s="63"/>
+      <c r="K206" s="63"/>
+      <c r="L206" s="63"/>
+    </row>
+    <row r="207" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B207" s="63"/>
+      <c r="C207" s="63"/>
+      <c r="D207" s="63"/>
+      <c r="E207" s="63"/>
+      <c r="F207" s="63"/>
+      <c r="G207" s="63"/>
+      <c r="H207" s="63"/>
+      <c r="I207" s="63"/>
+      <c r="J207" s="63"/>
+      <c r="K207" s="63"/>
+      <c r="L207" s="63"/>
+    </row>
+    <row r="208" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A208" s="63"/>
+      <c r="B208" s="63"/>
+      <c r="C208" s="63"/>
+      <c r="D208" s="63"/>
+      <c r="E208" s="63"/>
+      <c r="F208" s="63"/>
+      <c r="G208" s="63"/>
+      <c r="H208" s="63"/>
+      <c r="I208" s="63"/>
+      <c r="J208" s="63"/>
+      <c r="K208" s="63"/>
+      <c r="L208" s="63"/>
+    </row>
+    <row r="209" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A209" s="63"/>
+      <c r="B209" s="63"/>
+      <c r="C209" s="63"/>
+      <c r="D209" s="63"/>
+      <c r="E209" s="63"/>
+      <c r="F209" s="63"/>
+      <c r="G209" s="63"/>
+      <c r="H209" s="63"/>
+      <c r="I209" s="63"/>
+      <c r="J209" s="63"/>
+      <c r="K209" s="63"/>
+      <c r="L209" s="63"/>
+    </row>
+    <row r="210" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A210" s="63"/>
+      <c r="B210" s="63"/>
+      <c r="C210" s="63"/>
+      <c r="D210" s="63"/>
+      <c r="E210" s="63"/>
+      <c r="F210" s="63"/>
+      <c r="G210" s="63"/>
+      <c r="H210" s="63"/>
+      <c r="I210" s="63"/>
+      <c r="J210" s="63"/>
+      <c r="K210" s="63"/>
+      <c r="L210" s="63"/>
+    </row>
+    <row r="211" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A211" s="63"/>
+      <c r="B211" s="63"/>
+      <c r="C211" s="63"/>
+      <c r="D211" s="63"/>
+      <c r="E211" s="63"/>
+      <c r="F211" s="63"/>
+      <c r="G211" s="63"/>
+      <c r="H211" s="63"/>
+      <c r="I211" s="63"/>
+      <c r="J211" s="63"/>
+      <c r="K211" s="63"/>
+      <c r="L211" s="63"/>
+    </row>
+    <row r="212" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A212" s="63"/>
+      <c r="B212" s="63"/>
+      <c r="C212" s="63"/>
+      <c r="D212" s="63"/>
+      <c r="E212" s="63"/>
+      <c r="F212" s="63"/>
+      <c r="G212" s="63"/>
+      <c r="H212" s="63"/>
+      <c r="I212" s="63"/>
+      <c r="J212" s="63"/>
+      <c r="K212" s="63"/>
+      <c r="L212" s="63"/>
+    </row>
+    <row r="213" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A213" s="63"/>
+      <c r="B213" s="63"/>
+      <c r="C213" s="63"/>
+      <c r="D213" s="63"/>
+      <c r="E213" s="63"/>
+      <c r="F213" s="63"/>
+      <c r="G213" s="63"/>
+      <c r="H213" s="63"/>
+      <c r="I213" s="63"/>
+      <c r="J213" s="63"/>
+      <c r="K213" s="63"/>
+      <c r="L213" s="63"/>
+    </row>
+    <row r="214" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A214" s="72"/>
+      <c r="B214" s="90"/>
+      <c r="J214" s="72"/>
+      <c r="K214" s="57"/>
+    </row>
+    <row r="215" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A215" s="72"/>
+      <c r="B215" s="80"/>
+      <c r="I215" s="80"/>
+      <c r="K215" s="57"/>
+    </row>
+    <row r="216" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A216" s="72"/>
+      <c r="B216" s="80"/>
+      <c r="I216" s="80"/>
+      <c r="K216" s="57"/>
+    </row>
+    <row r="217" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A217" s="72"/>
+      <c r="B217" s="80"/>
+      <c r="I217" s="80"/>
+      <c r="K217" s="57"/>
+    </row>
+    <row r="218" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A218" s="72"/>
+      <c r="B218" s="80"/>
+      <c r="I218" s="80"/>
+      <c r="K218" s="57"/>
+    </row>
+    <row r="219" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A219" s="72"/>
+      <c r="B219" s="80"/>
+      <c r="I219" s="80"/>
+      <c r="K219" s="57"/>
+    </row>
+    <row r="220" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A220" s="72"/>
+      <c r="B220" s="80"/>
+      <c r="I220" s="80"/>
+      <c r="K220" s="57"/>
+    </row>
+    <row r="221" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A221" s="72"/>
+      <c r="B221" s="80"/>
+      <c r="I221" s="80"/>
+      <c r="K221" s="57"/>
+    </row>
+    <row r="222" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A222" s="72"/>
+      <c r="B222" s="80"/>
+      <c r="I222" s="80"/>
+      <c r="K222" s="57"/>
+    </row>
+    <row r="223" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A223" s="72"/>
+      <c r="B223" s="80"/>
+    </row>
+    <row r="224" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A224" s="72"/>
+      <c r="B224" s="80"/>
+    </row>
+    <row r="225" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A225" s="72"/>
+      <c r="B225" s="80"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A93:L96"/>
+    <mergeCell ref="A98:L100"/>
+  </mergeCells>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB020AF3-E2AF-4B08-9CF1-A8BB16CCBDFC}">
+  <dimension ref="A1:L225"/>
+  <sheetViews>
+    <sheetView topLeftCell="A22" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
       <selection activeCell="D103" sqref="D103:D104"/>
     </sheetView>
   </sheetViews>
@@ -35252,2249 +37458,6 @@
         <v>5</v>
       </c>
       <c r="G1" s="54" t="s">
-        <v>1200</v>
-      </c>
-      <c r="H1" s="151" t="s">
-        <v>1201</v>
-      </c>
-      <c r="I1" s="81" t="s">
-        <v>348</v>
-      </c>
-      <c r="J1" s="100"/>
-      <c r="K1" s="61"/>
-      <c r="L1" s="209" t="s">
-        <v>1204</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A3" s="156" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="57" t="s">
-        <v>1158</v>
-      </c>
-      <c r="E3" s="156" t="s">
-        <v>2</v>
-      </c>
-      <c r="F3" s="152" t="s">
-        <v>1153</v>
-      </c>
-      <c r="H3" s="55" t="s">
-        <v>1154</v>
-      </c>
-      <c r="K3" s="57"/>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A4" s="156" t="s">
-        <v>343</v>
-      </c>
-      <c r="B4" s="57" t="s">
-        <v>1040</v>
-      </c>
-      <c r="H4" s="230" t="s">
-        <v>1155</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A5" s="156" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="152" t="s">
-        <v>1159</v>
-      </c>
-      <c r="E5" s="210" t="s">
-        <v>3</v>
-      </c>
-      <c r="F5" s="139" t="s">
-        <v>1156</v>
-      </c>
-      <c r="G5" s="85"/>
-      <c r="H5" s="140" t="s">
-        <v>1157</v>
-      </c>
-      <c r="I5" s="85"/>
-      <c r="J5" s="85"/>
-      <c r="K5" s="131"/>
-      <c r="L5" s="85"/>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A6" s="156" t="s">
-        <v>69</v>
-      </c>
-      <c r="B6" s="57" t="s">
-        <v>126</v>
-      </c>
-      <c r="H6" s="55" t="s">
-        <v>1160</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F8" s="72" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B9" s="72" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" s="73"/>
-      <c r="D9" s="73"/>
-      <c r="E9" s="73"/>
-      <c r="F9" s="72" t="s">
-        <v>9</v>
-      </c>
-      <c r="G9" s="73"/>
-      <c r="H9" s="73"/>
-      <c r="I9" s="73"/>
-      <c r="J9" s="72" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A10" s="165" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10" s="80"/>
-      <c r="D10" s="163">
-        <v>2</v>
-      </c>
-      <c r="E10" s="165" t="s">
-        <v>12</v>
-      </c>
-      <c r="F10" s="80"/>
-      <c r="H10" s="163">
-        <v>2</v>
-      </c>
-      <c r="I10" s="165" t="s">
-        <v>13</v>
-      </c>
-      <c r="J10" s="80" t="s">
-        <v>1163</v>
-      </c>
-      <c r="L10" s="163">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A11" s="165" t="s">
-        <v>14</v>
-      </c>
-      <c r="B11" s="80" t="s">
-        <v>1162</v>
-      </c>
-      <c r="D11" s="163">
-        <v>4</v>
-      </c>
-      <c r="E11" s="165" t="s">
-        <v>16</v>
-      </c>
-      <c r="F11" s="80"/>
-      <c r="H11" s="163">
-        <v>3</v>
-      </c>
-      <c r="I11" s="165" t="s">
-        <v>18</v>
-      </c>
-      <c r="J11" s="80"/>
-      <c r="L11" s="163">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A12" s="165" t="s">
-        <v>15</v>
-      </c>
-      <c r="B12" s="80"/>
-      <c r="D12" s="163">
-        <v>2</v>
-      </c>
-      <c r="E12" s="165" t="s">
-        <v>17</v>
-      </c>
-      <c r="F12" s="80"/>
-      <c r="H12" s="163">
-        <v>0</v>
-      </c>
-      <c r="I12" s="165" t="s">
-        <v>19</v>
-      </c>
-      <c r="J12" s="80"/>
-      <c r="L12" s="163">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="C13" s="75"/>
-      <c r="G13" s="75"/>
-      <c r="K13" s="75"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="F14" s="72" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="72" t="s">
-        <v>22</v>
-      </c>
-      <c r="C15" s="72"/>
-      <c r="D15" s="72"/>
-      <c r="E15" s="72"/>
-      <c r="F15" s="72" t="s">
-        <v>53</v>
-      </c>
-      <c r="G15" s="72"/>
-      <c r="H15" s="72"/>
-      <c r="I15" s="72"/>
-      <c r="J15" s="72" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A16" s="154" t="s">
-        <v>23</v>
-      </c>
-      <c r="B16" s="80"/>
-      <c r="D16" s="163">
-        <v>0</v>
-      </c>
-      <c r="E16" s="154" t="s">
-        <v>438</v>
-      </c>
-      <c r="F16" s="80"/>
-      <c r="G16" s="54"/>
-      <c r="H16" s="163">
-        <v>3</v>
-      </c>
-      <c r="I16" s="154" t="s">
-        <v>31</v>
-      </c>
-      <c r="J16" s="111" t="s">
-        <v>1161</v>
-      </c>
-      <c r="L16" s="163">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A17" s="154" t="s">
-        <v>32</v>
-      </c>
-      <c r="B17" s="80" t="s">
-        <v>1170</v>
-      </c>
-      <c r="D17" s="163">
-        <v>4</v>
-      </c>
-      <c r="E17" s="154" t="s">
-        <v>33</v>
-      </c>
-      <c r="F17" s="80"/>
-      <c r="G17" s="54"/>
-      <c r="H17" s="163">
-        <v>0</v>
-      </c>
-      <c r="I17" s="154" t="s">
-        <v>34</v>
-      </c>
-      <c r="J17" s="80"/>
-      <c r="L17" s="163">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A18" s="154" t="s">
-        <v>436</v>
-      </c>
-      <c r="B18" s="80"/>
-      <c r="D18" s="163">
-        <v>1</v>
-      </c>
-      <c r="E18" s="154" t="s">
-        <v>437</v>
-      </c>
-      <c r="F18" s="111"/>
-      <c r="G18" s="54"/>
-      <c r="H18" s="163">
-        <v>2</v>
-      </c>
-      <c r="I18" s="154" t="s">
-        <v>36</v>
-      </c>
-      <c r="J18" s="80"/>
-      <c r="L18" s="163">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A19" s="154" t="s">
-        <v>26</v>
-      </c>
-      <c r="B19" s="80"/>
-      <c r="D19" s="163">
-        <v>0</v>
-      </c>
-      <c r="E19" s="154" t="s">
-        <v>38</v>
-      </c>
-      <c r="F19" s="80" t="s">
-        <v>1171</v>
-      </c>
-      <c r="G19" s="54"/>
-      <c r="H19" s="163">
-        <v>4</v>
-      </c>
-      <c r="I19" s="154" t="s">
-        <v>45</v>
-      </c>
-      <c r="J19" s="80"/>
-      <c r="L19" s="163">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A20" s="154" t="s">
-        <v>27</v>
-      </c>
-      <c r="B20" s="80"/>
-      <c r="D20" s="163">
-        <v>2</v>
-      </c>
-      <c r="E20" s="154" t="s">
-        <v>39</v>
-      </c>
-      <c r="F20" s="80"/>
-      <c r="G20" s="54"/>
-      <c r="H20" s="163">
-        <v>2</v>
-      </c>
-      <c r="I20" s="154" t="s">
-        <v>46</v>
-      </c>
-      <c r="J20" s="80"/>
-      <c r="L20" s="163">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A21" s="154" t="s">
-        <v>28</v>
-      </c>
-      <c r="B21" s="80"/>
-      <c r="D21" s="163">
-        <v>1</v>
-      </c>
-      <c r="E21" s="154" t="s">
-        <v>40</v>
-      </c>
-      <c r="F21" s="80"/>
-      <c r="G21" s="54"/>
-      <c r="H21" s="163">
-        <v>0</v>
-      </c>
-      <c r="I21" s="154" t="s">
-        <v>47</v>
-      </c>
-      <c r="J21" s="80"/>
-      <c r="L21" s="163">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A22" s="154" t="s">
-        <v>24</v>
-      </c>
-      <c r="B22" s="80"/>
-      <c r="D22" s="163">
-        <v>0</v>
-      </c>
-      <c r="E22" s="154" t="s">
-        <v>41</v>
-      </c>
-      <c r="F22" s="80"/>
-      <c r="G22" s="54"/>
-      <c r="H22" s="163">
-        <v>0</v>
-      </c>
-      <c r="I22" s="154" t="s">
-        <v>48</v>
-      </c>
-      <c r="J22" s="80"/>
-      <c r="L22" s="163">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A23" s="154" t="s">
-        <v>1011</v>
-      </c>
-      <c r="B23" s="80"/>
-      <c r="D23" s="163">
-        <v>0</v>
-      </c>
-      <c r="E23" s="154" t="s">
-        <v>42</v>
-      </c>
-      <c r="F23" s="80"/>
-      <c r="G23" s="54"/>
-      <c r="H23" s="163">
-        <v>0</v>
-      </c>
-      <c r="I23" s="154" t="s">
-        <v>49</v>
-      </c>
-      <c r="J23" s="80"/>
-      <c r="L23" s="163">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A24" s="154" t="s">
-        <v>358</v>
-      </c>
-      <c r="B24" s="80"/>
-      <c r="D24" s="163">
-        <v>2</v>
-      </c>
-      <c r="E24" s="154" t="s">
-        <v>43</v>
-      </c>
-      <c r="G24" s="54"/>
-      <c r="H24" s="163">
-        <v>0</v>
-      </c>
-      <c r="I24" s="154" t="s">
-        <v>50</v>
-      </c>
-      <c r="J24" s="80"/>
-      <c r="L24" s="163">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A25" s="154" t="s">
-        <v>29</v>
-      </c>
-      <c r="B25" s="80"/>
-      <c r="D25" s="163">
-        <v>2</v>
-      </c>
-      <c r="E25" s="154" t="s">
-        <v>44</v>
-      </c>
-      <c r="F25" s="80"/>
-      <c r="G25" s="54"/>
-      <c r="H25" s="163">
-        <v>0</v>
-      </c>
-      <c r="I25" s="154" t="s">
-        <v>51</v>
-      </c>
-      <c r="J25" s="80"/>
-      <c r="L25" s="163">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="C27" s="75"/>
-      <c r="G27" s="75"/>
-      <c r="K27" s="75"/>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A28" s="73"/>
-      <c r="B28" s="72" t="s">
-        <v>56</v>
-      </c>
-      <c r="C28" s="73"/>
-      <c r="D28" s="73"/>
-      <c r="E28" s="73"/>
-      <c r="F28" s="73"/>
-      <c r="H28" s="73"/>
-      <c r="I28" s="72" t="s">
-        <v>57</v>
-      </c>
-      <c r="J28" s="73"/>
-      <c r="K28" s="55"/>
-      <c r="L28" s="170" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="80" t="s">
-        <v>0</v>
-      </c>
-      <c r="B29" s="75" t="s">
-        <v>73</v>
-      </c>
-      <c r="C29" s="80" t="s">
-        <v>61</v>
-      </c>
-      <c r="G29" s="73"/>
-      <c r="H29" s="166" t="s">
-        <v>58</v>
-      </c>
-      <c r="J29" s="167">
-        <v>3</v>
-      </c>
-      <c r="K29" s="162" t="s">
-        <v>465</v>
-      </c>
-      <c r="L29" s="54"/>
-    </row>
-    <row r="30" spans="1:12" s="73" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="57" t="s">
-        <v>1164</v>
-      </c>
-      <c r="B30" s="54">
-        <v>1</v>
-      </c>
-      <c r="C30" s="175" t="s">
-        <v>1165</v>
-      </c>
-      <c r="D30" s="57"/>
-      <c r="E30" s="57"/>
-      <c r="F30" s="57"/>
-      <c r="G30" s="57"/>
-      <c r="H30" s="166" t="s">
-        <v>342</v>
-      </c>
-      <c r="I30" s="57"/>
-      <c r="J30" s="167">
-        <v>4</v>
-      </c>
-      <c r="K30" s="55" t="s">
-        <v>477</v>
-      </c>
-      <c r="L30" s="54"/>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A31" s="238" t="s">
-        <v>1166</v>
-      </c>
-      <c r="B31" s="54">
-        <v>1</v>
-      </c>
-      <c r="C31" s="80" t="s">
-        <v>1167</v>
-      </c>
-      <c r="H31" s="166" t="s">
-        <v>59</v>
-      </c>
-      <c r="J31" s="167">
-        <v>3</v>
-      </c>
-      <c r="K31" s="55" t="s">
-        <v>479</v>
-      </c>
-      <c r="L31" s="54"/>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A32" s="238" t="s">
-        <v>1166</v>
-      </c>
-      <c r="B32" s="54">
-        <v>2</v>
-      </c>
-      <c r="C32" s="80" t="s">
-        <v>1168</v>
-      </c>
-      <c r="H32" s="63" t="s">
-        <v>70</v>
-      </c>
-      <c r="J32" s="167" t="s">
-        <v>131</v>
-      </c>
-      <c r="L32" s="54"/>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A33" s="233"/>
-      <c r="B33" s="234"/>
-      <c r="C33" s="240" t="s">
-        <v>1169</v>
-      </c>
-      <c r="D33" s="233"/>
-      <c r="E33" s="233"/>
-      <c r="F33" s="233"/>
-      <c r="H33" s="63" t="s">
-        <v>66</v>
-      </c>
-      <c r="J33" s="167">
-        <v>7</v>
-      </c>
-      <c r="K33" s="162" t="s">
-        <v>464</v>
-      </c>
-      <c r="L33" s="54"/>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A34" s="61"/>
-      <c r="B34" s="61"/>
-      <c r="C34" s="61"/>
-      <c r="D34" s="61"/>
-      <c r="E34" s="61"/>
-      <c r="F34" s="61"/>
-      <c r="L34" s="215" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="H35" s="63" t="s">
-        <v>20</v>
-      </c>
-      <c r="J35" s="167">
-        <v>5</v>
-      </c>
-      <c r="K35" s="162" t="s">
-        <v>478</v>
-      </c>
-      <c r="L35" s="54"/>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A36" s="66"/>
-      <c r="B36" s="66"/>
-      <c r="C36" s="66"/>
-      <c r="D36" s="66"/>
-      <c r="E36" s="66"/>
-      <c r="F36" s="66"/>
-      <c r="H36" s="63" t="s">
-        <v>1019</v>
-      </c>
-      <c r="J36" s="167">
-        <v>12</v>
-      </c>
-      <c r="K36" s="162" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="G37" s="73"/>
-      <c r="H37" s="63" t="s">
-        <v>341</v>
-      </c>
-      <c r="I37" s="73"/>
-      <c r="J37" s="167">
-        <f>7-J30</f>
-        <v>3</v>
-      </c>
-      <c r="K37" s="162" t="s">
-        <v>481</v>
-      </c>
-      <c r="L37" s="73"/>
-    </row>
-    <row r="38" spans="1:12" s="73" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="157"/>
-      <c r="B38" s="157"/>
-      <c r="C38" s="157"/>
-      <c r="D38" s="157"/>
-      <c r="E38" s="157"/>
-      <c r="F38" s="157"/>
-      <c r="H38" s="57"/>
-      <c r="I38" s="57"/>
-      <c r="J38" s="57"/>
-      <c r="K38" s="54"/>
-      <c r="L38" s="57"/>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A39" s="66"/>
-      <c r="B39" s="66"/>
-      <c r="C39" s="66"/>
-      <c r="D39" s="66"/>
-      <c r="E39" s="66"/>
-      <c r="F39" s="66"/>
-      <c r="H39" s="63" t="s">
-        <v>495</v>
-      </c>
-      <c r="I39" s="171"/>
-      <c r="J39" s="171"/>
-      <c r="K39" s="73"/>
-      <c r="L39" s="73"/>
-    </row>
-    <row r="40" spans="1:12" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H40" s="63" t="s">
-        <v>496</v>
-      </c>
-      <c r="I40" s="66"/>
-      <c r="J40" s="66"/>
-    </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A41" s="157"/>
-      <c r="B41" s="158"/>
-      <c r="C41" s="157"/>
-      <c r="D41" s="66"/>
-      <c r="E41" s="69"/>
-      <c r="F41" s="66"/>
-      <c r="G41" s="73"/>
-    </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B42" s="54"/>
-      <c r="D42" s="54"/>
-      <c r="E42" s="153"/>
-      <c r="H42" s="90" t="s">
-        <v>366</v>
-      </c>
-      <c r="I42" s="75" t="s">
-        <v>182</v>
-      </c>
-      <c r="J42" s="75" t="s">
-        <v>142</v>
-      </c>
-      <c r="K42" s="75" t="s">
-        <v>143</v>
-      </c>
-      <c r="L42" s="75" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A43" s="68"/>
-      <c r="B43" s="68"/>
-      <c r="C43" s="69"/>
-      <c r="D43" s="108"/>
-      <c r="E43" s="109"/>
-      <c r="F43" s="66"/>
-      <c r="H43" s="172"/>
-      <c r="I43" s="172" t="s">
-        <v>500</v>
-      </c>
-      <c r="J43" s="172" t="s">
-        <v>498</v>
-      </c>
-      <c r="K43" s="172" t="s">
-        <v>499</v>
-      </c>
-      <c r="L43" s="172" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A44" s="152"/>
-      <c r="B44" s="152"/>
-      <c r="C44" s="54"/>
-      <c r="D44" s="55"/>
-      <c r="E44" s="153"/>
-      <c r="H44" s="63" t="s">
-        <v>156</v>
-      </c>
-      <c r="I44" s="167">
-        <v>0</v>
-      </c>
-      <c r="J44" s="159" t="b">
-        <v>0</v>
-      </c>
-      <c r="K44" s="160" t="b">
-        <v>0</v>
-      </c>
-      <c r="L44" s="159" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:12" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="68"/>
-      <c r="B45" s="68"/>
-      <c r="C45" s="69"/>
-      <c r="D45" s="168"/>
-      <c r="E45" s="109"/>
-      <c r="F45" s="66"/>
-      <c r="H45" s="63" t="s">
-        <v>157</v>
-      </c>
-      <c r="I45" s="167">
-        <v>-1</v>
-      </c>
-      <c r="J45" s="161" t="b">
-        <v>0</v>
-      </c>
-      <c r="K45" s="160" t="b">
-        <v>0</v>
-      </c>
-      <c r="L45" s="159" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="C46" s="54"/>
-      <c r="D46" s="80"/>
-      <c r="E46" s="54"/>
-      <c r="H46" s="63" t="s">
-        <v>158</v>
-      </c>
-      <c r="I46" s="167">
-        <v>-1</v>
-      </c>
-      <c r="J46" s="159" t="b">
-        <v>0</v>
-      </c>
-      <c r="K46" s="160" t="b">
-        <v>0</v>
-      </c>
-      <c r="L46" s="159" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A47" s="68"/>
-      <c r="B47" s="68"/>
-      <c r="C47" s="69"/>
-      <c r="D47" s="108"/>
-      <c r="E47" s="109"/>
-      <c r="F47" s="66"/>
-      <c r="H47" s="63" t="s">
-        <v>159</v>
-      </c>
-      <c r="I47" s="167">
-        <v>-2</v>
-      </c>
-      <c r="J47" s="159" t="b">
-        <v>0</v>
-      </c>
-      <c r="K47" s="160" t="b">
-        <v>0</v>
-      </c>
-      <c r="L47" s="159" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A48" s="152"/>
-      <c r="B48" s="152"/>
-      <c r="C48" s="54"/>
-      <c r="D48" s="55"/>
-      <c r="E48" s="153"/>
-      <c r="H48" s="63" t="s">
-        <v>441</v>
-      </c>
-      <c r="I48" s="167">
-        <v>-2</v>
-      </c>
-      <c r="J48" s="159" t="b">
-        <v>0</v>
-      </c>
-      <c r="K48" s="160" t="b">
-        <v>0</v>
-      </c>
-      <c r="L48" s="159" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A49" s="66"/>
-      <c r="B49" s="69"/>
-      <c r="C49" s="66"/>
-      <c r="D49" s="82"/>
-      <c r="E49" s="66"/>
-      <c r="F49" s="66"/>
-      <c r="H49" s="63" t="s">
-        <v>161</v>
-      </c>
-      <c r="I49" s="167">
-        <v>-5</v>
-      </c>
-      <c r="J49" s="159" t="b">
-        <v>0</v>
-      </c>
-      <c r="K49" s="160" t="b">
-        <v>0</v>
-      </c>
-      <c r="L49" s="159" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A50" s="66"/>
-      <c r="B50" s="69"/>
-      <c r="C50" s="66"/>
-      <c r="D50" s="82"/>
-      <c r="E50" s="66"/>
-      <c r="F50" s="66"/>
-      <c r="H50" s="63" t="s">
-        <v>162</v>
-      </c>
-      <c r="I50" s="167" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A51" s="80" t="s">
-        <v>55</v>
-      </c>
-      <c r="C51" s="75" t="s">
-        <v>73</v>
-      </c>
-      <c r="D51" s="80" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A52" s="165" t="s">
-        <v>453</v>
-      </c>
-      <c r="C52" s="54">
-        <v>2</v>
-      </c>
-      <c r="D52" s="80" t="s">
-        <v>1199</v>
-      </c>
-    </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A53" s="165" t="s">
-        <v>100</v>
-      </c>
-      <c r="C53" s="54">
-        <v>2</v>
-      </c>
-      <c r="D53" s="80" t="s">
-        <v>1227</v>
-      </c>
-    </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A54" s="165" t="s">
-        <v>102</v>
-      </c>
-      <c r="C54" s="54">
-        <v>2</v>
-      </c>
-      <c r="D54" s="80" t="s">
-        <v>1177</v>
-      </c>
-      <c r="E54" s="155"/>
-    </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A55" s="165" t="s">
-        <v>5</v>
-      </c>
-      <c r="C55" s="54">
-        <v>2</v>
-      </c>
-      <c r="D55" s="80" t="s">
-        <v>1217</v>
-      </c>
-      <c r="E55" s="155"/>
-    </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A56" s="165" t="s">
-        <v>96</v>
-      </c>
-      <c r="C56" s="54">
-        <v>3</v>
-      </c>
-      <c r="D56" s="80" t="s">
-        <v>1174</v>
-      </c>
-      <c r="E56" s="155"/>
-    </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A57" s="165" t="s">
-        <v>98</v>
-      </c>
-      <c r="C57" s="54">
-        <v>2</v>
-      </c>
-      <c r="D57" s="80" t="s">
-        <v>1037</v>
-      </c>
-      <c r="E57" s="155"/>
-    </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="E58" s="155"/>
-    </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A59" s="214"/>
-      <c r="B59" s="66"/>
-      <c r="C59" s="69"/>
-      <c r="D59" s="82"/>
-      <c r="E59" s="214"/>
-      <c r="F59" s="66"/>
-      <c r="G59" s="66"/>
-      <c r="H59" s="66"/>
-      <c r="I59" s="66"/>
-      <c r="J59" s="66"/>
-      <c r="K59" s="69"/>
-      <c r="L59" s="66"/>
-    </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A60" s="214"/>
-      <c r="B60" s="66"/>
-      <c r="C60" s="69"/>
-      <c r="D60" s="82"/>
-      <c r="E60" s="214"/>
-      <c r="F60" s="66"/>
-      <c r="G60" s="66"/>
-      <c r="H60" s="66"/>
-      <c r="I60" s="66"/>
-      <c r="J60" s="66"/>
-      <c r="K60" s="69"/>
-      <c r="L60" s="66"/>
-    </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A61" s="155"/>
-      <c r="C61" s="54"/>
-      <c r="D61" s="80"/>
-      <c r="E61" s="155"/>
-    </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A62" s="55" t="s">
-        <v>1028</v>
-      </c>
-      <c r="C62" s="75" t="s">
-        <v>203</v>
-      </c>
-      <c r="D62" s="80" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A63" s="165" t="s">
-        <v>1175</v>
-      </c>
-      <c r="C63" s="54">
-        <v>-3</v>
-      </c>
-      <c r="D63" s="80" t="s">
-        <v>1187</v>
-      </c>
-    </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A64" s="63"/>
-      <c r="D64" s="238" t="s">
-        <v>1186</v>
-      </c>
-    </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A65" s="165" t="s">
-        <v>1176</v>
-      </c>
-      <c r="C65" s="54">
-        <v>-3</v>
-      </c>
-      <c r="D65" s="238" t="s">
-        <v>1185</v>
-      </c>
-    </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A66" s="165"/>
-      <c r="C66" s="54"/>
-      <c r="D66" s="80"/>
-    </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A67" s="241"/>
-      <c r="B67" s="66"/>
-      <c r="C67" s="69"/>
-      <c r="D67" s="82"/>
-      <c r="E67" s="66"/>
-      <c r="F67" s="66"/>
-      <c r="G67" s="66"/>
-      <c r="H67" s="66"/>
-      <c r="I67" s="66"/>
-      <c r="J67" s="66"/>
-      <c r="K67" s="69"/>
-      <c r="L67" s="66"/>
-    </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A68" s="241"/>
-      <c r="B68" s="66"/>
-      <c r="C68" s="69"/>
-      <c r="D68" s="82"/>
-      <c r="E68" s="66"/>
-      <c r="F68" s="66"/>
-      <c r="G68" s="66"/>
-      <c r="H68" s="66"/>
-      <c r="I68" s="66"/>
-      <c r="J68" s="66"/>
-      <c r="K68" s="69"/>
-      <c r="L68" s="66"/>
-    </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A70" s="66"/>
-      <c r="B70" s="66"/>
-      <c r="C70" s="66"/>
-      <c r="D70" s="66"/>
-      <c r="E70" s="66"/>
-      <c r="F70" s="66"/>
-      <c r="G70" s="66"/>
-      <c r="H70" s="66"/>
-      <c r="I70" s="66"/>
-      <c r="J70" s="66"/>
-      <c r="K70" s="69"/>
-      <c r="L70" s="66"/>
-    </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A71" s="66"/>
-      <c r="B71" s="66"/>
-      <c r="C71" s="66"/>
-      <c r="D71" s="66"/>
-      <c r="E71" s="66"/>
-      <c r="F71" s="66"/>
-      <c r="G71" s="66"/>
-      <c r="H71" s="66"/>
-      <c r="I71" s="66"/>
-      <c r="J71" s="66"/>
-      <c r="K71" s="69"/>
-      <c r="L71" s="66"/>
-    </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A73" s="57" t="s">
-        <v>105</v>
-      </c>
-      <c r="C73" s="63" t="s">
-        <v>1203</v>
-      </c>
-    </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A74" s="57" t="s">
-        <v>106</v>
-      </c>
-      <c r="C74" s="63" t="s">
-        <v>1188</v>
-      </c>
-    </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A75" s="57" t="s">
-        <v>98</v>
-      </c>
-      <c r="C75" s="63" t="s">
-        <v>1189</v>
-      </c>
-    </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A76" s="57" t="s">
-        <v>108</v>
-      </c>
-      <c r="C76" s="100"/>
-      <c r="D76" s="61"/>
-      <c r="E76" s="61"/>
-      <c r="F76" s="61"/>
-      <c r="G76" s="61"/>
-      <c r="H76" s="61"/>
-      <c r="I76" s="61"/>
-      <c r="J76" s="61"/>
-      <c r="K76" s="78"/>
-      <c r="L76" s="61"/>
-    </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A78" s="57" t="s">
-        <v>110</v>
-      </c>
-      <c r="C78" s="57" t="s">
-        <v>109</v>
-      </c>
-      <c r="E78" s="57" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A79" s="80" t="s">
-        <v>1039</v>
-      </c>
-      <c r="B79" s="80"/>
-      <c r="C79" s="80" t="s">
-        <v>1190</v>
-      </c>
-      <c r="E79" s="57" t="s">
-        <v>1191</v>
-      </c>
-    </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A80" s="81"/>
-      <c r="B80" s="81"/>
-      <c r="C80" s="81"/>
-      <c r="D80" s="61"/>
-      <c r="E80" s="61"/>
-      <c r="F80" s="61"/>
-      <c r="G80" s="61"/>
-      <c r="H80" s="61"/>
-      <c r="I80" s="61"/>
-      <c r="J80" s="61"/>
-      <c r="K80" s="78"/>
-      <c r="L80" s="61"/>
-    </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A81" s="82"/>
-      <c r="B81" s="82"/>
-      <c r="C81" s="82"/>
-      <c r="D81" s="66"/>
-      <c r="E81" s="66"/>
-      <c r="F81" s="66"/>
-      <c r="G81" s="66"/>
-      <c r="H81" s="66"/>
-      <c r="I81" s="66"/>
-      <c r="J81" s="66"/>
-      <c r="K81" s="69"/>
-      <c r="L81" s="66"/>
-    </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B83" s="54" t="s">
-        <v>17</v>
-      </c>
-      <c r="J83" s="54" t="s">
-        <v>123</v>
-      </c>
-      <c r="K83" s="57"/>
-      <c r="L83" s="54"/>
-    </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A84" s="80" t="s">
-        <v>113</v>
-      </c>
-      <c r="C84" s="212">
-        <v>35</v>
-      </c>
-      <c r="E84" s="80" t="s">
-        <v>118</v>
-      </c>
-      <c r="G84" s="212" t="s">
-        <v>1194</v>
-      </c>
-      <c r="I84" s="57" t="s">
-        <v>0</v>
-      </c>
-      <c r="K84" s="57" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A85" s="80" t="s">
-        <v>112</v>
-      </c>
-      <c r="B85" s="66"/>
-      <c r="C85" s="211">
-        <v>0</v>
-      </c>
-      <c r="E85" s="80" t="s">
-        <v>119</v>
-      </c>
-      <c r="F85" s="66"/>
-      <c r="G85" s="236" t="s">
-        <v>392</v>
-      </c>
-      <c r="I85" s="66"/>
-      <c r="J85" s="66"/>
-      <c r="K85" s="66"/>
-      <c r="L85" s="69"/>
-    </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A86" s="80" t="s">
-        <v>114</v>
-      </c>
-      <c r="C86" s="213">
-        <v>32939</v>
-      </c>
-      <c r="E86" s="80" t="s">
-        <v>120</v>
-      </c>
-      <c r="G86" s="212" t="s">
-        <v>1195</v>
-      </c>
-      <c r="I86" s="85"/>
-      <c r="J86" s="85"/>
-      <c r="K86" s="85"/>
-      <c r="L86" s="131"/>
-    </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A87" s="80" t="s">
-        <v>115</v>
-      </c>
-      <c r="B87" s="66"/>
-      <c r="C87" s="213">
-        <v>45943</v>
-      </c>
-      <c r="E87" s="80" t="s">
-        <v>121</v>
-      </c>
-      <c r="F87" s="66"/>
-      <c r="G87" s="211" t="s">
-        <v>1196</v>
-      </c>
-      <c r="I87" s="66"/>
-      <c r="J87" s="66"/>
-      <c r="K87" s="66"/>
-      <c r="L87" s="69"/>
-    </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A88" s="80" t="s">
-        <v>116</v>
-      </c>
-      <c r="C88" s="212" t="s">
-        <v>1192</v>
-      </c>
-      <c r="E88" s="80" t="s">
-        <v>122</v>
-      </c>
-      <c r="G88" s="212" t="s">
-        <v>1197</v>
-      </c>
-      <c r="K88" s="57"/>
-      <c r="L88" s="54"/>
-    </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A89" s="80" t="s">
-        <v>117</v>
-      </c>
-      <c r="B89" s="66"/>
-      <c r="C89" s="211" t="s">
-        <v>1193</v>
-      </c>
-      <c r="E89" s="80"/>
-      <c r="F89" s="66"/>
-      <c r="G89" s="211"/>
-      <c r="I89" s="66"/>
-      <c r="J89" s="66"/>
-      <c r="K89" s="66"/>
-      <c r="L89" s="69"/>
-    </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="I90" s="61"/>
-      <c r="J90" s="61"/>
-      <c r="K90" s="61"/>
-      <c r="L90" s="78"/>
-    </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A92" s="90" t="s">
-        <v>1070</v>
-      </c>
-    </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A93" s="237" t="s">
-        <v>1198</v>
-      </c>
-      <c r="B93" s="237"/>
-      <c r="C93" s="237"/>
-      <c r="D93" s="237"/>
-      <c r="E93" s="237"/>
-      <c r="F93" s="237"/>
-      <c r="G93" s="237"/>
-      <c r="H93" s="237"/>
-      <c r="I93" s="237"/>
-      <c r="J93" s="237"/>
-      <c r="K93" s="237"/>
-      <c r="L93" s="237"/>
-    </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A94" s="237"/>
-      <c r="B94" s="237"/>
-      <c r="C94" s="237"/>
-      <c r="D94" s="237"/>
-      <c r="E94" s="237"/>
-      <c r="F94" s="237"/>
-      <c r="G94" s="237"/>
-      <c r="H94" s="237"/>
-      <c r="I94" s="237"/>
-      <c r="J94" s="237"/>
-      <c r="K94" s="237"/>
-      <c r="L94" s="237"/>
-    </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A95" s="237"/>
-      <c r="B95" s="237"/>
-      <c r="C95" s="237"/>
-      <c r="D95" s="237"/>
-      <c r="E95" s="237"/>
-      <c r="F95" s="237"/>
-      <c r="G95" s="237"/>
-      <c r="H95" s="237"/>
-      <c r="I95" s="237"/>
-      <c r="J95" s="237"/>
-      <c r="K95" s="237"/>
-      <c r="L95" s="237"/>
-    </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A96" s="237"/>
-      <c r="B96" s="237"/>
-      <c r="C96" s="237"/>
-      <c r="D96" s="237"/>
-      <c r="E96" s="237"/>
-      <c r="F96" s="237"/>
-      <c r="G96" s="237"/>
-      <c r="H96" s="237"/>
-      <c r="I96" s="237"/>
-      <c r="J96" s="237"/>
-      <c r="K96" s="237"/>
-      <c r="L96" s="237"/>
-    </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A97" s="90" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="98" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A98" s="216" t="s">
-        <v>1202</v>
-      </c>
-      <c r="B98" s="216"/>
-      <c r="C98" s="216"/>
-      <c r="D98" s="216"/>
-      <c r="E98" s="216"/>
-      <c r="F98" s="216"/>
-      <c r="G98" s="216"/>
-      <c r="H98" s="216"/>
-      <c r="I98" s="216"/>
-      <c r="J98" s="216"/>
-      <c r="K98" s="216"/>
-      <c r="L98" s="216"/>
-    </row>
-    <row r="99" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A99" s="216"/>
-      <c r="B99" s="216"/>
-      <c r="C99" s="216"/>
-      <c r="D99" s="216"/>
-      <c r="E99" s="216"/>
-      <c r="F99" s="216"/>
-      <c r="G99" s="216"/>
-      <c r="H99" s="216"/>
-      <c r="I99" s="216"/>
-      <c r="J99" s="216"/>
-      <c r="K99" s="216"/>
-      <c r="L99" s="216"/>
-    </row>
-    <row r="100" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A100" s="216"/>
-      <c r="B100" s="216"/>
-      <c r="C100" s="216"/>
-      <c r="D100" s="216"/>
-      <c r="E100" s="216"/>
-      <c r="F100" s="216"/>
-      <c r="G100" s="216"/>
-      <c r="H100" s="216"/>
-      <c r="I100" s="216"/>
-      <c r="J100" s="216"/>
-      <c r="K100" s="216"/>
-      <c r="L100" s="216"/>
-    </row>
-    <row r="101" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="F101" s="72" t="s">
-        <v>1066</v>
-      </c>
-    </row>
-    <row r="102" spans="1:12" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A102" s="57" t="s">
-        <v>78</v>
-      </c>
-      <c r="C102" s="57" t="s">
-        <v>73</v>
-      </c>
-      <c r="D102" s="57" t="s">
-        <v>81</v>
-      </c>
-      <c r="E102" s="57" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="103" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A103" s="240" t="s">
-        <v>407</v>
-      </c>
-      <c r="B103" s="233"/>
-      <c r="C103" s="245">
-        <v>1</v>
-      </c>
-      <c r="D103" s="247" t="s">
-        <v>1068</v>
-      </c>
-      <c r="E103" s="240" t="s">
-        <v>483</v>
-      </c>
-      <c r="F103" s="233"/>
-      <c r="G103" s="233"/>
-      <c r="H103" s="233"/>
-      <c r="I103" s="233"/>
-      <c r="J103" s="233"/>
-      <c r="K103" s="234"/>
-      <c r="L103" s="233"/>
-    </row>
-    <row r="104" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A104" s="240" t="s">
-        <v>1183</v>
-      </c>
-      <c r="B104" s="233"/>
-      <c r="C104" s="245" t="s">
-        <v>131</v>
-      </c>
-      <c r="D104" s="247" t="s">
-        <v>1071</v>
-      </c>
-      <c r="E104" s="246" t="s">
-        <v>1184</v>
-      </c>
-      <c r="F104" s="233"/>
-      <c r="G104" s="233"/>
-      <c r="H104" s="233"/>
-      <c r="I104" s="233"/>
-      <c r="J104" s="233"/>
-      <c r="K104" s="234"/>
-      <c r="L104" s="233"/>
-    </row>
-    <row r="105" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A105" s="61"/>
-      <c r="B105" s="61"/>
-      <c r="C105" s="61"/>
-      <c r="D105" s="133"/>
-      <c r="E105" s="100"/>
-      <c r="F105" s="61"/>
-      <c r="G105" s="61"/>
-      <c r="H105" s="61"/>
-      <c r="I105" s="61"/>
-      <c r="J105" s="61"/>
-      <c r="K105" s="78"/>
-      <c r="L105" s="61"/>
-    </row>
-    <row r="106" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="D106" s="134"/>
-      <c r="E106" s="99"/>
-    </row>
-    <row r="107" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A107" s="66"/>
-      <c r="B107" s="66"/>
-      <c r="C107" s="66"/>
-      <c r="D107" s="134"/>
-      <c r="E107" s="99"/>
-      <c r="F107" s="66"/>
-      <c r="G107" s="66"/>
-      <c r="H107" s="66"/>
-      <c r="I107" s="66"/>
-      <c r="J107" s="66"/>
-      <c r="K107" s="69"/>
-      <c r="L107" s="66"/>
-    </row>
-    <row r="108" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A108" s="66"/>
-      <c r="B108" s="66"/>
-      <c r="C108" s="66"/>
-      <c r="D108" s="66"/>
-      <c r="E108" s="66"/>
-      <c r="F108" s="66"/>
-      <c r="G108" s="66"/>
-      <c r="H108" s="66"/>
-      <c r="I108" s="66"/>
-      <c r="J108" s="66"/>
-      <c r="K108" s="69"/>
-      <c r="L108" s="66"/>
-    </row>
-    <row r="110" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="F110" s="72" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="111" spans="1:12" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A111" s="80" t="s">
-        <v>81</v>
-      </c>
-      <c r="B111" s="80" t="s">
-        <v>82</v>
-      </c>
-      <c r="C111" s="80" t="s">
-        <v>61</v>
-      </c>
-      <c r="D111" s="80"/>
-      <c r="E111" s="80"/>
-      <c r="F111" s="80" t="s">
-        <v>83</v>
-      </c>
-      <c r="G111" s="80" t="s">
-        <v>86</v>
-      </c>
-      <c r="H111" s="80" t="s">
-        <v>85</v>
-      </c>
-      <c r="I111" s="80" t="s">
-        <v>84</v>
-      </c>
-      <c r="J111" s="80" t="s">
-        <v>87</v>
-      </c>
-      <c r="K111" s="75"/>
-      <c r="L111" s="80"/>
-    </row>
-    <row r="113" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A113" s="66"/>
-      <c r="B113" s="66"/>
-      <c r="C113" s="66"/>
-      <c r="D113" s="66"/>
-      <c r="E113" s="66"/>
-      <c r="F113" s="66"/>
-      <c r="G113" s="66"/>
-      <c r="H113" s="66"/>
-      <c r="I113" s="66"/>
-      <c r="J113" s="66"/>
-      <c r="K113" s="69"/>
-      <c r="L113" s="66"/>
-    </row>
-    <row r="115" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A115" s="66"/>
-      <c r="B115" s="66"/>
-      <c r="C115" s="66"/>
-      <c r="D115" s="66"/>
-      <c r="E115" s="66"/>
-      <c r="F115" s="66"/>
-      <c r="G115" s="66"/>
-      <c r="H115" s="66"/>
-      <c r="I115" s="66"/>
-      <c r="J115" s="66"/>
-      <c r="K115" s="69"/>
-      <c r="L115" s="66"/>
-    </row>
-    <row r="117" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A117" s="66"/>
-      <c r="B117" s="66"/>
-      <c r="C117" s="66"/>
-      <c r="D117" s="66"/>
-      <c r="E117" s="66"/>
-      <c r="F117" s="66"/>
-      <c r="G117" s="66"/>
-      <c r="H117" s="66"/>
-      <c r="I117" s="66"/>
-      <c r="J117" s="66"/>
-      <c r="K117" s="69"/>
-      <c r="L117" s="66"/>
-    </row>
-    <row r="119" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A119" s="66"/>
-      <c r="B119" s="66"/>
-      <c r="C119" s="66"/>
-      <c r="D119" s="66"/>
-      <c r="E119" s="66"/>
-      <c r="F119" s="66"/>
-      <c r="G119" s="66"/>
-      <c r="H119" s="66"/>
-      <c r="I119" s="66"/>
-      <c r="J119" s="66"/>
-      <c r="K119" s="69"/>
-      <c r="L119" s="66"/>
-    </row>
-    <row r="121" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A121" s="66"/>
-      <c r="B121" s="66"/>
-      <c r="C121" s="66"/>
-      <c r="D121" s="66"/>
-      <c r="E121" s="66"/>
-      <c r="F121" s="66"/>
-      <c r="G121" s="66"/>
-      <c r="H121" s="66"/>
-      <c r="I121" s="66"/>
-      <c r="J121" s="66"/>
-      <c r="K121" s="69"/>
-      <c r="L121" s="66"/>
-    </row>
-    <row r="123" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="F123" s="72" t="s">
-        <v>1131</v>
-      </c>
-    </row>
-    <row r="124" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A124" s="63" t="s">
-        <v>1172</v>
-      </c>
-      <c r="B124" s="63"/>
-      <c r="C124" s="155" t="s">
-        <v>96</v>
-      </c>
-      <c r="D124" s="63" t="s">
-        <v>1173</v>
-      </c>
-    </row>
-    <row r="125" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A125" s="232" t="s">
-        <v>1178</v>
-      </c>
-      <c r="B125" s="232"/>
-      <c r="C125" s="239" t="s">
-        <v>1179</v>
-      </c>
-      <c r="D125" s="240" t="s">
-        <v>1180</v>
-      </c>
-      <c r="E125" s="233"/>
-      <c r="F125" s="233"/>
-      <c r="G125" s="233"/>
-      <c r="H125" s="233"/>
-      <c r="I125" s="233"/>
-      <c r="J125" s="233"/>
-      <c r="K125" s="234"/>
-      <c r="L125" s="233"/>
-    </row>
-    <row r="126" spans="1:12" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A126" s="232" t="s">
-        <v>1181</v>
-      </c>
-      <c r="B126" s="232"/>
-      <c r="C126" s="239" t="s">
-        <v>1179</v>
-      </c>
-      <c r="D126" s="232" t="s">
-        <v>1182</v>
-      </c>
-      <c r="E126" s="233"/>
-      <c r="F126" s="233"/>
-      <c r="G126" s="233"/>
-      <c r="H126" s="233"/>
-      <c r="I126" s="233"/>
-      <c r="J126" s="233"/>
-      <c r="K126" s="234"/>
-      <c r="L126" s="233"/>
-    </row>
-    <row r="127" spans="1:12" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A127" s="100"/>
-      <c r="B127" s="100"/>
-      <c r="C127" s="100"/>
-      <c r="D127" s="100"/>
-      <c r="E127" s="61"/>
-      <c r="F127" s="61"/>
-      <c r="G127" s="61"/>
-      <c r="H127" s="61"/>
-      <c r="I127" s="61"/>
-      <c r="J127" s="61"/>
-      <c r="K127" s="78"/>
-      <c r="L127" s="61"/>
-    </row>
-    <row r="128" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A128" s="61"/>
-      <c r="B128" s="61"/>
-      <c r="C128" s="61"/>
-      <c r="D128" s="61"/>
-      <c r="E128" s="61"/>
-      <c r="F128" s="61"/>
-      <c r="G128" s="61"/>
-      <c r="H128" s="61"/>
-      <c r="I128" s="61"/>
-      <c r="J128" s="61"/>
-      <c r="K128" s="78"/>
-      <c r="L128" s="61"/>
-    </row>
-    <row r="129" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A129" s="63"/>
-      <c r="B129" s="63"/>
-      <c r="C129" s="63"/>
-      <c r="D129" s="63"/>
-    </row>
-    <row r="130" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A130" s="99"/>
-      <c r="B130" s="99"/>
-      <c r="C130" s="99"/>
-      <c r="D130" s="99"/>
-      <c r="E130" s="66"/>
-      <c r="F130" s="66"/>
-      <c r="G130" s="66"/>
-      <c r="H130" s="66"/>
-      <c r="I130" s="66"/>
-      <c r="J130" s="66"/>
-      <c r="K130" s="69"/>
-      <c r="L130" s="66"/>
-    </row>
-    <row r="132" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A132" s="66"/>
-      <c r="B132" s="66"/>
-      <c r="C132" s="66"/>
-      <c r="D132" s="66"/>
-      <c r="E132" s="66"/>
-      <c r="F132" s="66"/>
-      <c r="G132" s="66"/>
-      <c r="H132" s="66"/>
-      <c r="I132" s="66"/>
-      <c r="J132" s="66"/>
-      <c r="K132" s="69"/>
-      <c r="L132" s="66"/>
-    </row>
-    <row r="134" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B134" s="72" t="s">
-        <v>72</v>
-      </c>
-      <c r="F134" s="101" t="s">
-        <v>373</v>
-      </c>
-      <c r="J134" s="54" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="135" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A135" s="57" t="s">
-        <v>0</v>
-      </c>
-      <c r="B135" s="57" t="s">
-        <v>73</v>
-      </c>
-      <c r="C135" s="57" t="s">
-        <v>61</v>
-      </c>
-      <c r="E135" s="76" t="s">
-        <v>61</v>
-      </c>
-      <c r="I135" s="76" t="s">
-        <v>75</v>
-      </c>
-      <c r="K135" s="69"/>
-      <c r="L135" s="66"/>
-    </row>
-    <row r="136" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A136" s="76"/>
-      <c r="E136" s="76"/>
-      <c r="I136" s="76" t="s">
-        <v>76</v>
-      </c>
-      <c r="K136" s="69"/>
-      <c r="L136" s="66"/>
-    </row>
-    <row r="137" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A137" s="94"/>
-      <c r="B137" s="66"/>
-      <c r="C137" s="66"/>
-      <c r="D137" s="66"/>
-      <c r="E137" s="94"/>
-      <c r="F137" s="66"/>
-      <c r="G137" s="66"/>
-      <c r="H137" s="66"/>
-      <c r="I137" s="94"/>
-      <c r="J137" s="66"/>
-      <c r="K137" s="69"/>
-      <c r="L137" s="66"/>
-    </row>
-    <row r="138" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A138" s="76"/>
-      <c r="E138" s="76"/>
-      <c r="I138" s="76"/>
-    </row>
-    <row r="139" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A139" s="94"/>
-      <c r="B139" s="66"/>
-      <c r="C139" s="66"/>
-      <c r="D139" s="66"/>
-      <c r="E139" s="94"/>
-      <c r="F139" s="66"/>
-      <c r="G139" s="66"/>
-      <c r="H139" s="66"/>
-      <c r="I139" s="94"/>
-      <c r="J139" s="66"/>
-      <c r="K139" s="69"/>
-      <c r="L139" s="66"/>
-    </row>
-    <row r="140" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A140" s="76"/>
-      <c r="E140" s="76"/>
-      <c r="I140" s="76"/>
-    </row>
-    <row r="141" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A141" s="94"/>
-      <c r="B141" s="66"/>
-      <c r="C141" s="66"/>
-      <c r="D141" s="66"/>
-      <c r="E141" s="94"/>
-      <c r="F141" s="66"/>
-      <c r="G141" s="66"/>
-      <c r="H141" s="66"/>
-      <c r="I141" s="94"/>
-      <c r="J141" s="66"/>
-      <c r="K141" s="69"/>
-      <c r="L141" s="66"/>
-    </row>
-    <row r="143" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A143" s="80" t="s">
-        <v>88</v>
-      </c>
-      <c r="B143" s="80" t="s">
-        <v>89</v>
-      </c>
-      <c r="C143" s="80" t="s">
-        <v>486</v>
-      </c>
-      <c r="D143" s="80" t="s">
-        <v>90</v>
-      </c>
-      <c r="E143" s="80" t="s">
-        <v>91</v>
-      </c>
-      <c r="F143" s="80" t="s">
-        <v>92</v>
-      </c>
-      <c r="G143" s="80" t="s">
-        <v>93</v>
-      </c>
-      <c r="H143" s="80" t="s">
-        <v>87</v>
-      </c>
-      <c r="J143" s="57" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="145" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A145" s="99" t="s">
-        <v>484</v>
-      </c>
-      <c r="B145" s="134" t="s">
-        <v>485</v>
-      </c>
-      <c r="C145" s="134">
-        <v>6</v>
-      </c>
-      <c r="D145" s="134" t="s">
-        <v>492</v>
-      </c>
-      <c r="E145" s="134">
-        <v>0</v>
-      </c>
-      <c r="F145" s="134">
-        <v>0</v>
-      </c>
-      <c r="G145" s="134"/>
-      <c r="H145" s="82" t="s">
-        <v>143</v>
-      </c>
-      <c r="J145" s="66"/>
-      <c r="K145" s="69"/>
-      <c r="L145" s="66"/>
-    </row>
-    <row r="146" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A146" s="99" t="s">
-        <v>487</v>
-      </c>
-      <c r="B146" s="134" t="s">
-        <v>485</v>
-      </c>
-      <c r="C146" s="134">
-        <v>6</v>
-      </c>
-      <c r="D146" s="134">
-        <v>0</v>
-      </c>
-      <c r="E146" s="134">
-        <v>0</v>
-      </c>
-      <c r="F146" s="134">
-        <v>0</v>
-      </c>
-      <c r="G146" s="134"/>
-      <c r="H146" s="82" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="147" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A147" s="99" t="s">
-        <v>489</v>
-      </c>
-      <c r="B147" s="134" t="s">
-        <v>488</v>
-      </c>
-      <c r="C147" s="134">
-        <v>5</v>
-      </c>
-      <c r="D147" s="134">
-        <v>0</v>
-      </c>
-      <c r="E147" s="134">
-        <v>0</v>
-      </c>
-      <c r="F147" s="134">
-        <v>0</v>
-      </c>
-      <c r="G147" s="134"/>
-      <c r="H147" s="82" t="s">
-        <v>142</v>
-      </c>
-      <c r="J147" s="66"/>
-      <c r="K147" s="69"/>
-      <c r="L147" s="66"/>
-    </row>
-    <row r="148" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A148" s="99" t="s">
-        <v>491</v>
-      </c>
-      <c r="B148" s="134">
-        <v>4</v>
-      </c>
-      <c r="C148" s="134">
-        <v>6</v>
-      </c>
-      <c r="D148" s="134">
-        <v>12</v>
-      </c>
-      <c r="E148" s="134">
-        <v>3</v>
-      </c>
-      <c r="F148" s="134">
-        <v>6</v>
-      </c>
-      <c r="G148" s="134" t="s">
-        <v>493</v>
-      </c>
-      <c r="H148" s="82" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="149" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A149" s="99"/>
-      <c r="B149" s="99"/>
-      <c r="C149" s="134"/>
-      <c r="D149" s="134"/>
-      <c r="E149" s="134"/>
-      <c r="F149" s="134"/>
-      <c r="G149" s="99"/>
-      <c r="H149" s="82"/>
-      <c r="J149" s="66"/>
-      <c r="K149" s="69"/>
-      <c r="L149" s="66"/>
-    </row>
-    <row r="150" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A150" s="66"/>
-      <c r="B150" s="66"/>
-      <c r="C150" s="66"/>
-      <c r="D150" s="66"/>
-      <c r="E150" s="66"/>
-      <c r="F150" s="66"/>
-      <c r="G150" s="66"/>
-      <c r="H150" s="66"/>
-      <c r="J150" s="66"/>
-      <c r="K150" s="69"/>
-      <c r="L150" s="66"/>
-    </row>
-    <row r="175" ht="13.8" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="179" ht="13.2" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="180" ht="13.8" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="181" ht="13.8" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="199" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="F199" s="72"/>
-    </row>
-    <row r="201" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A201" s="63"/>
-    </row>
-    <row r="202" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A202" s="63"/>
-    </row>
-    <row r="204" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A204" s="63"/>
-      <c r="C204" s="63"/>
-      <c r="D204" s="63"/>
-      <c r="E204" s="63"/>
-      <c r="F204" s="63"/>
-      <c r="G204" s="63"/>
-      <c r="H204" s="63"/>
-      <c r="I204" s="63"/>
-      <c r="J204" s="63"/>
-      <c r="K204" s="63"/>
-      <c r="L204" s="63"/>
-    </row>
-    <row r="205" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="D205" s="63"/>
-      <c r="E205" s="63"/>
-      <c r="F205" s="63"/>
-      <c r="G205" s="63"/>
-      <c r="H205" s="63"/>
-      <c r="I205" s="63"/>
-      <c r="J205" s="63"/>
-      <c r="K205" s="63"/>
-      <c r="L205" s="63"/>
-    </row>
-    <row r="206" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A206" s="63"/>
-      <c r="B206" s="63"/>
-      <c r="C206" s="63"/>
-      <c r="D206" s="63"/>
-      <c r="E206" s="63"/>
-      <c r="F206" s="63"/>
-      <c r="G206" s="63"/>
-      <c r="H206" s="63"/>
-      <c r="I206" s="63"/>
-      <c r="J206" s="63"/>
-      <c r="K206" s="63"/>
-      <c r="L206" s="63"/>
-    </row>
-    <row r="207" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B207" s="63"/>
-      <c r="C207" s="63"/>
-      <c r="D207" s="63"/>
-      <c r="E207" s="63"/>
-      <c r="F207" s="63"/>
-      <c r="G207" s="63"/>
-      <c r="H207" s="63"/>
-      <c r="I207" s="63"/>
-      <c r="J207" s="63"/>
-      <c r="K207" s="63"/>
-      <c r="L207" s="63"/>
-    </row>
-    <row r="208" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A208" s="63"/>
-      <c r="B208" s="63"/>
-      <c r="C208" s="63"/>
-      <c r="D208" s="63"/>
-      <c r="E208" s="63"/>
-      <c r="F208" s="63"/>
-      <c r="G208" s="63"/>
-      <c r="H208" s="63"/>
-      <c r="I208" s="63"/>
-      <c r="J208" s="63"/>
-      <c r="K208" s="63"/>
-      <c r="L208" s="63"/>
-    </row>
-    <row r="209" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A209" s="63"/>
-      <c r="B209" s="63"/>
-      <c r="C209" s="63"/>
-      <c r="D209" s="63"/>
-      <c r="E209" s="63"/>
-      <c r="F209" s="63"/>
-      <c r="G209" s="63"/>
-      <c r="H209" s="63"/>
-      <c r="I209" s="63"/>
-      <c r="J209" s="63"/>
-      <c r="K209" s="63"/>
-      <c r="L209" s="63"/>
-    </row>
-    <row r="210" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A210" s="63"/>
-      <c r="B210" s="63"/>
-      <c r="C210" s="63"/>
-      <c r="D210" s="63"/>
-      <c r="E210" s="63"/>
-      <c r="F210" s="63"/>
-      <c r="G210" s="63"/>
-      <c r="H210" s="63"/>
-      <c r="I210" s="63"/>
-      <c r="J210" s="63"/>
-      <c r="K210" s="63"/>
-      <c r="L210" s="63"/>
-    </row>
-    <row r="211" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A211" s="63"/>
-      <c r="B211" s="63"/>
-      <c r="C211" s="63"/>
-      <c r="D211" s="63"/>
-      <c r="E211" s="63"/>
-      <c r="F211" s="63"/>
-      <c r="G211" s="63"/>
-      <c r="H211" s="63"/>
-      <c r="I211" s="63"/>
-      <c r="J211" s="63"/>
-      <c r="K211" s="63"/>
-      <c r="L211" s="63"/>
-    </row>
-    <row r="212" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A212" s="63"/>
-      <c r="B212" s="63"/>
-      <c r="C212" s="63"/>
-      <c r="D212" s="63"/>
-      <c r="E212" s="63"/>
-      <c r="F212" s="63"/>
-      <c r="G212" s="63"/>
-      <c r="H212" s="63"/>
-      <c r="I212" s="63"/>
-      <c r="J212" s="63"/>
-      <c r="K212" s="63"/>
-      <c r="L212" s="63"/>
-    </row>
-    <row r="213" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A213" s="63"/>
-      <c r="B213" s="63"/>
-      <c r="C213" s="63"/>
-      <c r="D213" s="63"/>
-      <c r="E213" s="63"/>
-      <c r="F213" s="63"/>
-      <c r="G213" s="63"/>
-      <c r="H213" s="63"/>
-      <c r="I213" s="63"/>
-      <c r="J213" s="63"/>
-      <c r="K213" s="63"/>
-      <c r="L213" s="63"/>
-    </row>
-    <row r="214" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A214" s="72"/>
-      <c r="B214" s="90"/>
-      <c r="J214" s="72"/>
-      <c r="K214" s="57"/>
-    </row>
-    <row r="215" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A215" s="72"/>
-      <c r="B215" s="80"/>
-      <c r="I215" s="80"/>
-      <c r="K215" s="57"/>
-    </row>
-    <row r="216" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A216" s="72"/>
-      <c r="B216" s="80"/>
-      <c r="I216" s="80"/>
-      <c r="K216" s="57"/>
-    </row>
-    <row r="217" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A217" s="72"/>
-      <c r="B217" s="80"/>
-      <c r="I217" s="80"/>
-      <c r="K217" s="57"/>
-    </row>
-    <row r="218" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A218" s="72"/>
-      <c r="B218" s="80"/>
-      <c r="I218" s="80"/>
-      <c r="K218" s="57"/>
-    </row>
-    <row r="219" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A219" s="72"/>
-      <c r="B219" s="80"/>
-      <c r="I219" s="80"/>
-      <c r="K219" s="57"/>
-    </row>
-    <row r="220" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A220" s="72"/>
-      <c r="B220" s="80"/>
-      <c r="I220" s="80"/>
-      <c r="K220" s="57"/>
-    </row>
-    <row r="221" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A221" s="72"/>
-      <c r="B221" s="80"/>
-      <c r="I221" s="80"/>
-      <c r="K221" s="57"/>
-    </row>
-    <row r="222" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A222" s="72"/>
-      <c r="B222" s="80"/>
-      <c r="I222" s="80"/>
-      <c r="K222" s="57"/>
-    </row>
-    <row r="223" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A223" s="72"/>
-      <c r="B223" s="80"/>
-    </row>
-    <row r="224" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A224" s="72"/>
-      <c r="B224" s="80"/>
-    </row>
-    <row r="225" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A225" s="72"/>
-      <c r="B225" s="80"/>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A93:L96"/>
-    <mergeCell ref="A98:L100"/>
-  </mergeCells>
-  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB020AF3-E2AF-4B08-9CF1-A8BB16CCBDFC}">
-  <dimension ref="A1:L225"/>
-  <sheetViews>
-    <sheetView topLeftCell="A71" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="D103" sqref="D103:D104"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="10" width="8" style="57" customWidth="1"/>
-    <col min="11" max="11" width="8" style="54" customWidth="1"/>
-    <col min="12" max="12" width="8" style="57" customWidth="1"/>
-    <col min="13" max="13" width="8.88671875" style="57"/>
-    <col min="14" max="15" width="8.88671875" style="57" customWidth="1"/>
-    <col min="16" max="16384" width="8.88671875" style="57"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:12" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="90" t="s">
-        <v>1010</v>
-      </c>
-      <c r="C1" s="61"/>
-      <c r="D1" s="61"/>
-      <c r="F1" s="75" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="54" t="s">
         <v>1036</v>
       </c>
       <c r="H1" s="151" t="s">
@@ -39690,7 +39653,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{618731C0-8D69-42F5-B683-631FA94DA355}">
   <dimension ref="A1:L225"/>
   <sheetViews>
-    <sheetView topLeftCell="A99" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+    <sheetView topLeftCell="A15" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
       <selection activeCell="D103" sqref="D103:D104"/>
     </sheetView>
   </sheetViews>
@@ -47166,35 +47129,35 @@
       <c r="C3" s="47"/>
       <c r="D3" s="44">
         <f ca="1">RANDBETWEEN(1,10)</f>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E3" s="44">
         <f t="shared" ref="E3:M3" ca="1" si="0">RANDBETWEEN(1,10)</f>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F3" s="44">
         <f t="shared" ca="1" si="0"/>
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="G3" s="44">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="H3" s="44">
         <f t="shared" ca="1" si="0"/>
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="I3" s="44">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J3" s="44">
         <f t="shared" ca="1" si="0"/>
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="K3" s="44">
         <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="L3" s="44">
         <f t="shared" ca="1" si="0"/>
@@ -47233,39 +47196,39 @@
       </c>
       <c r="E5" s="46">
         <f ca="1">IF(E$3&gt;=$B5,1,0)+D5+IF(E$3=1,-1,0)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F5" s="46">
         <f t="shared" ref="F5:M5" ca="1" si="1">IF(F$3&gt;=$B5,1,0)+E5+IF(F$3=1,-1,0)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G5" s="46">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H5" s="46">
         <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I5" s="46">
         <f t="shared" ca="1" si="1"/>
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="J5" s="46">
         <f t="shared" ca="1" si="1"/>
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="K5" s="46">
         <f t="shared" ca="1" si="1"/>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="L5" s="46">
         <f t="shared" ca="1" si="1"/>
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="M5" s="46">
         <f t="shared" ca="1" si="1"/>
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="2:14" x14ac:dyDescent="0.3">
@@ -47279,39 +47242,39 @@
       </c>
       <c r="E6" s="46">
         <f t="shared" ref="E6:M13" ca="1" si="3">IF(E$3&gt;=$B6,1,0)+D6+IF(E$3=1,-1,0)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F6" s="46">
         <f t="shared" ca="1" si="3"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G6" s="46">
         <f t="shared" ca="1" si="3"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H6" s="46">
         <f t="shared" ca="1" si="3"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I6" s="46">
         <f t="shared" ca="1" si="3"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J6" s="46">
         <f t="shared" ca="1" si="3"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K6" s="46">
         <f t="shared" ca="1" si="3"/>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="L6" s="46">
         <f t="shared" ca="1" si="3"/>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M6" s="46">
         <f t="shared" ca="1" si="3"/>
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="2:14" x14ac:dyDescent="0.3">
@@ -47325,39 +47288,39 @@
       </c>
       <c r="E7" s="46">
         <f t="shared" ca="1" si="3"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F7" s="46">
         <f t="shared" ca="1" si="3"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G7" s="46">
         <f t="shared" ca="1" si="3"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H7" s="46">
         <f t="shared" ca="1" si="3"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I7" s="46">
         <f t="shared" ca="1" si="3"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J7" s="46">
         <f t="shared" ca="1" si="3"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K7" s="46">
         <f t="shared" ca="1" si="3"/>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="L7" s="46">
         <f t="shared" ca="1" si="3"/>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M7" s="46">
         <f t="shared" ca="1" si="3"/>
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="2:14" x14ac:dyDescent="0.3">
@@ -47371,39 +47334,39 @@
       </c>
       <c r="E8" s="46">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F8" s="46">
         <f t="shared" ca="1" si="3"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G8" s="46">
         <f t="shared" ca="1" si="3"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H8" s="46">
         <f t="shared" ca="1" si="3"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I8" s="46">
         <f t="shared" ca="1" si="3"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J8" s="46">
         <f t="shared" ca="1" si="3"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K8" s="46">
         <f t="shared" ca="1" si="3"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="L8" s="46">
         <f t="shared" ca="1" si="3"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M8" s="46">
         <f t="shared" ca="1" si="3"/>
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="2:14" x14ac:dyDescent="0.3">
@@ -47417,39 +47380,39 @@
       </c>
       <c r="E9" s="46">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F9" s="46">
         <f t="shared" ca="1" si="3"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G9" s="46">
         <f t="shared" ca="1" si="3"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H9" s="46">
         <f t="shared" ca="1" si="3"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I9" s="46">
         <f t="shared" ca="1" si="3"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J9" s="46">
         <f t="shared" ca="1" si="3"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K9" s="46">
         <f t="shared" ca="1" si="3"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L9" s="46">
         <f t="shared" ca="1" si="3"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M9" s="46">
         <f t="shared" ca="1" si="3"/>
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="2:14" x14ac:dyDescent="0.3">
@@ -47459,7 +47422,7 @@
       <c r="C10" s="47"/>
       <c r="D10" s="46">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E10" s="46">
         <f t="shared" ca="1" si="3"/>
@@ -47467,7 +47430,7 @@
       </c>
       <c r="F10" s="46">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G10" s="46">
         <f t="shared" ca="1" si="3"/>
@@ -47475,27 +47438,27 @@
       </c>
       <c r="H10" s="46">
         <f t="shared" ca="1" si="3"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I10" s="46">
         <f t="shared" ca="1" si="3"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J10" s="46">
         <f t="shared" ca="1" si="3"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K10" s="46">
         <f t="shared" ca="1" si="3"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L10" s="46">
         <f t="shared" ca="1" si="3"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M10" s="46">
         <f t="shared" ca="1" si="3"/>
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="2:14" x14ac:dyDescent="0.3">
@@ -47505,7 +47468,7 @@
       <c r="C11" s="47"/>
       <c r="D11" s="46">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E11" s="46">
         <f t="shared" ca="1" si="3"/>
@@ -47513,7 +47476,7 @@
       </c>
       <c r="F11" s="46">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G11" s="46">
         <f t="shared" ca="1" si="3"/>
@@ -47521,27 +47484,27 @@
       </c>
       <c r="H11" s="46">
         <f t="shared" ca="1" si="3"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I11" s="46">
         <f t="shared" ca="1" si="3"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J11" s="46">
         <f t="shared" ca="1" si="3"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K11" s="46">
         <f t="shared" ca="1" si="3"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L11" s="46">
         <f t="shared" ca="1" si="3"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M11" s="46">
         <f t="shared" ca="1" si="3"/>
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="2:14" x14ac:dyDescent="0.3">
@@ -47551,7 +47514,7 @@
       <c r="C12" s="47"/>
       <c r="D12" s="46">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E12" s="46">
         <f t="shared" ca="1" si="3"/>
@@ -47559,7 +47522,7 @@
       </c>
       <c r="F12" s="46">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G12" s="46">
         <f t="shared" ca="1" si="3"/>
@@ -47567,27 +47530,27 @@
       </c>
       <c r="H12" s="46">
         <f t="shared" ca="1" si="3"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I12" s="46">
         <f t="shared" ca="1" si="3"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J12" s="46">
         <f t="shared" ca="1" si="3"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K12" s="46">
         <f t="shared" ca="1" si="3"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L12" s="46">
         <f t="shared" ca="1" si="3"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M12" s="46">
         <f t="shared" ca="1" si="3"/>
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="2:14" x14ac:dyDescent="0.3">
@@ -47597,7 +47560,7 @@
       <c r="C13" s="47"/>
       <c r="D13" s="46">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E13" s="46">
         <f t="shared" ca="1" si="3"/>
@@ -47613,27 +47576,27 @@
       </c>
       <c r="H13" s="46">
         <f t="shared" ca="1" si="3"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="I13" s="46">
         <f t="shared" ca="1" si="3"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="J13" s="46">
         <f t="shared" ca="1" si="3"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="K13" s="46">
         <f t="shared" ca="1" si="3"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="L13" s="46">
         <f t="shared" ca="1" si="3"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="M13" s="46">
         <f t="shared" ca="1" si="3"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="15" spans="2:14" x14ac:dyDescent="0.3">
@@ -47656,7 +47619,7 @@
       </c>
       <c r="G16" s="49" cm="1">
         <f t="array" aca="1" ref="G16" ca="1">INDIRECT(ADDRESS(E16+3,D16+3,1))</f>
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="4:7" ht="8.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -47672,7 +47635,7 @@
       <c r="F18" s="46"/>
       <c r="G18" s="50" cm="1">
         <f t="array" aca="1" ref="G18" ca="1">INDIRECT(ADDRESS(E18+3,D18+3,1))</f>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="4:7" ht="15.6" x14ac:dyDescent="0.3">
@@ -47685,7 +47648,7 @@
       <c r="F19" s="46"/>
       <c r="G19" s="50" cm="1">
         <f t="array" aca="1" ref="G19" ca="1">INDIRECT(ADDRESS(E19+3,D19+3,1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="4:7" ht="15.6" x14ac:dyDescent="0.3">
@@ -47698,7 +47661,7 @@
       <c r="F20" s="46"/>
       <c r="G20" s="50" cm="1">
         <f t="array" aca="1" ref="G20" ca="1">INDIRECT(ADDRESS(E20+3,D20+3,1))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="4:7" ht="15.6" x14ac:dyDescent="0.3">
@@ -47711,7 +47674,7 @@
       <c r="F21" s="46"/>
       <c r="G21" s="50" cm="1">
         <f t="array" aca="1" ref="G21" ca="1">INDIRECT(ADDRESS(E21+3,D21+3,1))</f>
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="4:7" ht="15.6" x14ac:dyDescent="0.3">
@@ -47724,7 +47687,7 @@
       <c r="F22" s="46"/>
       <c r="G22" s="50" cm="1">
         <f t="array" aca="1" ref="G22" ca="1">INDIRECT(ADDRESS(E22+3,D22+3,1))</f>
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="4:7" ht="15.6" x14ac:dyDescent="0.3">
@@ -47737,7 +47700,7 @@
       <c r="F23" s="46"/>
       <c r="G23" s="50" cm="1">
         <f t="array" aca="1" ref="G23" ca="1">INDIRECT(ADDRESS(E23+3,D23+3,1))</f>
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/Strumenti.xlsx
+++ b/Strumenti.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Public\_Clienti\Maruga\Giochi\Vampiri\Vault\Vampiri\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F1801BF-2FF5-4BF4-BA58-44C80325C23D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7697E92-4897-4AE7-8739-EF232D962609}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11124" yWindow="0" windowWidth="31584" windowHeight="16656" activeTab="11" xr2:uid="{3C69CAEB-EF54-41D7-B74D-5F784B8051C2}"/>
+    <workbookView xWindow="9996" yWindow="504" windowWidth="31584" windowHeight="15228" activeTab="8" xr2:uid="{3C69CAEB-EF54-41D7-B74D-5F784B8051C2}"/>
   </bookViews>
   <sheets>
     <sheet name="_Malkavian" sheetId="19" r:id="rId1"/>
@@ -3686,12 +3686,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="49" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="49" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="164" fontId="49" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3711,6 +3705,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="49" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="49" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="49" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -20672,7 +20672,7 @@
   <dimension ref="A1:L225"/>
   <sheetViews>
     <sheetView zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="C130" sqref="C130"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
@@ -22956,6 +22956,9 @@
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;CEnrico “Bus” Chiti&amp;R&amp;P/&amp;N</oddHeader>
+  </headerFooter>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
@@ -23023,23 +23026,23 @@
       <c r="C3" s="39"/>
       <c r="D3" s="36">
         <f ca="1">RANDBETWEEN(1,10)</f>
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="E3" s="36">
         <f t="shared" ref="E3:M3" ca="1" si="0">RANDBETWEEN(1,10)</f>
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="F3" s="36">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="G3" s="36">
         <f t="shared" ca="1" si="0"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H3" s="36">
         <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="I3" s="36">
         <f t="shared" ca="1" si="0"/>
@@ -23047,7 +23050,7 @@
       </c>
       <c r="J3" s="36">
         <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K3" s="36">
         <f t="shared" ca="1" si="0"/>
@@ -23055,11 +23058,11 @@
       </c>
       <c r="L3" s="36">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M3" s="36">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N3" s="36"/>
     </row>
@@ -23090,39 +23093,39 @@
       </c>
       <c r="E5" s="38">
         <f ca="1">IF(E$3&gt;=$B5,1,0)+D5+IF(E$3=1,-1,0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F5" s="38">
         <f t="shared" ref="F5:M5" ca="1" si="1">IF(F$3&gt;=$B5,1,0)+E5+IF(F$3=1,-1,0)</f>
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="G5" s="38">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H5" s="38">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I5" s="38">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="J5" s="38">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="K5" s="38">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="L5" s="38">
         <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="M5" s="38">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="2:14" x14ac:dyDescent="0.3">
@@ -23136,39 +23139,39 @@
       </c>
       <c r="E6" s="38">
         <f t="shared" ref="E6:M13" ca="1" si="3">IF(E$3&gt;=$B6,1,0)+D6+IF(E$3=1,-1,0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F6" s="38">
         <f t="shared" ca="1" si="3"/>
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="G6" s="38">
         <f t="shared" ca="1" si="3"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H6" s="38">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I6" s="38">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J6" s="38">
         <f t="shared" ca="1" si="3"/>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="K6" s="38">
         <f t="shared" ca="1" si="3"/>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="L6" s="38">
         <f t="shared" ca="1" si="3"/>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="M6" s="38">
         <f t="shared" ca="1" si="3"/>
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="2:14" x14ac:dyDescent="0.3">
@@ -23178,43 +23181,43 @@
       <c r="C7" s="39"/>
       <c r="D7" s="38">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E7" s="38">
         <f t="shared" ca="1" si="3"/>
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="F7" s="38">
         <f t="shared" ca="1" si="3"/>
-        <v>-2</v>
+        <v>3</v>
       </c>
       <c r="G7" s="38">
         <f t="shared" ca="1" si="3"/>
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="H7" s="38">
         <f t="shared" ca="1" si="3"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I7" s="38">
         <f t="shared" ca="1" si="3"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J7" s="38">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="K7" s="38">
         <f t="shared" ca="1" si="3"/>
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="L7" s="38">
         <f t="shared" ca="1" si="3"/>
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="M7" s="38">
         <f t="shared" ca="1" si="3"/>
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="2:14" x14ac:dyDescent="0.3">
@@ -23224,43 +23227,43 @@
       <c r="C8" s="39"/>
       <c r="D8" s="38">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E8" s="38">
         <f t="shared" ca="1" si="3"/>
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="F8" s="38">
         <f t="shared" ca="1" si="3"/>
-        <v>-2</v>
+        <v>3</v>
       </c>
       <c r="G8" s="38">
         <f t="shared" ca="1" si="3"/>
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="H8" s="38">
         <f t="shared" ca="1" si="3"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I8" s="38">
         <f t="shared" ca="1" si="3"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J8" s="38">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="K8" s="38">
         <f t="shared" ca="1" si="3"/>
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="L8" s="38">
         <f t="shared" ca="1" si="3"/>
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="M8" s="38">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="2:14" x14ac:dyDescent="0.3">
@@ -23270,43 +23273,43 @@
       <c r="C9" s="39"/>
       <c r="D9" s="38">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E9" s="38">
         <f t="shared" ca="1" si="3"/>
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="F9" s="38">
         <f t="shared" ca="1" si="3"/>
-        <v>-2</v>
+        <v>3</v>
       </c>
       <c r="G9" s="38">
         <f t="shared" ca="1" si="3"/>
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="H9" s="38">
         <f t="shared" ca="1" si="3"/>
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="I9" s="38">
         <f t="shared" ca="1" si="3"/>
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="J9" s="38">
         <f t="shared" ca="1" si="3"/>
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="K9" s="38">
         <f t="shared" ca="1" si="3"/>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="L9" s="38">
         <f t="shared" ca="1" si="3"/>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="M9" s="38">
         <f t="shared" ca="1" si="3"/>
-        <v>-1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="2:14" x14ac:dyDescent="0.3">
@@ -23316,43 +23319,43 @@
       <c r="C10" s="39"/>
       <c r="D10" s="38">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E10" s="38">
         <f t="shared" ca="1" si="3"/>
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="F10" s="38">
         <f t="shared" ca="1" si="3"/>
-        <v>-2</v>
+        <v>3</v>
       </c>
       <c r="G10" s="38">
         <f t="shared" ca="1" si="3"/>
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="H10" s="38">
         <f t="shared" ca="1" si="3"/>
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="I10" s="38">
         <f t="shared" ca="1" si="3"/>
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="J10" s="38">
         <f t="shared" ca="1" si="3"/>
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="K10" s="38">
         <f t="shared" ca="1" si="3"/>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="L10" s="38">
         <f t="shared" ca="1" si="3"/>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="M10" s="38">
         <f t="shared" ca="1" si="3"/>
-        <v>-1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="2:14" x14ac:dyDescent="0.3">
@@ -23362,43 +23365,43 @@
       <c r="C11" s="39"/>
       <c r="D11" s="38">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E11" s="38">
         <f t="shared" ca="1" si="3"/>
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="F11" s="38">
         <f t="shared" ca="1" si="3"/>
-        <v>-2</v>
+        <v>3</v>
       </c>
       <c r="G11" s="38">
         <f t="shared" ca="1" si="3"/>
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="H11" s="38">
         <f t="shared" ca="1" si="3"/>
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="I11" s="38">
         <f t="shared" ca="1" si="3"/>
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="J11" s="38">
         <f t="shared" ca="1" si="3"/>
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="K11" s="38">
         <f t="shared" ca="1" si="3"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L11" s="38">
         <f t="shared" ca="1" si="3"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="M11" s="38">
         <f t="shared" ca="1" si="3"/>
-        <v>-1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="2:14" x14ac:dyDescent="0.3">
@@ -23412,39 +23415,39 @@
       </c>
       <c r="E12" s="38">
         <f t="shared" ca="1" si="3"/>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="F12" s="38">
         <f t="shared" ca="1" si="3"/>
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="G12" s="38">
         <f t="shared" ca="1" si="3"/>
-        <v>-2</v>
+        <v>1</v>
       </c>
       <c r="H12" s="38">
         <f t="shared" ca="1" si="3"/>
-        <v>-2</v>
+        <v>1</v>
       </c>
       <c r="I12" s="38">
         <f t="shared" ca="1" si="3"/>
-        <v>-2</v>
+        <v>1</v>
       </c>
       <c r="J12" s="38">
         <f t="shared" ca="1" si="3"/>
-        <v>-2</v>
+        <v>1</v>
       </c>
       <c r="K12" s="38">
         <f t="shared" ca="1" si="3"/>
-        <v>-2</v>
+        <v>1</v>
       </c>
       <c r="L12" s="38">
         <f t="shared" ca="1" si="3"/>
-        <v>-2</v>
+        <v>1</v>
       </c>
       <c r="M12" s="38">
         <f t="shared" ca="1" si="3"/>
-        <v>-3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="2:14" x14ac:dyDescent="0.3">
@@ -23458,39 +23461,39 @@
       </c>
       <c r="E13" s="38">
         <f t="shared" ca="1" si="3"/>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="F13" s="38">
         <f t="shared" ca="1" si="3"/>
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="G13" s="38">
         <f t="shared" ca="1" si="3"/>
-        <v>-2</v>
+        <v>1</v>
       </c>
       <c r="H13" s="38">
         <f t="shared" ca="1" si="3"/>
-        <v>-2</v>
+        <v>1</v>
       </c>
       <c r="I13" s="38">
         <f t="shared" ca="1" si="3"/>
-        <v>-2</v>
+        <v>1</v>
       </c>
       <c r="J13" s="38">
         <f t="shared" ca="1" si="3"/>
-        <v>-2</v>
+        <v>1</v>
       </c>
       <c r="K13" s="38">
         <f t="shared" ca="1" si="3"/>
-        <v>-2</v>
+        <v>1</v>
       </c>
       <c r="L13" s="38">
         <f t="shared" ca="1" si="3"/>
-        <v>-2</v>
+        <v>1</v>
       </c>
       <c r="M13" s="38">
         <f t="shared" ca="1" si="3"/>
-        <v>-3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="2:14" x14ac:dyDescent="0.3">
@@ -23513,7 +23516,7 @@
       </c>
       <c r="G16" s="41" cm="1">
         <f t="array" aca="1" ref="G16" ca="1">INDIRECT(ADDRESS(E16+3,D16+3,1))</f>
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="17" spans="4:7" ht="8.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -23529,7 +23532,7 @@
       <c r="F18" s="38"/>
       <c r="G18" s="42" cm="1">
         <f t="array" aca="1" ref="G18" ca="1">INDIRECT(ADDRESS(E18+3,D18+3,1))</f>
-        <v>-1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="19" spans="4:7" ht="15.6" x14ac:dyDescent="0.3">
@@ -23542,7 +23545,7 @@
       <c r="F19" s="38"/>
       <c r="G19" s="42" cm="1">
         <f t="array" aca="1" ref="G19" ca="1">INDIRECT(ADDRESS(E19+3,D19+3,1))</f>
-        <v>-1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="20" spans="4:7" ht="15.6" x14ac:dyDescent="0.3">
@@ -23555,7 +23558,7 @@
       <c r="F20" s="38"/>
       <c r="G20" s="42" cm="1">
         <f t="array" aca="1" ref="G20" ca="1">INDIRECT(ADDRESS(E20+3,D20+3,1))</f>
-        <v>-1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21" spans="4:7" ht="15.6" x14ac:dyDescent="0.3">
@@ -23568,7 +23571,7 @@
       <c r="F21" s="38"/>
       <c r="G21" s="42" cm="1">
         <f t="array" aca="1" ref="G21" ca="1">INDIRECT(ADDRESS(E21+3,D21+3,1))</f>
-        <v>-1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="22" spans="4:7" ht="15.6" x14ac:dyDescent="0.3">
@@ -23581,7 +23584,7 @@
       <c r="F22" s="38"/>
       <c r="G22" s="42" cm="1">
         <f t="array" aca="1" ref="G22" ca="1">INDIRECT(ADDRESS(E22+3,D22+3,1))</f>
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="23" spans="4:7" ht="15.6" x14ac:dyDescent="0.3">
@@ -23594,7 +23597,7 @@
       <c r="F23" s="38"/>
       <c r="G23" s="42" cm="1">
         <f t="array" aca="1" ref="G23" ca="1">INDIRECT(ADDRESS(E23+3,D23+3,1))</f>
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -23843,7 +23846,7 @@
   <sheetPr codeName="Foglio4"/>
   <dimension ref="A1:U31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
@@ -25790,7 +25793,7 @@
   <dimension ref="A1:L225"/>
   <sheetViews>
     <sheetView zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
@@ -27985,6 +27988,9 @@
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;CIrenre Gori&amp;R&amp;P/&amp;N</oddHeader>
+  </headerFooter>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
@@ -27994,7 +28000,7 @@
   <dimension ref="A1:L225"/>
   <sheetViews>
     <sheetView zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="C67" sqref="C67"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
@@ -30193,6 +30199,9 @@
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;CMarta Fioravanti&amp;R&amp;P/&amp;N</oddHeader>
+  </headerFooter>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
@@ -30202,7 +30211,7 @@
   <dimension ref="A1:L225"/>
   <sheetViews>
     <sheetView zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
@@ -32400,6 +32409,9 @@
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;CSofia "Rusty" Rinaldi&amp;R&amp;P/&amp;N</oddHeader>
+  </headerFooter>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
@@ -32409,7 +32421,7 @@
   <dimension ref="A1:L225"/>
   <sheetViews>
     <sheetView zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
@@ -34610,6 +34622,9 @@
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;CMatteo Bechara&amp;R&amp;P/&amp;N</oddHeader>
+  </headerFooter>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
@@ -34619,7 +34634,7 @@
   <dimension ref="A1:L225"/>
   <sheetViews>
     <sheetView zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
@@ -36813,6 +36828,9 @@
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;CPaolo Venturi&amp;R&amp;P/&amp;N</oddHeader>
+  </headerFooter>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
@@ -41005,7 +41023,7 @@
   </sheetPr>
   <dimension ref="A1:S61"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="U9" sqref="U9"/>
     </sheetView>
   </sheetViews>
@@ -41020,42 +41038,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="18.600000000000001" x14ac:dyDescent="0.4">
-      <c r="A1" s="219" t="s">
+      <c r="A1" s="217" t="s">
         <v>390</v>
       </c>
-      <c r="B1" s="219"/>
-      <c r="C1" s="219"/>
-      <c r="D1" s="219"/>
-      <c r="E1" s="219"/>
-      <c r="F1" s="219"/>
-      <c r="G1" s="219"/>
-      <c r="H1" s="219"/>
-      <c r="I1" s="219"/>
-      <c r="J1" s="220">
+      <c r="B1" s="217"/>
+      <c r="C1" s="217"/>
+      <c r="D1" s="217"/>
+      <c r="E1" s="217"/>
+      <c r="F1" s="217"/>
+      <c r="G1" s="217"/>
+      <c r="H1" s="217"/>
+      <c r="I1" s="217"/>
+      <c r="J1" s="218">
         <f>C7</f>
         <v>0.8125</v>
       </c>
-      <c r="K1" s="221"/>
-      <c r="L1" s="213">
+      <c r="K1" s="219"/>
+      <c r="L1" s="220">
         <f>C8</f>
         <v>0.83333333333333337</v>
       </c>
-      <c r="M1" s="221"/>
-      <c r="N1" s="213">
+      <c r="M1" s="219"/>
+      <c r="N1" s="220">
         <f>C9</f>
         <v>0.85416666666666674</v>
       </c>
-      <c r="O1" s="221"/>
-      <c r="P1" s="213">
+      <c r="O1" s="219"/>
+      <c r="P1" s="220">
         <f>C10</f>
         <v>0.87500000000000011</v>
       </c>
-      <c r="Q1" s="221"/>
-      <c r="R1" s="213">
+      <c r="Q1" s="219"/>
+      <c r="R1" s="220">
         <f>C11</f>
         <v>0.89583333333333348</v>
       </c>
-      <c r="S1" s="214"/>
+      <c r="S1" s="221"/>
     </row>
     <row r="2" spans="1:19" ht="18.600000000000001" x14ac:dyDescent="0.4">
       <c r="J2" s="176"/>
@@ -41138,31 +41156,31 @@
       <c r="F6" s="4" t="s">
         <v>389</v>
       </c>
-      <c r="J6" s="215">
+      <c r="J6" s="213">
         <f>C12</f>
         <v>0.91666666666666685</v>
       </c>
-      <c r="K6" s="216"/>
-      <c r="L6" s="217">
+      <c r="K6" s="214"/>
+      <c r="L6" s="215">
         <f>C13</f>
         <v>0.93750000000000022</v>
       </c>
-      <c r="M6" s="216"/>
-      <c r="N6" s="217">
+      <c r="M6" s="214"/>
+      <c r="N6" s="215">
         <f>C14</f>
         <v>0.95833333333333359</v>
       </c>
-      <c r="O6" s="216"/>
-      <c r="P6" s="217">
+      <c r="O6" s="214"/>
+      <c r="P6" s="215">
         <f>C15</f>
         <v>0.97916666666666696</v>
       </c>
-      <c r="Q6" s="216"/>
-      <c r="R6" s="217">
+      <c r="Q6" s="214"/>
+      <c r="R6" s="215">
         <f>C16</f>
         <v>1.0000000000000002</v>
       </c>
-      <c r="S6" s="218"/>
+      <c r="S6" s="216"/>
     </row>
     <row r="7" spans="1:19" ht="18.600000000000001" x14ac:dyDescent="0.4">
       <c r="A7" s="4" t="s">
@@ -41300,31 +41318,31 @@
       <c r="F11" s="4" t="s">
         <v>385</v>
       </c>
-      <c r="J11" s="215">
+      <c r="J11" s="213">
         <f>C17</f>
         <v>1.0208333333333335</v>
       </c>
-      <c r="K11" s="216"/>
-      <c r="L11" s="217">
+      <c r="K11" s="214"/>
+      <c r="L11" s="215">
         <f>C18</f>
         <v>1.0416666666666667</v>
       </c>
-      <c r="M11" s="216"/>
-      <c r="N11" s="217">
+      <c r="M11" s="214"/>
+      <c r="N11" s="215">
         <f>C19</f>
         <v>1.0625</v>
       </c>
-      <c r="O11" s="216"/>
-      <c r="P11" s="217">
+      <c r="O11" s="214"/>
+      <c r="P11" s="215">
         <f>C20</f>
         <v>1.0833333333333333</v>
       </c>
-      <c r="Q11" s="216"/>
-      <c r="R11" s="217">
+      <c r="Q11" s="214"/>
+      <c r="R11" s="215">
         <f>C21</f>
         <v>1.1041666666666665</v>
       </c>
-      <c r="S11" s="218"/>
+      <c r="S11" s="216"/>
     </row>
     <row r="12" spans="1:19" ht="18.600000000000001" x14ac:dyDescent="0.4">
       <c r="B12" s="173">
@@ -41454,31 +41472,31 @@
       <c r="E16" s="3" t="s">
         <v>375</v>
       </c>
-      <c r="J16" s="215">
+      <c r="J16" s="213">
         <f>C22</f>
         <v>1.1249999999999998</v>
       </c>
-      <c r="K16" s="216"/>
-      <c r="L16" s="217">
+      <c r="K16" s="214"/>
+      <c r="L16" s="215">
         <f>C23</f>
         <v>1.145833333333333</v>
       </c>
-      <c r="M16" s="216"/>
-      <c r="N16" s="217">
+      <c r="M16" s="214"/>
+      <c r="N16" s="215">
         <f>C24</f>
         <v>1.1666666666666663</v>
       </c>
-      <c r="O16" s="216"/>
-      <c r="P16" s="217">
+      <c r="O16" s="214"/>
+      <c r="P16" s="215">
         <f>C25</f>
         <v>1.1874999999999996</v>
       </c>
-      <c r="Q16" s="216"/>
-      <c r="R16" s="217">
+      <c r="Q16" s="214"/>
+      <c r="R16" s="215">
         <f>C26</f>
         <v>1.2083333333333328</v>
       </c>
-      <c r="S16" s="218"/>
+      <c r="S16" s="216"/>
     </row>
     <row r="17" spans="1:19" ht="18.600000000000001" x14ac:dyDescent="0.4">
       <c r="B17" s="173">
@@ -41614,31 +41632,31 @@
       <c r="F21" s="4" t="s">
         <v>387</v>
       </c>
-      <c r="J21" s="215">
+      <c r="J21" s="213">
         <f>C27</f>
         <v>1.2291666666666661</v>
       </c>
-      <c r="K21" s="216"/>
-      <c r="L21" s="217">
+      <c r="K21" s="214"/>
+      <c r="L21" s="215">
         <f>C28</f>
         <v>1.2499999999999993</v>
       </c>
-      <c r="M21" s="216"/>
-      <c r="N21" s="217">
+      <c r="M21" s="214"/>
+      <c r="N21" s="215">
         <f>C29</f>
         <v>1.2708333333333326</v>
       </c>
-      <c r="O21" s="216"/>
-      <c r="P21" s="217">
+      <c r="O21" s="214"/>
+      <c r="P21" s="215">
         <f>C30</f>
         <v>1.2916666666666659</v>
       </c>
-      <c r="Q21" s="216"/>
-      <c r="R21" s="217">
+      <c r="Q21" s="214"/>
+      <c r="R21" s="215">
         <f>C31</f>
         <v>1.3124999999999991</v>
       </c>
-      <c r="S21" s="218"/>
+      <c r="S21" s="216"/>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B22" s="173">
@@ -42367,11 +42385,18 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="J21:K21"/>
-    <mergeCell ref="L21:M21"/>
-    <mergeCell ref="N21:O21"/>
-    <mergeCell ref="P21:Q21"/>
-    <mergeCell ref="R21:S21"/>
+    <mergeCell ref="R1:S1"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="N6:O6"/>
+    <mergeCell ref="P6:Q6"/>
+    <mergeCell ref="R6:S6"/>
+    <mergeCell ref="R11:S11"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="N16:O16"/>
+    <mergeCell ref="P16:Q16"/>
+    <mergeCell ref="R16:S16"/>
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="J11:K11"/>
     <mergeCell ref="L11:M11"/>
@@ -42381,18 +42406,11 @@
     <mergeCell ref="L1:M1"/>
     <mergeCell ref="N1:O1"/>
     <mergeCell ref="P1:Q1"/>
-    <mergeCell ref="R11:S11"/>
-    <mergeCell ref="J16:K16"/>
-    <mergeCell ref="L16:M16"/>
-    <mergeCell ref="N16:O16"/>
-    <mergeCell ref="P16:Q16"/>
-    <mergeCell ref="R16:S16"/>
-    <mergeCell ref="R1:S1"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="L6:M6"/>
-    <mergeCell ref="N6:O6"/>
-    <mergeCell ref="P6:Q6"/>
-    <mergeCell ref="R6:S6"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="N21:O21"/>
+    <mergeCell ref="P21:Q21"/>
+    <mergeCell ref="R21:S21"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
